--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9D6649-C583-4E8A-A58D-EA3DE378367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010F0CF-1720-45DA-9479-E2DA98380F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5487,54 +5487,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5543,10 +5528,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5955,7 +5955,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="236" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="235" t="s">
@@ -5969,12 +5969,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="237"/>
+      <c r="A2" s="236"/>
       <c r="B2" s="235"/>
       <c r="C2" s="235"/>
     </row>
     <row r="3" spans="1:4" ht="12.85" customHeight="1">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="237" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -5985,7 +5985,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="236"/>
+      <c r="A4" s="237"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +5997,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="236"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
@@ -6009,7 +6009,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="236"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -6033,7 +6033,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
@@ -6864,15 +6864,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A27"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="238"/>
+      <c r="D15" s="239"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="238"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="238"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="238"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="238"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="238"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="238"/>
+      <c r="D41" s="239"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="238"/>
+      <c r="D42" s="239"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="238"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="238"/>
+      <c r="D44" s="239"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="238"/>
+      <c r="D45" s="239"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="238"/>
+      <c r="D46" s="239"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="239" t="s">
+      <c r="B47" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="239"/>
+      <c r="C47" s="238"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="238"/>
+      <c r="D71" s="239"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="238"/>
+      <c r="D72" s="239"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="238"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="238"/>
+      <c r="D74" s="239"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="238"/>
+      <c r="D75" s="239"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="239" t="s">
+      <c r="B77" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="239"/>
+      <c r="C77" s="238"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="238"/>
+      <c r="D99" s="239"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="238"/>
+      <c r="D100" s="239"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="238"/>
+      <c r="D101" s="239"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="238"/>
+      <c r="D102" s="239"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="238"/>
+      <c r="D103" s="239"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="239" t="s">
+      <c r="B105" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="239"/>
+      <c r="C105" s="238"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="238"/>
+      <c r="D128" s="239"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="238"/>
+      <c r="D129" s="239"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="238"/>
+      <c r="D130" s="239"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="238"/>
+      <c r="D131" s="239"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="238"/>
+      <c r="D132" s="239"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="239" t="s">
+      <c r="B134" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="239"/>
+      <c r="C134" s="238"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="238"/>
+      <c r="D158" s="239"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="238"/>
+      <c r="D159" s="239"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="238"/>
+      <c r="D160" s="239"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="238"/>
+      <c r="D161" s="239"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="238"/>
+      <c r="D162" s="239"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="239" t="s">
+      <c r="B164" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="239"/>
+      <c r="C164" s="238"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="238"/>
+      <c r="D179" s="239"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="238"/>
+      <c r="D180" s="239"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="238"/>
+      <c r="D181" s="239"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="238"/>
+      <c r="D182" s="239"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="238"/>
+      <c r="D183" s="239"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="238"/>
+      <c r="D184" s="239"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="239" t="s">
+      <c r="B185" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="239"/>
+      <c r="C185" s="238"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="238"/>
+      <c r="D201" s="239"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="238"/>
+      <c r="D202" s="239"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="238"/>
+      <c r="D203" s="239"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="238"/>
+      <c r="D204" s="239"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="238"/>
+      <c r="D205" s="239"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="238"/>
+      <c r="D206" s="239"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="239" t="s">
+      <c r="B207" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="239"/>
+      <c r="C207" s="238"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="238"/>
+      <c r="D242" s="239"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="238"/>
+      <c r="D243" s="239"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="238"/>
+      <c r="D244" s="239"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="238"/>
+      <c r="D245" s="239"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="238"/>
+      <c r="D246" s="239"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="239" t="s">
+      <c r="B248" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="239"/>
+      <c r="C248" s="238"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="238"/>
+      <c r="D278" s="239"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="238"/>
+      <c r="D279" s="239"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="238"/>
+      <c r="D280" s="239"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="238"/>
+      <c r="D281" s="239"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="238"/>
+      <c r="D282" s="239"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="239" t="s">
+      <c r="B284" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="239"/>
+      <c r="C284" s="238"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="238"/>
+      <c r="D304" s="239"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="238"/>
+      <c r="D305" s="239"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="238"/>
+      <c r="D306" s="239"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="238"/>
+      <c r="D307" s="239"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="238"/>
+      <c r="D308" s="239"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="239" t="s">
+      <c r="B310" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="239"/>
+      <c r="C310" s="238"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="238"/>
+      <c r="D327" s="239"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="238"/>
+      <c r="D328" s="239"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="238"/>
+      <c r="D329" s="239"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="238"/>
+      <c r="D330" s="239"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="238"/>
+      <c r="D331" s="239"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="239" t="s">
+      <c r="B333" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="239"/>
+      <c r="C333" s="238"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="238"/>
+      <c r="D349" s="239"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="238"/>
+      <c r="D350" s="239"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="238"/>
+      <c r="D351" s="239"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="238"/>
+      <c r="D352" s="239"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="238"/>
+      <c r="D353" s="239"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="239" t="s">
+      <c r="B355" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="239"/>
+      <c r="C355" s="238"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="238"/>
+      <c r="D383" s="239"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="238"/>
+      <c r="D384" s="239"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="238"/>
+      <c r="D385" s="239"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="238"/>
+      <c r="D386" s="239"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="238"/>
+      <c r="D387" s="239"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="239" t="s">
+      <c r="B389" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="239"/>
+      <c r="C389" s="238"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="238"/>
+      <c r="D418" s="239"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="238"/>
+      <c r="D419" s="239"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="238"/>
+      <c r="D420" s="239"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="238"/>
+      <c r="D421" s="239"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="238"/>
+      <c r="D422" s="239"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="239" t="s">
+      <c r="B424" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="239"/>
+      <c r="C424" s="238"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="239" t="s">
+      <c r="B451" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="239"/>
+      <c r="C451" s="238"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="238"/>
+      <c r="D469" s="239"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="238"/>
+      <c r="D470" s="239"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="238"/>
+      <c r="D471" s="239"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="238"/>
+      <c r="D472" s="239"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="238"/>
+      <c r="D473" s="239"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="239" t="s">
+      <c r="B475" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="239"/>
+      <c r="C475" s="238"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="238"/>
+      <c r="D494" s="239"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="238"/>
+      <c r="D495" s="239"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="238"/>
+      <c r="D496" s="239"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="238"/>
+      <c r="D497" s="239"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="238"/>
+      <c r="D498" s="239"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="239" t="s">
+      <c r="B500" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="239"/>
+      <c r="C500" s="238"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="238"/>
+      <c r="D519" s="239"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="238"/>
+      <c r="D520" s="239"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="238"/>
+      <c r="D521" s="239"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="238"/>
+      <c r="D522" s="239"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="238"/>
+      <c r="D523" s="239"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="239" t="s">
+      <c r="B525" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="239"/>
+      <c r="C525" s="238"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="238"/>
+      <c r="D547" s="239"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="238"/>
+      <c r="D548" s="239"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="238"/>
+      <c r="D549" s="239"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="238"/>
+      <c r="D550" s="239"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="238"/>
+      <c r="D551" s="239"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="239" t="s">
+      <c r="B553" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="239"/>
+      <c r="C553" s="238"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="238"/>
+      <c r="D580" s="239"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="238"/>
+      <c r="D581" s="239"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="238"/>
+      <c r="D582" s="239"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="238"/>
+      <c r="D583" s="239"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="238"/>
+      <c r="D584" s="239"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="239" t="s">
+      <c r="B586" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="239"/>
+      <c r="C586" s="238"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="238"/>
+      <c r="D608" s="239"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="238"/>
+      <c r="D609" s="239"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="238"/>
+      <c r="D610" s="239"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="238"/>
+      <c r="D611" s="239"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="238"/>
+      <c r="D612" s="239"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="239" t="s">
+      <c r="B614" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="239"/>
+      <c r="C614" s="238"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="239" t="s">
+      <c r="B637" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="239"/>
+      <c r="C637" s="238"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="239" t="s">
+      <c r="B660" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="239"/>
+      <c r="C660" s="238"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="239" t="s">
+      <c r="B683" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="239"/>
+      <c r="C683" s="238"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="239" t="s">
+      <c r="B711" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="239"/>
+      <c r="C711" s="238"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="238"/>
+      <c r="D729" s="239"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="238"/>
+      <c r="D730" s="239"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="238"/>
+      <c r="D731" s="239"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="238"/>
+      <c r="D732" s="239"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="238"/>
+      <c r="D733" s="239"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="239" t="s">
+      <c r="B735" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="239"/>
+      <c r="C735" s="238"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="238"/>
+      <c r="D756" s="239"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="238"/>
+      <c r="D757" s="239"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="238"/>
+      <c r="D758" s="239"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="238"/>
+      <c r="D759" s="239"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="238"/>
+      <c r="D760" s="239"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="239" t="s">
+      <c r="B762" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="239"/>
+      <c r="C762" s="238"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="239" t="s">
+      <c r="B789" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="239"/>
+      <c r="C789" s="238"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="239" t="s">
+      <c r="B816" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="239"/>
+      <c r="C816" s="238"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="238"/>
+      <c r="D839" s="239"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="238"/>
+      <c r="D840" s="239"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="238"/>
+      <c r="D841" s="239"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="238"/>
+      <c r="D842" s="239"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="238"/>
+      <c r="D843" s="239"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="238"/>
+      <c r="D844" s="239"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="239" t="s">
+      <c r="B845" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="239"/>
+      <c r="C845" s="238"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="239" t="s">
+      <c r="B876" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="239"/>
+      <c r="C876" s="238"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="239" t="s">
+      <c r="B907" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="239"/>
+      <c r="C907" s="238"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="239" t="s">
+      <c r="B931" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="239"/>
+      <c r="C931" s="238"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="239" t="s">
+      <c r="B958" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="239"/>
+      <c r="C958" s="238"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="239" t="s">
+      <c r="B981" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="239"/>
+      <c r="C981" s="238"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="239" t="s">
+      <c r="B1005" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="239"/>
+      <c r="C1005" s="238"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="239" t="s">
+      <c r="B1024" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="239"/>
+      <c r="C1024" s="238"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="238"/>
+      <c r="D1042" s="239"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="238"/>
+      <c r="D1043" s="239"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="238"/>
+      <c r="D1044" s="239"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="238"/>
+      <c r="D1045" s="239"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="238"/>
+      <c r="D1046" s="239"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="239" t="s">
+      <c r="B1048" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="239"/>
+      <c r="C1048" s="238"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="239" t="s">
+      <c r="B1070" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="239"/>
+      <c r="C1070" s="238"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="238"/>
+      <c r="D1089" s="239"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="238"/>
+      <c r="D1090" s="239"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="238"/>
+      <c r="D1091" s="239"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="238"/>
+      <c r="D1092" s="239"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="238"/>
+      <c r="D1093" s="239"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="239" t="s">
+      <c r="B1095" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="239"/>
+      <c r="C1095" s="238"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="238"/>
+      <c r="D1120" s="239"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="238"/>
+      <c r="D1121" s="239"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="238"/>
+      <c r="D1122" s="239"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="238"/>
+      <c r="D1123" s="239"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="238"/>
+      <c r="D1124" s="239"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="239" t="s">
+      <c r="B1126" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="239"/>
+      <c r="C1126" s="238"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="239" t="s">
+      <c r="B1155" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="239"/>
+      <c r="C1155" s="238"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="241"/>
+      <c r="D43" s="242"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="241"/>
+      <c r="D44" s="242"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="241"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="241"/>
+      <c r="D46" s="242"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="241"/>
+      <c r="D47" s="242"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="241"/>
+      <c r="D48" s="242"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="239" t="s">
+      <c r="B49" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="239"/>
+      <c r="C49" s="238"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="242" t="s">
+      <c r="E68" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="242"/>
+      <c r="F68" s="244"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="241"/>
+      <c r="D74" s="242"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="241"/>
+      <c r="D75" s="242"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="241"/>
+      <c r="D76" s="242"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="241"/>
+      <c r="D77" s="242"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="241"/>
+      <c r="D78" s="242"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="239" t="s">
+      <c r="B80" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="239"/>
+      <c r="C80" s="238"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="243" t="s">
+      <c r="B107" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="243"/>
+      <c r="C107" s="241"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="239" t="s">
+      <c r="B137" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="239"/>
+      <c r="C137" s="238"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="239" t="s">
+      <c r="B167" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="239"/>
+      <c r="C167" s="238"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="239" t="s">
+      <c r="B189" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="239"/>
+      <c r="C189" s="238"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="239" t="s">
+      <c r="B212" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="239"/>
+      <c r="C212" s="238"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="239" t="s">
+      <c r="B249" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="239"/>
+      <c r="C249" s="238"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="241"/>
+      <c r="D285" s="242"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="241"/>
+      <c r="D286" s="242"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="241"/>
+      <c r="D287" s="242"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="241"/>
+      <c r="D288" s="242"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="241"/>
+      <c r="D289" s="242"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="244" t="s">
+      <c r="B291" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="244"/>
+      <c r="C291" s="243"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="241"/>
+      <c r="D314" s="242"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="241"/>
+      <c r="D315" s="242"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="241"/>
+      <c r="D316" s="242"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="241"/>
+      <c r="D317" s="242"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="241"/>
+      <c r="D318" s="242"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="239" t="s">
+      <c r="B320" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="239"/>
+      <c r="C320" s="238"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="241"/>
+      <c r="D339" s="242"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="241"/>
+      <c r="D340" s="242"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="241"/>
+      <c r="D341" s="242"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="241"/>
+      <c r="D342" s="242"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="241"/>
+      <c r="D343" s="242"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="239" t="s">
+      <c r="B345" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="239"/>
+      <c r="C345" s="238"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="241"/>
+      <c r="D363" s="242"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="241"/>
+      <c r="D364" s="242"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="241"/>
+      <c r="D365" s="242"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="241"/>
+      <c r="D366" s="242"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="241"/>
+      <c r="D367" s="242"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="239" t="s">
+      <c r="B369" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="239"/>
+      <c r="C369" s="238"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="239" t="s">
+      <c r="B403" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="239"/>
+      <c r="C403" s="238"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="239" t="s">
+      <c r="B439" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="239"/>
+      <c r="C439" s="238"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="239" t="s">
+      <c r="B467" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="239"/>
+      <c r="C467" s="238"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="239" t="s">
+      <c r="B493" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="239"/>
+      <c r="C493" s="238"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="239" t="s">
+      <c r="B520" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="239"/>
+      <c r="C520" s="238"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="239" t="s">
+      <c r="B547" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="239"/>
+      <c r="C547" s="238"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="239" t="s">
+      <c r="B577" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="239"/>
+      <c r="C577" s="238"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="239" t="s">
+      <c r="B612" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="239"/>
+      <c r="C612" s="238"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="239" t="s">
+      <c r="B641" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="239"/>
+      <c r="C641" s="238"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="243" t="s">
+      <c r="B665" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="243"/>
+      <c r="C665" s="241"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="239" t="s">
+      <c r="B691" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="239"/>
+      <c r="C691" s="238"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="239" t="s">
+      <c r="B715" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="239"/>
+      <c r="C715" s="238"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="239" t="s">
+      <c r="B744" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="239"/>
+      <c r="C744" s="238"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="239" t="s">
+      <c r="B771" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="239"/>
+      <c r="C771" s="238"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="239" t="s">
+      <c r="B800" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="239"/>
+      <c r="C800" s="238"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="239" t="s">
+      <c r="B829" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="239"/>
+      <c r="C829" s="238"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="239" t="s">
+      <c r="B858" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="239"/>
+      <c r="C858" s="238"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="239" t="s">
+      <c r="B890" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="239"/>
+      <c r="C890" s="238"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="239" t="s">
+      <c r="B922" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="239"/>
+      <c r="C922" s="238"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="239" t="s">
+      <c r="B954" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="239"/>
+      <c r="C954" s="238"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="239" t="s">
+      <c r="B980" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="239"/>
+      <c r="C980" s="238"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="239" t="s">
+      <c r="B1009" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="239"/>
+      <c r="C1009" s="238"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="239" t="s">
+      <c r="B1034" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="239"/>
+      <c r="C1034" s="238"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="239" t="s">
+      <c r="B1059" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="239"/>
+      <c r="C1059" s="238"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="239" t="s">
+      <c r="B1080" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="239"/>
+      <c r="C1080" s="238"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="239" t="s">
+      <c r="B1107" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="239"/>
+      <c r="C1107" s="238"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="239" t="s">
+      <c r="B1131" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="239"/>
+      <c r="C1131" s="238"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="239" t="s">
+      <c r="B1158" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="239"/>
+      <c r="C1158" s="238"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="239" t="s">
+      <c r="B1190" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="239"/>
+      <c r="C1190" s="238"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="239" t="s">
+      <c r="B1223" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="239"/>
+      <c r="C1223" s="238"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,6 +38142,51 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38150,51 +38195,6 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="245" t="s">
+      <c r="E2" s="254" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="245"/>
+      <c r="F2" s="254"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="255" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="247" t="s">
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="250" t="s">
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="256" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="249" t="s">
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249" t="s">
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249" t="s">
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="251" t="s">
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="257" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="252" t="s">
+      <c r="T5" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="252"/>
+      <c r="T6" s="245"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253" t="s">
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="253"/>
-      <c r="M23" s="253"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253"/>
-      <c r="R23" s="253"/>
-      <c r="S23" s="253"/>
-      <c r="T23" s="253"/>
-      <c r="U23" s="253"/>
-      <c r="V23" s="253"/>
-      <c r="W23" s="253"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249" t="s">
+      <c r="C24" s="247"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="254" t="s">
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="249" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="254"/>
-      <c r="J24" s="254"/>
-      <c r="K24" s="249" t="s">
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
-      <c r="N24" s="249" t="s">
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="249"/>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="249" t="s">
+      <c r="O24" s="248"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="249"/>
-      <c r="S24" s="249"/>
-      <c r="T24" s="255" t="s">
+      <c r="R24" s="248"/>
+      <c r="S24" s="248"/>
+      <c r="T24" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="255"/>
-      <c r="V24" s="255"/>
-      <c r="W24" s="255"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="250"/>
+      <c r="W24" s="250"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="252" t="s">
+      <c r="T25" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="252"/>
+      <c r="T26" s="245"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="253"/>
-      <c r="F44" s="253"/>
-      <c r="G44" s="253"/>
-      <c r="H44" s="253"/>
-      <c r="I44" s="253"/>
-      <c r="J44" s="253"/>
-      <c r="K44" s="253" t="s">
+      <c r="C44" s="246"/>
+      <c r="D44" s="246"/>
+      <c r="E44" s="246"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="246"/>
+      <c r="H44" s="246"/>
+      <c r="I44" s="246"/>
+      <c r="J44" s="246"/>
+      <c r="K44" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="253"/>
-      <c r="M44" s="253"/>
-      <c r="N44" s="253"/>
-      <c r="O44" s="253"/>
-      <c r="P44" s="253"/>
-      <c r="Q44" s="253"/>
-      <c r="R44" s="253"/>
-      <c r="S44" s="253"/>
-      <c r="T44" s="253"/>
-      <c r="U44" s="253"/>
-      <c r="V44" s="253"/>
-      <c r="W44" s="253"/>
+      <c r="L44" s="246"/>
+      <c r="M44" s="246"/>
+      <c r="N44" s="246"/>
+      <c r="O44" s="246"/>
+      <c r="P44" s="246"/>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="246"/>
+      <c r="S44" s="246"/>
+      <c r="T44" s="246"/>
+      <c r="U44" s="246"/>
+      <c r="V44" s="246"/>
+      <c r="W44" s="246"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="248" t="s">
+      <c r="B45" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="249" t="s">
+      <c r="C45" s="247"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="254" t="s">
+      <c r="F45" s="248"/>
+      <c r="G45" s="248"/>
+      <c r="H45" s="249" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="254"/>
-      <c r="J45" s="254"/>
-      <c r="K45" s="249" t="s">
+      <c r="I45" s="249"/>
+      <c r="J45" s="249"/>
+      <c r="K45" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249" t="s">
+      <c r="L45" s="248"/>
+      <c r="M45" s="248"/>
+      <c r="N45" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249" t="s">
+      <c r="O45" s="248"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="256" t="s">
+      <c r="R45" s="248"/>
+      <c r="S45" s="248"/>
+      <c r="T45" s="253" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="256"/>
-      <c r="V45" s="256"/>
-      <c r="W45" s="256"/>
+      <c r="U45" s="253"/>
+      <c r="V45" s="253"/>
+      <c r="W45" s="253"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="257" t="s">
+      <c r="T46" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="257"/>
+      <c r="T47" s="252"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="253" t="s">
+      <c r="B62" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="253"/>
-      <c r="J62" s="253"/>
-      <c r="K62" s="253" t="s">
+      <c r="C62" s="246"/>
+      <c r="D62" s="246"/>
+      <c r="E62" s="246"/>
+      <c r="F62" s="246"/>
+      <c r="G62" s="246"/>
+      <c r="H62" s="246"/>
+      <c r="I62" s="246"/>
+      <c r="J62" s="246"/>
+      <c r="K62" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="253"/>
-      <c r="M62" s="253"/>
-      <c r="N62" s="253"/>
-      <c r="O62" s="253"/>
-      <c r="P62" s="253"/>
-      <c r="Q62" s="253"/>
-      <c r="R62" s="253"/>
-      <c r="S62" s="253"/>
-      <c r="T62" s="253"/>
-      <c r="U62" s="253"/>
-      <c r="V62" s="253"/>
-      <c r="W62" s="253"/>
+      <c r="L62" s="246"/>
+      <c r="M62" s="246"/>
+      <c r="N62" s="246"/>
+      <c r="O62" s="246"/>
+      <c r="P62" s="246"/>
+      <c r="Q62" s="246"/>
+      <c r="R62" s="246"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="246"/>
+      <c r="U62" s="246"/>
+      <c r="V62" s="246"/>
+      <c r="W62" s="246"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="248"/>
-      <c r="D63" s="248"/>
-      <c r="E63" s="249" t="s">
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="248" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="254" t="s">
+      <c r="F63" s="248"/>
+      <c r="G63" s="248"/>
+      <c r="H63" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="254"/>
-      <c r="J63" s="254"/>
-      <c r="K63" s="249" t="s">
+      <c r="I63" s="249"/>
+      <c r="J63" s="249"/>
+      <c r="K63" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="249"/>
-      <c r="M63" s="249"/>
-      <c r="N63" s="249" t="s">
+      <c r="L63" s="248"/>
+      <c r="M63" s="248"/>
+      <c r="N63" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="249"/>
-      <c r="P63" s="249"/>
-      <c r="Q63" s="249" t="s">
+      <c r="O63" s="248"/>
+      <c r="P63" s="248"/>
+      <c r="Q63" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="249"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="255" t="s">
+      <c r="R63" s="248"/>
+      <c r="S63" s="248"/>
+      <c r="T63" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="255"/>
-      <c r="V63" s="255"/>
-      <c r="W63" s="255"/>
+      <c r="U63" s="250"/>
+      <c r="V63" s="250"/>
+      <c r="W63" s="250"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="252" t="s">
+      <c r="T64" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="252"/>
+      <c r="T65" s="245"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="253" t="s">
+      <c r="B85" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="253"/>
-      <c r="D85" s="253"/>
-      <c r="E85" s="253"/>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
-      <c r="H85" s="253"/>
-      <c r="I85" s="253"/>
-      <c r="J85" s="253"/>
-      <c r="K85" s="253" t="s">
+      <c r="C85" s="246"/>
+      <c r="D85" s="246"/>
+      <c r="E85" s="246"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
+      <c r="H85" s="246"/>
+      <c r="I85" s="246"/>
+      <c r="J85" s="246"/>
+      <c r="K85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="253"/>
-      <c r="M85" s="253"/>
-      <c r="N85" s="253"/>
-      <c r="O85" s="253"/>
-      <c r="P85" s="253"/>
-      <c r="Q85" s="253"/>
-      <c r="R85" s="253"/>
-      <c r="S85" s="253"/>
-      <c r="T85" s="253"/>
-      <c r="U85" s="253"/>
-      <c r="V85" s="253"/>
-      <c r="W85" s="253"/>
+      <c r="L85" s="246"/>
+      <c r="M85" s="246"/>
+      <c r="N85" s="246"/>
+      <c r="O85" s="246"/>
+      <c r="P85" s="246"/>
+      <c r="Q85" s="246"/>
+      <c r="R85" s="246"/>
+      <c r="S85" s="246"/>
+      <c r="T85" s="246"/>
+      <c r="U85" s="246"/>
+      <c r="V85" s="246"/>
+      <c r="W85" s="246"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
-      <c r="H86" s="254" t="s">
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
+      <c r="H86" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="254"/>
-      <c r="J86" s="254"/>
-      <c r="K86" s="249" t="s">
+      <c r="I86" s="249"/>
+      <c r="J86" s="249"/>
+      <c r="K86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="249"/>
-      <c r="M86" s="249"/>
-      <c r="N86" s="249" t="s">
+      <c r="L86" s="248"/>
+      <c r="M86" s="248"/>
+      <c r="N86" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="249"/>
-      <c r="P86" s="249"/>
-      <c r="Q86" s="249" t="s">
+      <c r="O86" s="248"/>
+      <c r="P86" s="248"/>
+      <c r="Q86" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="249"/>
-      <c r="S86" s="249"/>
-      <c r="T86" s="255" t="s">
+      <c r="R86" s="248"/>
+      <c r="S86" s="248"/>
+      <c r="T86" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="255"/>
-      <c r="V86" s="255"/>
-      <c r="W86" s="255"/>
+      <c r="U86" s="250"/>
+      <c r="V86" s="250"/>
+      <c r="W86" s="250"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="252" t="s">
+      <c r="T87" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="252"/>
+      <c r="T88" s="245"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="253" t="s">
+      <c r="B107" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="253"/>
-      <c r="D107" s="253"/>
-      <c r="E107" s="253"/>
-      <c r="F107" s="253"/>
-      <c r="G107" s="253"/>
-      <c r="H107" s="253"/>
-      <c r="I107" s="253"/>
-      <c r="J107" s="253"/>
-      <c r="K107" s="253" t="s">
+      <c r="C107" s="246"/>
+      <c r="D107" s="246"/>
+      <c r="E107" s="246"/>
+      <c r="F107" s="246"/>
+      <c r="G107" s="246"/>
+      <c r="H107" s="246"/>
+      <c r="I107" s="246"/>
+      <c r="J107" s="246"/>
+      <c r="K107" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="253"/>
-      <c r="M107" s="253"/>
-      <c r="N107" s="253"/>
-      <c r="O107" s="253"/>
-      <c r="P107" s="253"/>
-      <c r="Q107" s="253"/>
-      <c r="R107" s="253"/>
-      <c r="S107" s="253"/>
-      <c r="T107" s="253"/>
-      <c r="U107" s="253"/>
-      <c r="V107" s="253"/>
-      <c r="W107" s="253"/>
+      <c r="L107" s="246"/>
+      <c r="M107" s="246"/>
+      <c r="N107" s="246"/>
+      <c r="O107" s="246"/>
+      <c r="P107" s="246"/>
+      <c r="Q107" s="246"/>
+      <c r="R107" s="246"/>
+      <c r="S107" s="246"/>
+      <c r="T107" s="246"/>
+      <c r="U107" s="246"/>
+      <c r="V107" s="246"/>
+      <c r="W107" s="246"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="248" t="s">
+      <c r="B108" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="248"/>
-      <c r="D108" s="248"/>
-      <c r="E108" s="249" t="s">
+      <c r="C108" s="247"/>
+      <c r="D108" s="247"/>
+      <c r="E108" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="249"/>
-      <c r="G108" s="249"/>
-      <c r="H108" s="254" t="s">
+      <c r="F108" s="248"/>
+      <c r="G108" s="248"/>
+      <c r="H108" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="254"/>
-      <c r="J108" s="254"/>
-      <c r="K108" s="249" t="s">
+      <c r="I108" s="249"/>
+      <c r="J108" s="249"/>
+      <c r="K108" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="249"/>
-      <c r="M108" s="249"/>
-      <c r="N108" s="249" t="s">
+      <c r="L108" s="248"/>
+      <c r="M108" s="248"/>
+      <c r="N108" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="249"/>
-      <c r="P108" s="249"/>
-      <c r="Q108" s="249" t="s">
+      <c r="O108" s="248"/>
+      <c r="P108" s="248"/>
+      <c r="Q108" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="249"/>
-      <c r="S108" s="249"/>
-      <c r="T108" s="255" t="s">
+      <c r="R108" s="248"/>
+      <c r="S108" s="248"/>
+      <c r="T108" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="255"/>
-      <c r="V108" s="255"/>
-      <c r="W108" s="255"/>
+      <c r="U108" s="250"/>
+      <c r="V108" s="250"/>
+      <c r="W108" s="250"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="252" t="s">
+      <c r="T109" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="252"/>
+      <c r="T110" s="245"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="253" t="s">
+      <c r="B128" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="253"/>
-      <c r="D128" s="253"/>
-      <c r="E128" s="253"/>
-      <c r="F128" s="253"/>
-      <c r="G128" s="253"/>
-      <c r="H128" s="253"/>
-      <c r="I128" s="253"/>
-      <c r="J128" s="253"/>
-      <c r="K128" s="253" t="s">
+      <c r="C128" s="246"/>
+      <c r="D128" s="246"/>
+      <c r="E128" s="246"/>
+      <c r="F128" s="246"/>
+      <c r="G128" s="246"/>
+      <c r="H128" s="246"/>
+      <c r="I128" s="246"/>
+      <c r="J128" s="246"/>
+      <c r="K128" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="253"/>
-      <c r="M128" s="253"/>
-      <c r="N128" s="253"/>
-      <c r="O128" s="253"/>
-      <c r="P128" s="253"/>
-      <c r="Q128" s="253"/>
-      <c r="R128" s="253"/>
-      <c r="S128" s="253"/>
-      <c r="T128" s="253"/>
-      <c r="U128" s="253"/>
-      <c r="V128" s="253"/>
-      <c r="W128" s="253"/>
+      <c r="L128" s="246"/>
+      <c r="M128" s="246"/>
+      <c r="N128" s="246"/>
+      <c r="O128" s="246"/>
+      <c r="P128" s="246"/>
+      <c r="Q128" s="246"/>
+      <c r="R128" s="246"/>
+      <c r="S128" s="246"/>
+      <c r="T128" s="246"/>
+      <c r="U128" s="246"/>
+      <c r="V128" s="246"/>
+      <c r="W128" s="246"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="248" t="s">
+      <c r="B129" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="248"/>
-      <c r="D129" s="248"/>
-      <c r="E129" s="249" t="s">
+      <c r="C129" s="247"/>
+      <c r="D129" s="247"/>
+      <c r="E129" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="249"/>
-      <c r="G129" s="249"/>
-      <c r="H129" s="254" t="s">
+      <c r="F129" s="248"/>
+      <c r="G129" s="248"/>
+      <c r="H129" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="254"/>
-      <c r="J129" s="254"/>
-      <c r="K129" s="249" t="s">
+      <c r="I129" s="249"/>
+      <c r="J129" s="249"/>
+      <c r="K129" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="249"/>
-      <c r="M129" s="249"/>
-      <c r="N129" s="249" t="s">
+      <c r="L129" s="248"/>
+      <c r="M129" s="248"/>
+      <c r="N129" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="249"/>
-      <c r="P129" s="249"/>
-      <c r="Q129" s="249" t="s">
+      <c r="O129" s="248"/>
+      <c r="P129" s="248"/>
+      <c r="Q129" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="249"/>
-      <c r="S129" s="249"/>
-      <c r="T129" s="255" t="s">
+      <c r="R129" s="248"/>
+      <c r="S129" s="248"/>
+      <c r="T129" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="255"/>
-      <c r="V129" s="255"/>
-      <c r="W129" s="255"/>
+      <c r="U129" s="250"/>
+      <c r="V129" s="250"/>
+      <c r="W129" s="250"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="252" t="s">
+      <c r="T130" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="252"/>
+      <c r="T131" s="245"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="253" t="s">
+      <c r="B142" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="253"/>
-      <c r="D142" s="253"/>
-      <c r="E142" s="253"/>
-      <c r="F142" s="253"/>
-      <c r="G142" s="253"/>
-      <c r="H142" s="253"/>
-      <c r="I142" s="253"/>
-      <c r="J142" s="253"/>
-      <c r="K142" s="253" t="s">
+      <c r="C142" s="246"/>
+      <c r="D142" s="246"/>
+      <c r="E142" s="246"/>
+      <c r="F142" s="246"/>
+      <c r="G142" s="246"/>
+      <c r="H142" s="246"/>
+      <c r="I142" s="246"/>
+      <c r="J142" s="246"/>
+      <c r="K142" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="253"/>
-      <c r="M142" s="253"/>
-      <c r="N142" s="253"/>
-      <c r="O142" s="253"/>
-      <c r="P142" s="253"/>
-      <c r="Q142" s="253"/>
-      <c r="R142" s="253"/>
-      <c r="S142" s="253"/>
-      <c r="T142" s="253"/>
-      <c r="U142" s="253"/>
-      <c r="V142" s="253"/>
-      <c r="W142" s="253"/>
+      <c r="L142" s="246"/>
+      <c r="M142" s="246"/>
+      <c r="N142" s="246"/>
+      <c r="O142" s="246"/>
+      <c r="P142" s="246"/>
+      <c r="Q142" s="246"/>
+      <c r="R142" s="246"/>
+      <c r="S142" s="246"/>
+      <c r="T142" s="246"/>
+      <c r="U142" s="246"/>
+      <c r="V142" s="246"/>
+      <c r="W142" s="246"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="248" t="s">
+      <c r="B143" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="248"/>
-      <c r="D143" s="248"/>
-      <c r="E143" s="249" t="s">
+      <c r="C143" s="247"/>
+      <c r="D143" s="247"/>
+      <c r="E143" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="249"/>
-      <c r="G143" s="249"/>
-      <c r="H143" s="254" t="s">
+      <c r="F143" s="248"/>
+      <c r="G143" s="248"/>
+      <c r="H143" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="254"/>
-      <c r="J143" s="254"/>
-      <c r="K143" s="249" t="s">
+      <c r="I143" s="249"/>
+      <c r="J143" s="249"/>
+      <c r="K143" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="249"/>
-      <c r="M143" s="249"/>
-      <c r="N143" s="249" t="s">
+      <c r="L143" s="248"/>
+      <c r="M143" s="248"/>
+      <c r="N143" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="249"/>
-      <c r="P143" s="249"/>
-      <c r="Q143" s="249" t="s">
+      <c r="O143" s="248"/>
+      <c r="P143" s="248"/>
+      <c r="Q143" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="249"/>
-      <c r="S143" s="249"/>
-      <c r="T143" s="255" t="s">
+      <c r="R143" s="248"/>
+      <c r="S143" s="248"/>
+      <c r="T143" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="255"/>
-      <c r="V143" s="255"/>
-      <c r="W143" s="255"/>
+      <c r="U143" s="250"/>
+      <c r="V143" s="250"/>
+      <c r="W143" s="250"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="252" t="s">
+      <c r="T144" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="252"/>
+      <c r="T145" s="245"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="247" t="s">
+      <c r="B157" s="251" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="247"/>
-      <c r="D157" s="247"/>
-      <c r="E157" s="247"/>
-      <c r="F157" s="247"/>
-      <c r="G157" s="247"/>
-      <c r="H157" s="247"/>
-      <c r="I157" s="247"/>
-      <c r="J157" s="247"/>
-      <c r="K157" s="247" t="s">
+      <c r="C157" s="251"/>
+      <c r="D157" s="251"/>
+      <c r="E157" s="251"/>
+      <c r="F157" s="251"/>
+      <c r="G157" s="251"/>
+      <c r="H157" s="251"/>
+      <c r="I157" s="251"/>
+      <c r="J157" s="251"/>
+      <c r="K157" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="247"/>
-      <c r="M157" s="247"/>
-      <c r="N157" s="247"/>
-      <c r="O157" s="247"/>
-      <c r="P157" s="247"/>
-      <c r="Q157" s="247"/>
-      <c r="R157" s="247"/>
-      <c r="S157" s="247"/>
-      <c r="T157" s="247"/>
-      <c r="U157" s="247"/>
-      <c r="V157" s="247"/>
-      <c r="W157" s="247"/>
+      <c r="L157" s="251"/>
+      <c r="M157" s="251"/>
+      <c r="N157" s="251"/>
+      <c r="O157" s="251"/>
+      <c r="P157" s="251"/>
+      <c r="Q157" s="251"/>
+      <c r="R157" s="251"/>
+      <c r="S157" s="251"/>
+      <c r="T157" s="251"/>
+      <c r="U157" s="251"/>
+      <c r="V157" s="251"/>
+      <c r="W157" s="251"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="248" t="s">
+      <c r="B158" s="247" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="248"/>
-      <c r="D158" s="248"/>
-      <c r="E158" s="249" t="s">
+      <c r="C158" s="247"/>
+      <c r="D158" s="247"/>
+      <c r="E158" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="249"/>
-      <c r="G158" s="249"/>
-      <c r="H158" s="254" t="s">
+      <c r="F158" s="248"/>
+      <c r="G158" s="248"/>
+      <c r="H158" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="254"/>
-      <c r="J158" s="254"/>
-      <c r="K158" s="249" t="s">
+      <c r="I158" s="249"/>
+      <c r="J158" s="249"/>
+      <c r="K158" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="249"/>
-      <c r="M158" s="249"/>
-      <c r="N158" s="249" t="s">
+      <c r="L158" s="248"/>
+      <c r="M158" s="248"/>
+      <c r="N158" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="249"/>
-      <c r="P158" s="249"/>
-      <c r="Q158" s="249" t="s">
+      <c r="O158" s="248"/>
+      <c r="P158" s="248"/>
+      <c r="Q158" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="249"/>
-      <c r="S158" s="249"/>
-      <c r="T158" s="255" t="s">
+      <c r="R158" s="248"/>
+      <c r="S158" s="248"/>
+      <c r="T158" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="255"/>
-      <c r="V158" s="255"/>
-      <c r="W158" s="255"/>
+      <c r="U158" s="250"/>
+      <c r="V158" s="250"/>
+      <c r="W158" s="250"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="252" t="s">
+      <c r="T159" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="252"/>
+      <c r="T160" s="245"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="252"/>
+      <c r="T161" s="245"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="253" t="s">
+      <c r="B172" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="253"/>
-      <c r="D172" s="253"/>
-      <c r="E172" s="253"/>
-      <c r="F172" s="253"/>
-      <c r="G172" s="253"/>
-      <c r="H172" s="253"/>
-      <c r="I172" s="253"/>
-      <c r="J172" s="253"/>
-      <c r="K172" s="253" t="s">
+      <c r="C172" s="246"/>
+      <c r="D172" s="246"/>
+      <c r="E172" s="246"/>
+      <c r="F172" s="246"/>
+      <c r="G172" s="246"/>
+      <c r="H172" s="246"/>
+      <c r="I172" s="246"/>
+      <c r="J172" s="246"/>
+      <c r="K172" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="253"/>
-      <c r="M172" s="253"/>
-      <c r="N172" s="253"/>
-      <c r="O172" s="253"/>
-      <c r="P172" s="253"/>
-      <c r="Q172" s="253"/>
-      <c r="R172" s="253"/>
-      <c r="S172" s="253"/>
-      <c r="T172" s="253"/>
-      <c r="U172" s="253"/>
-      <c r="V172" s="253"/>
-      <c r="W172" s="253"/>
+      <c r="L172" s="246"/>
+      <c r="M172" s="246"/>
+      <c r="N172" s="246"/>
+      <c r="O172" s="246"/>
+      <c r="P172" s="246"/>
+      <c r="Q172" s="246"/>
+      <c r="R172" s="246"/>
+      <c r="S172" s="246"/>
+      <c r="T172" s="246"/>
+      <c r="U172" s="246"/>
+      <c r="V172" s="246"/>
+      <c r="W172" s="246"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="248" t="s">
+      <c r="B173" s="247" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="248"/>
-      <c r="D173" s="248"/>
-      <c r="E173" s="249" t="s">
+      <c r="C173" s="247"/>
+      <c r="D173" s="247"/>
+      <c r="E173" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="249"/>
-      <c r="G173" s="249"/>
-      <c r="H173" s="254" t="s">
+      <c r="F173" s="248"/>
+      <c r="G173" s="248"/>
+      <c r="H173" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="254"/>
-      <c r="J173" s="254"/>
-      <c r="K173" s="249" t="s">
+      <c r="I173" s="249"/>
+      <c r="J173" s="249"/>
+      <c r="K173" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="249"/>
-      <c r="M173" s="249"/>
-      <c r="N173" s="249" t="s">
+      <c r="L173" s="248"/>
+      <c r="M173" s="248"/>
+      <c r="N173" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="249"/>
-      <c r="P173" s="249"/>
-      <c r="Q173" s="249" t="s">
+      <c r="O173" s="248"/>
+      <c r="P173" s="248"/>
+      <c r="Q173" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="249"/>
-      <c r="S173" s="249"/>
-      <c r="T173" s="255" t="s">
+      <c r="R173" s="248"/>
+      <c r="S173" s="248"/>
+      <c r="T173" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="255"/>
-      <c r="V173" s="255"/>
-      <c r="W173" s="255"/>
+      <c r="U173" s="250"/>
+      <c r="V173" s="250"/>
+      <c r="W173" s="250"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="252" t="s">
+      <c r="T174" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="252"/>
+      <c r="T175" s="245"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,6 +44442,96 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44453,96 +44543,6 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="253" t="s">
+      <c r="E3" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="253" t="s">
+      <c r="E15" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249" t="s">
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="253" t="s">
+      <c r="E27" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249" t="s">
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="253" t="s">
+      <c r="E39" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="246"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="249" t="s">
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="248"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="253" t="s">
+      <c r="E57" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="253"/>
-      <c r="G57" s="253"/>
+      <c r="F57" s="246"/>
+      <c r="G57" s="246"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="248"/>
-      <c r="D58" s="248"/>
-      <c r="E58" s="249" t="s">
+      <c r="C58" s="247"/>
+      <c r="D58" s="247"/>
+      <c r="E58" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="249"/>
-      <c r="G58" s="249"/>
+      <c r="F58" s="248"/>
+      <c r="G58" s="248"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="253" t="s">
+      <c r="E72" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="G72" s="253"/>
+      <c r="F72" s="246"/>
+      <c r="G72" s="246"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="248" t="s">
+      <c r="B73" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="248"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="249" t="s">
+      <c r="C73" s="247"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="249"/>
-      <c r="G73" s="249"/>
+      <c r="F73" s="248"/>
+      <c r="G73" s="248"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="253" t="s">
+      <c r="E85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="253" t="s">
+      <c r="E98" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="253"/>
-      <c r="G98" s="253"/>
+      <c r="F98" s="246"/>
+      <c r="G98" s="246"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="248" t="s">
+      <c r="B99" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="248"/>
-      <c r="D99" s="248"/>
-      <c r="E99" s="249" t="s">
+      <c r="C99" s="247"/>
+      <c r="D99" s="247"/>
+      <c r="E99" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="249"/>
-      <c r="G99" s="249"/>
+      <c r="F99" s="248"/>
+      <c r="G99" s="248"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="253" t="s">
+      <c r="E115" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="253"/>
-      <c r="G115" s="253"/>
+      <c r="F115" s="246"/>
+      <c r="G115" s="246"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="248" t="s">
+      <c r="B116" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="248"/>
-      <c r="D116" s="248"/>
-      <c r="E116" s="249" t="s">
+      <c r="C116" s="247"/>
+      <c r="D116" s="247"/>
+      <c r="E116" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="249"/>
-      <c r="G116" s="249"/>
+      <c r="F116" s="248"/>
+      <c r="G116" s="248"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="253" t="s">
+      <c r="E132" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="253"/>
-      <c r="G132" s="253"/>
+      <c r="F132" s="246"/>
+      <c r="G132" s="246"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="248" t="s">
+      <c r="B133" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="248"/>
-      <c r="D133" s="248"/>
-      <c r="E133" s="249" t="s">
+      <c r="C133" s="247"/>
+      <c r="D133" s="247"/>
+      <c r="E133" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="249"/>
-      <c r="G133" s="249"/>
+      <c r="F133" s="248"/>
+      <c r="G133" s="248"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="253" t="s">
+      <c r="E149" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="253"/>
-      <c r="G149" s="253"/>
+      <c r="F149" s="246"/>
+      <c r="G149" s="246"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="248" t="s">
+      <c r="B150" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="248"/>
-      <c r="D150" s="248"/>
-      <c r="E150" s="249" t="s">
+      <c r="C150" s="247"/>
+      <c r="D150" s="247"/>
+      <c r="E150" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="249"/>
-      <c r="G150" s="249"/>
+      <c r="F150" s="248"/>
+      <c r="G150" s="248"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="253" t="s">
+      <c r="E166" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="253"/>
-      <c r="G166" s="253"/>
+      <c r="F166" s="246"/>
+      <c r="G166" s="246"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="248" t="s">
+      <c r="B167" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="248"/>
-      <c r="D167" s="248"/>
-      <c r="E167" s="249" t="s">
+      <c r="C167" s="247"/>
+      <c r="D167" s="247"/>
+      <c r="E167" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="249"/>
-      <c r="G167" s="249"/>
+      <c r="F167" s="248"/>
+      <c r="G167" s="248"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="E150:G150"/>
     <mergeCell ref="B166:D166"/>
     <mergeCell ref="E166:G166"/>
     <mergeCell ref="B167:D167"/>
     <mergeCell ref="E167:G167"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010F0CF-1720-45DA-9479-E2DA98380F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E9E84A-8776-477F-A663-7EDBE7092607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5487,39 +5487,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5528,25 +5543,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5955,7 +5955,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="235" t="s">
@@ -5969,12 +5969,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="236"/>
+      <c r="A2" s="237"/>
       <c r="B2" s="235"/>
       <c r="C2" s="235"/>
     </row>
     <row r="3" spans="1:4" ht="12.85" customHeight="1">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="236" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -5985,7 +5985,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="237"/>
+      <c r="A4" s="236"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +5997,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="237"/>
+      <c r="A5" s="236"/>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
@@ -6009,7 +6009,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="237"/>
+      <c r="A6" s="236"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="237"/>
+      <c r="A7" s="236"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -6033,7 +6033,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="237"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
@@ -6864,15 +6864,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="239"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="239"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="239"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="239"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="239"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="239"/>
+      <c r="D41" s="238"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="239"/>
+      <c r="D42" s="238"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="239"/>
+      <c r="D43" s="238"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="239"/>
+      <c r="D44" s="238"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="239"/>
+      <c r="D45" s="238"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="239"/>
+      <c r="D46" s="238"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="238" t="s">
+      <c r="B47" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="238"/>
+      <c r="C47" s="239"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="239"/>
+      <c r="D71" s="238"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="239"/>
+      <c r="D72" s="238"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="239"/>
+      <c r="D73" s="238"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="239"/>
+      <c r="D74" s="238"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="239"/>
+      <c r="D75" s="238"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="238" t="s">
+      <c r="B77" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="238"/>
+      <c r="C77" s="239"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="239"/>
+      <c r="D99" s="238"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="239"/>
+      <c r="D100" s="238"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="239"/>
+      <c r="D101" s="238"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="239"/>
+      <c r="D102" s="238"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="239"/>
+      <c r="D103" s="238"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="238" t="s">
+      <c r="B105" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="238"/>
+      <c r="C105" s="239"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="239"/>
+      <c r="D128" s="238"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="239"/>
+      <c r="D129" s="238"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="239"/>
+      <c r="D130" s="238"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="239"/>
+      <c r="D131" s="238"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="239"/>
+      <c r="D132" s="238"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="238" t="s">
+      <c r="B134" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="238"/>
+      <c r="C134" s="239"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="239"/>
+      <c r="D158" s="238"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="239"/>
+      <c r="D159" s="238"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="239"/>
+      <c r="D160" s="238"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="239"/>
+      <c r="D161" s="238"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="239"/>
+      <c r="D162" s="238"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="238" t="s">
+      <c r="B164" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="238"/>
+      <c r="C164" s="239"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="239"/>
+      <c r="D179" s="238"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="239"/>
+      <c r="D180" s="238"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="239"/>
+      <c r="D181" s="238"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="239"/>
+      <c r="D182" s="238"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="239"/>
+      <c r="D183" s="238"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="239"/>
+      <c r="D184" s="238"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="238" t="s">
+      <c r="B185" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="238"/>
+      <c r="C185" s="239"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="239"/>
+      <c r="D201" s="238"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="239"/>
+      <c r="D202" s="238"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="239"/>
+      <c r="D203" s="238"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="239"/>
+      <c r="D204" s="238"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="239"/>
+      <c r="D205" s="238"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="239"/>
+      <c r="D206" s="238"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="238" t="s">
+      <c r="B207" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="238"/>
+      <c r="C207" s="239"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="239"/>
+      <c r="D242" s="238"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="239"/>
+      <c r="D243" s="238"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="239"/>
+      <c r="D244" s="238"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="239"/>
+      <c r="D245" s="238"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="239"/>
+      <c r="D246" s="238"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="238" t="s">
+      <c r="B248" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="238"/>
+      <c r="C248" s="239"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="239"/>
+      <c r="D278" s="238"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="239"/>
+      <c r="D279" s="238"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="239"/>
+      <c r="D280" s="238"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="239"/>
+      <c r="D281" s="238"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="239"/>
+      <c r="D282" s="238"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="238" t="s">
+      <c r="B284" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="238"/>
+      <c r="C284" s="239"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="239"/>
+      <c r="D304" s="238"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="239"/>
+      <c r="D305" s="238"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="239"/>
+      <c r="D306" s="238"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="239"/>
+      <c r="D307" s="238"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="239"/>
+      <c r="D308" s="238"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="238" t="s">
+      <c r="B310" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="238"/>
+      <c r="C310" s="239"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="239"/>
+      <c r="D327" s="238"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="239"/>
+      <c r="D328" s="238"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="239"/>
+      <c r="D329" s="238"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="239"/>
+      <c r="D330" s="238"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="239"/>
+      <c r="D331" s="238"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="238" t="s">
+      <c r="B333" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="238"/>
+      <c r="C333" s="239"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="239"/>
+      <c r="D349" s="238"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="239"/>
+      <c r="D350" s="238"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="239"/>
+      <c r="D351" s="238"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="239"/>
+      <c r="D352" s="238"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="239"/>
+      <c r="D353" s="238"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="238" t="s">
+      <c r="B355" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="238"/>
+      <c r="C355" s="239"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="239"/>
+      <c r="D383" s="238"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="239"/>
+      <c r="D384" s="238"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="239"/>
+      <c r="D385" s="238"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="239"/>
+      <c r="D386" s="238"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="239"/>
+      <c r="D387" s="238"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="238" t="s">
+      <c r="B389" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="238"/>
+      <c r="C389" s="239"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="239"/>
+      <c r="D418" s="238"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="239"/>
+      <c r="D419" s="238"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="239"/>
+      <c r="D420" s="238"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="239"/>
+      <c r="D421" s="238"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="239"/>
+      <c r="D422" s="238"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="238" t="s">
+      <c r="B424" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="238"/>
+      <c r="C424" s="239"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="238" t="s">
+      <c r="B451" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="238"/>
+      <c r="C451" s="239"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="239"/>
+      <c r="D469" s="238"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="239"/>
+      <c r="D470" s="238"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="239"/>
+      <c r="D471" s="238"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="239"/>
+      <c r="D472" s="238"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="239"/>
+      <c r="D473" s="238"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="238" t="s">
+      <c r="B475" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="238"/>
+      <c r="C475" s="239"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="239"/>
+      <c r="D494" s="238"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="239"/>
+      <c r="D495" s="238"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="239"/>
+      <c r="D496" s="238"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="239"/>
+      <c r="D497" s="238"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="239"/>
+      <c r="D498" s="238"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="238" t="s">
+      <c r="B500" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="238"/>
+      <c r="C500" s="239"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="239"/>
+      <c r="D519" s="238"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="239"/>
+      <c r="D520" s="238"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="239"/>
+      <c r="D521" s="238"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="239"/>
+      <c r="D522" s="238"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="239"/>
+      <c r="D523" s="238"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="238" t="s">
+      <c r="B525" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="238"/>
+      <c r="C525" s="239"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="239"/>
+      <c r="D547" s="238"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="239"/>
+      <c r="D548" s="238"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="239"/>
+      <c r="D549" s="238"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="239"/>
+      <c r="D550" s="238"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="239"/>
+      <c r="D551" s="238"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="238" t="s">
+      <c r="B553" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="238"/>
+      <c r="C553" s="239"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="239"/>
+      <c r="D580" s="238"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="239"/>
+      <c r="D581" s="238"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="239"/>
+      <c r="D582" s="238"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="239"/>
+      <c r="D583" s="238"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="239"/>
+      <c r="D584" s="238"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="238" t="s">
+      <c r="B586" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="238"/>
+      <c r="C586" s="239"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="239"/>
+      <c r="D608" s="238"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="239"/>
+      <c r="D609" s="238"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="239"/>
+      <c r="D610" s="238"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="239"/>
+      <c r="D611" s="238"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="239"/>
+      <c r="D612" s="238"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="238" t="s">
+      <c r="B614" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="238"/>
+      <c r="C614" s="239"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="238" t="s">
+      <c r="B637" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="238"/>
+      <c r="C637" s="239"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="238" t="s">
+      <c r="B660" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="238"/>
+      <c r="C660" s="239"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="238" t="s">
+      <c r="B683" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="238"/>
+      <c r="C683" s="239"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="238" t="s">
+      <c r="B711" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="238"/>
+      <c r="C711" s="239"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="239"/>
+      <c r="D729" s="238"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="239"/>
+      <c r="D730" s="238"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="239"/>
+      <c r="D731" s="238"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="239"/>
+      <c r="D732" s="238"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="239"/>
+      <c r="D733" s="238"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="238" t="s">
+      <c r="B735" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="238"/>
+      <c r="C735" s="239"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="239"/>
+      <c r="D756" s="238"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="239"/>
+      <c r="D757" s="238"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="239"/>
+      <c r="D758" s="238"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="239"/>
+      <c r="D759" s="238"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="239"/>
+      <c r="D760" s="238"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="238" t="s">
+      <c r="B762" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="238"/>
+      <c r="C762" s="239"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="238" t="s">
+      <c r="B789" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="238"/>
+      <c r="C789" s="239"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="238" t="s">
+      <c r="B816" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="238"/>
+      <c r="C816" s="239"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="239"/>
+      <c r="D839" s="238"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="239"/>
+      <c r="D840" s="238"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="239"/>
+      <c r="D841" s="238"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="239"/>
+      <c r="D842" s="238"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="239"/>
+      <c r="D843" s="238"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="239"/>
+      <c r="D844" s="238"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="238" t="s">
+      <c r="B845" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="238"/>
+      <c r="C845" s="239"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="238" t="s">
+      <c r="B876" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="238"/>
+      <c r="C876" s="239"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="238" t="s">
+      <c r="B907" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="238"/>
+      <c r="C907" s="239"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="238" t="s">
+      <c r="B931" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="238"/>
+      <c r="C931" s="239"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="238" t="s">
+      <c r="B958" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="238"/>
+      <c r="C958" s="239"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="238" t="s">
+      <c r="B981" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="238"/>
+      <c r="C981" s="239"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="238" t="s">
+      <c r="B1005" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="238"/>
+      <c r="C1005" s="239"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="238" t="s">
+      <c r="B1024" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="238"/>
+      <c r="C1024" s="239"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="239"/>
+      <c r="D1042" s="238"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="239"/>
+      <c r="D1043" s="238"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="239"/>
+      <c r="D1044" s="238"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="239"/>
+      <c r="D1045" s="238"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="239"/>
+      <c r="D1046" s="238"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="238" t="s">
+      <c r="B1048" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="238"/>
+      <c r="C1048" s="239"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="238" t="s">
+      <c r="B1070" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="238"/>
+      <c r="C1070" s="239"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="239"/>
+      <c r="D1089" s="238"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="239"/>
+      <c r="D1090" s="238"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="239"/>
+      <c r="D1091" s="238"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="239"/>
+      <c r="D1092" s="238"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="239"/>
+      <c r="D1093" s="238"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="238" t="s">
+      <c r="B1095" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="238"/>
+      <c r="C1095" s="239"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="239"/>
+      <c r="D1120" s="238"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="239"/>
+      <c r="D1121" s="238"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="239"/>
+      <c r="D1122" s="238"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="239"/>
+      <c r="D1123" s="238"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="239"/>
+      <c r="D1124" s="238"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="238" t="s">
+      <c r="B1126" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="238"/>
+      <c r="C1126" s="239"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="238" t="s">
+      <c r="B1155" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="238"/>
+      <c r="C1155" s="239"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="242"/>
+      <c r="D43" s="241"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="242"/>
+      <c r="D44" s="241"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="241"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="242"/>
+      <c r="D46" s="241"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="242"/>
+      <c r="D47" s="241"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="242"/>
+      <c r="D48" s="241"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="238" t="s">
+      <c r="B49" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="238"/>
+      <c r="C49" s="239"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="244" t="s">
+      <c r="E68" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="244"/>
+      <c r="F68" s="242"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="242"/>
+      <c r="D74" s="241"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="242"/>
+      <c r="D75" s="241"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="242"/>
+      <c r="D76" s="241"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="242"/>
+      <c r="D77" s="241"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="242"/>
+      <c r="D78" s="241"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="238" t="s">
+      <c r="B80" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="238"/>
+      <c r="C80" s="239"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="241" t="s">
+      <c r="B107" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="241"/>
+      <c r="C107" s="243"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="238" t="s">
+      <c r="B137" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="238"/>
+      <c r="C137" s="239"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="238" t="s">
+      <c r="B167" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="238"/>
+      <c r="C167" s="239"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="238" t="s">
+      <c r="B189" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="238"/>
+      <c r="C189" s="239"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="238" t="s">
+      <c r="B212" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="238"/>
+      <c r="C212" s="239"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="238" t="s">
+      <c r="B249" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="238"/>
+      <c r="C249" s="239"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="242"/>
+      <c r="D285" s="241"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="242"/>
+      <c r="D286" s="241"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="242"/>
+      <c r="D287" s="241"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="242"/>
+      <c r="D288" s="241"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="242"/>
+      <c r="D289" s="241"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="243" t="s">
+      <c r="B291" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="243"/>
+      <c r="C291" s="244"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="242"/>
+      <c r="D314" s="241"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="242"/>
+      <c r="D315" s="241"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="242"/>
+      <c r="D316" s="241"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="242"/>
+      <c r="D317" s="241"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="242"/>
+      <c r="D318" s="241"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="238" t="s">
+      <c r="B320" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="238"/>
+      <c r="C320" s="239"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="242"/>
+      <c r="D339" s="241"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="242"/>
+      <c r="D340" s="241"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="242"/>
+      <c r="D341" s="241"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="242"/>
+      <c r="D342" s="241"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="242"/>
+      <c r="D343" s="241"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="238" t="s">
+      <c r="B345" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="238"/>
+      <c r="C345" s="239"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="242"/>
+      <c r="D363" s="241"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="242"/>
+      <c r="D364" s="241"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="242"/>
+      <c r="D365" s="241"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="242"/>
+      <c r="D366" s="241"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="242"/>
+      <c r="D367" s="241"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="238" t="s">
+      <c r="B369" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="238"/>
+      <c r="C369" s="239"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="238" t="s">
+      <c r="B403" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="238"/>
+      <c r="C403" s="239"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="238" t="s">
+      <c r="B439" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="238"/>
+      <c r="C439" s="239"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="238" t="s">
+      <c r="B467" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="238"/>
+      <c r="C467" s="239"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="238" t="s">
+      <c r="B493" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="238"/>
+      <c r="C493" s="239"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="238" t="s">
+      <c r="B520" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="238"/>
+      <c r="C520" s="239"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="238" t="s">
+      <c r="B547" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="238"/>
+      <c r="C547" s="239"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="238" t="s">
+      <c r="B577" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="238"/>
+      <c r="C577" s="239"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="238" t="s">
+      <c r="B612" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="238"/>
+      <c r="C612" s="239"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="238" t="s">
+      <c r="B641" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="238"/>
+      <c r="C641" s="239"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="241" t="s">
+      <c r="B665" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="241"/>
+      <c r="C665" s="243"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="238" t="s">
+      <c r="B691" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="238"/>
+      <c r="C691" s="239"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="238" t="s">
+      <c r="B715" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="238"/>
+      <c r="C715" s="239"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="238" t="s">
+      <c r="B744" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="238"/>
+      <c r="C744" s="239"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="238" t="s">
+      <c r="B771" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="238"/>
+      <c r="C771" s="239"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="238" t="s">
+      <c r="B800" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="238"/>
+      <c r="C800" s="239"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="238" t="s">
+      <c r="B829" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="238"/>
+      <c r="C829" s="239"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="238" t="s">
+      <c r="B858" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="238"/>
+      <c r="C858" s="239"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="238" t="s">
+      <c r="B890" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="238"/>
+      <c r="C890" s="239"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="238" t="s">
+      <c r="B922" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="238"/>
+      <c r="C922" s="239"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="238" t="s">
+      <c r="B954" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="238"/>
+      <c r="C954" s="239"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="238" t="s">
+      <c r="B980" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="238"/>
+      <c r="C980" s="239"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="238" t="s">
+      <c r="B1009" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="238"/>
+      <c r="C1009" s="239"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="238" t="s">
+      <c r="B1034" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="238"/>
+      <c r="C1034" s="239"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="238" t="s">
+      <c r="B1059" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="238"/>
+      <c r="C1059" s="239"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="238" t="s">
+      <c r="B1080" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="238"/>
+      <c r="C1080" s="239"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="238" t="s">
+      <c r="B1107" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="238"/>
+      <c r="C1107" s="239"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="238" t="s">
+      <c r="B1131" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="238"/>
+      <c r="C1131" s="239"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="238" t="s">
+      <c r="B1158" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="238"/>
+      <c r="C1158" s="239"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="238" t="s">
+      <c r="B1190" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="238"/>
+      <c r="C1190" s="239"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="238" t="s">
+      <c r="B1223" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="238"/>
+      <c r="C1223" s="239"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,51 +38142,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38195,6 +38150,51 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="254" t="s">
+      <c r="E2" s="245" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="254"/>
+      <c r="F2" s="245"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="251" t="s">
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="250" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="248" t="s">
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248" t="s">
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248" t="s">
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="257" t="s">
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="251" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="257"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="245" t="s">
+      <c r="T5" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="245"/>
+      <c r="T6" s="252"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="246" t="s">
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="253"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="253"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="247" t="s">
+      <c r="B24" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="248" t="s">
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="249" t="s">
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="254" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="249"/>
-      <c r="J24" s="249"/>
-      <c r="K24" s="248" t="s">
+      <c r="I24" s="254"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="248" t="s">
+      <c r="L24" s="249"/>
+      <c r="M24" s="249"/>
+      <c r="N24" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="248"/>
-      <c r="P24" s="248"/>
-      <c r="Q24" s="248" t="s">
+      <c r="O24" s="249"/>
+      <c r="P24" s="249"/>
+      <c r="Q24" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="248"/>
-      <c r="S24" s="248"/>
-      <c r="T24" s="250" t="s">
+      <c r="R24" s="249"/>
+      <c r="S24" s="249"/>
+      <c r="T24" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="250"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="250"/>
+      <c r="U24" s="255"/>
+      <c r="V24" s="255"/>
+      <c r="W24" s="255"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="245" t="s">
+      <c r="T25" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="245"/>
+      <c r="T26" s="252"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="246" t="s">
+      <c r="B44" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="246"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="246"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="246" t="s">
+      <c r="C44" s="253"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="253"/>
+      <c r="G44" s="253"/>
+      <c r="H44" s="253"/>
+      <c r="I44" s="253"/>
+      <c r="J44" s="253"/>
+      <c r="K44" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
-      <c r="N44" s="246"/>
-      <c r="O44" s="246"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="246"/>
-      <c r="T44" s="246"/>
-      <c r="U44" s="246"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="253"/>
+      <c r="N44" s="253"/>
+      <c r="O44" s="253"/>
+      <c r="P44" s="253"/>
+      <c r="Q44" s="253"/>
+      <c r="R44" s="253"/>
+      <c r="S44" s="253"/>
+      <c r="T44" s="253"/>
+      <c r="U44" s="253"/>
+      <c r="V44" s="253"/>
+      <c r="W44" s="253"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
-      <c r="E45" s="248" t="s">
+      <c r="C45" s="248"/>
+      <c r="D45" s="248"/>
+      <c r="E45" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="248"/>
-      <c r="G45" s="248"/>
-      <c r="H45" s="249" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="254" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="248" t="s">
+      <c r="I45" s="254"/>
+      <c r="J45" s="254"/>
+      <c r="K45" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="248"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="248" t="s">
+      <c r="L45" s="249"/>
+      <c r="M45" s="249"/>
+      <c r="N45" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="248"/>
-      <c r="P45" s="248"/>
-      <c r="Q45" s="248" t="s">
+      <c r="O45" s="249"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="248"/>
-      <c r="S45" s="248"/>
-      <c r="T45" s="253" t="s">
+      <c r="R45" s="249"/>
+      <c r="S45" s="249"/>
+      <c r="T45" s="256" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="253"/>
-      <c r="V45" s="253"/>
-      <c r="W45" s="253"/>
+      <c r="U45" s="256"/>
+      <c r="V45" s="256"/>
+      <c r="W45" s="256"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="252" t="s">
+      <c r="T46" s="257" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="252"/>
+      <c r="T47" s="257"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="246" t="s">
+      <c r="B62" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="246"/>
-      <c r="D62" s="246"/>
-      <c r="E62" s="246"/>
-      <c r="F62" s="246"/>
-      <c r="G62" s="246"/>
-      <c r="H62" s="246"/>
-      <c r="I62" s="246"/>
-      <c r="J62" s="246"/>
-      <c r="K62" s="246" t="s">
+      <c r="C62" s="253"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
+      <c r="G62" s="253"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="253"/>
+      <c r="J62" s="253"/>
+      <c r="K62" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="246"/>
-      <c r="M62" s="246"/>
-      <c r="N62" s="246"/>
-      <c r="O62" s="246"/>
-      <c r="P62" s="246"/>
-      <c r="Q62" s="246"/>
-      <c r="R62" s="246"/>
-      <c r="S62" s="246"/>
-      <c r="T62" s="246"/>
-      <c r="U62" s="246"/>
-      <c r="V62" s="246"/>
-      <c r="W62" s="246"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="253"/>
+      <c r="N62" s="253"/>
+      <c r="O62" s="253"/>
+      <c r="P62" s="253"/>
+      <c r="Q62" s="253"/>
+      <c r="R62" s="253"/>
+      <c r="S62" s="253"/>
+      <c r="T62" s="253"/>
+      <c r="U62" s="253"/>
+      <c r="V62" s="253"/>
+      <c r="W62" s="253"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="247" t="s">
+      <c r="B63" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="247"/>
-      <c r="D63" s="247"/>
-      <c r="E63" s="248" t="s">
+      <c r="C63" s="248"/>
+      <c r="D63" s="248"/>
+      <c r="E63" s="249" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="248"/>
-      <c r="G63" s="248"/>
-      <c r="H63" s="249" t="s">
+      <c r="F63" s="249"/>
+      <c r="G63" s="249"/>
+      <c r="H63" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="249"/>
-      <c r="J63" s="249"/>
-      <c r="K63" s="248" t="s">
+      <c r="I63" s="254"/>
+      <c r="J63" s="254"/>
+      <c r="K63" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="248"/>
-      <c r="M63" s="248"/>
-      <c r="N63" s="248" t="s">
+      <c r="L63" s="249"/>
+      <c r="M63" s="249"/>
+      <c r="N63" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="248"/>
-      <c r="P63" s="248"/>
-      <c r="Q63" s="248" t="s">
+      <c r="O63" s="249"/>
+      <c r="P63" s="249"/>
+      <c r="Q63" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="248"/>
-      <c r="S63" s="248"/>
-      <c r="T63" s="250" t="s">
+      <c r="R63" s="249"/>
+      <c r="S63" s="249"/>
+      <c r="T63" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="250"/>
-      <c r="V63" s="250"/>
-      <c r="W63" s="250"/>
+      <c r="U63" s="255"/>
+      <c r="V63" s="255"/>
+      <c r="W63" s="255"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="245" t="s">
+      <c r="T64" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="245"/>
+      <c r="T65" s="252"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="246" t="s">
+      <c r="B85" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="246"/>
-      <c r="D85" s="246"/>
-      <c r="E85" s="246"/>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
-      <c r="H85" s="246"/>
-      <c r="I85" s="246"/>
-      <c r="J85" s="246"/>
-      <c r="K85" s="246" t="s">
+      <c r="C85" s="253"/>
+      <c r="D85" s="253"/>
+      <c r="E85" s="253"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
+      <c r="H85" s="253"/>
+      <c r="I85" s="253"/>
+      <c r="J85" s="253"/>
+      <c r="K85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="246"/>
-      <c r="M85" s="246"/>
-      <c r="N85" s="246"/>
-      <c r="O85" s="246"/>
-      <c r="P85" s="246"/>
-      <c r="Q85" s="246"/>
-      <c r="R85" s="246"/>
-      <c r="S85" s="246"/>
-      <c r="T85" s="246"/>
-      <c r="U85" s="246"/>
-      <c r="V85" s="246"/>
-      <c r="W85" s="246"/>
+      <c r="L85" s="253"/>
+      <c r="M85" s="253"/>
+      <c r="N85" s="253"/>
+      <c r="O85" s="253"/>
+      <c r="P85" s="253"/>
+      <c r="Q85" s="253"/>
+      <c r="R85" s="253"/>
+      <c r="S85" s="253"/>
+      <c r="T85" s="253"/>
+      <c r="U85" s="253"/>
+      <c r="V85" s="253"/>
+      <c r="W85" s="253"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
-      <c r="H86" s="249" t="s">
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
+      <c r="H86" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="249"/>
-      <c r="J86" s="249"/>
-      <c r="K86" s="248" t="s">
+      <c r="I86" s="254"/>
+      <c r="J86" s="254"/>
+      <c r="K86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="248"/>
-      <c r="M86" s="248"/>
-      <c r="N86" s="248" t="s">
+      <c r="L86" s="249"/>
+      <c r="M86" s="249"/>
+      <c r="N86" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="248"/>
-      <c r="P86" s="248"/>
-      <c r="Q86" s="248" t="s">
+      <c r="O86" s="249"/>
+      <c r="P86" s="249"/>
+      <c r="Q86" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="248"/>
-      <c r="S86" s="248"/>
-      <c r="T86" s="250" t="s">
+      <c r="R86" s="249"/>
+      <c r="S86" s="249"/>
+      <c r="T86" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="250"/>
-      <c r="V86" s="250"/>
-      <c r="W86" s="250"/>
+      <c r="U86" s="255"/>
+      <c r="V86" s="255"/>
+      <c r="W86" s="255"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="245" t="s">
+      <c r="T87" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="245"/>
+      <c r="T88" s="252"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="246" t="s">
+      <c r="B107" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="246"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="246"/>
-      <c r="F107" s="246"/>
-      <c r="G107" s="246"/>
-      <c r="H107" s="246"/>
-      <c r="I107" s="246"/>
-      <c r="J107" s="246"/>
-      <c r="K107" s="246" t="s">
+      <c r="C107" s="253"/>
+      <c r="D107" s="253"/>
+      <c r="E107" s="253"/>
+      <c r="F107" s="253"/>
+      <c r="G107" s="253"/>
+      <c r="H107" s="253"/>
+      <c r="I107" s="253"/>
+      <c r="J107" s="253"/>
+      <c r="K107" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="246"/>
-      <c r="M107" s="246"/>
-      <c r="N107" s="246"/>
-      <c r="O107" s="246"/>
-      <c r="P107" s="246"/>
-      <c r="Q107" s="246"/>
-      <c r="R107" s="246"/>
-      <c r="S107" s="246"/>
-      <c r="T107" s="246"/>
-      <c r="U107" s="246"/>
-      <c r="V107" s="246"/>
-      <c r="W107" s="246"/>
+      <c r="L107" s="253"/>
+      <c r="M107" s="253"/>
+      <c r="N107" s="253"/>
+      <c r="O107" s="253"/>
+      <c r="P107" s="253"/>
+      <c r="Q107" s="253"/>
+      <c r="R107" s="253"/>
+      <c r="S107" s="253"/>
+      <c r="T107" s="253"/>
+      <c r="U107" s="253"/>
+      <c r="V107" s="253"/>
+      <c r="W107" s="253"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="247" t="s">
+      <c r="B108" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="247"/>
-      <c r="D108" s="247"/>
-      <c r="E108" s="248" t="s">
+      <c r="C108" s="248"/>
+      <c r="D108" s="248"/>
+      <c r="E108" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="248"/>
-      <c r="G108" s="248"/>
-      <c r="H108" s="249" t="s">
+      <c r="F108" s="249"/>
+      <c r="G108" s="249"/>
+      <c r="H108" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="249"/>
-      <c r="J108" s="249"/>
-      <c r="K108" s="248" t="s">
+      <c r="I108" s="254"/>
+      <c r="J108" s="254"/>
+      <c r="K108" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="248"/>
-      <c r="M108" s="248"/>
-      <c r="N108" s="248" t="s">
+      <c r="L108" s="249"/>
+      <c r="M108" s="249"/>
+      <c r="N108" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="248"/>
-      <c r="P108" s="248"/>
-      <c r="Q108" s="248" t="s">
+      <c r="O108" s="249"/>
+      <c r="P108" s="249"/>
+      <c r="Q108" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="248"/>
-      <c r="S108" s="248"/>
-      <c r="T108" s="250" t="s">
+      <c r="R108" s="249"/>
+      <c r="S108" s="249"/>
+      <c r="T108" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="250"/>
-      <c r="V108" s="250"/>
-      <c r="W108" s="250"/>
+      <c r="U108" s="255"/>
+      <c r="V108" s="255"/>
+      <c r="W108" s="255"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="245" t="s">
+      <c r="T109" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="245"/>
+      <c r="T110" s="252"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="246" t="s">
+      <c r="B128" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="246"/>
-      <c r="D128" s="246"/>
-      <c r="E128" s="246"/>
-      <c r="F128" s="246"/>
-      <c r="G128" s="246"/>
-      <c r="H128" s="246"/>
-      <c r="I128" s="246"/>
-      <c r="J128" s="246"/>
-      <c r="K128" s="246" t="s">
+      <c r="C128" s="253"/>
+      <c r="D128" s="253"/>
+      <c r="E128" s="253"/>
+      <c r="F128" s="253"/>
+      <c r="G128" s="253"/>
+      <c r="H128" s="253"/>
+      <c r="I128" s="253"/>
+      <c r="J128" s="253"/>
+      <c r="K128" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="246"/>
-      <c r="M128" s="246"/>
-      <c r="N128" s="246"/>
-      <c r="O128" s="246"/>
-      <c r="P128" s="246"/>
-      <c r="Q128" s="246"/>
-      <c r="R128" s="246"/>
-      <c r="S128" s="246"/>
-      <c r="T128" s="246"/>
-      <c r="U128" s="246"/>
-      <c r="V128" s="246"/>
-      <c r="W128" s="246"/>
+      <c r="L128" s="253"/>
+      <c r="M128" s="253"/>
+      <c r="N128" s="253"/>
+      <c r="O128" s="253"/>
+      <c r="P128" s="253"/>
+      <c r="Q128" s="253"/>
+      <c r="R128" s="253"/>
+      <c r="S128" s="253"/>
+      <c r="T128" s="253"/>
+      <c r="U128" s="253"/>
+      <c r="V128" s="253"/>
+      <c r="W128" s="253"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="247" t="s">
+      <c r="B129" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="247"/>
-      <c r="D129" s="247"/>
-      <c r="E129" s="248" t="s">
+      <c r="C129" s="248"/>
+      <c r="D129" s="248"/>
+      <c r="E129" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="248"/>
-      <c r="G129" s="248"/>
-      <c r="H129" s="249" t="s">
+      <c r="F129" s="249"/>
+      <c r="G129" s="249"/>
+      <c r="H129" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="249"/>
-      <c r="J129" s="249"/>
-      <c r="K129" s="248" t="s">
+      <c r="I129" s="254"/>
+      <c r="J129" s="254"/>
+      <c r="K129" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="248"/>
-      <c r="M129" s="248"/>
-      <c r="N129" s="248" t="s">
+      <c r="L129" s="249"/>
+      <c r="M129" s="249"/>
+      <c r="N129" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="248"/>
-      <c r="P129" s="248"/>
-      <c r="Q129" s="248" t="s">
+      <c r="O129" s="249"/>
+      <c r="P129" s="249"/>
+      <c r="Q129" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="248"/>
-      <c r="S129" s="248"/>
-      <c r="T129" s="250" t="s">
+      <c r="R129" s="249"/>
+      <c r="S129" s="249"/>
+      <c r="T129" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="250"/>
-      <c r="V129" s="250"/>
-      <c r="W129" s="250"/>
+      <c r="U129" s="255"/>
+      <c r="V129" s="255"/>
+      <c r="W129" s="255"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="245" t="s">
+      <c r="T130" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="245"/>
+      <c r="T131" s="252"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="246" t="s">
+      <c r="B142" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="246"/>
-      <c r="D142" s="246"/>
-      <c r="E142" s="246"/>
-      <c r="F142" s="246"/>
-      <c r="G142" s="246"/>
-      <c r="H142" s="246"/>
-      <c r="I142" s="246"/>
-      <c r="J142" s="246"/>
-      <c r="K142" s="246" t="s">
+      <c r="C142" s="253"/>
+      <c r="D142" s="253"/>
+      <c r="E142" s="253"/>
+      <c r="F142" s="253"/>
+      <c r="G142" s="253"/>
+      <c r="H142" s="253"/>
+      <c r="I142" s="253"/>
+      <c r="J142" s="253"/>
+      <c r="K142" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="246"/>
-      <c r="M142" s="246"/>
-      <c r="N142" s="246"/>
-      <c r="O142" s="246"/>
-      <c r="P142" s="246"/>
-      <c r="Q142" s="246"/>
-      <c r="R142" s="246"/>
-      <c r="S142" s="246"/>
-      <c r="T142" s="246"/>
-      <c r="U142" s="246"/>
-      <c r="V142" s="246"/>
-      <c r="W142" s="246"/>
+      <c r="L142" s="253"/>
+      <c r="M142" s="253"/>
+      <c r="N142" s="253"/>
+      <c r="O142" s="253"/>
+      <c r="P142" s="253"/>
+      <c r="Q142" s="253"/>
+      <c r="R142" s="253"/>
+      <c r="S142" s="253"/>
+      <c r="T142" s="253"/>
+      <c r="U142" s="253"/>
+      <c r="V142" s="253"/>
+      <c r="W142" s="253"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="247" t="s">
+      <c r="B143" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="247"/>
-      <c r="D143" s="247"/>
-      <c r="E143" s="248" t="s">
+      <c r="C143" s="248"/>
+      <c r="D143" s="248"/>
+      <c r="E143" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="248"/>
-      <c r="G143" s="248"/>
-      <c r="H143" s="249" t="s">
+      <c r="F143" s="249"/>
+      <c r="G143" s="249"/>
+      <c r="H143" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="249"/>
-      <c r="J143" s="249"/>
-      <c r="K143" s="248" t="s">
+      <c r="I143" s="254"/>
+      <c r="J143" s="254"/>
+      <c r="K143" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="248"/>
-      <c r="M143" s="248"/>
-      <c r="N143" s="248" t="s">
+      <c r="L143" s="249"/>
+      <c r="M143" s="249"/>
+      <c r="N143" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="248"/>
-      <c r="P143" s="248"/>
-      <c r="Q143" s="248" t="s">
+      <c r="O143" s="249"/>
+      <c r="P143" s="249"/>
+      <c r="Q143" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="248"/>
-      <c r="S143" s="248"/>
-      <c r="T143" s="250" t="s">
+      <c r="R143" s="249"/>
+      <c r="S143" s="249"/>
+      <c r="T143" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="250"/>
-      <c r="V143" s="250"/>
-      <c r="W143" s="250"/>
+      <c r="U143" s="255"/>
+      <c r="V143" s="255"/>
+      <c r="W143" s="255"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="245" t="s">
+      <c r="T144" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="245"/>
+      <c r="T145" s="252"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="251" t="s">
+      <c r="B157" s="247" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="251"/>
-      <c r="D157" s="251"/>
-      <c r="E157" s="251"/>
-      <c r="F157" s="251"/>
-      <c r="G157" s="251"/>
-      <c r="H157" s="251"/>
-      <c r="I157" s="251"/>
-      <c r="J157" s="251"/>
-      <c r="K157" s="251" t="s">
+      <c r="C157" s="247"/>
+      <c r="D157" s="247"/>
+      <c r="E157" s="247"/>
+      <c r="F157" s="247"/>
+      <c r="G157" s="247"/>
+      <c r="H157" s="247"/>
+      <c r="I157" s="247"/>
+      <c r="J157" s="247"/>
+      <c r="K157" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="251"/>
-      <c r="M157" s="251"/>
-      <c r="N157" s="251"/>
-      <c r="O157" s="251"/>
-      <c r="P157" s="251"/>
-      <c r="Q157" s="251"/>
-      <c r="R157" s="251"/>
-      <c r="S157" s="251"/>
-      <c r="T157" s="251"/>
-      <c r="U157" s="251"/>
-      <c r="V157" s="251"/>
-      <c r="W157" s="251"/>
+      <c r="L157" s="247"/>
+      <c r="M157" s="247"/>
+      <c r="N157" s="247"/>
+      <c r="O157" s="247"/>
+      <c r="P157" s="247"/>
+      <c r="Q157" s="247"/>
+      <c r="R157" s="247"/>
+      <c r="S157" s="247"/>
+      <c r="T157" s="247"/>
+      <c r="U157" s="247"/>
+      <c r="V157" s="247"/>
+      <c r="W157" s="247"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="247" t="s">
+      <c r="B158" s="248" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="247"/>
-      <c r="D158" s="247"/>
-      <c r="E158" s="248" t="s">
+      <c r="C158" s="248"/>
+      <c r="D158" s="248"/>
+      <c r="E158" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="248"/>
-      <c r="G158" s="248"/>
-      <c r="H158" s="249" t="s">
+      <c r="F158" s="249"/>
+      <c r="G158" s="249"/>
+      <c r="H158" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="249"/>
-      <c r="J158" s="249"/>
-      <c r="K158" s="248" t="s">
+      <c r="I158" s="254"/>
+      <c r="J158" s="254"/>
+      <c r="K158" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="248"/>
-      <c r="M158" s="248"/>
-      <c r="N158" s="248" t="s">
+      <c r="L158" s="249"/>
+      <c r="M158" s="249"/>
+      <c r="N158" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="248"/>
-      <c r="P158" s="248"/>
-      <c r="Q158" s="248" t="s">
+      <c r="O158" s="249"/>
+      <c r="P158" s="249"/>
+      <c r="Q158" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="248"/>
-      <c r="S158" s="248"/>
-      <c r="T158" s="250" t="s">
+      <c r="R158" s="249"/>
+      <c r="S158" s="249"/>
+      <c r="T158" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="250"/>
-      <c r="V158" s="250"/>
-      <c r="W158" s="250"/>
+      <c r="U158" s="255"/>
+      <c r="V158" s="255"/>
+      <c r="W158" s="255"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="245" t="s">
+      <c r="T159" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="245"/>
+      <c r="T160" s="252"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="245"/>
+      <c r="T161" s="252"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="246" t="s">
+      <c r="B172" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="246"/>
-      <c r="D172" s="246"/>
-      <c r="E172" s="246"/>
-      <c r="F172" s="246"/>
-      <c r="G172" s="246"/>
-      <c r="H172" s="246"/>
-      <c r="I172" s="246"/>
-      <c r="J172" s="246"/>
-      <c r="K172" s="246" t="s">
+      <c r="C172" s="253"/>
+      <c r="D172" s="253"/>
+      <c r="E172" s="253"/>
+      <c r="F172" s="253"/>
+      <c r="G172" s="253"/>
+      <c r="H172" s="253"/>
+      <c r="I172" s="253"/>
+      <c r="J172" s="253"/>
+      <c r="K172" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="246"/>
-      <c r="M172" s="246"/>
-      <c r="N172" s="246"/>
-      <c r="O172" s="246"/>
-      <c r="P172" s="246"/>
-      <c r="Q172" s="246"/>
-      <c r="R172" s="246"/>
-      <c r="S172" s="246"/>
-      <c r="T172" s="246"/>
-      <c r="U172" s="246"/>
-      <c r="V172" s="246"/>
-      <c r="W172" s="246"/>
+      <c r="L172" s="253"/>
+      <c r="M172" s="253"/>
+      <c r="N172" s="253"/>
+      <c r="O172" s="253"/>
+      <c r="P172" s="253"/>
+      <c r="Q172" s="253"/>
+      <c r="R172" s="253"/>
+      <c r="S172" s="253"/>
+      <c r="T172" s="253"/>
+      <c r="U172" s="253"/>
+      <c r="V172" s="253"/>
+      <c r="W172" s="253"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="247" t="s">
+      <c r="B173" s="248" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="247"/>
-      <c r="D173" s="247"/>
-      <c r="E173" s="248" t="s">
+      <c r="C173" s="248"/>
+      <c r="D173" s="248"/>
+      <c r="E173" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="248"/>
-      <c r="G173" s="248"/>
-      <c r="H173" s="249" t="s">
+      <c r="F173" s="249"/>
+      <c r="G173" s="249"/>
+      <c r="H173" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="249"/>
-      <c r="J173" s="249"/>
-      <c r="K173" s="248" t="s">
+      <c r="I173" s="254"/>
+      <c r="J173" s="254"/>
+      <c r="K173" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="248"/>
-      <c r="M173" s="248"/>
-      <c r="N173" s="248" t="s">
+      <c r="L173" s="249"/>
+      <c r="M173" s="249"/>
+      <c r="N173" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="248"/>
-      <c r="P173" s="248"/>
-      <c r="Q173" s="248" t="s">
+      <c r="O173" s="249"/>
+      <c r="P173" s="249"/>
+      <c r="Q173" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="248"/>
-      <c r="S173" s="248"/>
-      <c r="T173" s="250" t="s">
+      <c r="R173" s="249"/>
+      <c r="S173" s="249"/>
+      <c r="T173" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="250"/>
-      <c r="V173" s="250"/>
-      <c r="W173" s="250"/>
+      <c r="U173" s="255"/>
+      <c r="V173" s="255"/>
+      <c r="W173" s="255"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="245" t="s">
+      <c r="T174" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="245"/>
+      <c r="T175" s="252"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,96 +44442,6 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44543,6 +44453,96 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="246" t="s">
+      <c r="E15" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="247" t="s">
+      <c r="B16" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="248" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="247" t="s">
+      <c r="B28" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
-      <c r="E28" s="248" t="s">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="246" t="s">
+      <c r="E39" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="246"/>
-      <c r="G39" s="246"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="253"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="247" t="s">
+      <c r="B40" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="247"/>
-      <c r="D40" s="247"/>
-      <c r="E40" s="248" t="s">
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="248"/>
-      <c r="G40" s="248"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="246" t="s">
+      <c r="E57" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="246"/>
-      <c r="G57" s="246"/>
+      <c r="F57" s="253"/>
+      <c r="G57" s="253"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="247" t="s">
+      <c r="B58" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="247"/>
-      <c r="D58" s="247"/>
-      <c r="E58" s="248" t="s">
+      <c r="C58" s="248"/>
+      <c r="D58" s="248"/>
+      <c r="E58" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="248"/>
-      <c r="G58" s="248"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="249"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="246" t="s">
+      <c r="E72" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="246"/>
-      <c r="G72" s="246"/>
+      <c r="F72" s="253"/>
+      <c r="G72" s="253"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="247" t="s">
+      <c r="B73" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="247"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="248" t="s">
+      <c r="C73" s="248"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="248"/>
-      <c r="G73" s="248"/>
+      <c r="F73" s="249"/>
+      <c r="G73" s="249"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="246" t="s">
+      <c r="E85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="246" t="s">
+      <c r="E98" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="246"/>
-      <c r="G98" s="246"/>
+      <c r="F98" s="253"/>
+      <c r="G98" s="253"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="247" t="s">
+      <c r="B99" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="247"/>
-      <c r="D99" s="247"/>
-      <c r="E99" s="248" t="s">
+      <c r="C99" s="248"/>
+      <c r="D99" s="248"/>
+      <c r="E99" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="248"/>
-      <c r="G99" s="248"/>
+      <c r="F99" s="249"/>
+      <c r="G99" s="249"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="246" t="s">
+      <c r="E115" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="246"/>
-      <c r="G115" s="246"/>
+      <c r="F115" s="253"/>
+      <c r="G115" s="253"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="247" t="s">
+      <c r="B116" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="247"/>
-      <c r="D116" s="247"/>
-      <c r="E116" s="248" t="s">
+      <c r="C116" s="248"/>
+      <c r="D116" s="248"/>
+      <c r="E116" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="248"/>
-      <c r="G116" s="248"/>
+      <c r="F116" s="249"/>
+      <c r="G116" s="249"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="246" t="s">
+      <c r="E132" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="246"/>
-      <c r="G132" s="246"/>
+      <c r="F132" s="253"/>
+      <c r="G132" s="253"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="247" t="s">
+      <c r="B133" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="247"/>
-      <c r="D133" s="247"/>
-      <c r="E133" s="248" t="s">
+      <c r="C133" s="248"/>
+      <c r="D133" s="248"/>
+      <c r="E133" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="248"/>
-      <c r="G133" s="248"/>
+      <c r="F133" s="249"/>
+      <c r="G133" s="249"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="246" t="s">
+      <c r="E149" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="246"/>
-      <c r="G149" s="246"/>
+      <c r="F149" s="253"/>
+      <c r="G149" s="253"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="247" t="s">
+      <c r="B150" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="247"/>
-      <c r="D150" s="247"/>
-      <c r="E150" s="248" t="s">
+      <c r="C150" s="248"/>
+      <c r="D150" s="248"/>
+      <c r="E150" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="248"/>
-      <c r="G150" s="248"/>
+      <c r="F150" s="249"/>
+      <c r="G150" s="249"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="246" t="s">
+      <c r="E166" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="246"/>
-      <c r="G166" s="246"/>
+      <c r="F166" s="253"/>
+      <c r="G166" s="253"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="247" t="s">
+      <c r="B167" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="247"/>
-      <c r="D167" s="247"/>
-      <c r="E167" s="248" t="s">
+      <c r="C167" s="248"/>
+      <c r="D167" s="248"/>
+      <c r="E167" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="248"/>
-      <c r="G167" s="248"/>
+      <c r="F167" s="249"/>
+      <c r="G167" s="249"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="E167:G167"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E9E84A-8776-477F-A663-7EDBE7092607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDE1DF-E311-4CE9-BB44-B10E43EBE76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5487,10 +5487,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5955,7 +5955,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="236" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="235" t="s">
@@ -5969,12 +5969,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="237"/>
+      <c r="A2" s="236"/>
       <c r="B2" s="235"/>
       <c r="C2" s="235"/>
     </row>
     <row r="3" spans="1:4" ht="12.85" customHeight="1">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="237" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -5985,7 +5985,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="236"/>
+      <c r="A4" s="237"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +5997,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="236"/>
+      <c r="A5" s="237"/>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
@@ -6009,7 +6009,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="236"/>
+      <c r="A6" s="237"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="236"/>
+      <c r="A7" s="237"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -6033,7 +6033,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="236"/>
+      <c r="A8" s="237"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDE1DF-E311-4CE9-BB44-B10E43EBE76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30005353-557C-45F5-9934-923F0AF0427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,50 +5491,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5543,10 +5528,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="238"/>
+      <c r="D15" s="239"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="238"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="238"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="238"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="238"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="238"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="238"/>
+      <c r="D41" s="239"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="238"/>
+      <c r="D42" s="239"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="238"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="238"/>
+      <c r="D44" s="239"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="238"/>
+      <c r="D45" s="239"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="238"/>
+      <c r="D46" s="239"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="239" t="s">
+      <c r="B47" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="239"/>
+      <c r="C47" s="238"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="238"/>
+      <c r="D71" s="239"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="238"/>
+      <c r="D72" s="239"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="238"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="238"/>
+      <c r="D74" s="239"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="238"/>
+      <c r="D75" s="239"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="239" t="s">
+      <c r="B77" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="239"/>
+      <c r="C77" s="238"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="238"/>
+      <c r="D99" s="239"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="238"/>
+      <c r="D100" s="239"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="238"/>
+      <c r="D101" s="239"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="238"/>
+      <c r="D102" s="239"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="238"/>
+      <c r="D103" s="239"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="239" t="s">
+      <c r="B105" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="239"/>
+      <c r="C105" s="238"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="238"/>
+      <c r="D128" s="239"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="238"/>
+      <c r="D129" s="239"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="238"/>
+      <c r="D130" s="239"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="238"/>
+      <c r="D131" s="239"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="238"/>
+      <c r="D132" s="239"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="239" t="s">
+      <c r="B134" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="239"/>
+      <c r="C134" s="238"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="238"/>
+      <c r="D158" s="239"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="238"/>
+      <c r="D159" s="239"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="238"/>
+      <c r="D160" s="239"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="238"/>
+      <c r="D161" s="239"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="238"/>
+      <c r="D162" s="239"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="239" t="s">
+      <c r="B164" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="239"/>
+      <c r="C164" s="238"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="238"/>
+      <c r="D179" s="239"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="238"/>
+      <c r="D180" s="239"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="238"/>
+      <c r="D181" s="239"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="238"/>
+      <c r="D182" s="239"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="238"/>
+      <c r="D183" s="239"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="238"/>
+      <c r="D184" s="239"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="239" t="s">
+      <c r="B185" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="239"/>
+      <c r="C185" s="238"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="238"/>
+      <c r="D201" s="239"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="238"/>
+      <c r="D202" s="239"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="238"/>
+      <c r="D203" s="239"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="238"/>
+      <c r="D204" s="239"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="238"/>
+      <c r="D205" s="239"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="238"/>
+      <c r="D206" s="239"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="239" t="s">
+      <c r="B207" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="239"/>
+      <c r="C207" s="238"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="238"/>
+      <c r="D242" s="239"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="238"/>
+      <c r="D243" s="239"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="238"/>
+      <c r="D244" s="239"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="238"/>
+      <c r="D245" s="239"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="238"/>
+      <c r="D246" s="239"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="239" t="s">
+      <c r="B248" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="239"/>
+      <c r="C248" s="238"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="238"/>
+      <c r="D278" s="239"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="238"/>
+      <c r="D279" s="239"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="238"/>
+      <c r="D280" s="239"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="238"/>
+      <c r="D281" s="239"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="238"/>
+      <c r="D282" s="239"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="239" t="s">
+      <c r="B284" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="239"/>
+      <c r="C284" s="238"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="238"/>
+      <c r="D304" s="239"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="238"/>
+      <c r="D305" s="239"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="238"/>
+      <c r="D306" s="239"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="238"/>
+      <c r="D307" s="239"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="238"/>
+      <c r="D308" s="239"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="239" t="s">
+      <c r="B310" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="239"/>
+      <c r="C310" s="238"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="238"/>
+      <c r="D327" s="239"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="238"/>
+      <c r="D328" s="239"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="238"/>
+      <c r="D329" s="239"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="238"/>
+      <c r="D330" s="239"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="238"/>
+      <c r="D331" s="239"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="239" t="s">
+      <c r="B333" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="239"/>
+      <c r="C333" s="238"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="238"/>
+      <c r="D349" s="239"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="238"/>
+      <c r="D350" s="239"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="238"/>
+      <c r="D351" s="239"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="238"/>
+      <c r="D352" s="239"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="238"/>
+      <c r="D353" s="239"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="239" t="s">
+      <c r="B355" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="239"/>
+      <c r="C355" s="238"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="238"/>
+      <c r="D383" s="239"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="238"/>
+      <c r="D384" s="239"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="238"/>
+      <c r="D385" s="239"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="238"/>
+      <c r="D386" s="239"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="238"/>
+      <c r="D387" s="239"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="239" t="s">
+      <c r="B389" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="239"/>
+      <c r="C389" s="238"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="238"/>
+      <c r="D418" s="239"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="238"/>
+      <c r="D419" s="239"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="238"/>
+      <c r="D420" s="239"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="238"/>
+      <c r="D421" s="239"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="238"/>
+      <c r="D422" s="239"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="239" t="s">
+      <c r="B424" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="239"/>
+      <c r="C424" s="238"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="239" t="s">
+      <c r="B451" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="239"/>
+      <c r="C451" s="238"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="238"/>
+      <c r="D469" s="239"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="238"/>
+      <c r="D470" s="239"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="238"/>
+      <c r="D471" s="239"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="238"/>
+      <c r="D472" s="239"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="238"/>
+      <c r="D473" s="239"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="239" t="s">
+      <c r="B475" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="239"/>
+      <c r="C475" s="238"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="238"/>
+      <c r="D494" s="239"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="238"/>
+      <c r="D495" s="239"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="238"/>
+      <c r="D496" s="239"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="238"/>
+      <c r="D497" s="239"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="238"/>
+      <c r="D498" s="239"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="239" t="s">
+      <c r="B500" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="239"/>
+      <c r="C500" s="238"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="238"/>
+      <c r="D519" s="239"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="238"/>
+      <c r="D520" s="239"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="238"/>
+      <c r="D521" s="239"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="238"/>
+      <c r="D522" s="239"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="238"/>
+      <c r="D523" s="239"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="239" t="s">
+      <c r="B525" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="239"/>
+      <c r="C525" s="238"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="238"/>
+      <c r="D547" s="239"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="238"/>
+      <c r="D548" s="239"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="238"/>
+      <c r="D549" s="239"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="238"/>
+      <c r="D550" s="239"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="238"/>
+      <c r="D551" s="239"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="239" t="s">
+      <c r="B553" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="239"/>
+      <c r="C553" s="238"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="238"/>
+      <c r="D580" s="239"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="238"/>
+      <c r="D581" s="239"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="238"/>
+      <c r="D582" s="239"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="238"/>
+      <c r="D583" s="239"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="238"/>
+      <c r="D584" s="239"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="239" t="s">
+      <c r="B586" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="239"/>
+      <c r="C586" s="238"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="238"/>
+      <c r="D608" s="239"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="238"/>
+      <c r="D609" s="239"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="238"/>
+      <c r="D610" s="239"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="238"/>
+      <c r="D611" s="239"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="238"/>
+      <c r="D612" s="239"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="239" t="s">
+      <c r="B614" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="239"/>
+      <c r="C614" s="238"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="239" t="s">
+      <c r="B637" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="239"/>
+      <c r="C637" s="238"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="239" t="s">
+      <c r="B660" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="239"/>
+      <c r="C660" s="238"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="239" t="s">
+      <c r="B683" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="239"/>
+      <c r="C683" s="238"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="239" t="s">
+      <c r="B711" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="239"/>
+      <c r="C711" s="238"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="238"/>
+      <c r="D729" s="239"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="238"/>
+      <c r="D730" s="239"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="238"/>
+      <c r="D731" s="239"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="238"/>
+      <c r="D732" s="239"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="238"/>
+      <c r="D733" s="239"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="239" t="s">
+      <c r="B735" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="239"/>
+      <c r="C735" s="238"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="238"/>
+      <c r="D756" s="239"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="238"/>
+      <c r="D757" s="239"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="238"/>
+      <c r="D758" s="239"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="238"/>
+      <c r="D759" s="239"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="238"/>
+      <c r="D760" s="239"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="239" t="s">
+      <c r="B762" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="239"/>
+      <c r="C762" s="238"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="239" t="s">
+      <c r="B789" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="239"/>
+      <c r="C789" s="238"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="239" t="s">
+      <c r="B816" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="239"/>
+      <c r="C816" s="238"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="238"/>
+      <c r="D839" s="239"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="238"/>
+      <c r="D840" s="239"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="238"/>
+      <c r="D841" s="239"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="238"/>
+      <c r="D842" s="239"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="238"/>
+      <c r="D843" s="239"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="238"/>
+      <c r="D844" s="239"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="239" t="s">
+      <c r="B845" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="239"/>
+      <c r="C845" s="238"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="239" t="s">
+      <c r="B876" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="239"/>
+      <c r="C876" s="238"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="239" t="s">
+      <c r="B907" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="239"/>
+      <c r="C907" s="238"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="239" t="s">
+      <c r="B931" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="239"/>
+      <c r="C931" s="238"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="239" t="s">
+      <c r="B958" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="239"/>
+      <c r="C958" s="238"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="239" t="s">
+      <c r="B981" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="239"/>
+      <c r="C981" s="238"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="239" t="s">
+      <c r="B1005" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="239"/>
+      <c r="C1005" s="238"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="239" t="s">
+      <c r="B1024" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="239"/>
+      <c r="C1024" s="238"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="238"/>
+      <c r="D1042" s="239"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="238"/>
+      <c r="D1043" s="239"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="238"/>
+      <c r="D1044" s="239"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="238"/>
+      <c r="D1045" s="239"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="238"/>
+      <c r="D1046" s="239"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="239" t="s">
+      <c r="B1048" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="239"/>
+      <c r="C1048" s="238"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="239" t="s">
+      <c r="B1070" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="239"/>
+      <c r="C1070" s="238"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="238"/>
+      <c r="D1089" s="239"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="238"/>
+      <c r="D1090" s="239"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="238"/>
+      <c r="D1091" s="239"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="238"/>
+      <c r="D1092" s="239"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="238"/>
+      <c r="D1093" s="239"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="239" t="s">
+      <c r="B1095" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="239"/>
+      <c r="C1095" s="238"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="238"/>
+      <c r="D1120" s="239"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="238"/>
+      <c r="D1121" s="239"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="238"/>
+      <c r="D1122" s="239"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="238"/>
+      <c r="D1123" s="239"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="238"/>
+      <c r="D1124" s="239"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="239" t="s">
+      <c r="B1126" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="239"/>
+      <c r="C1126" s="238"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="239" t="s">
+      <c r="B1155" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="239"/>
+      <c r="C1155" s="238"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="241"/>
+      <c r="D43" s="242"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="241"/>
+      <c r="D44" s="242"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="241"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="241"/>
+      <c r="D46" s="242"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="241"/>
+      <c r="D47" s="242"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="241"/>
+      <c r="D48" s="242"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="239" t="s">
+      <c r="B49" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="239"/>
+      <c r="C49" s="238"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="242" t="s">
+      <c r="E68" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="242"/>
+      <c r="F68" s="244"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="241"/>
+      <c r="D74" s="242"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="241"/>
+      <c r="D75" s="242"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="241"/>
+      <c r="D76" s="242"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="241"/>
+      <c r="D77" s="242"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="241"/>
+      <c r="D78" s="242"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="239" t="s">
+      <c r="B80" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="239"/>
+      <c r="C80" s="238"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="243" t="s">
+      <c r="B107" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="243"/>
+      <c r="C107" s="241"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="239" t="s">
+      <c r="B137" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="239"/>
+      <c r="C137" s="238"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="239" t="s">
+      <c r="B167" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="239"/>
+      <c r="C167" s="238"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="239" t="s">
+      <c r="B189" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="239"/>
+      <c r="C189" s="238"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="239" t="s">
+      <c r="B212" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="239"/>
+      <c r="C212" s="238"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="239" t="s">
+      <c r="B249" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="239"/>
+      <c r="C249" s="238"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="241"/>
+      <c r="D285" s="242"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="241"/>
+      <c r="D286" s="242"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="241"/>
+      <c r="D287" s="242"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="241"/>
+      <c r="D288" s="242"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="241"/>
+      <c r="D289" s="242"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="244" t="s">
+      <c r="B291" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="244"/>
+      <c r="C291" s="243"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="241"/>
+      <c r="D314" s="242"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="241"/>
+      <c r="D315" s="242"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="241"/>
+      <c r="D316" s="242"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="241"/>
+      <c r="D317" s="242"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="241"/>
+      <c r="D318" s="242"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="239" t="s">
+      <c r="B320" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="239"/>
+      <c r="C320" s="238"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="241"/>
+      <c r="D339" s="242"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="241"/>
+      <c r="D340" s="242"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="241"/>
+      <c r="D341" s="242"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="241"/>
+      <c r="D342" s="242"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="241"/>
+      <c r="D343" s="242"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="239" t="s">
+      <c r="B345" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="239"/>
+      <c r="C345" s="238"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="241"/>
+      <c r="D363" s="242"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="241"/>
+      <c r="D364" s="242"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="241"/>
+      <c r="D365" s="242"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="241"/>
+      <c r="D366" s="242"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="241"/>
+      <c r="D367" s="242"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="239" t="s">
+      <c r="B369" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="239"/>
+      <c r="C369" s="238"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="239" t="s">
+      <c r="B403" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="239"/>
+      <c r="C403" s="238"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="239" t="s">
+      <c r="B439" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="239"/>
+      <c r="C439" s="238"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="239" t="s">
+      <c r="B467" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="239"/>
+      <c r="C467" s="238"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="239" t="s">
+      <c r="B493" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="239"/>
+      <c r="C493" s="238"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="239" t="s">
+      <c r="B520" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="239"/>
+      <c r="C520" s="238"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="239" t="s">
+      <c r="B547" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="239"/>
+      <c r="C547" s="238"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="239" t="s">
+      <c r="B577" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="239"/>
+      <c r="C577" s="238"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="239" t="s">
+      <c r="B612" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="239"/>
+      <c r="C612" s="238"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="239" t="s">
+      <c r="B641" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="239"/>
+      <c r="C641" s="238"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="243" t="s">
+      <c r="B665" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="243"/>
+      <c r="C665" s="241"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="239" t="s">
+      <c r="B691" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="239"/>
+      <c r="C691" s="238"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="239" t="s">
+      <c r="B715" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="239"/>
+      <c r="C715" s="238"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="239" t="s">
+      <c r="B744" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="239"/>
+      <c r="C744" s="238"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="239" t="s">
+      <c r="B771" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="239"/>
+      <c r="C771" s="238"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="239" t="s">
+      <c r="B800" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="239"/>
+      <c r="C800" s="238"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="239" t="s">
+      <c r="B829" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="239"/>
+      <c r="C829" s="238"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="239" t="s">
+      <c r="B858" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="239"/>
+      <c r="C858" s="238"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="239" t="s">
+      <c r="B890" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="239"/>
+      <c r="C890" s="238"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="239" t="s">
+      <c r="B922" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="239"/>
+      <c r="C922" s="238"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="239" t="s">
+      <c r="B954" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="239"/>
+      <c r="C954" s="238"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="239" t="s">
+      <c r="B980" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="239"/>
+      <c r="C980" s="238"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="239" t="s">
+      <c r="B1009" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="239"/>
+      <c r="C1009" s="238"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="239" t="s">
+      <c r="B1034" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="239"/>
+      <c r="C1034" s="238"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="239" t="s">
+      <c r="B1059" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="239"/>
+      <c r="C1059" s="238"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="239" t="s">
+      <c r="B1080" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="239"/>
+      <c r="C1080" s="238"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="239" t="s">
+      <c r="B1107" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="239"/>
+      <c r="C1107" s="238"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="239" t="s">
+      <c r="B1131" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="239"/>
+      <c r="C1131" s="238"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="239" t="s">
+      <c r="B1158" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="239"/>
+      <c r="C1158" s="238"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="239" t="s">
+      <c r="B1190" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="239"/>
+      <c r="C1190" s="238"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="239" t="s">
+      <c r="B1223" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="239"/>
+      <c r="C1223" s="238"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,6 +38142,51 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38150,51 +38195,6 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="245" t="s">
+      <c r="E2" s="254" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="245"/>
+      <c r="F2" s="254"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="255" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="247" t="s">
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="250" t="s">
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="256" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="249" t="s">
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249" t="s">
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249" t="s">
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="251" t="s">
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="257" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="252" t="s">
+      <c r="T5" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="252"/>
+      <c r="T6" s="245"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253" t="s">
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="253"/>
-      <c r="M23" s="253"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253"/>
-      <c r="R23" s="253"/>
-      <c r="S23" s="253"/>
-      <c r="T23" s="253"/>
-      <c r="U23" s="253"/>
-      <c r="V23" s="253"/>
-      <c r="W23" s="253"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249" t="s">
+      <c r="C24" s="247"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="254" t="s">
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="249" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="254"/>
-      <c r="J24" s="254"/>
-      <c r="K24" s="249" t="s">
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
-      <c r="N24" s="249" t="s">
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="249"/>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="249" t="s">
+      <c r="O24" s="248"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="249"/>
-      <c r="S24" s="249"/>
-      <c r="T24" s="255" t="s">
+      <c r="R24" s="248"/>
+      <c r="S24" s="248"/>
+      <c r="T24" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="255"/>
-      <c r="V24" s="255"/>
-      <c r="W24" s="255"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="250"/>
+      <c r="W24" s="250"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="252" t="s">
+      <c r="T25" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="252"/>
+      <c r="T26" s="245"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="253"/>
-      <c r="F44" s="253"/>
-      <c r="G44" s="253"/>
-      <c r="H44" s="253"/>
-      <c r="I44" s="253"/>
-      <c r="J44" s="253"/>
-      <c r="K44" s="253" t="s">
+      <c r="C44" s="246"/>
+      <c r="D44" s="246"/>
+      <c r="E44" s="246"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="246"/>
+      <c r="H44" s="246"/>
+      <c r="I44" s="246"/>
+      <c r="J44" s="246"/>
+      <c r="K44" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="253"/>
-      <c r="M44" s="253"/>
-      <c r="N44" s="253"/>
-      <c r="O44" s="253"/>
-      <c r="P44" s="253"/>
-      <c r="Q44" s="253"/>
-      <c r="R44" s="253"/>
-      <c r="S44" s="253"/>
-      <c r="T44" s="253"/>
-      <c r="U44" s="253"/>
-      <c r="V44" s="253"/>
-      <c r="W44" s="253"/>
+      <c r="L44" s="246"/>
+      <c r="M44" s="246"/>
+      <c r="N44" s="246"/>
+      <c r="O44" s="246"/>
+      <c r="P44" s="246"/>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="246"/>
+      <c r="S44" s="246"/>
+      <c r="T44" s="246"/>
+      <c r="U44" s="246"/>
+      <c r="V44" s="246"/>
+      <c r="W44" s="246"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="248" t="s">
+      <c r="B45" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="249" t="s">
+      <c r="C45" s="247"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="254" t="s">
+      <c r="F45" s="248"/>
+      <c r="G45" s="248"/>
+      <c r="H45" s="249" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="254"/>
-      <c r="J45" s="254"/>
-      <c r="K45" s="249" t="s">
+      <c r="I45" s="249"/>
+      <c r="J45" s="249"/>
+      <c r="K45" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249" t="s">
+      <c r="L45" s="248"/>
+      <c r="M45" s="248"/>
+      <c r="N45" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249" t="s">
+      <c r="O45" s="248"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="256" t="s">
+      <c r="R45" s="248"/>
+      <c r="S45" s="248"/>
+      <c r="T45" s="253" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="256"/>
-      <c r="V45" s="256"/>
-      <c r="W45" s="256"/>
+      <c r="U45" s="253"/>
+      <c r="V45" s="253"/>
+      <c r="W45" s="253"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="257" t="s">
+      <c r="T46" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="257"/>
+      <c r="T47" s="252"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="253" t="s">
+      <c r="B62" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="253"/>
-      <c r="J62" s="253"/>
-      <c r="K62" s="253" t="s">
+      <c r="C62" s="246"/>
+      <c r="D62" s="246"/>
+      <c r="E62" s="246"/>
+      <c r="F62" s="246"/>
+      <c r="G62" s="246"/>
+      <c r="H62" s="246"/>
+      <c r="I62" s="246"/>
+      <c r="J62" s="246"/>
+      <c r="K62" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="253"/>
-      <c r="M62" s="253"/>
-      <c r="N62" s="253"/>
-      <c r="O62" s="253"/>
-      <c r="P62" s="253"/>
-      <c r="Q62" s="253"/>
-      <c r="R62" s="253"/>
-      <c r="S62" s="253"/>
-      <c r="T62" s="253"/>
-      <c r="U62" s="253"/>
-      <c r="V62" s="253"/>
-      <c r="W62" s="253"/>
+      <c r="L62" s="246"/>
+      <c r="M62" s="246"/>
+      <c r="N62" s="246"/>
+      <c r="O62" s="246"/>
+      <c r="P62" s="246"/>
+      <c r="Q62" s="246"/>
+      <c r="R62" s="246"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="246"/>
+      <c r="U62" s="246"/>
+      <c r="V62" s="246"/>
+      <c r="W62" s="246"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="248"/>
-      <c r="D63" s="248"/>
-      <c r="E63" s="249" t="s">
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="248" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="254" t="s">
+      <c r="F63" s="248"/>
+      <c r="G63" s="248"/>
+      <c r="H63" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="254"/>
-      <c r="J63" s="254"/>
-      <c r="K63" s="249" t="s">
+      <c r="I63" s="249"/>
+      <c r="J63" s="249"/>
+      <c r="K63" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="249"/>
-      <c r="M63" s="249"/>
-      <c r="N63" s="249" t="s">
+      <c r="L63" s="248"/>
+      <c r="M63" s="248"/>
+      <c r="N63" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="249"/>
-      <c r="P63" s="249"/>
-      <c r="Q63" s="249" t="s">
+      <c r="O63" s="248"/>
+      <c r="P63" s="248"/>
+      <c r="Q63" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="249"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="255" t="s">
+      <c r="R63" s="248"/>
+      <c r="S63" s="248"/>
+      <c r="T63" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="255"/>
-      <c r="V63" s="255"/>
-      <c r="W63" s="255"/>
+      <c r="U63" s="250"/>
+      <c r="V63" s="250"/>
+      <c r="W63" s="250"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="252" t="s">
+      <c r="T64" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="252"/>
+      <c r="T65" s="245"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="253" t="s">
+      <c r="B85" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="253"/>
-      <c r="D85" s="253"/>
-      <c r="E85" s="253"/>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
-      <c r="H85" s="253"/>
-      <c r="I85" s="253"/>
-      <c r="J85" s="253"/>
-      <c r="K85" s="253" t="s">
+      <c r="C85" s="246"/>
+      <c r="D85" s="246"/>
+      <c r="E85" s="246"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
+      <c r="H85" s="246"/>
+      <c r="I85" s="246"/>
+      <c r="J85" s="246"/>
+      <c r="K85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="253"/>
-      <c r="M85" s="253"/>
-      <c r="N85" s="253"/>
-      <c r="O85" s="253"/>
-      <c r="P85" s="253"/>
-      <c r="Q85" s="253"/>
-      <c r="R85" s="253"/>
-      <c r="S85" s="253"/>
-      <c r="T85" s="253"/>
-      <c r="U85" s="253"/>
-      <c r="V85" s="253"/>
-      <c r="W85" s="253"/>
+      <c r="L85" s="246"/>
+      <c r="M85" s="246"/>
+      <c r="N85" s="246"/>
+      <c r="O85" s="246"/>
+      <c r="P85" s="246"/>
+      <c r="Q85" s="246"/>
+      <c r="R85" s="246"/>
+      <c r="S85" s="246"/>
+      <c r="T85" s="246"/>
+      <c r="U85" s="246"/>
+      <c r="V85" s="246"/>
+      <c r="W85" s="246"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
-      <c r="H86" s="254" t="s">
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
+      <c r="H86" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="254"/>
-      <c r="J86" s="254"/>
-      <c r="K86" s="249" t="s">
+      <c r="I86" s="249"/>
+      <c r="J86" s="249"/>
+      <c r="K86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="249"/>
-      <c r="M86" s="249"/>
-      <c r="N86" s="249" t="s">
+      <c r="L86" s="248"/>
+      <c r="M86" s="248"/>
+      <c r="N86" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="249"/>
-      <c r="P86" s="249"/>
-      <c r="Q86" s="249" t="s">
+      <c r="O86" s="248"/>
+      <c r="P86" s="248"/>
+      <c r="Q86" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="249"/>
-      <c r="S86" s="249"/>
-      <c r="T86" s="255" t="s">
+      <c r="R86" s="248"/>
+      <c r="S86" s="248"/>
+      <c r="T86" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="255"/>
-      <c r="V86" s="255"/>
-      <c r="W86" s="255"/>
+      <c r="U86" s="250"/>
+      <c r="V86" s="250"/>
+      <c r="W86" s="250"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="252" t="s">
+      <c r="T87" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="252"/>
+      <c r="T88" s="245"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="253" t="s">
+      <c r="B107" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="253"/>
-      <c r="D107" s="253"/>
-      <c r="E107" s="253"/>
-      <c r="F107" s="253"/>
-      <c r="G107" s="253"/>
-      <c r="H107" s="253"/>
-      <c r="I107" s="253"/>
-      <c r="J107" s="253"/>
-      <c r="K107" s="253" t="s">
+      <c r="C107" s="246"/>
+      <c r="D107" s="246"/>
+      <c r="E107" s="246"/>
+      <c r="F107" s="246"/>
+      <c r="G107" s="246"/>
+      <c r="H107" s="246"/>
+      <c r="I107" s="246"/>
+      <c r="J107" s="246"/>
+      <c r="K107" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="253"/>
-      <c r="M107" s="253"/>
-      <c r="N107" s="253"/>
-      <c r="O107" s="253"/>
-      <c r="P107" s="253"/>
-      <c r="Q107" s="253"/>
-      <c r="R107" s="253"/>
-      <c r="S107" s="253"/>
-      <c r="T107" s="253"/>
-      <c r="U107" s="253"/>
-      <c r="V107" s="253"/>
-      <c r="W107" s="253"/>
+      <c r="L107" s="246"/>
+      <c r="M107" s="246"/>
+      <c r="N107" s="246"/>
+      <c r="O107" s="246"/>
+      <c r="P107" s="246"/>
+      <c r="Q107" s="246"/>
+      <c r="R107" s="246"/>
+      <c r="S107" s="246"/>
+      <c r="T107" s="246"/>
+      <c r="U107" s="246"/>
+      <c r="V107" s="246"/>
+      <c r="W107" s="246"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="248" t="s">
+      <c r="B108" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="248"/>
-      <c r="D108" s="248"/>
-      <c r="E108" s="249" t="s">
+      <c r="C108" s="247"/>
+      <c r="D108" s="247"/>
+      <c r="E108" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="249"/>
-      <c r="G108" s="249"/>
-      <c r="H108" s="254" t="s">
+      <c r="F108" s="248"/>
+      <c r="G108" s="248"/>
+      <c r="H108" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="254"/>
-      <c r="J108" s="254"/>
-      <c r="K108" s="249" t="s">
+      <c r="I108" s="249"/>
+      <c r="J108" s="249"/>
+      <c r="K108" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="249"/>
-      <c r="M108" s="249"/>
-      <c r="N108" s="249" t="s">
+      <c r="L108" s="248"/>
+      <c r="M108" s="248"/>
+      <c r="N108" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="249"/>
-      <c r="P108" s="249"/>
-      <c r="Q108" s="249" t="s">
+      <c r="O108" s="248"/>
+      <c r="P108" s="248"/>
+      <c r="Q108" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="249"/>
-      <c r="S108" s="249"/>
-      <c r="T108" s="255" t="s">
+      <c r="R108" s="248"/>
+      <c r="S108" s="248"/>
+      <c r="T108" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="255"/>
-      <c r="V108" s="255"/>
-      <c r="W108" s="255"/>
+      <c r="U108" s="250"/>
+      <c r="V108" s="250"/>
+      <c r="W108" s="250"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="252" t="s">
+      <c r="T109" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="252"/>
+      <c r="T110" s="245"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="253" t="s">
+      <c r="B128" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="253"/>
-      <c r="D128" s="253"/>
-      <c r="E128" s="253"/>
-      <c r="F128" s="253"/>
-      <c r="G128" s="253"/>
-      <c r="H128" s="253"/>
-      <c r="I128" s="253"/>
-      <c r="J128" s="253"/>
-      <c r="K128" s="253" t="s">
+      <c r="C128" s="246"/>
+      <c r="D128" s="246"/>
+      <c r="E128" s="246"/>
+      <c r="F128" s="246"/>
+      <c r="G128" s="246"/>
+      <c r="H128" s="246"/>
+      <c r="I128" s="246"/>
+      <c r="J128" s="246"/>
+      <c r="K128" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="253"/>
-      <c r="M128" s="253"/>
-      <c r="N128" s="253"/>
-      <c r="O128" s="253"/>
-      <c r="P128" s="253"/>
-      <c r="Q128" s="253"/>
-      <c r="R128" s="253"/>
-      <c r="S128" s="253"/>
-      <c r="T128" s="253"/>
-      <c r="U128" s="253"/>
-      <c r="V128" s="253"/>
-      <c r="W128" s="253"/>
+      <c r="L128" s="246"/>
+      <c r="M128" s="246"/>
+      <c r="N128" s="246"/>
+      <c r="O128" s="246"/>
+      <c r="P128" s="246"/>
+      <c r="Q128" s="246"/>
+      <c r="R128" s="246"/>
+      <c r="S128" s="246"/>
+      <c r="T128" s="246"/>
+      <c r="U128" s="246"/>
+      <c r="V128" s="246"/>
+      <c r="W128" s="246"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="248" t="s">
+      <c r="B129" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="248"/>
-      <c r="D129" s="248"/>
-      <c r="E129" s="249" t="s">
+      <c r="C129" s="247"/>
+      <c r="D129" s="247"/>
+      <c r="E129" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="249"/>
-      <c r="G129" s="249"/>
-      <c r="H129" s="254" t="s">
+      <c r="F129" s="248"/>
+      <c r="G129" s="248"/>
+      <c r="H129" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="254"/>
-      <c r="J129" s="254"/>
-      <c r="K129" s="249" t="s">
+      <c r="I129" s="249"/>
+      <c r="J129" s="249"/>
+      <c r="K129" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="249"/>
-      <c r="M129" s="249"/>
-      <c r="N129" s="249" t="s">
+      <c r="L129" s="248"/>
+      <c r="M129" s="248"/>
+      <c r="N129" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="249"/>
-      <c r="P129" s="249"/>
-      <c r="Q129" s="249" t="s">
+      <c r="O129" s="248"/>
+      <c r="P129" s="248"/>
+      <c r="Q129" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="249"/>
-      <c r="S129" s="249"/>
-      <c r="T129" s="255" t="s">
+      <c r="R129" s="248"/>
+      <c r="S129" s="248"/>
+      <c r="T129" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="255"/>
-      <c r="V129" s="255"/>
-      <c r="W129" s="255"/>
+      <c r="U129" s="250"/>
+      <c r="V129" s="250"/>
+      <c r="W129" s="250"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="252" t="s">
+      <c r="T130" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="252"/>
+      <c r="T131" s="245"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="253" t="s">
+      <c r="B142" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="253"/>
-      <c r="D142" s="253"/>
-      <c r="E142" s="253"/>
-      <c r="F142" s="253"/>
-      <c r="G142" s="253"/>
-      <c r="H142" s="253"/>
-      <c r="I142" s="253"/>
-      <c r="J142" s="253"/>
-      <c r="K142" s="253" t="s">
+      <c r="C142" s="246"/>
+      <c r="D142" s="246"/>
+      <c r="E142" s="246"/>
+      <c r="F142" s="246"/>
+      <c r="G142" s="246"/>
+      <c r="H142" s="246"/>
+      <c r="I142" s="246"/>
+      <c r="J142" s="246"/>
+      <c r="K142" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="253"/>
-      <c r="M142" s="253"/>
-      <c r="N142" s="253"/>
-      <c r="O142" s="253"/>
-      <c r="P142" s="253"/>
-      <c r="Q142" s="253"/>
-      <c r="R142" s="253"/>
-      <c r="S142" s="253"/>
-      <c r="T142" s="253"/>
-      <c r="U142" s="253"/>
-      <c r="V142" s="253"/>
-      <c r="W142" s="253"/>
+      <c r="L142" s="246"/>
+      <c r="M142" s="246"/>
+      <c r="N142" s="246"/>
+      <c r="O142" s="246"/>
+      <c r="P142" s="246"/>
+      <c r="Q142" s="246"/>
+      <c r="R142" s="246"/>
+      <c r="S142" s="246"/>
+      <c r="T142" s="246"/>
+      <c r="U142" s="246"/>
+      <c r="V142" s="246"/>
+      <c r="W142" s="246"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="248" t="s">
+      <c r="B143" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="248"/>
-      <c r="D143" s="248"/>
-      <c r="E143" s="249" t="s">
+      <c r="C143" s="247"/>
+      <c r="D143" s="247"/>
+      <c r="E143" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="249"/>
-      <c r="G143" s="249"/>
-      <c r="H143" s="254" t="s">
+      <c r="F143" s="248"/>
+      <c r="G143" s="248"/>
+      <c r="H143" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="254"/>
-      <c r="J143" s="254"/>
-      <c r="K143" s="249" t="s">
+      <c r="I143" s="249"/>
+      <c r="J143" s="249"/>
+      <c r="K143" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="249"/>
-      <c r="M143" s="249"/>
-      <c r="N143" s="249" t="s">
+      <c r="L143" s="248"/>
+      <c r="M143" s="248"/>
+      <c r="N143" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="249"/>
-      <c r="P143" s="249"/>
-      <c r="Q143" s="249" t="s">
+      <c r="O143" s="248"/>
+      <c r="P143" s="248"/>
+      <c r="Q143" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="249"/>
-      <c r="S143" s="249"/>
-      <c r="T143" s="255" t="s">
+      <c r="R143" s="248"/>
+      <c r="S143" s="248"/>
+      <c r="T143" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="255"/>
-      <c r="V143" s="255"/>
-      <c r="W143" s="255"/>
+      <c r="U143" s="250"/>
+      <c r="V143" s="250"/>
+      <c r="W143" s="250"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="252" t="s">
+      <c r="T144" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="252"/>
+      <c r="T145" s="245"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="247" t="s">
+      <c r="B157" s="251" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="247"/>
-      <c r="D157" s="247"/>
-      <c r="E157" s="247"/>
-      <c r="F157" s="247"/>
-      <c r="G157" s="247"/>
-      <c r="H157" s="247"/>
-      <c r="I157" s="247"/>
-      <c r="J157" s="247"/>
-      <c r="K157" s="247" t="s">
+      <c r="C157" s="251"/>
+      <c r="D157" s="251"/>
+      <c r="E157" s="251"/>
+      <c r="F157" s="251"/>
+      <c r="G157" s="251"/>
+      <c r="H157" s="251"/>
+      <c r="I157" s="251"/>
+      <c r="J157" s="251"/>
+      <c r="K157" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="247"/>
-      <c r="M157" s="247"/>
-      <c r="N157" s="247"/>
-      <c r="O157" s="247"/>
-      <c r="P157" s="247"/>
-      <c r="Q157" s="247"/>
-      <c r="R157" s="247"/>
-      <c r="S157" s="247"/>
-      <c r="T157" s="247"/>
-      <c r="U157" s="247"/>
-      <c r="V157" s="247"/>
-      <c r="W157" s="247"/>
+      <c r="L157" s="251"/>
+      <c r="M157" s="251"/>
+      <c r="N157" s="251"/>
+      <c r="O157" s="251"/>
+      <c r="P157" s="251"/>
+      <c r="Q157" s="251"/>
+      <c r="R157" s="251"/>
+      <c r="S157" s="251"/>
+      <c r="T157" s="251"/>
+      <c r="U157" s="251"/>
+      <c r="V157" s="251"/>
+      <c r="W157" s="251"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="248" t="s">
+      <c r="B158" s="247" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="248"/>
-      <c r="D158" s="248"/>
-      <c r="E158" s="249" t="s">
+      <c r="C158" s="247"/>
+      <c r="D158" s="247"/>
+      <c r="E158" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="249"/>
-      <c r="G158" s="249"/>
-      <c r="H158" s="254" t="s">
+      <c r="F158" s="248"/>
+      <c r="G158" s="248"/>
+      <c r="H158" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="254"/>
-      <c r="J158" s="254"/>
-      <c r="K158" s="249" t="s">
+      <c r="I158" s="249"/>
+      <c r="J158" s="249"/>
+      <c r="K158" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="249"/>
-      <c r="M158" s="249"/>
-      <c r="N158" s="249" t="s">
+      <c r="L158" s="248"/>
+      <c r="M158" s="248"/>
+      <c r="N158" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="249"/>
-      <c r="P158" s="249"/>
-      <c r="Q158" s="249" t="s">
+      <c r="O158" s="248"/>
+      <c r="P158" s="248"/>
+      <c r="Q158" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="249"/>
-      <c r="S158" s="249"/>
-      <c r="T158" s="255" t="s">
+      <c r="R158" s="248"/>
+      <c r="S158" s="248"/>
+      <c r="T158" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="255"/>
-      <c r="V158" s="255"/>
-      <c r="W158" s="255"/>
+      <c r="U158" s="250"/>
+      <c r="V158" s="250"/>
+      <c r="W158" s="250"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="252" t="s">
+      <c r="T159" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="252"/>
+      <c r="T160" s="245"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="252"/>
+      <c r="T161" s="245"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="253" t="s">
+      <c r="B172" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="253"/>
-      <c r="D172" s="253"/>
-      <c r="E172" s="253"/>
-      <c r="F172" s="253"/>
-      <c r="G172" s="253"/>
-      <c r="H172" s="253"/>
-      <c r="I172" s="253"/>
-      <c r="J172" s="253"/>
-      <c r="K172" s="253" t="s">
+      <c r="C172" s="246"/>
+      <c r="D172" s="246"/>
+      <c r="E172" s="246"/>
+      <c r="F172" s="246"/>
+      <c r="G172" s="246"/>
+      <c r="H172" s="246"/>
+      <c r="I172" s="246"/>
+      <c r="J172" s="246"/>
+      <c r="K172" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="253"/>
-      <c r="M172" s="253"/>
-      <c r="N172" s="253"/>
-      <c r="O172" s="253"/>
-      <c r="P172" s="253"/>
-      <c r="Q172" s="253"/>
-      <c r="R172" s="253"/>
-      <c r="S172" s="253"/>
-      <c r="T172" s="253"/>
-      <c r="U172" s="253"/>
-      <c r="V172" s="253"/>
-      <c r="W172" s="253"/>
+      <c r="L172" s="246"/>
+      <c r="M172" s="246"/>
+      <c r="N172" s="246"/>
+      <c r="O172" s="246"/>
+      <c r="P172" s="246"/>
+      <c r="Q172" s="246"/>
+      <c r="R172" s="246"/>
+      <c r="S172" s="246"/>
+      <c r="T172" s="246"/>
+      <c r="U172" s="246"/>
+      <c r="V172" s="246"/>
+      <c r="W172" s="246"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="248" t="s">
+      <c r="B173" s="247" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="248"/>
-      <c r="D173" s="248"/>
-      <c r="E173" s="249" t="s">
+      <c r="C173" s="247"/>
+      <c r="D173" s="247"/>
+      <c r="E173" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="249"/>
-      <c r="G173" s="249"/>
-      <c r="H173" s="254" t="s">
+      <c r="F173" s="248"/>
+      <c r="G173" s="248"/>
+      <c r="H173" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="254"/>
-      <c r="J173" s="254"/>
-      <c r="K173" s="249" t="s">
+      <c r="I173" s="249"/>
+      <c r="J173" s="249"/>
+      <c r="K173" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="249"/>
-      <c r="M173" s="249"/>
-      <c r="N173" s="249" t="s">
+      <c r="L173" s="248"/>
+      <c r="M173" s="248"/>
+      <c r="N173" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="249"/>
-      <c r="P173" s="249"/>
-      <c r="Q173" s="249" t="s">
+      <c r="O173" s="248"/>
+      <c r="P173" s="248"/>
+      <c r="Q173" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="249"/>
-      <c r="S173" s="249"/>
-      <c r="T173" s="255" t="s">
+      <c r="R173" s="248"/>
+      <c r="S173" s="248"/>
+      <c r="T173" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="255"/>
-      <c r="V173" s="255"/>
-      <c r="W173" s="255"/>
+      <c r="U173" s="250"/>
+      <c r="V173" s="250"/>
+      <c r="W173" s="250"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="252" t="s">
+      <c r="T174" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="252"/>
+      <c r="T175" s="245"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,6 +44442,96 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44453,96 +44543,6 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="253" t="s">
+      <c r="E3" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="253" t="s">
+      <c r="E15" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249" t="s">
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="253" t="s">
+      <c r="E27" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249" t="s">
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="253" t="s">
+      <c r="E39" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="246"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="249" t="s">
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="248"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="253" t="s">
+      <c r="E57" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="253"/>
-      <c r="G57" s="253"/>
+      <c r="F57" s="246"/>
+      <c r="G57" s="246"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="248"/>
-      <c r="D58" s="248"/>
-      <c r="E58" s="249" t="s">
+      <c r="C58" s="247"/>
+      <c r="D58" s="247"/>
+      <c r="E58" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="249"/>
-      <c r="G58" s="249"/>
+      <c r="F58" s="248"/>
+      <c r="G58" s="248"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="253" t="s">
+      <c r="E72" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="G72" s="253"/>
+      <c r="F72" s="246"/>
+      <c r="G72" s="246"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="248" t="s">
+      <c r="B73" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="248"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="249" t="s">
+      <c r="C73" s="247"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="249"/>
-      <c r="G73" s="249"/>
+      <c r="F73" s="248"/>
+      <c r="G73" s="248"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="253" t="s">
+      <c r="E85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="253" t="s">
+      <c r="E98" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="253"/>
-      <c r="G98" s="253"/>
+      <c r="F98" s="246"/>
+      <c r="G98" s="246"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="248" t="s">
+      <c r="B99" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="248"/>
-      <c r="D99" s="248"/>
-      <c r="E99" s="249" t="s">
+      <c r="C99" s="247"/>
+      <c r="D99" s="247"/>
+      <c r="E99" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="249"/>
-      <c r="G99" s="249"/>
+      <c r="F99" s="248"/>
+      <c r="G99" s="248"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="253" t="s">
+      <c r="E115" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="253"/>
-      <c r="G115" s="253"/>
+      <c r="F115" s="246"/>
+      <c r="G115" s="246"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="248" t="s">
+      <c r="B116" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="248"/>
-      <c r="D116" s="248"/>
-      <c r="E116" s="249" t="s">
+      <c r="C116" s="247"/>
+      <c r="D116" s="247"/>
+      <c r="E116" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="249"/>
-      <c r="G116" s="249"/>
+      <c r="F116" s="248"/>
+      <c r="G116" s="248"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="253" t="s">
+      <c r="E132" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="253"/>
-      <c r="G132" s="253"/>
+      <c r="F132" s="246"/>
+      <c r="G132" s="246"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="248" t="s">
+      <c r="B133" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="248"/>
-      <c r="D133" s="248"/>
-      <c r="E133" s="249" t="s">
+      <c r="C133" s="247"/>
+      <c r="D133" s="247"/>
+      <c r="E133" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="249"/>
-      <c r="G133" s="249"/>
+      <c r="F133" s="248"/>
+      <c r="G133" s="248"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="253" t="s">
+      <c r="E149" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="253"/>
-      <c r="G149" s="253"/>
+      <c r="F149" s="246"/>
+      <c r="G149" s="246"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="248" t="s">
+      <c r="B150" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="248"/>
-      <c r="D150" s="248"/>
-      <c r="E150" s="249" t="s">
+      <c r="C150" s="247"/>
+      <c r="D150" s="247"/>
+      <c r="E150" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="249"/>
-      <c r="G150" s="249"/>
+      <c r="F150" s="248"/>
+      <c r="G150" s="248"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="253" t="s">
+      <c r="E166" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="253"/>
-      <c r="G166" s="253"/>
+      <c r="F166" s="246"/>
+      <c r="G166" s="246"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="248" t="s">
+      <c r="B167" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="248"/>
-      <c r="D167" s="248"/>
-      <c r="E167" s="249" t="s">
+      <c r="C167" s="247"/>
+      <c r="D167" s="247"/>
+      <c r="E167" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="249"/>
-      <c r="G167" s="249"/>
+      <c r="F167" s="248"/>
+      <c r="G167" s="248"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="E150:G150"/>
     <mergeCell ref="B166:D166"/>
     <mergeCell ref="E166:G166"/>
     <mergeCell ref="B167:D167"/>
     <mergeCell ref="E167:G167"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30005353-557C-45F5-9934-923F0AF0427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E441FF4-92C5-4EF9-AC36-D49EDEDE933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,35 +5491,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5528,25 +5543,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="239"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="239"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="239"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="239"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="239"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="239"/>
+      <c r="D41" s="238"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="239"/>
+      <c r="D42" s="238"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="239"/>
+      <c r="D43" s="238"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="239"/>
+      <c r="D44" s="238"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="239"/>
+      <c r="D45" s="238"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="239"/>
+      <c r="D46" s="238"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="238" t="s">
+      <c r="B47" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="238"/>
+      <c r="C47" s="239"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="239"/>
+      <c r="D71" s="238"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="239"/>
+      <c r="D72" s="238"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="239"/>
+      <c r="D73" s="238"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="239"/>
+      <c r="D74" s="238"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="239"/>
+      <c r="D75" s="238"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="238" t="s">
+      <c r="B77" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="238"/>
+      <c r="C77" s="239"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="239"/>
+      <c r="D99" s="238"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="239"/>
+      <c r="D100" s="238"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="239"/>
+      <c r="D101" s="238"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="239"/>
+      <c r="D102" s="238"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="239"/>
+      <c r="D103" s="238"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="238" t="s">
+      <c r="B105" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="238"/>
+      <c r="C105" s="239"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="239"/>
+      <c r="D128" s="238"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="239"/>
+      <c r="D129" s="238"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="239"/>
+      <c r="D130" s="238"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="239"/>
+      <c r="D131" s="238"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="239"/>
+      <c r="D132" s="238"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="238" t="s">
+      <c r="B134" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="238"/>
+      <c r="C134" s="239"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="239"/>
+      <c r="D158" s="238"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="239"/>
+      <c r="D159" s="238"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="239"/>
+      <c r="D160" s="238"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="239"/>
+      <c r="D161" s="238"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="239"/>
+      <c r="D162" s="238"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="238" t="s">
+      <c r="B164" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="238"/>
+      <c r="C164" s="239"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="239"/>
+      <c r="D179" s="238"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="239"/>
+      <c r="D180" s="238"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="239"/>
+      <c r="D181" s="238"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="239"/>
+      <c r="D182" s="238"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="239"/>
+      <c r="D183" s="238"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="239"/>
+      <c r="D184" s="238"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="238" t="s">
+      <c r="B185" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="238"/>
+      <c r="C185" s="239"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="239"/>
+      <c r="D201" s="238"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="239"/>
+      <c r="D202" s="238"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="239"/>
+      <c r="D203" s="238"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="239"/>
+      <c r="D204" s="238"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="239"/>
+      <c r="D205" s="238"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="239"/>
+      <c r="D206" s="238"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="238" t="s">
+      <c r="B207" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="238"/>
+      <c r="C207" s="239"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="239"/>
+      <c r="D242" s="238"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="239"/>
+      <c r="D243" s="238"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="239"/>
+      <c r="D244" s="238"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="239"/>
+      <c r="D245" s="238"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="239"/>
+      <c r="D246" s="238"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="238" t="s">
+      <c r="B248" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="238"/>
+      <c r="C248" s="239"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="239"/>
+      <c r="D278" s="238"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="239"/>
+      <c r="D279" s="238"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="239"/>
+      <c r="D280" s="238"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="239"/>
+      <c r="D281" s="238"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="239"/>
+      <c r="D282" s="238"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="238" t="s">
+      <c r="B284" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="238"/>
+      <c r="C284" s="239"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="239"/>
+      <c r="D304" s="238"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="239"/>
+      <c r="D305" s="238"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="239"/>
+      <c r="D306" s="238"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="239"/>
+      <c r="D307" s="238"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="239"/>
+      <c r="D308" s="238"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="238" t="s">
+      <c r="B310" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="238"/>
+      <c r="C310" s="239"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="239"/>
+      <c r="D327" s="238"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="239"/>
+      <c r="D328" s="238"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="239"/>
+      <c r="D329" s="238"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="239"/>
+      <c r="D330" s="238"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="239"/>
+      <c r="D331" s="238"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="238" t="s">
+      <c r="B333" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="238"/>
+      <c r="C333" s="239"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="239"/>
+      <c r="D349" s="238"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="239"/>
+      <c r="D350" s="238"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="239"/>
+      <c r="D351" s="238"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="239"/>
+      <c r="D352" s="238"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="239"/>
+      <c r="D353" s="238"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="238" t="s">
+      <c r="B355" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="238"/>
+      <c r="C355" s="239"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="239"/>
+      <c r="D383" s="238"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="239"/>
+      <c r="D384" s="238"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="239"/>
+      <c r="D385" s="238"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="239"/>
+      <c r="D386" s="238"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="239"/>
+      <c r="D387" s="238"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="238" t="s">
+      <c r="B389" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="238"/>
+      <c r="C389" s="239"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="239"/>
+      <c r="D418" s="238"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="239"/>
+      <c r="D419" s="238"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="239"/>
+      <c r="D420" s="238"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="239"/>
+      <c r="D421" s="238"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="239"/>
+      <c r="D422" s="238"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="238" t="s">
+      <c r="B424" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="238"/>
+      <c r="C424" s="239"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="238" t="s">
+      <c r="B451" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="238"/>
+      <c r="C451" s="239"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="239"/>
+      <c r="D469" s="238"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="239"/>
+      <c r="D470" s="238"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="239"/>
+      <c r="D471" s="238"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="239"/>
+      <c r="D472" s="238"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="239"/>
+      <c r="D473" s="238"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="238" t="s">
+      <c r="B475" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="238"/>
+      <c r="C475" s="239"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="239"/>
+      <c r="D494" s="238"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="239"/>
+      <c r="D495" s="238"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="239"/>
+      <c r="D496" s="238"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="239"/>
+      <c r="D497" s="238"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="239"/>
+      <c r="D498" s="238"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="238" t="s">
+      <c r="B500" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="238"/>
+      <c r="C500" s="239"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="239"/>
+      <c r="D519" s="238"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="239"/>
+      <c r="D520" s="238"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="239"/>
+      <c r="D521" s="238"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="239"/>
+      <c r="D522" s="238"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="239"/>
+      <c r="D523" s="238"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="238" t="s">
+      <c r="B525" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="238"/>
+      <c r="C525" s="239"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="239"/>
+      <c r="D547" s="238"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="239"/>
+      <c r="D548" s="238"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="239"/>
+      <c r="D549" s="238"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="239"/>
+      <c r="D550" s="238"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="239"/>
+      <c r="D551" s="238"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="238" t="s">
+      <c r="B553" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="238"/>
+      <c r="C553" s="239"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="239"/>
+      <c r="D580" s="238"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="239"/>
+      <c r="D581" s="238"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="239"/>
+      <c r="D582" s="238"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="239"/>
+      <c r="D583" s="238"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="239"/>
+      <c r="D584" s="238"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="238" t="s">
+      <c r="B586" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="238"/>
+      <c r="C586" s="239"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="239"/>
+      <c r="D608" s="238"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="239"/>
+      <c r="D609" s="238"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="239"/>
+      <c r="D610" s="238"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="239"/>
+      <c r="D611" s="238"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="239"/>
+      <c r="D612" s="238"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="238" t="s">
+      <c r="B614" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="238"/>
+      <c r="C614" s="239"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="238" t="s">
+      <c r="B637" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="238"/>
+      <c r="C637" s="239"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="238" t="s">
+      <c r="B660" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="238"/>
+      <c r="C660" s="239"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="238" t="s">
+      <c r="B683" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="238"/>
+      <c r="C683" s="239"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="238" t="s">
+      <c r="B711" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="238"/>
+      <c r="C711" s="239"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="239"/>
+      <c r="D729" s="238"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="239"/>
+      <c r="D730" s="238"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="239"/>
+      <c r="D731" s="238"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="239"/>
+      <c r="D732" s="238"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="239"/>
+      <c r="D733" s="238"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="238" t="s">
+      <c r="B735" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="238"/>
+      <c r="C735" s="239"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="239"/>
+      <c r="D756" s="238"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="239"/>
+      <c r="D757" s="238"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="239"/>
+      <c r="D758" s="238"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="239"/>
+      <c r="D759" s="238"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="239"/>
+      <c r="D760" s="238"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="238" t="s">
+      <c r="B762" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="238"/>
+      <c r="C762" s="239"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="238" t="s">
+      <c r="B789" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="238"/>
+      <c r="C789" s="239"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="238" t="s">
+      <c r="B816" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="238"/>
+      <c r="C816" s="239"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="239"/>
+      <c r="D839" s="238"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="239"/>
+      <c r="D840" s="238"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="239"/>
+      <c r="D841" s="238"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="239"/>
+      <c r="D842" s="238"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="239"/>
+      <c r="D843" s="238"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="239"/>
+      <c r="D844" s="238"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="238" t="s">
+      <c r="B845" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="238"/>
+      <c r="C845" s="239"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="238" t="s">
+      <c r="B876" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="238"/>
+      <c r="C876" s="239"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="238" t="s">
+      <c r="B907" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="238"/>
+      <c r="C907" s="239"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="238" t="s">
+      <c r="B931" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="238"/>
+      <c r="C931" s="239"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="238" t="s">
+      <c r="B958" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="238"/>
+      <c r="C958" s="239"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="238" t="s">
+      <c r="B981" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="238"/>
+      <c r="C981" s="239"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="238" t="s">
+      <c r="B1005" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="238"/>
+      <c r="C1005" s="239"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="238" t="s">
+      <c r="B1024" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="238"/>
+      <c r="C1024" s="239"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="239"/>
+      <c r="D1042" s="238"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="239"/>
+      <c r="D1043" s="238"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="239"/>
+      <c r="D1044" s="238"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="239"/>
+      <c r="D1045" s="238"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="239"/>
+      <c r="D1046" s="238"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="238" t="s">
+      <c r="B1048" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="238"/>
+      <c r="C1048" s="239"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="238" t="s">
+      <c r="B1070" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="238"/>
+      <c r="C1070" s="239"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="239"/>
+      <c r="D1089" s="238"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="239"/>
+      <c r="D1090" s="238"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="239"/>
+      <c r="D1091" s="238"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="239"/>
+      <c r="D1092" s="238"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="239"/>
+      <c r="D1093" s="238"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="238" t="s">
+      <c r="B1095" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="238"/>
+      <c r="C1095" s="239"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="239"/>
+      <c r="D1120" s="238"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="239"/>
+      <c r="D1121" s="238"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="239"/>
+      <c r="D1122" s="238"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="239"/>
+      <c r="D1123" s="238"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="239"/>
+      <c r="D1124" s="238"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="238" t="s">
+      <c r="B1126" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="238"/>
+      <c r="C1126" s="239"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="238" t="s">
+      <c r="B1155" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="238"/>
+      <c r="C1155" s="239"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="242"/>
+      <c r="D43" s="241"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="242"/>
+      <c r="D44" s="241"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="241"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="242"/>
+      <c r="D46" s="241"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="242"/>
+      <c r="D47" s="241"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="242"/>
+      <c r="D48" s="241"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="238" t="s">
+      <c r="B49" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="238"/>
+      <c r="C49" s="239"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="244" t="s">
+      <c r="E68" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="244"/>
+      <c r="F68" s="242"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="242"/>
+      <c r="D74" s="241"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="242"/>
+      <c r="D75" s="241"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="242"/>
+      <c r="D76" s="241"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="242"/>
+      <c r="D77" s="241"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="242"/>
+      <c r="D78" s="241"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="238" t="s">
+      <c r="B80" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="238"/>
+      <c r="C80" s="239"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="241" t="s">
+      <c r="B107" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="241"/>
+      <c r="C107" s="243"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="238" t="s">
+      <c r="B137" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="238"/>
+      <c r="C137" s="239"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="238" t="s">
+      <c r="B167" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="238"/>
+      <c r="C167" s="239"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="238" t="s">
+      <c r="B189" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="238"/>
+      <c r="C189" s="239"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="238" t="s">
+      <c r="B212" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="238"/>
+      <c r="C212" s="239"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="238" t="s">
+      <c r="B249" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="238"/>
+      <c r="C249" s="239"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="242"/>
+      <c r="D285" s="241"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="242"/>
+      <c r="D286" s="241"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="242"/>
+      <c r="D287" s="241"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="242"/>
+      <c r="D288" s="241"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="242"/>
+      <c r="D289" s="241"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="243" t="s">
+      <c r="B291" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="243"/>
+      <c r="C291" s="244"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="242"/>
+      <c r="D314" s="241"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="242"/>
+      <c r="D315" s="241"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="242"/>
+      <c r="D316" s="241"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="242"/>
+      <c r="D317" s="241"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="242"/>
+      <c r="D318" s="241"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="238" t="s">
+      <c r="B320" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="238"/>
+      <c r="C320" s="239"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="242"/>
+      <c r="D339" s="241"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="242"/>
+      <c r="D340" s="241"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="242"/>
+      <c r="D341" s="241"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="242"/>
+      <c r="D342" s="241"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="242"/>
+      <c r="D343" s="241"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="238" t="s">
+      <c r="B345" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="238"/>
+      <c r="C345" s="239"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="242"/>
+      <c r="D363" s="241"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="242"/>
+      <c r="D364" s="241"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="242"/>
+      <c r="D365" s="241"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="242"/>
+      <c r="D366" s="241"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="242"/>
+      <c r="D367" s="241"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="238" t="s">
+      <c r="B369" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="238"/>
+      <c r="C369" s="239"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="238" t="s">
+      <c r="B403" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="238"/>
+      <c r="C403" s="239"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="238" t="s">
+      <c r="B439" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="238"/>
+      <c r="C439" s="239"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="238" t="s">
+      <c r="B467" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="238"/>
+      <c r="C467" s="239"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="238" t="s">
+      <c r="B493" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="238"/>
+      <c r="C493" s="239"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="238" t="s">
+      <c r="B520" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="238"/>
+      <c r="C520" s="239"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="238" t="s">
+      <c r="B547" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="238"/>
+      <c r="C547" s="239"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="238" t="s">
+      <c r="B577" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="238"/>
+      <c r="C577" s="239"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="238" t="s">
+      <c r="B612" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="238"/>
+      <c r="C612" s="239"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="238" t="s">
+      <c r="B641" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="238"/>
+      <c r="C641" s="239"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="241" t="s">
+      <c r="B665" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="241"/>
+      <c r="C665" s="243"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="238" t="s">
+      <c r="B691" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="238"/>
+      <c r="C691" s="239"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="238" t="s">
+      <c r="B715" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="238"/>
+      <c r="C715" s="239"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="238" t="s">
+      <c r="B744" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="238"/>
+      <c r="C744" s="239"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="238" t="s">
+      <c r="B771" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="238"/>
+      <c r="C771" s="239"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="238" t="s">
+      <c r="B800" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="238"/>
+      <c r="C800" s="239"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="238" t="s">
+      <c r="B829" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="238"/>
+      <c r="C829" s="239"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="238" t="s">
+      <c r="B858" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="238"/>
+      <c r="C858" s="239"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="238" t="s">
+      <c r="B890" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="238"/>
+      <c r="C890" s="239"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="238" t="s">
+      <c r="B922" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="238"/>
+      <c r="C922" s="239"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="238" t="s">
+      <c r="B954" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="238"/>
+      <c r="C954" s="239"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="238" t="s">
+      <c r="B980" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="238"/>
+      <c r="C980" s="239"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="238" t="s">
+      <c r="B1009" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="238"/>
+      <c r="C1009" s="239"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="238" t="s">
+      <c r="B1034" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="238"/>
+      <c r="C1034" s="239"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="238" t="s">
+      <c r="B1059" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="238"/>
+      <c r="C1059" s="239"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="238" t="s">
+      <c r="B1080" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="238"/>
+      <c r="C1080" s="239"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="238" t="s">
+      <c r="B1107" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="238"/>
+      <c r="C1107" s="239"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="238" t="s">
+      <c r="B1131" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="238"/>
+      <c r="C1131" s="239"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="238" t="s">
+      <c r="B1158" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="238"/>
+      <c r="C1158" s="239"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="238" t="s">
+      <c r="B1190" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="238"/>
+      <c r="C1190" s="239"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="238" t="s">
+      <c r="B1223" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="238"/>
+      <c r="C1223" s="239"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,51 +38142,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38195,6 +38150,51 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="254" t="s">
+      <c r="E2" s="245" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="254"/>
+      <c r="F2" s="245"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="251" t="s">
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="250" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="248" t="s">
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248" t="s">
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248" t="s">
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="257" t="s">
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="251" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="257"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="245" t="s">
+      <c r="T5" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="245"/>
+      <c r="T6" s="252"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="246" t="s">
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="253"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="253"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="247" t="s">
+      <c r="B24" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="248" t="s">
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="249" t="s">
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="254" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="249"/>
-      <c r="J24" s="249"/>
-      <c r="K24" s="248" t="s">
+      <c r="I24" s="254"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="248" t="s">
+      <c r="L24" s="249"/>
+      <c r="M24" s="249"/>
+      <c r="N24" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="248"/>
-      <c r="P24" s="248"/>
-      <c r="Q24" s="248" t="s">
+      <c r="O24" s="249"/>
+      <c r="P24" s="249"/>
+      <c r="Q24" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="248"/>
-      <c r="S24" s="248"/>
-      <c r="T24" s="250" t="s">
+      <c r="R24" s="249"/>
+      <c r="S24" s="249"/>
+      <c r="T24" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="250"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="250"/>
+      <c r="U24" s="255"/>
+      <c r="V24" s="255"/>
+      <c r="W24" s="255"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="245" t="s">
+      <c r="T25" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="245"/>
+      <c r="T26" s="252"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="246" t="s">
+      <c r="B44" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="246"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="246"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="246" t="s">
+      <c r="C44" s="253"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="253"/>
+      <c r="G44" s="253"/>
+      <c r="H44" s="253"/>
+      <c r="I44" s="253"/>
+      <c r="J44" s="253"/>
+      <c r="K44" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
-      <c r="N44" s="246"/>
-      <c r="O44" s="246"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="246"/>
-      <c r="T44" s="246"/>
-      <c r="U44" s="246"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="253"/>
+      <c r="N44" s="253"/>
+      <c r="O44" s="253"/>
+      <c r="P44" s="253"/>
+      <c r="Q44" s="253"/>
+      <c r="R44" s="253"/>
+      <c r="S44" s="253"/>
+      <c r="T44" s="253"/>
+      <c r="U44" s="253"/>
+      <c r="V44" s="253"/>
+      <c r="W44" s="253"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
-      <c r="E45" s="248" t="s">
+      <c r="C45" s="248"/>
+      <c r="D45" s="248"/>
+      <c r="E45" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="248"/>
-      <c r="G45" s="248"/>
-      <c r="H45" s="249" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="254" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="248" t="s">
+      <c r="I45" s="254"/>
+      <c r="J45" s="254"/>
+      <c r="K45" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="248"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="248" t="s">
+      <c r="L45" s="249"/>
+      <c r="M45" s="249"/>
+      <c r="N45" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="248"/>
-      <c r="P45" s="248"/>
-      <c r="Q45" s="248" t="s">
+      <c r="O45" s="249"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="248"/>
-      <c r="S45" s="248"/>
-      <c r="T45" s="253" t="s">
+      <c r="R45" s="249"/>
+      <c r="S45" s="249"/>
+      <c r="T45" s="256" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="253"/>
-      <c r="V45" s="253"/>
-      <c r="W45" s="253"/>
+      <c r="U45" s="256"/>
+      <c r="V45" s="256"/>
+      <c r="W45" s="256"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="252" t="s">
+      <c r="T46" s="257" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="252"/>
+      <c r="T47" s="257"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="246" t="s">
+      <c r="B62" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="246"/>
-      <c r="D62" s="246"/>
-      <c r="E62" s="246"/>
-      <c r="F62" s="246"/>
-      <c r="G62" s="246"/>
-      <c r="H62" s="246"/>
-      <c r="I62" s="246"/>
-      <c r="J62" s="246"/>
-      <c r="K62" s="246" t="s">
+      <c r="C62" s="253"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
+      <c r="G62" s="253"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="253"/>
+      <c r="J62" s="253"/>
+      <c r="K62" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="246"/>
-      <c r="M62" s="246"/>
-      <c r="N62" s="246"/>
-      <c r="O62" s="246"/>
-      <c r="P62" s="246"/>
-      <c r="Q62" s="246"/>
-      <c r="R62" s="246"/>
-      <c r="S62" s="246"/>
-      <c r="T62" s="246"/>
-      <c r="U62" s="246"/>
-      <c r="V62" s="246"/>
-      <c r="W62" s="246"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="253"/>
+      <c r="N62" s="253"/>
+      <c r="O62" s="253"/>
+      <c r="P62" s="253"/>
+      <c r="Q62" s="253"/>
+      <c r="R62" s="253"/>
+      <c r="S62" s="253"/>
+      <c r="T62" s="253"/>
+      <c r="U62" s="253"/>
+      <c r="V62" s="253"/>
+      <c r="W62" s="253"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="247" t="s">
+      <c r="B63" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="247"/>
-      <c r="D63" s="247"/>
-      <c r="E63" s="248" t="s">
+      <c r="C63" s="248"/>
+      <c r="D63" s="248"/>
+      <c r="E63" s="249" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="248"/>
-      <c r="G63" s="248"/>
-      <c r="H63" s="249" t="s">
+      <c r="F63" s="249"/>
+      <c r="G63" s="249"/>
+      <c r="H63" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="249"/>
-      <c r="J63" s="249"/>
-      <c r="K63" s="248" t="s">
+      <c r="I63" s="254"/>
+      <c r="J63" s="254"/>
+      <c r="K63" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="248"/>
-      <c r="M63" s="248"/>
-      <c r="N63" s="248" t="s">
+      <c r="L63" s="249"/>
+      <c r="M63" s="249"/>
+      <c r="N63" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="248"/>
-      <c r="P63" s="248"/>
-      <c r="Q63" s="248" t="s">
+      <c r="O63" s="249"/>
+      <c r="P63" s="249"/>
+      <c r="Q63" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="248"/>
-      <c r="S63" s="248"/>
-      <c r="T63" s="250" t="s">
+      <c r="R63" s="249"/>
+      <c r="S63" s="249"/>
+      <c r="T63" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="250"/>
-      <c r="V63" s="250"/>
-      <c r="W63" s="250"/>
+      <c r="U63" s="255"/>
+      <c r="V63" s="255"/>
+      <c r="W63" s="255"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="245" t="s">
+      <c r="T64" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="245"/>
+      <c r="T65" s="252"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="246" t="s">
+      <c r="B85" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="246"/>
-      <c r="D85" s="246"/>
-      <c r="E85" s="246"/>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
-      <c r="H85" s="246"/>
-      <c r="I85" s="246"/>
-      <c r="J85" s="246"/>
-      <c r="K85" s="246" t="s">
+      <c r="C85" s="253"/>
+      <c r="D85" s="253"/>
+      <c r="E85" s="253"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
+      <c r="H85" s="253"/>
+      <c r="I85" s="253"/>
+      <c r="J85" s="253"/>
+      <c r="K85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="246"/>
-      <c r="M85" s="246"/>
-      <c r="N85" s="246"/>
-      <c r="O85" s="246"/>
-      <c r="P85" s="246"/>
-      <c r="Q85" s="246"/>
-      <c r="R85" s="246"/>
-      <c r="S85" s="246"/>
-      <c r="T85" s="246"/>
-      <c r="U85" s="246"/>
-      <c r="V85" s="246"/>
-      <c r="W85" s="246"/>
+      <c r="L85" s="253"/>
+      <c r="M85" s="253"/>
+      <c r="N85" s="253"/>
+      <c r="O85" s="253"/>
+      <c r="P85" s="253"/>
+      <c r="Q85" s="253"/>
+      <c r="R85" s="253"/>
+      <c r="S85" s="253"/>
+      <c r="T85" s="253"/>
+      <c r="U85" s="253"/>
+      <c r="V85" s="253"/>
+      <c r="W85" s="253"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
-      <c r="H86" s="249" t="s">
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
+      <c r="H86" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="249"/>
-      <c r="J86" s="249"/>
-      <c r="K86" s="248" t="s">
+      <c r="I86" s="254"/>
+      <c r="J86" s="254"/>
+      <c r="K86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="248"/>
-      <c r="M86" s="248"/>
-      <c r="N86" s="248" t="s">
+      <c r="L86" s="249"/>
+      <c r="M86" s="249"/>
+      <c r="N86" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="248"/>
-      <c r="P86" s="248"/>
-      <c r="Q86" s="248" t="s">
+      <c r="O86" s="249"/>
+      <c r="P86" s="249"/>
+      <c r="Q86" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="248"/>
-      <c r="S86" s="248"/>
-      <c r="T86" s="250" t="s">
+      <c r="R86" s="249"/>
+      <c r="S86" s="249"/>
+      <c r="T86" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="250"/>
-      <c r="V86" s="250"/>
-      <c r="W86" s="250"/>
+      <c r="U86" s="255"/>
+      <c r="V86" s="255"/>
+      <c r="W86" s="255"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="245" t="s">
+      <c r="T87" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="245"/>
+      <c r="T88" s="252"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="246" t="s">
+      <c r="B107" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="246"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="246"/>
-      <c r="F107" s="246"/>
-      <c r="G107" s="246"/>
-      <c r="H107" s="246"/>
-      <c r="I107" s="246"/>
-      <c r="J107" s="246"/>
-      <c r="K107" s="246" t="s">
+      <c r="C107" s="253"/>
+      <c r="D107" s="253"/>
+      <c r="E107" s="253"/>
+      <c r="F107" s="253"/>
+      <c r="G107" s="253"/>
+      <c r="H107" s="253"/>
+      <c r="I107" s="253"/>
+      <c r="J107" s="253"/>
+      <c r="K107" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="246"/>
-      <c r="M107" s="246"/>
-      <c r="N107" s="246"/>
-      <c r="O107" s="246"/>
-      <c r="P107" s="246"/>
-      <c r="Q107" s="246"/>
-      <c r="R107" s="246"/>
-      <c r="S107" s="246"/>
-      <c r="T107" s="246"/>
-      <c r="U107" s="246"/>
-      <c r="V107" s="246"/>
-      <c r="W107" s="246"/>
+      <c r="L107" s="253"/>
+      <c r="M107" s="253"/>
+      <c r="N107" s="253"/>
+      <c r="O107" s="253"/>
+      <c r="P107" s="253"/>
+      <c r="Q107" s="253"/>
+      <c r="R107" s="253"/>
+      <c r="S107" s="253"/>
+      <c r="T107" s="253"/>
+      <c r="U107" s="253"/>
+      <c r="V107" s="253"/>
+      <c r="W107" s="253"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="247" t="s">
+      <c r="B108" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="247"/>
-      <c r="D108" s="247"/>
-      <c r="E108" s="248" t="s">
+      <c r="C108" s="248"/>
+      <c r="D108" s="248"/>
+      <c r="E108" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="248"/>
-      <c r="G108" s="248"/>
-      <c r="H108" s="249" t="s">
+      <c r="F108" s="249"/>
+      <c r="G108" s="249"/>
+      <c r="H108" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="249"/>
-      <c r="J108" s="249"/>
-      <c r="K108" s="248" t="s">
+      <c r="I108" s="254"/>
+      <c r="J108" s="254"/>
+      <c r="K108" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="248"/>
-      <c r="M108" s="248"/>
-      <c r="N108" s="248" t="s">
+      <c r="L108" s="249"/>
+      <c r="M108" s="249"/>
+      <c r="N108" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="248"/>
-      <c r="P108" s="248"/>
-      <c r="Q108" s="248" t="s">
+      <c r="O108" s="249"/>
+      <c r="P108" s="249"/>
+      <c r="Q108" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="248"/>
-      <c r="S108" s="248"/>
-      <c r="T108" s="250" t="s">
+      <c r="R108" s="249"/>
+      <c r="S108" s="249"/>
+      <c r="T108" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="250"/>
-      <c r="V108" s="250"/>
-      <c r="W108" s="250"/>
+      <c r="U108" s="255"/>
+      <c r="V108" s="255"/>
+      <c r="W108" s="255"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="245" t="s">
+      <c r="T109" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="245"/>
+      <c r="T110" s="252"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="246" t="s">
+      <c r="B128" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="246"/>
-      <c r="D128" s="246"/>
-      <c r="E128" s="246"/>
-      <c r="F128" s="246"/>
-      <c r="G128" s="246"/>
-      <c r="H128" s="246"/>
-      <c r="I128" s="246"/>
-      <c r="J128" s="246"/>
-      <c r="K128" s="246" t="s">
+      <c r="C128" s="253"/>
+      <c r="D128" s="253"/>
+      <c r="E128" s="253"/>
+      <c r="F128" s="253"/>
+      <c r="G128" s="253"/>
+      <c r="H128" s="253"/>
+      <c r="I128" s="253"/>
+      <c r="J128" s="253"/>
+      <c r="K128" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="246"/>
-      <c r="M128" s="246"/>
-      <c r="N128" s="246"/>
-      <c r="O128" s="246"/>
-      <c r="P128" s="246"/>
-      <c r="Q128" s="246"/>
-      <c r="R128" s="246"/>
-      <c r="S128" s="246"/>
-      <c r="T128" s="246"/>
-      <c r="U128" s="246"/>
-      <c r="V128" s="246"/>
-      <c r="W128" s="246"/>
+      <c r="L128" s="253"/>
+      <c r="M128" s="253"/>
+      <c r="N128" s="253"/>
+      <c r="O128" s="253"/>
+      <c r="P128" s="253"/>
+      <c r="Q128" s="253"/>
+      <c r="R128" s="253"/>
+      <c r="S128" s="253"/>
+      <c r="T128" s="253"/>
+      <c r="U128" s="253"/>
+      <c r="V128" s="253"/>
+      <c r="W128" s="253"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="247" t="s">
+      <c r="B129" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="247"/>
-      <c r="D129" s="247"/>
-      <c r="E129" s="248" t="s">
+      <c r="C129" s="248"/>
+      <c r="D129" s="248"/>
+      <c r="E129" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="248"/>
-      <c r="G129" s="248"/>
-      <c r="H129" s="249" t="s">
+      <c r="F129" s="249"/>
+      <c r="G129" s="249"/>
+      <c r="H129" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="249"/>
-      <c r="J129" s="249"/>
-      <c r="K129" s="248" t="s">
+      <c r="I129" s="254"/>
+      <c r="J129" s="254"/>
+      <c r="K129" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="248"/>
-      <c r="M129" s="248"/>
-      <c r="N129" s="248" t="s">
+      <c r="L129" s="249"/>
+      <c r="M129" s="249"/>
+      <c r="N129" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="248"/>
-      <c r="P129" s="248"/>
-      <c r="Q129" s="248" t="s">
+      <c r="O129" s="249"/>
+      <c r="P129" s="249"/>
+      <c r="Q129" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="248"/>
-      <c r="S129" s="248"/>
-      <c r="T129" s="250" t="s">
+      <c r="R129" s="249"/>
+      <c r="S129" s="249"/>
+      <c r="T129" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="250"/>
-      <c r="V129" s="250"/>
-      <c r="W129" s="250"/>
+      <c r="U129" s="255"/>
+      <c r="V129" s="255"/>
+      <c r="W129" s="255"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="245" t="s">
+      <c r="T130" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="245"/>
+      <c r="T131" s="252"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="246" t="s">
+      <c r="B142" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="246"/>
-      <c r="D142" s="246"/>
-      <c r="E142" s="246"/>
-      <c r="F142" s="246"/>
-      <c r="G142" s="246"/>
-      <c r="H142" s="246"/>
-      <c r="I142" s="246"/>
-      <c r="J142" s="246"/>
-      <c r="K142" s="246" t="s">
+      <c r="C142" s="253"/>
+      <c r="D142" s="253"/>
+      <c r="E142" s="253"/>
+      <c r="F142" s="253"/>
+      <c r="G142" s="253"/>
+      <c r="H142" s="253"/>
+      <c r="I142" s="253"/>
+      <c r="J142" s="253"/>
+      <c r="K142" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="246"/>
-      <c r="M142" s="246"/>
-      <c r="N142" s="246"/>
-      <c r="O142" s="246"/>
-      <c r="P142" s="246"/>
-      <c r="Q142" s="246"/>
-      <c r="R142" s="246"/>
-      <c r="S142" s="246"/>
-      <c r="T142" s="246"/>
-      <c r="U142" s="246"/>
-      <c r="V142" s="246"/>
-      <c r="W142" s="246"/>
+      <c r="L142" s="253"/>
+      <c r="M142" s="253"/>
+      <c r="N142" s="253"/>
+      <c r="O142" s="253"/>
+      <c r="P142" s="253"/>
+      <c r="Q142" s="253"/>
+      <c r="R142" s="253"/>
+      <c r="S142" s="253"/>
+      <c r="T142" s="253"/>
+      <c r="U142" s="253"/>
+      <c r="V142" s="253"/>
+      <c r="W142" s="253"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="247" t="s">
+      <c r="B143" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="247"/>
-      <c r="D143" s="247"/>
-      <c r="E143" s="248" t="s">
+      <c r="C143" s="248"/>
+      <c r="D143" s="248"/>
+      <c r="E143" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="248"/>
-      <c r="G143" s="248"/>
-      <c r="H143" s="249" t="s">
+      <c r="F143" s="249"/>
+      <c r="G143" s="249"/>
+      <c r="H143" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="249"/>
-      <c r="J143" s="249"/>
-      <c r="K143" s="248" t="s">
+      <c r="I143" s="254"/>
+      <c r="J143" s="254"/>
+      <c r="K143" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="248"/>
-      <c r="M143" s="248"/>
-      <c r="N143" s="248" t="s">
+      <c r="L143" s="249"/>
+      <c r="M143" s="249"/>
+      <c r="N143" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="248"/>
-      <c r="P143" s="248"/>
-      <c r="Q143" s="248" t="s">
+      <c r="O143" s="249"/>
+      <c r="P143" s="249"/>
+      <c r="Q143" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="248"/>
-      <c r="S143" s="248"/>
-      <c r="T143" s="250" t="s">
+      <c r="R143" s="249"/>
+      <c r="S143" s="249"/>
+      <c r="T143" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="250"/>
-      <c r="V143" s="250"/>
-      <c r="W143" s="250"/>
+      <c r="U143" s="255"/>
+      <c r="V143" s="255"/>
+      <c r="W143" s="255"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="245" t="s">
+      <c r="T144" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="245"/>
+      <c r="T145" s="252"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="251" t="s">
+      <c r="B157" s="247" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="251"/>
-      <c r="D157" s="251"/>
-      <c r="E157" s="251"/>
-      <c r="F157" s="251"/>
-      <c r="G157" s="251"/>
-      <c r="H157" s="251"/>
-      <c r="I157" s="251"/>
-      <c r="J157" s="251"/>
-      <c r="K157" s="251" t="s">
+      <c r="C157" s="247"/>
+      <c r="D157" s="247"/>
+      <c r="E157" s="247"/>
+      <c r="F157" s="247"/>
+      <c r="G157" s="247"/>
+      <c r="H157" s="247"/>
+      <c r="I157" s="247"/>
+      <c r="J157" s="247"/>
+      <c r="K157" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="251"/>
-      <c r="M157" s="251"/>
-      <c r="N157" s="251"/>
-      <c r="O157" s="251"/>
-      <c r="P157" s="251"/>
-      <c r="Q157" s="251"/>
-      <c r="R157" s="251"/>
-      <c r="S157" s="251"/>
-      <c r="T157" s="251"/>
-      <c r="U157" s="251"/>
-      <c r="V157" s="251"/>
-      <c r="W157" s="251"/>
+      <c r="L157" s="247"/>
+      <c r="M157" s="247"/>
+      <c r="N157" s="247"/>
+      <c r="O157" s="247"/>
+      <c r="P157" s="247"/>
+      <c r="Q157" s="247"/>
+      <c r="R157" s="247"/>
+      <c r="S157" s="247"/>
+      <c r="T157" s="247"/>
+      <c r="U157" s="247"/>
+      <c r="V157" s="247"/>
+      <c r="W157" s="247"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="247" t="s">
+      <c r="B158" s="248" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="247"/>
-      <c r="D158" s="247"/>
-      <c r="E158" s="248" t="s">
+      <c r="C158" s="248"/>
+      <c r="D158" s="248"/>
+      <c r="E158" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="248"/>
-      <c r="G158" s="248"/>
-      <c r="H158" s="249" t="s">
+      <c r="F158" s="249"/>
+      <c r="G158" s="249"/>
+      <c r="H158" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="249"/>
-      <c r="J158" s="249"/>
-      <c r="K158" s="248" t="s">
+      <c r="I158" s="254"/>
+      <c r="J158" s="254"/>
+      <c r="K158" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="248"/>
-      <c r="M158" s="248"/>
-      <c r="N158" s="248" t="s">
+      <c r="L158" s="249"/>
+      <c r="M158" s="249"/>
+      <c r="N158" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="248"/>
-      <c r="P158" s="248"/>
-      <c r="Q158" s="248" t="s">
+      <c r="O158" s="249"/>
+      <c r="P158" s="249"/>
+      <c r="Q158" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="248"/>
-      <c r="S158" s="248"/>
-      <c r="T158" s="250" t="s">
+      <c r="R158" s="249"/>
+      <c r="S158" s="249"/>
+      <c r="T158" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="250"/>
-      <c r="V158" s="250"/>
-      <c r="W158" s="250"/>
+      <c r="U158" s="255"/>
+      <c r="V158" s="255"/>
+      <c r="W158" s="255"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="245" t="s">
+      <c r="T159" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="245"/>
+      <c r="T160" s="252"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="245"/>
+      <c r="T161" s="252"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="246" t="s">
+      <c r="B172" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="246"/>
-      <c r="D172" s="246"/>
-      <c r="E172" s="246"/>
-      <c r="F172" s="246"/>
-      <c r="G172" s="246"/>
-      <c r="H172" s="246"/>
-      <c r="I172" s="246"/>
-      <c r="J172" s="246"/>
-      <c r="K172" s="246" t="s">
+      <c r="C172" s="253"/>
+      <c r="D172" s="253"/>
+      <c r="E172" s="253"/>
+      <c r="F172" s="253"/>
+      <c r="G172" s="253"/>
+      <c r="H172" s="253"/>
+      <c r="I172" s="253"/>
+      <c r="J172" s="253"/>
+      <c r="K172" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="246"/>
-      <c r="M172" s="246"/>
-      <c r="N172" s="246"/>
-      <c r="O172" s="246"/>
-      <c r="P172" s="246"/>
-      <c r="Q172" s="246"/>
-      <c r="R172" s="246"/>
-      <c r="S172" s="246"/>
-      <c r="T172" s="246"/>
-      <c r="U172" s="246"/>
-      <c r="V172" s="246"/>
-      <c r="W172" s="246"/>
+      <c r="L172" s="253"/>
+      <c r="M172" s="253"/>
+      <c r="N172" s="253"/>
+      <c r="O172" s="253"/>
+      <c r="P172" s="253"/>
+      <c r="Q172" s="253"/>
+      <c r="R172" s="253"/>
+      <c r="S172" s="253"/>
+      <c r="T172" s="253"/>
+      <c r="U172" s="253"/>
+      <c r="V172" s="253"/>
+      <c r="W172" s="253"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="247" t="s">
+      <c r="B173" s="248" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="247"/>
-      <c r="D173" s="247"/>
-      <c r="E173" s="248" t="s">
+      <c r="C173" s="248"/>
+      <c r="D173" s="248"/>
+      <c r="E173" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="248"/>
-      <c r="G173" s="248"/>
-      <c r="H173" s="249" t="s">
+      <c r="F173" s="249"/>
+      <c r="G173" s="249"/>
+      <c r="H173" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="249"/>
-      <c r="J173" s="249"/>
-      <c r="K173" s="248" t="s">
+      <c r="I173" s="254"/>
+      <c r="J173" s="254"/>
+      <c r="K173" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="248"/>
-      <c r="M173" s="248"/>
-      <c r="N173" s="248" t="s">
+      <c r="L173" s="249"/>
+      <c r="M173" s="249"/>
+      <c r="N173" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="248"/>
-      <c r="P173" s="248"/>
-      <c r="Q173" s="248" t="s">
+      <c r="O173" s="249"/>
+      <c r="P173" s="249"/>
+      <c r="Q173" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="248"/>
-      <c r="S173" s="248"/>
-      <c r="T173" s="250" t="s">
+      <c r="R173" s="249"/>
+      <c r="S173" s="249"/>
+      <c r="T173" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="250"/>
-      <c r="V173" s="250"/>
-      <c r="W173" s="250"/>
+      <c r="U173" s="255"/>
+      <c r="V173" s="255"/>
+      <c r="W173" s="255"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="245" t="s">
+      <c r="T174" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="245"/>
+      <c r="T175" s="252"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,96 +44442,6 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44543,6 +44453,96 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="246" t="s">
+      <c r="E15" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="247" t="s">
+      <c r="B16" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="248" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="247" t="s">
+      <c r="B28" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
-      <c r="E28" s="248" t="s">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="246" t="s">
+      <c r="E39" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="246"/>
-      <c r="G39" s="246"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="253"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="247" t="s">
+      <c r="B40" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="247"/>
-      <c r="D40" s="247"/>
-      <c r="E40" s="248" t="s">
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="248"/>
-      <c r="G40" s="248"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="246" t="s">
+      <c r="E57" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="246"/>
-      <c r="G57" s="246"/>
+      <c r="F57" s="253"/>
+      <c r="G57" s="253"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="247" t="s">
+      <c r="B58" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="247"/>
-      <c r="D58" s="247"/>
-      <c r="E58" s="248" t="s">
+      <c r="C58" s="248"/>
+      <c r="D58" s="248"/>
+      <c r="E58" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="248"/>
-      <c r="G58" s="248"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="249"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="246" t="s">
+      <c r="E72" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="246"/>
-      <c r="G72" s="246"/>
+      <c r="F72" s="253"/>
+      <c r="G72" s="253"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="247" t="s">
+      <c r="B73" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="247"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="248" t="s">
+      <c r="C73" s="248"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="248"/>
-      <c r="G73" s="248"/>
+      <c r="F73" s="249"/>
+      <c r="G73" s="249"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="246" t="s">
+      <c r="E85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="246" t="s">
+      <c r="E98" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="246"/>
-      <c r="G98" s="246"/>
+      <c r="F98" s="253"/>
+      <c r="G98" s="253"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="247" t="s">
+      <c r="B99" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="247"/>
-      <c r="D99" s="247"/>
-      <c r="E99" s="248" t="s">
+      <c r="C99" s="248"/>
+      <c r="D99" s="248"/>
+      <c r="E99" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="248"/>
-      <c r="G99" s="248"/>
+      <c r="F99" s="249"/>
+      <c r="G99" s="249"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="246" t="s">
+      <c r="E115" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="246"/>
-      <c r="G115" s="246"/>
+      <c r="F115" s="253"/>
+      <c r="G115" s="253"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="247" t="s">
+      <c r="B116" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="247"/>
-      <c r="D116" s="247"/>
-      <c r="E116" s="248" t="s">
+      <c r="C116" s="248"/>
+      <c r="D116" s="248"/>
+      <c r="E116" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="248"/>
-      <c r="G116" s="248"/>
+      <c r="F116" s="249"/>
+      <c r="G116" s="249"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="246" t="s">
+      <c r="E132" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="246"/>
-      <c r="G132" s="246"/>
+      <c r="F132" s="253"/>
+      <c r="G132" s="253"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="247" t="s">
+      <c r="B133" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="247"/>
-      <c r="D133" s="247"/>
-      <c r="E133" s="248" t="s">
+      <c r="C133" s="248"/>
+      <c r="D133" s="248"/>
+      <c r="E133" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="248"/>
-      <c r="G133" s="248"/>
+      <c r="F133" s="249"/>
+      <c r="G133" s="249"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="246" t="s">
+      <c r="E149" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="246"/>
-      <c r="G149" s="246"/>
+      <c r="F149" s="253"/>
+      <c r="G149" s="253"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="247" t="s">
+      <c r="B150" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="247"/>
-      <c r="D150" s="247"/>
-      <c r="E150" s="248" t="s">
+      <c r="C150" s="248"/>
+      <c r="D150" s="248"/>
+      <c r="E150" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="248"/>
-      <c r="G150" s="248"/>
+      <c r="F150" s="249"/>
+      <c r="G150" s="249"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="246" t="s">
+      <c r="E166" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="246"/>
-      <c r="G166" s="246"/>
+      <c r="F166" s="253"/>
+      <c r="G166" s="253"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="247" t="s">
+      <c r="B167" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="247"/>
-      <c r="D167" s="247"/>
-      <c r="E167" s="248" t="s">
+      <c r="C167" s="248"/>
+      <c r="D167" s="248"/>
+      <c r="E167" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="248"/>
-      <c r="G167" s="248"/>
+      <c r="F167" s="249"/>
+      <c r="G167" s="249"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="E167:G167"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E441FF4-92C5-4EF9-AC36-D49EDEDE933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAB6DA-5616-4FC0-9D8F-CF6B6AB19E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,50 +5491,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5543,10 +5528,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="238"/>
+      <c r="D15" s="239"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="238"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="238"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="238"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="238"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="238"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="238"/>
+      <c r="D41" s="239"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="238"/>
+      <c r="D42" s="239"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="238"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="238"/>
+      <c r="D44" s="239"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="238"/>
+      <c r="D45" s="239"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="238"/>
+      <c r="D46" s="239"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="239" t="s">
+      <c r="B47" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="239"/>
+      <c r="C47" s="238"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="238"/>
+      <c r="D71" s="239"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="238"/>
+      <c r="D72" s="239"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="238"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="238"/>
+      <c r="D74" s="239"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="238"/>
+      <c r="D75" s="239"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="239" t="s">
+      <c r="B77" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="239"/>
+      <c r="C77" s="238"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="238"/>
+      <c r="D99" s="239"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="238"/>
+      <c r="D100" s="239"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="238"/>
+      <c r="D101" s="239"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="238"/>
+      <c r="D102" s="239"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="238"/>
+      <c r="D103" s="239"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="239" t="s">
+      <c r="B105" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="239"/>
+      <c r="C105" s="238"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="238"/>
+      <c r="D128" s="239"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="238"/>
+      <c r="D129" s="239"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="238"/>
+      <c r="D130" s="239"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="238"/>
+      <c r="D131" s="239"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="238"/>
+      <c r="D132" s="239"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="239" t="s">
+      <c r="B134" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="239"/>
+      <c r="C134" s="238"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="238"/>
+      <c r="D158" s="239"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="238"/>
+      <c r="D159" s="239"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="238"/>
+      <c r="D160" s="239"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="238"/>
+      <c r="D161" s="239"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="238"/>
+      <c r="D162" s="239"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="239" t="s">
+      <c r="B164" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="239"/>
+      <c r="C164" s="238"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="238"/>
+      <c r="D179" s="239"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="238"/>
+      <c r="D180" s="239"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="238"/>
+      <c r="D181" s="239"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="238"/>
+      <c r="D182" s="239"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="238"/>
+      <c r="D183" s="239"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="238"/>
+      <c r="D184" s="239"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="239" t="s">
+      <c r="B185" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="239"/>
+      <c r="C185" s="238"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="238"/>
+      <c r="D201" s="239"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="238"/>
+      <c r="D202" s="239"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="238"/>
+      <c r="D203" s="239"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="238"/>
+      <c r="D204" s="239"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="238"/>
+      <c r="D205" s="239"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="238"/>
+      <c r="D206" s="239"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="239" t="s">
+      <c r="B207" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="239"/>
+      <c r="C207" s="238"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="238"/>
+      <c r="D242" s="239"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="238"/>
+      <c r="D243" s="239"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="238"/>
+      <c r="D244" s="239"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="238"/>
+      <c r="D245" s="239"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="238"/>
+      <c r="D246" s="239"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="239" t="s">
+      <c r="B248" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="239"/>
+      <c r="C248" s="238"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="238"/>
+      <c r="D278" s="239"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="238"/>
+      <c r="D279" s="239"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="238"/>
+      <c r="D280" s="239"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="238"/>
+      <c r="D281" s="239"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="238"/>
+      <c r="D282" s="239"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="239" t="s">
+      <c r="B284" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="239"/>
+      <c r="C284" s="238"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="238"/>
+      <c r="D304" s="239"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="238"/>
+      <c r="D305" s="239"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="238"/>
+      <c r="D306" s="239"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="238"/>
+      <c r="D307" s="239"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="238"/>
+      <c r="D308" s="239"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="239" t="s">
+      <c r="B310" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="239"/>
+      <c r="C310" s="238"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="238"/>
+      <c r="D327" s="239"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="238"/>
+      <c r="D328" s="239"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="238"/>
+      <c r="D329" s="239"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="238"/>
+      <c r="D330" s="239"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="238"/>
+      <c r="D331" s="239"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="239" t="s">
+      <c r="B333" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="239"/>
+      <c r="C333" s="238"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="238"/>
+      <c r="D349" s="239"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="238"/>
+      <c r="D350" s="239"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="238"/>
+      <c r="D351" s="239"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="238"/>
+      <c r="D352" s="239"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="238"/>
+      <c r="D353" s="239"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="239" t="s">
+      <c r="B355" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="239"/>
+      <c r="C355" s="238"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="238"/>
+      <c r="D383" s="239"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="238"/>
+      <c r="D384" s="239"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="238"/>
+      <c r="D385" s="239"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="238"/>
+      <c r="D386" s="239"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="238"/>
+      <c r="D387" s="239"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="239" t="s">
+      <c r="B389" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="239"/>
+      <c r="C389" s="238"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="238"/>
+      <c r="D418" s="239"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="238"/>
+      <c r="D419" s="239"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="238"/>
+      <c r="D420" s="239"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="238"/>
+      <c r="D421" s="239"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="238"/>
+      <c r="D422" s="239"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="239" t="s">
+      <c r="B424" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="239"/>
+      <c r="C424" s="238"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="239" t="s">
+      <c r="B451" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="239"/>
+      <c r="C451" s="238"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="238"/>
+      <c r="D469" s="239"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="238"/>
+      <c r="D470" s="239"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="238"/>
+      <c r="D471" s="239"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="238"/>
+      <c r="D472" s="239"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="238"/>
+      <c r="D473" s="239"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="239" t="s">
+      <c r="B475" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="239"/>
+      <c r="C475" s="238"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="238"/>
+      <c r="D494" s="239"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="238"/>
+      <c r="D495" s="239"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="238"/>
+      <c r="D496" s="239"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="238"/>
+      <c r="D497" s="239"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="238"/>
+      <c r="D498" s="239"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="239" t="s">
+      <c r="B500" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="239"/>
+      <c r="C500" s="238"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="238"/>
+      <c r="D519" s="239"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="238"/>
+      <c r="D520" s="239"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="238"/>
+      <c r="D521" s="239"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="238"/>
+      <c r="D522" s="239"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="238"/>
+      <c r="D523" s="239"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="239" t="s">
+      <c r="B525" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="239"/>
+      <c r="C525" s="238"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="238"/>
+      <c r="D547" s="239"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="238"/>
+      <c r="D548" s="239"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="238"/>
+      <c r="D549" s="239"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="238"/>
+      <c r="D550" s="239"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="238"/>
+      <c r="D551" s="239"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="239" t="s">
+      <c r="B553" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="239"/>
+      <c r="C553" s="238"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="238"/>
+      <c r="D580" s="239"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="238"/>
+      <c r="D581" s="239"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="238"/>
+      <c r="D582" s="239"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="238"/>
+      <c r="D583" s="239"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="238"/>
+      <c r="D584" s="239"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="239" t="s">
+      <c r="B586" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="239"/>
+      <c r="C586" s="238"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="238"/>
+      <c r="D608" s="239"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="238"/>
+      <c r="D609" s="239"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="238"/>
+      <c r="D610" s="239"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="238"/>
+      <c r="D611" s="239"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="238"/>
+      <c r="D612" s="239"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="239" t="s">
+      <c r="B614" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="239"/>
+      <c r="C614" s="238"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="239" t="s">
+      <c r="B637" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="239"/>
+      <c r="C637" s="238"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="239" t="s">
+      <c r="B660" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="239"/>
+      <c r="C660" s="238"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="239" t="s">
+      <c r="B683" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="239"/>
+      <c r="C683" s="238"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="239" t="s">
+      <c r="B711" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="239"/>
+      <c r="C711" s="238"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="238"/>
+      <c r="D729" s="239"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="238"/>
+      <c r="D730" s="239"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="238"/>
+      <c r="D731" s="239"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="238"/>
+      <c r="D732" s="239"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="238"/>
+      <c r="D733" s="239"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="239" t="s">
+      <c r="B735" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="239"/>
+      <c r="C735" s="238"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="238"/>
+      <c r="D756" s="239"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="238"/>
+      <c r="D757" s="239"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="238"/>
+      <c r="D758" s="239"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="238"/>
+      <c r="D759" s="239"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="238"/>
+      <c r="D760" s="239"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="239" t="s">
+      <c r="B762" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="239"/>
+      <c r="C762" s="238"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="239" t="s">
+      <c r="B789" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="239"/>
+      <c r="C789" s="238"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="239" t="s">
+      <c r="B816" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="239"/>
+      <c r="C816" s="238"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="238"/>
+      <c r="D839" s="239"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="238"/>
+      <c r="D840" s="239"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="238"/>
+      <c r="D841" s="239"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="238"/>
+      <c r="D842" s="239"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="238"/>
+      <c r="D843" s="239"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="238"/>
+      <c r="D844" s="239"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="239" t="s">
+      <c r="B845" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="239"/>
+      <c r="C845" s="238"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="239" t="s">
+      <c r="B876" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="239"/>
+      <c r="C876" s="238"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="239" t="s">
+      <c r="B907" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="239"/>
+      <c r="C907" s="238"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="239" t="s">
+      <c r="B931" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="239"/>
+      <c r="C931" s="238"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="239" t="s">
+      <c r="B958" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="239"/>
+      <c r="C958" s="238"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="239" t="s">
+      <c r="B981" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="239"/>
+      <c r="C981" s="238"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="239" t="s">
+      <c r="B1005" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="239"/>
+      <c r="C1005" s="238"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="239" t="s">
+      <c r="B1024" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="239"/>
+      <c r="C1024" s="238"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="238"/>
+      <c r="D1042" s="239"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="238"/>
+      <c r="D1043" s="239"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="238"/>
+      <c r="D1044" s="239"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="238"/>
+      <c r="D1045" s="239"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="238"/>
+      <c r="D1046" s="239"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="239" t="s">
+      <c r="B1048" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="239"/>
+      <c r="C1048" s="238"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="239" t="s">
+      <c r="B1070" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="239"/>
+      <c r="C1070" s="238"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="238"/>
+      <c r="D1089" s="239"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="238"/>
+      <c r="D1090" s="239"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="238"/>
+      <c r="D1091" s="239"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="238"/>
+      <c r="D1092" s="239"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="238"/>
+      <c r="D1093" s="239"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="239" t="s">
+      <c r="B1095" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="239"/>
+      <c r="C1095" s="238"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="238"/>
+      <c r="D1120" s="239"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="238"/>
+      <c r="D1121" s="239"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="238"/>
+      <c r="D1122" s="239"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="238"/>
+      <c r="D1123" s="239"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="238"/>
+      <c r="D1124" s="239"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="239" t="s">
+      <c r="B1126" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="239"/>
+      <c r="C1126" s="238"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="239" t="s">
+      <c r="B1155" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="239"/>
+      <c r="C1155" s="238"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="241"/>
+      <c r="D43" s="242"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="241"/>
+      <c r="D44" s="242"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="241"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="241"/>
+      <c r="D46" s="242"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="241"/>
+      <c r="D47" s="242"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="241"/>
+      <c r="D48" s="242"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="239" t="s">
+      <c r="B49" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="239"/>
+      <c r="C49" s="238"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="242" t="s">
+      <c r="E68" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="242"/>
+      <c r="F68" s="244"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="241"/>
+      <c r="D74" s="242"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="241"/>
+      <c r="D75" s="242"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="241"/>
+      <c r="D76" s="242"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="241"/>
+      <c r="D77" s="242"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="241"/>
+      <c r="D78" s="242"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="239" t="s">
+      <c r="B80" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="239"/>
+      <c r="C80" s="238"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="243" t="s">
+      <c r="B107" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="243"/>
+      <c r="C107" s="241"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="239" t="s">
+      <c r="B137" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="239"/>
+      <c r="C137" s="238"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="239" t="s">
+      <c r="B167" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="239"/>
+      <c r="C167" s="238"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="239" t="s">
+      <c r="B189" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="239"/>
+      <c r="C189" s="238"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="239" t="s">
+      <c r="B212" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="239"/>
+      <c r="C212" s="238"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="239" t="s">
+      <c r="B249" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="239"/>
+      <c r="C249" s="238"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="241"/>
+      <c r="D285" s="242"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="241"/>
+      <c r="D286" s="242"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="241"/>
+      <c r="D287" s="242"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="241"/>
+      <c r="D288" s="242"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="241"/>
+      <c r="D289" s="242"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="244" t="s">
+      <c r="B291" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="244"/>
+      <c r="C291" s="243"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="241"/>
+      <c r="D314" s="242"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="241"/>
+      <c r="D315" s="242"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="241"/>
+      <c r="D316" s="242"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="241"/>
+      <c r="D317" s="242"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="241"/>
+      <c r="D318" s="242"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="239" t="s">
+      <c r="B320" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="239"/>
+      <c r="C320" s="238"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="241"/>
+      <c r="D339" s="242"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="241"/>
+      <c r="D340" s="242"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="241"/>
+      <c r="D341" s="242"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="241"/>
+      <c r="D342" s="242"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="241"/>
+      <c r="D343" s="242"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="239" t="s">
+      <c r="B345" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="239"/>
+      <c r="C345" s="238"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="241"/>
+      <c r="D363" s="242"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="241"/>
+      <c r="D364" s="242"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="241"/>
+      <c r="D365" s="242"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="241"/>
+      <c r="D366" s="242"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="241"/>
+      <c r="D367" s="242"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="239" t="s">
+      <c r="B369" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="239"/>
+      <c r="C369" s="238"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="239" t="s">
+      <c r="B403" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="239"/>
+      <c r="C403" s="238"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="239" t="s">
+      <c r="B439" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="239"/>
+      <c r="C439" s="238"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="239" t="s">
+      <c r="B467" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="239"/>
+      <c r="C467" s="238"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="239" t="s">
+      <c r="B493" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="239"/>
+      <c r="C493" s="238"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="239" t="s">
+      <c r="B520" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="239"/>
+      <c r="C520" s="238"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="239" t="s">
+      <c r="B547" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="239"/>
+      <c r="C547" s="238"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="239" t="s">
+      <c r="B577" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="239"/>
+      <c r="C577" s="238"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="239" t="s">
+      <c r="B612" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="239"/>
+      <c r="C612" s="238"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="239" t="s">
+      <c r="B641" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="239"/>
+      <c r="C641" s="238"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="243" t="s">
+      <c r="B665" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="243"/>
+      <c r="C665" s="241"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="239" t="s">
+      <c r="B691" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="239"/>
+      <c r="C691" s="238"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="239" t="s">
+      <c r="B715" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="239"/>
+      <c r="C715" s="238"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="239" t="s">
+      <c r="B744" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="239"/>
+      <c r="C744" s="238"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="239" t="s">
+      <c r="B771" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="239"/>
+      <c r="C771" s="238"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="239" t="s">
+      <c r="B800" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="239"/>
+      <c r="C800" s="238"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="239" t="s">
+      <c r="B829" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="239"/>
+      <c r="C829" s="238"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="239" t="s">
+      <c r="B858" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="239"/>
+      <c r="C858" s="238"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="239" t="s">
+      <c r="B890" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="239"/>
+      <c r="C890" s="238"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="239" t="s">
+      <c r="B922" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="239"/>
+      <c r="C922" s="238"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="239" t="s">
+      <c r="B954" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="239"/>
+      <c r="C954" s="238"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="239" t="s">
+      <c r="B980" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="239"/>
+      <c r="C980" s="238"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="239" t="s">
+      <c r="B1009" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="239"/>
+      <c r="C1009" s="238"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="239" t="s">
+      <c r="B1034" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="239"/>
+      <c r="C1034" s="238"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="239" t="s">
+      <c r="B1059" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="239"/>
+      <c r="C1059" s="238"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="239" t="s">
+      <c r="B1080" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="239"/>
+      <c r="C1080" s="238"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="239" t="s">
+      <c r="B1107" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="239"/>
+      <c r="C1107" s="238"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="239" t="s">
+      <c r="B1131" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="239"/>
+      <c r="C1131" s="238"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="239" t="s">
+      <c r="B1158" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="239"/>
+      <c r="C1158" s="238"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="239" t="s">
+      <c r="B1190" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="239"/>
+      <c r="C1190" s="238"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="239" t="s">
+      <c r="B1223" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="239"/>
+      <c r="C1223" s="238"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,6 +38142,51 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38150,51 +38195,6 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="245" t="s">
+      <c r="E2" s="254" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="245"/>
+      <c r="F2" s="254"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="255" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="247" t="s">
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="250" t="s">
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="256" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="249" t="s">
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249" t="s">
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249" t="s">
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="251" t="s">
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="257" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="252" t="s">
+      <c r="T5" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="252"/>
+      <c r="T6" s="245"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253" t="s">
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="253"/>
-      <c r="M23" s="253"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253"/>
-      <c r="R23" s="253"/>
-      <c r="S23" s="253"/>
-      <c r="T23" s="253"/>
-      <c r="U23" s="253"/>
-      <c r="V23" s="253"/>
-      <c r="W23" s="253"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249" t="s">
+      <c r="C24" s="247"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="254" t="s">
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="249" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="254"/>
-      <c r="J24" s="254"/>
-      <c r="K24" s="249" t="s">
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
-      <c r="N24" s="249" t="s">
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="249"/>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="249" t="s">
+      <c r="O24" s="248"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="249"/>
-      <c r="S24" s="249"/>
-      <c r="T24" s="255" t="s">
+      <c r="R24" s="248"/>
+      <c r="S24" s="248"/>
+      <c r="T24" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="255"/>
-      <c r="V24" s="255"/>
-      <c r="W24" s="255"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="250"/>
+      <c r="W24" s="250"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="252" t="s">
+      <c r="T25" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="252"/>
+      <c r="T26" s="245"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="253"/>
-      <c r="F44" s="253"/>
-      <c r="G44" s="253"/>
-      <c r="H44" s="253"/>
-      <c r="I44" s="253"/>
-      <c r="J44" s="253"/>
-      <c r="K44" s="253" t="s">
+      <c r="C44" s="246"/>
+      <c r="D44" s="246"/>
+      <c r="E44" s="246"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="246"/>
+      <c r="H44" s="246"/>
+      <c r="I44" s="246"/>
+      <c r="J44" s="246"/>
+      <c r="K44" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="253"/>
-      <c r="M44" s="253"/>
-      <c r="N44" s="253"/>
-      <c r="O44" s="253"/>
-      <c r="P44" s="253"/>
-      <c r="Q44" s="253"/>
-      <c r="R44" s="253"/>
-      <c r="S44" s="253"/>
-      <c r="T44" s="253"/>
-      <c r="U44" s="253"/>
-      <c r="V44" s="253"/>
-      <c r="W44" s="253"/>
+      <c r="L44" s="246"/>
+      <c r="M44" s="246"/>
+      <c r="N44" s="246"/>
+      <c r="O44" s="246"/>
+      <c r="P44" s="246"/>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="246"/>
+      <c r="S44" s="246"/>
+      <c r="T44" s="246"/>
+      <c r="U44" s="246"/>
+      <c r="V44" s="246"/>
+      <c r="W44" s="246"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="248" t="s">
+      <c r="B45" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="249" t="s">
+      <c r="C45" s="247"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="254" t="s">
+      <c r="F45" s="248"/>
+      <c r="G45" s="248"/>
+      <c r="H45" s="249" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="254"/>
-      <c r="J45" s="254"/>
-      <c r="K45" s="249" t="s">
+      <c r="I45" s="249"/>
+      <c r="J45" s="249"/>
+      <c r="K45" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249" t="s">
+      <c r="L45" s="248"/>
+      <c r="M45" s="248"/>
+      <c r="N45" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249" t="s">
+      <c r="O45" s="248"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="256" t="s">
+      <c r="R45" s="248"/>
+      <c r="S45" s="248"/>
+      <c r="T45" s="253" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="256"/>
-      <c r="V45" s="256"/>
-      <c r="W45" s="256"/>
+      <c r="U45" s="253"/>
+      <c r="V45" s="253"/>
+      <c r="W45" s="253"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="257" t="s">
+      <c r="T46" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="257"/>
+      <c r="T47" s="252"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="253" t="s">
+      <c r="B62" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="253"/>
-      <c r="J62" s="253"/>
-      <c r="K62" s="253" t="s">
+      <c r="C62" s="246"/>
+      <c r="D62" s="246"/>
+      <c r="E62" s="246"/>
+      <c r="F62" s="246"/>
+      <c r="G62" s="246"/>
+      <c r="H62" s="246"/>
+      <c r="I62" s="246"/>
+      <c r="J62" s="246"/>
+      <c r="K62" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="253"/>
-      <c r="M62" s="253"/>
-      <c r="N62" s="253"/>
-      <c r="O62" s="253"/>
-      <c r="P62" s="253"/>
-      <c r="Q62" s="253"/>
-      <c r="R62" s="253"/>
-      <c r="S62" s="253"/>
-      <c r="T62" s="253"/>
-      <c r="U62" s="253"/>
-      <c r="V62" s="253"/>
-      <c r="W62" s="253"/>
+      <c r="L62" s="246"/>
+      <c r="M62" s="246"/>
+      <c r="N62" s="246"/>
+      <c r="O62" s="246"/>
+      <c r="P62" s="246"/>
+      <c r="Q62" s="246"/>
+      <c r="R62" s="246"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="246"/>
+      <c r="U62" s="246"/>
+      <c r="V62" s="246"/>
+      <c r="W62" s="246"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="248"/>
-      <c r="D63" s="248"/>
-      <c r="E63" s="249" t="s">
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="248" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="254" t="s">
+      <c r="F63" s="248"/>
+      <c r="G63" s="248"/>
+      <c r="H63" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="254"/>
-      <c r="J63" s="254"/>
-      <c r="K63" s="249" t="s">
+      <c r="I63" s="249"/>
+      <c r="J63" s="249"/>
+      <c r="K63" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="249"/>
-      <c r="M63" s="249"/>
-      <c r="N63" s="249" t="s">
+      <c r="L63" s="248"/>
+      <c r="M63" s="248"/>
+      <c r="N63" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="249"/>
-      <c r="P63" s="249"/>
-      <c r="Q63" s="249" t="s">
+      <c r="O63" s="248"/>
+      <c r="P63" s="248"/>
+      <c r="Q63" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="249"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="255" t="s">
+      <c r="R63" s="248"/>
+      <c r="S63" s="248"/>
+      <c r="T63" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="255"/>
-      <c r="V63" s="255"/>
-      <c r="W63" s="255"/>
+      <c r="U63" s="250"/>
+      <c r="V63" s="250"/>
+      <c r="W63" s="250"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="252" t="s">
+      <c r="T64" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="252"/>
+      <c r="T65" s="245"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="253" t="s">
+      <c r="B85" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="253"/>
-      <c r="D85" s="253"/>
-      <c r="E85" s="253"/>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
-      <c r="H85" s="253"/>
-      <c r="I85" s="253"/>
-      <c r="J85" s="253"/>
-      <c r="K85" s="253" t="s">
+      <c r="C85" s="246"/>
+      <c r="D85" s="246"/>
+      <c r="E85" s="246"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
+      <c r="H85" s="246"/>
+      <c r="I85" s="246"/>
+      <c r="J85" s="246"/>
+      <c r="K85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="253"/>
-      <c r="M85" s="253"/>
-      <c r="N85" s="253"/>
-      <c r="O85" s="253"/>
-      <c r="P85" s="253"/>
-      <c r="Q85" s="253"/>
-      <c r="R85" s="253"/>
-      <c r="S85" s="253"/>
-      <c r="T85" s="253"/>
-      <c r="U85" s="253"/>
-      <c r="V85" s="253"/>
-      <c r="W85" s="253"/>
+      <c r="L85" s="246"/>
+      <c r="M85" s="246"/>
+      <c r="N85" s="246"/>
+      <c r="O85" s="246"/>
+      <c r="P85" s="246"/>
+      <c r="Q85" s="246"/>
+      <c r="R85" s="246"/>
+      <c r="S85" s="246"/>
+      <c r="T85" s="246"/>
+      <c r="U85" s="246"/>
+      <c r="V85" s="246"/>
+      <c r="W85" s="246"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
-      <c r="H86" s="254" t="s">
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
+      <c r="H86" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="254"/>
-      <c r="J86" s="254"/>
-      <c r="K86" s="249" t="s">
+      <c r="I86" s="249"/>
+      <c r="J86" s="249"/>
+      <c r="K86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="249"/>
-      <c r="M86" s="249"/>
-      <c r="N86" s="249" t="s">
+      <c r="L86" s="248"/>
+      <c r="M86" s="248"/>
+      <c r="N86" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="249"/>
-      <c r="P86" s="249"/>
-      <c r="Q86" s="249" t="s">
+      <c r="O86" s="248"/>
+      <c r="P86" s="248"/>
+      <c r="Q86" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="249"/>
-      <c r="S86" s="249"/>
-      <c r="T86" s="255" t="s">
+      <c r="R86" s="248"/>
+      <c r="S86" s="248"/>
+      <c r="T86" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="255"/>
-      <c r="V86" s="255"/>
-      <c r="W86" s="255"/>
+      <c r="U86" s="250"/>
+      <c r="V86" s="250"/>
+      <c r="W86" s="250"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="252" t="s">
+      <c r="T87" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="252"/>
+      <c r="T88" s="245"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="253" t="s">
+      <c r="B107" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="253"/>
-      <c r="D107" s="253"/>
-      <c r="E107" s="253"/>
-      <c r="F107" s="253"/>
-      <c r="G107" s="253"/>
-      <c r="H107" s="253"/>
-      <c r="I107" s="253"/>
-      <c r="J107" s="253"/>
-      <c r="K107" s="253" t="s">
+      <c r="C107" s="246"/>
+      <c r="D107" s="246"/>
+      <c r="E107" s="246"/>
+      <c r="F107" s="246"/>
+      <c r="G107" s="246"/>
+      <c r="H107" s="246"/>
+      <c r="I107" s="246"/>
+      <c r="J107" s="246"/>
+      <c r="K107" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="253"/>
-      <c r="M107" s="253"/>
-      <c r="N107" s="253"/>
-      <c r="O107" s="253"/>
-      <c r="P107" s="253"/>
-      <c r="Q107" s="253"/>
-      <c r="R107" s="253"/>
-      <c r="S107" s="253"/>
-      <c r="T107" s="253"/>
-      <c r="U107" s="253"/>
-      <c r="V107" s="253"/>
-      <c r="W107" s="253"/>
+      <c r="L107" s="246"/>
+      <c r="M107" s="246"/>
+      <c r="N107" s="246"/>
+      <c r="O107" s="246"/>
+      <c r="P107" s="246"/>
+      <c r="Q107" s="246"/>
+      <c r="R107" s="246"/>
+      <c r="S107" s="246"/>
+      <c r="T107" s="246"/>
+      <c r="U107" s="246"/>
+      <c r="V107" s="246"/>
+      <c r="W107" s="246"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="248" t="s">
+      <c r="B108" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="248"/>
-      <c r="D108" s="248"/>
-      <c r="E108" s="249" t="s">
+      <c r="C108" s="247"/>
+      <c r="D108" s="247"/>
+      <c r="E108" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="249"/>
-      <c r="G108" s="249"/>
-      <c r="H108" s="254" t="s">
+      <c r="F108" s="248"/>
+      <c r="G108" s="248"/>
+      <c r="H108" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="254"/>
-      <c r="J108" s="254"/>
-      <c r="K108" s="249" t="s">
+      <c r="I108" s="249"/>
+      <c r="J108" s="249"/>
+      <c r="K108" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="249"/>
-      <c r="M108" s="249"/>
-      <c r="N108" s="249" t="s">
+      <c r="L108" s="248"/>
+      <c r="M108" s="248"/>
+      <c r="N108" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="249"/>
-      <c r="P108" s="249"/>
-      <c r="Q108" s="249" t="s">
+      <c r="O108" s="248"/>
+      <c r="P108" s="248"/>
+      <c r="Q108" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="249"/>
-      <c r="S108" s="249"/>
-      <c r="T108" s="255" t="s">
+      <c r="R108" s="248"/>
+      <c r="S108" s="248"/>
+      <c r="T108" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="255"/>
-      <c r="V108" s="255"/>
-      <c r="W108" s="255"/>
+      <c r="U108" s="250"/>
+      <c r="V108" s="250"/>
+      <c r="W108" s="250"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="252" t="s">
+      <c r="T109" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="252"/>
+      <c r="T110" s="245"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="253" t="s">
+      <c r="B128" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="253"/>
-      <c r="D128" s="253"/>
-      <c r="E128" s="253"/>
-      <c r="F128" s="253"/>
-      <c r="G128" s="253"/>
-      <c r="H128" s="253"/>
-      <c r="I128" s="253"/>
-      <c r="J128" s="253"/>
-      <c r="K128" s="253" t="s">
+      <c r="C128" s="246"/>
+      <c r="D128" s="246"/>
+      <c r="E128" s="246"/>
+      <c r="F128" s="246"/>
+      <c r="G128" s="246"/>
+      <c r="H128" s="246"/>
+      <c r="I128" s="246"/>
+      <c r="J128" s="246"/>
+      <c r="K128" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="253"/>
-      <c r="M128" s="253"/>
-      <c r="N128" s="253"/>
-      <c r="O128" s="253"/>
-      <c r="P128" s="253"/>
-      <c r="Q128" s="253"/>
-      <c r="R128" s="253"/>
-      <c r="S128" s="253"/>
-      <c r="T128" s="253"/>
-      <c r="U128" s="253"/>
-      <c r="V128" s="253"/>
-      <c r="W128" s="253"/>
+      <c r="L128" s="246"/>
+      <c r="M128" s="246"/>
+      <c r="N128" s="246"/>
+      <c r="O128" s="246"/>
+      <c r="P128" s="246"/>
+      <c r="Q128" s="246"/>
+      <c r="R128" s="246"/>
+      <c r="S128" s="246"/>
+      <c r="T128" s="246"/>
+      <c r="U128" s="246"/>
+      <c r="V128" s="246"/>
+      <c r="W128" s="246"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="248" t="s">
+      <c r="B129" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="248"/>
-      <c r="D129" s="248"/>
-      <c r="E129" s="249" t="s">
+      <c r="C129" s="247"/>
+      <c r="D129" s="247"/>
+      <c r="E129" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="249"/>
-      <c r="G129" s="249"/>
-      <c r="H129" s="254" t="s">
+      <c r="F129" s="248"/>
+      <c r="G129" s="248"/>
+      <c r="H129" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="254"/>
-      <c r="J129" s="254"/>
-      <c r="K129" s="249" t="s">
+      <c r="I129" s="249"/>
+      <c r="J129" s="249"/>
+      <c r="K129" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="249"/>
-      <c r="M129" s="249"/>
-      <c r="N129" s="249" t="s">
+      <c r="L129" s="248"/>
+      <c r="M129" s="248"/>
+      <c r="N129" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="249"/>
-      <c r="P129" s="249"/>
-      <c r="Q129" s="249" t="s">
+      <c r="O129" s="248"/>
+      <c r="P129" s="248"/>
+      <c r="Q129" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="249"/>
-      <c r="S129" s="249"/>
-      <c r="T129" s="255" t="s">
+      <c r="R129" s="248"/>
+      <c r="S129" s="248"/>
+      <c r="T129" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="255"/>
-      <c r="V129" s="255"/>
-      <c r="W129" s="255"/>
+      <c r="U129" s="250"/>
+      <c r="V129" s="250"/>
+      <c r="W129" s="250"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="252" t="s">
+      <c r="T130" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="252"/>
+      <c r="T131" s="245"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="253" t="s">
+      <c r="B142" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="253"/>
-      <c r="D142" s="253"/>
-      <c r="E142" s="253"/>
-      <c r="F142" s="253"/>
-      <c r="G142" s="253"/>
-      <c r="H142" s="253"/>
-      <c r="I142" s="253"/>
-      <c r="J142" s="253"/>
-      <c r="K142" s="253" t="s">
+      <c r="C142" s="246"/>
+      <c r="D142" s="246"/>
+      <c r="E142" s="246"/>
+      <c r="F142" s="246"/>
+      <c r="G142" s="246"/>
+      <c r="H142" s="246"/>
+      <c r="I142" s="246"/>
+      <c r="J142" s="246"/>
+      <c r="K142" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="253"/>
-      <c r="M142" s="253"/>
-      <c r="N142" s="253"/>
-      <c r="O142" s="253"/>
-      <c r="P142" s="253"/>
-      <c r="Q142" s="253"/>
-      <c r="R142" s="253"/>
-      <c r="S142" s="253"/>
-      <c r="T142" s="253"/>
-      <c r="U142" s="253"/>
-      <c r="V142" s="253"/>
-      <c r="W142" s="253"/>
+      <c r="L142" s="246"/>
+      <c r="M142" s="246"/>
+      <c r="N142" s="246"/>
+      <c r="O142" s="246"/>
+      <c r="P142" s="246"/>
+      <c r="Q142" s="246"/>
+      <c r="R142" s="246"/>
+      <c r="S142" s="246"/>
+      <c r="T142" s="246"/>
+      <c r="U142" s="246"/>
+      <c r="V142" s="246"/>
+      <c r="W142" s="246"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="248" t="s">
+      <c r="B143" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="248"/>
-      <c r="D143" s="248"/>
-      <c r="E143" s="249" t="s">
+      <c r="C143" s="247"/>
+      <c r="D143" s="247"/>
+      <c r="E143" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="249"/>
-      <c r="G143" s="249"/>
-      <c r="H143" s="254" t="s">
+      <c r="F143" s="248"/>
+      <c r="G143" s="248"/>
+      <c r="H143" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="254"/>
-      <c r="J143" s="254"/>
-      <c r="K143" s="249" t="s">
+      <c r="I143" s="249"/>
+      <c r="J143" s="249"/>
+      <c r="K143" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="249"/>
-      <c r="M143" s="249"/>
-      <c r="N143" s="249" t="s">
+      <c r="L143" s="248"/>
+      <c r="M143" s="248"/>
+      <c r="N143" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="249"/>
-      <c r="P143" s="249"/>
-      <c r="Q143" s="249" t="s">
+      <c r="O143" s="248"/>
+      <c r="P143" s="248"/>
+      <c r="Q143" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="249"/>
-      <c r="S143" s="249"/>
-      <c r="T143" s="255" t="s">
+      <c r="R143" s="248"/>
+      <c r="S143" s="248"/>
+      <c r="T143" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="255"/>
-      <c r="V143" s="255"/>
-      <c r="W143" s="255"/>
+      <c r="U143" s="250"/>
+      <c r="V143" s="250"/>
+      <c r="W143" s="250"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="252" t="s">
+      <c r="T144" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="252"/>
+      <c r="T145" s="245"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="247" t="s">
+      <c r="B157" s="251" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="247"/>
-      <c r="D157" s="247"/>
-      <c r="E157" s="247"/>
-      <c r="F157" s="247"/>
-      <c r="G157" s="247"/>
-      <c r="H157" s="247"/>
-      <c r="I157" s="247"/>
-      <c r="J157" s="247"/>
-      <c r="K157" s="247" t="s">
+      <c r="C157" s="251"/>
+      <c r="D157" s="251"/>
+      <c r="E157" s="251"/>
+      <c r="F157" s="251"/>
+      <c r="G157" s="251"/>
+      <c r="H157" s="251"/>
+      <c r="I157" s="251"/>
+      <c r="J157" s="251"/>
+      <c r="K157" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="247"/>
-      <c r="M157" s="247"/>
-      <c r="N157" s="247"/>
-      <c r="O157" s="247"/>
-      <c r="P157" s="247"/>
-      <c r="Q157" s="247"/>
-      <c r="R157" s="247"/>
-      <c r="S157" s="247"/>
-      <c r="T157" s="247"/>
-      <c r="U157" s="247"/>
-      <c r="V157" s="247"/>
-      <c r="W157" s="247"/>
+      <c r="L157" s="251"/>
+      <c r="M157" s="251"/>
+      <c r="N157" s="251"/>
+      <c r="O157" s="251"/>
+      <c r="P157" s="251"/>
+      <c r="Q157" s="251"/>
+      <c r="R157" s="251"/>
+      <c r="S157" s="251"/>
+      <c r="T157" s="251"/>
+      <c r="U157" s="251"/>
+      <c r="V157" s="251"/>
+      <c r="W157" s="251"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="248" t="s">
+      <c r="B158" s="247" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="248"/>
-      <c r="D158" s="248"/>
-      <c r="E158" s="249" t="s">
+      <c r="C158" s="247"/>
+      <c r="D158" s="247"/>
+      <c r="E158" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="249"/>
-      <c r="G158" s="249"/>
-      <c r="H158" s="254" t="s">
+      <c r="F158" s="248"/>
+      <c r="G158" s="248"/>
+      <c r="H158" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="254"/>
-      <c r="J158" s="254"/>
-      <c r="K158" s="249" t="s">
+      <c r="I158" s="249"/>
+      <c r="J158" s="249"/>
+      <c r="K158" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="249"/>
-      <c r="M158" s="249"/>
-      <c r="N158" s="249" t="s">
+      <c r="L158" s="248"/>
+      <c r="M158" s="248"/>
+      <c r="N158" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="249"/>
-      <c r="P158" s="249"/>
-      <c r="Q158" s="249" t="s">
+      <c r="O158" s="248"/>
+      <c r="P158" s="248"/>
+      <c r="Q158" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="249"/>
-      <c r="S158" s="249"/>
-      <c r="T158" s="255" t="s">
+      <c r="R158" s="248"/>
+      <c r="S158" s="248"/>
+      <c r="T158" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="255"/>
-      <c r="V158" s="255"/>
-      <c r="W158" s="255"/>
+      <c r="U158" s="250"/>
+      <c r="V158" s="250"/>
+      <c r="W158" s="250"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="252" t="s">
+      <c r="T159" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="252"/>
+      <c r="T160" s="245"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="252"/>
+      <c r="T161" s="245"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="253" t="s">
+      <c r="B172" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="253"/>
-      <c r="D172" s="253"/>
-      <c r="E172" s="253"/>
-      <c r="F172" s="253"/>
-      <c r="G172" s="253"/>
-      <c r="H172" s="253"/>
-      <c r="I172" s="253"/>
-      <c r="J172" s="253"/>
-      <c r="K172" s="253" t="s">
+      <c r="C172" s="246"/>
+      <c r="D172" s="246"/>
+      <c r="E172" s="246"/>
+      <c r="F172" s="246"/>
+      <c r="G172" s="246"/>
+      <c r="H172" s="246"/>
+      <c r="I172" s="246"/>
+      <c r="J172" s="246"/>
+      <c r="K172" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="253"/>
-      <c r="M172" s="253"/>
-      <c r="N172" s="253"/>
-      <c r="O172" s="253"/>
-      <c r="P172" s="253"/>
-      <c r="Q172" s="253"/>
-      <c r="R172" s="253"/>
-      <c r="S172" s="253"/>
-      <c r="T172" s="253"/>
-      <c r="U172" s="253"/>
-      <c r="V172" s="253"/>
-      <c r="W172" s="253"/>
+      <c r="L172" s="246"/>
+      <c r="M172" s="246"/>
+      <c r="N172" s="246"/>
+      <c r="O172" s="246"/>
+      <c r="P172" s="246"/>
+      <c r="Q172" s="246"/>
+      <c r="R172" s="246"/>
+      <c r="S172" s="246"/>
+      <c r="T172" s="246"/>
+      <c r="U172" s="246"/>
+      <c r="V172" s="246"/>
+      <c r="W172" s="246"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="248" t="s">
+      <c r="B173" s="247" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="248"/>
-      <c r="D173" s="248"/>
-      <c r="E173" s="249" t="s">
+      <c r="C173" s="247"/>
+      <c r="D173" s="247"/>
+      <c r="E173" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="249"/>
-      <c r="G173" s="249"/>
-      <c r="H173" s="254" t="s">
+      <c r="F173" s="248"/>
+      <c r="G173" s="248"/>
+      <c r="H173" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="254"/>
-      <c r="J173" s="254"/>
-      <c r="K173" s="249" t="s">
+      <c r="I173" s="249"/>
+      <c r="J173" s="249"/>
+      <c r="K173" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="249"/>
-      <c r="M173" s="249"/>
-      <c r="N173" s="249" t="s">
+      <c r="L173" s="248"/>
+      <c r="M173" s="248"/>
+      <c r="N173" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="249"/>
-      <c r="P173" s="249"/>
-      <c r="Q173" s="249" t="s">
+      <c r="O173" s="248"/>
+      <c r="P173" s="248"/>
+      <c r="Q173" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="249"/>
-      <c r="S173" s="249"/>
-      <c r="T173" s="255" t="s">
+      <c r="R173" s="248"/>
+      <c r="S173" s="248"/>
+      <c r="T173" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="255"/>
-      <c r="V173" s="255"/>
-      <c r="W173" s="255"/>
+      <c r="U173" s="250"/>
+      <c r="V173" s="250"/>
+      <c r="W173" s="250"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="252" t="s">
+      <c r="T174" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="252"/>
+      <c r="T175" s="245"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,6 +44442,96 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44453,96 +44543,6 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="253" t="s">
+      <c r="E3" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="253" t="s">
+      <c r="E15" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249" t="s">
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="253" t="s">
+      <c r="E27" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249" t="s">
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="253" t="s">
+      <c r="E39" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="246"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="249" t="s">
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="248"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="253" t="s">
+      <c r="E57" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="253"/>
-      <c r="G57" s="253"/>
+      <c r="F57" s="246"/>
+      <c r="G57" s="246"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="248"/>
-      <c r="D58" s="248"/>
-      <c r="E58" s="249" t="s">
+      <c r="C58" s="247"/>
+      <c r="D58" s="247"/>
+      <c r="E58" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="249"/>
-      <c r="G58" s="249"/>
+      <c r="F58" s="248"/>
+      <c r="G58" s="248"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="253" t="s">
+      <c r="E72" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="G72" s="253"/>
+      <c r="F72" s="246"/>
+      <c r="G72" s="246"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="248" t="s">
+      <c r="B73" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="248"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="249" t="s">
+      <c r="C73" s="247"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="249"/>
-      <c r="G73" s="249"/>
+      <c r="F73" s="248"/>
+      <c r="G73" s="248"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="253" t="s">
+      <c r="E85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="253" t="s">
+      <c r="E98" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="253"/>
-      <c r="G98" s="253"/>
+      <c r="F98" s="246"/>
+      <c r="G98" s="246"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="248" t="s">
+      <c r="B99" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="248"/>
-      <c r="D99" s="248"/>
-      <c r="E99" s="249" t="s">
+      <c r="C99" s="247"/>
+      <c r="D99" s="247"/>
+      <c r="E99" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="249"/>
-      <c r="G99" s="249"/>
+      <c r="F99" s="248"/>
+      <c r="G99" s="248"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="253" t="s">
+      <c r="E115" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="253"/>
-      <c r="G115" s="253"/>
+      <c r="F115" s="246"/>
+      <c r="G115" s="246"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="248" t="s">
+      <c r="B116" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="248"/>
-      <c r="D116" s="248"/>
-      <c r="E116" s="249" t="s">
+      <c r="C116" s="247"/>
+      <c r="D116" s="247"/>
+      <c r="E116" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="249"/>
-      <c r="G116" s="249"/>
+      <c r="F116" s="248"/>
+      <c r="G116" s="248"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="253" t="s">
+      <c r="E132" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="253"/>
-      <c r="G132" s="253"/>
+      <c r="F132" s="246"/>
+      <c r="G132" s="246"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="248" t="s">
+      <c r="B133" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="248"/>
-      <c r="D133" s="248"/>
-      <c r="E133" s="249" t="s">
+      <c r="C133" s="247"/>
+      <c r="D133" s="247"/>
+      <c r="E133" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="249"/>
-      <c r="G133" s="249"/>
+      <c r="F133" s="248"/>
+      <c r="G133" s="248"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="253" t="s">
+      <c r="E149" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="253"/>
-      <c r="G149" s="253"/>
+      <c r="F149" s="246"/>
+      <c r="G149" s="246"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="248" t="s">
+      <c r="B150" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="248"/>
-      <c r="D150" s="248"/>
-      <c r="E150" s="249" t="s">
+      <c r="C150" s="247"/>
+      <c r="D150" s="247"/>
+      <c r="E150" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="249"/>
-      <c r="G150" s="249"/>
+      <c r="F150" s="248"/>
+      <c r="G150" s="248"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="253" t="s">
+      <c r="E166" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="253"/>
-      <c r="G166" s="253"/>
+      <c r="F166" s="246"/>
+      <c r="G166" s="246"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="248" t="s">
+      <c r="B167" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="248"/>
-      <c r="D167" s="248"/>
-      <c r="E167" s="249" t="s">
+      <c r="C167" s="247"/>
+      <c r="D167" s="247"/>
+      <c r="E167" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="249"/>
-      <c r="G167" s="249"/>
+      <c r="F167" s="248"/>
+      <c r="G167" s="248"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="E150:G150"/>
     <mergeCell ref="B166:D166"/>
     <mergeCell ref="E166:G166"/>
     <mergeCell ref="B167:D167"/>
     <mergeCell ref="E167:G167"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAB6DA-5616-4FC0-9D8F-CF6B6AB19E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2558C25E-B168-4C54-A251-0B425E2267C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2558C25E-B168-4C54-A251-0B425E2267C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF869F62-7864-44FF-B47F-AFC48E248AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,35 +5491,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5528,25 +5543,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="239"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="239"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="239"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="239"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="239"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="239"/>
+      <c r="D41" s="238"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="239"/>
+      <c r="D42" s="238"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="239"/>
+      <c r="D43" s="238"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="239"/>
+      <c r="D44" s="238"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="239"/>
+      <c r="D45" s="238"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="239"/>
+      <c r="D46" s="238"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="238" t="s">
+      <c r="B47" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="238"/>
+      <c r="C47" s="239"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="239"/>
+      <c r="D71" s="238"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="239"/>
+      <c r="D72" s="238"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="239"/>
+      <c r="D73" s="238"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="239"/>
+      <c r="D74" s="238"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="239"/>
+      <c r="D75" s="238"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="238" t="s">
+      <c r="B77" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="238"/>
+      <c r="C77" s="239"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="239"/>
+      <c r="D99" s="238"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="239"/>
+      <c r="D100" s="238"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="239"/>
+      <c r="D101" s="238"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="239"/>
+      <c r="D102" s="238"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="239"/>
+      <c r="D103" s="238"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="238" t="s">
+      <c r="B105" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="238"/>
+      <c r="C105" s="239"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="239"/>
+      <c r="D128" s="238"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="239"/>
+      <c r="D129" s="238"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="239"/>
+      <c r="D130" s="238"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="239"/>
+      <c r="D131" s="238"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="239"/>
+      <c r="D132" s="238"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="238" t="s">
+      <c r="B134" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="238"/>
+      <c r="C134" s="239"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="239"/>
+      <c r="D158" s="238"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="239"/>
+      <c r="D159" s="238"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="239"/>
+      <c r="D160" s="238"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="239"/>
+      <c r="D161" s="238"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="239"/>
+      <c r="D162" s="238"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="238" t="s">
+      <c r="B164" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="238"/>
+      <c r="C164" s="239"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="239"/>
+      <c r="D179" s="238"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="239"/>
+      <c r="D180" s="238"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="239"/>
+      <c r="D181" s="238"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="239"/>
+      <c r="D182" s="238"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="239"/>
+      <c r="D183" s="238"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="239"/>
+      <c r="D184" s="238"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="238" t="s">
+      <c r="B185" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="238"/>
+      <c r="C185" s="239"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="239"/>
+      <c r="D201" s="238"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="239"/>
+      <c r="D202" s="238"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="239"/>
+      <c r="D203" s="238"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="239"/>
+      <c r="D204" s="238"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="239"/>
+      <c r="D205" s="238"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="239"/>
+      <c r="D206" s="238"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="238" t="s">
+      <c r="B207" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="238"/>
+      <c r="C207" s="239"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="239"/>
+      <c r="D242" s="238"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="239"/>
+      <c r="D243" s="238"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="239"/>
+      <c r="D244" s="238"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="239"/>
+      <c r="D245" s="238"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="239"/>
+      <c r="D246" s="238"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="238" t="s">
+      <c r="B248" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="238"/>
+      <c r="C248" s="239"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="239"/>
+      <c r="D278" s="238"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="239"/>
+      <c r="D279" s="238"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="239"/>
+      <c r="D280" s="238"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="239"/>
+      <c r="D281" s="238"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="239"/>
+      <c r="D282" s="238"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="238" t="s">
+      <c r="B284" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="238"/>
+      <c r="C284" s="239"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="239"/>
+      <c r="D304" s="238"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="239"/>
+      <c r="D305" s="238"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="239"/>
+      <c r="D306" s="238"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="239"/>
+      <c r="D307" s="238"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="239"/>
+      <c r="D308" s="238"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="238" t="s">
+      <c r="B310" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="238"/>
+      <c r="C310" s="239"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="239"/>
+      <c r="D327" s="238"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="239"/>
+      <c r="D328" s="238"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="239"/>
+      <c r="D329" s="238"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="239"/>
+      <c r="D330" s="238"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="239"/>
+      <c r="D331" s="238"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="238" t="s">
+      <c r="B333" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="238"/>
+      <c r="C333" s="239"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="239"/>
+      <c r="D349" s="238"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="239"/>
+      <c r="D350" s="238"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="239"/>
+      <c r="D351" s="238"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="239"/>
+      <c r="D352" s="238"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="239"/>
+      <c r="D353" s="238"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="238" t="s">
+      <c r="B355" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="238"/>
+      <c r="C355" s="239"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="239"/>
+      <c r="D383" s="238"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="239"/>
+      <c r="D384" s="238"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="239"/>
+      <c r="D385" s="238"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="239"/>
+      <c r="D386" s="238"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="239"/>
+      <c r="D387" s="238"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="238" t="s">
+      <c r="B389" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="238"/>
+      <c r="C389" s="239"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="239"/>
+      <c r="D418" s="238"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="239"/>
+      <c r="D419" s="238"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="239"/>
+      <c r="D420" s="238"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="239"/>
+      <c r="D421" s="238"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="239"/>
+      <c r="D422" s="238"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="238" t="s">
+      <c r="B424" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="238"/>
+      <c r="C424" s="239"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="238" t="s">
+      <c r="B451" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="238"/>
+      <c r="C451" s="239"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="239"/>
+      <c r="D469" s="238"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="239"/>
+      <c r="D470" s="238"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="239"/>
+      <c r="D471" s="238"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="239"/>
+      <c r="D472" s="238"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="239"/>
+      <c r="D473" s="238"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="238" t="s">
+      <c r="B475" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="238"/>
+      <c r="C475" s="239"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="239"/>
+      <c r="D494" s="238"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="239"/>
+      <c r="D495" s="238"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="239"/>
+      <c r="D496" s="238"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="239"/>
+      <c r="D497" s="238"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="239"/>
+      <c r="D498" s="238"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="238" t="s">
+      <c r="B500" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="238"/>
+      <c r="C500" s="239"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="239"/>
+      <c r="D519" s="238"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="239"/>
+      <c r="D520" s="238"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="239"/>
+      <c r="D521" s="238"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="239"/>
+      <c r="D522" s="238"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="239"/>
+      <c r="D523" s="238"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="238" t="s">
+      <c r="B525" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="238"/>
+      <c r="C525" s="239"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="239"/>
+      <c r="D547" s="238"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="239"/>
+      <c r="D548" s="238"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="239"/>
+      <c r="D549" s="238"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="239"/>
+      <c r="D550" s="238"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="239"/>
+      <c r="D551" s="238"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="238" t="s">
+      <c r="B553" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="238"/>
+      <c r="C553" s="239"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="239"/>
+      <c r="D580" s="238"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="239"/>
+      <c r="D581" s="238"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="239"/>
+      <c r="D582" s="238"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="239"/>
+      <c r="D583" s="238"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="239"/>
+      <c r="D584" s="238"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="238" t="s">
+      <c r="B586" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="238"/>
+      <c r="C586" s="239"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="239"/>
+      <c r="D608" s="238"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="239"/>
+      <c r="D609" s="238"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="239"/>
+      <c r="D610" s="238"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="239"/>
+      <c r="D611" s="238"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="239"/>
+      <c r="D612" s="238"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="238" t="s">
+      <c r="B614" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="238"/>
+      <c r="C614" s="239"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="238" t="s">
+      <c r="B637" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="238"/>
+      <c r="C637" s="239"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="238" t="s">
+      <c r="B660" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="238"/>
+      <c r="C660" s="239"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="238" t="s">
+      <c r="B683" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="238"/>
+      <c r="C683" s="239"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="238" t="s">
+      <c r="B711" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="238"/>
+      <c r="C711" s="239"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="239"/>
+      <c r="D729" s="238"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="239"/>
+      <c r="D730" s="238"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="239"/>
+      <c r="D731" s="238"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="239"/>
+      <c r="D732" s="238"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="239"/>
+      <c r="D733" s="238"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="238" t="s">
+      <c r="B735" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="238"/>
+      <c r="C735" s="239"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="239"/>
+      <c r="D756" s="238"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="239"/>
+      <c r="D757" s="238"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="239"/>
+      <c r="D758" s="238"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="239"/>
+      <c r="D759" s="238"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="239"/>
+      <c r="D760" s="238"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="238" t="s">
+      <c r="B762" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="238"/>
+      <c r="C762" s="239"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="238" t="s">
+      <c r="B789" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="238"/>
+      <c r="C789" s="239"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="238" t="s">
+      <c r="B816" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="238"/>
+      <c r="C816" s="239"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="239"/>
+      <c r="D839" s="238"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="239"/>
+      <c r="D840" s="238"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="239"/>
+      <c r="D841" s="238"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="239"/>
+      <c r="D842" s="238"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="239"/>
+      <c r="D843" s="238"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="239"/>
+      <c r="D844" s="238"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="238" t="s">
+      <c r="B845" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="238"/>
+      <c r="C845" s="239"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="238" t="s">
+      <c r="B876" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="238"/>
+      <c r="C876" s="239"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="238" t="s">
+      <c r="B907" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="238"/>
+      <c r="C907" s="239"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="238" t="s">
+      <c r="B931" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="238"/>
+      <c r="C931" s="239"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="238" t="s">
+      <c r="B958" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="238"/>
+      <c r="C958" s="239"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="238" t="s">
+      <c r="B981" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="238"/>
+      <c r="C981" s="239"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="238" t="s">
+      <c r="B1005" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="238"/>
+      <c r="C1005" s="239"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="238" t="s">
+      <c r="B1024" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="238"/>
+      <c r="C1024" s="239"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="239"/>
+      <c r="D1042" s="238"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="239"/>
+      <c r="D1043" s="238"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="239"/>
+      <c r="D1044" s="238"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="239"/>
+      <c r="D1045" s="238"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="239"/>
+      <c r="D1046" s="238"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="238" t="s">
+      <c r="B1048" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="238"/>
+      <c r="C1048" s="239"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="238" t="s">
+      <c r="B1070" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="238"/>
+      <c r="C1070" s="239"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="239"/>
+      <c r="D1089" s="238"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="239"/>
+      <c r="D1090" s="238"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="239"/>
+      <c r="D1091" s="238"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="239"/>
+      <c r="D1092" s="238"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="239"/>
+      <c r="D1093" s="238"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="238" t="s">
+      <c r="B1095" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="238"/>
+      <c r="C1095" s="239"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="239"/>
+      <c r="D1120" s="238"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="239"/>
+      <c r="D1121" s="238"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="239"/>
+      <c r="D1122" s="238"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="239"/>
+      <c r="D1123" s="238"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="239"/>
+      <c r="D1124" s="238"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="238" t="s">
+      <c r="B1126" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="238"/>
+      <c r="C1126" s="239"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="238" t="s">
+      <c r="B1155" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="238"/>
+      <c r="C1155" s="239"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="242"/>
+      <c r="D43" s="241"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="242"/>
+      <c r="D44" s="241"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="241"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="242"/>
+      <c r="D46" s="241"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="242"/>
+      <c r="D47" s="241"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="242"/>
+      <c r="D48" s="241"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="238" t="s">
+      <c r="B49" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="238"/>
+      <c r="C49" s="239"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="244" t="s">
+      <c r="E68" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="244"/>
+      <c r="F68" s="242"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="242"/>
+      <c r="D74" s="241"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="242"/>
+      <c r="D75" s="241"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="242"/>
+      <c r="D76" s="241"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="242"/>
+      <c r="D77" s="241"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="242"/>
+      <c r="D78" s="241"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="238" t="s">
+      <c r="B80" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="238"/>
+      <c r="C80" s="239"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="241" t="s">
+      <c r="B107" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="241"/>
+      <c r="C107" s="243"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="238" t="s">
+      <c r="B137" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="238"/>
+      <c r="C137" s="239"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="238" t="s">
+      <c r="B167" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="238"/>
+      <c r="C167" s="239"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="238" t="s">
+      <c r="B189" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="238"/>
+      <c r="C189" s="239"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="238" t="s">
+      <c r="B212" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="238"/>
+      <c r="C212" s="239"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="238" t="s">
+      <c r="B249" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="238"/>
+      <c r="C249" s="239"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="242"/>
+      <c r="D285" s="241"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="242"/>
+      <c r="D286" s="241"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="242"/>
+      <c r="D287" s="241"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="242"/>
+      <c r="D288" s="241"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="242"/>
+      <c r="D289" s="241"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="243" t="s">
+      <c r="B291" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="243"/>
+      <c r="C291" s="244"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="242"/>
+      <c r="D314" s="241"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="242"/>
+      <c r="D315" s="241"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="242"/>
+      <c r="D316" s="241"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="242"/>
+      <c r="D317" s="241"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="242"/>
+      <c r="D318" s="241"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="238" t="s">
+      <c r="B320" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="238"/>
+      <c r="C320" s="239"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="242"/>
+      <c r="D339" s="241"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="242"/>
+      <c r="D340" s="241"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="242"/>
+      <c r="D341" s="241"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="242"/>
+      <c r="D342" s="241"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="242"/>
+      <c r="D343" s="241"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="238" t="s">
+      <c r="B345" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="238"/>
+      <c r="C345" s="239"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="242"/>
+      <c r="D363" s="241"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="242"/>
+      <c r="D364" s="241"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="242"/>
+      <c r="D365" s="241"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="242"/>
+      <c r="D366" s="241"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="242"/>
+      <c r="D367" s="241"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="238" t="s">
+      <c r="B369" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="238"/>
+      <c r="C369" s="239"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="238" t="s">
+      <c r="B403" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="238"/>
+      <c r="C403" s="239"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="238" t="s">
+      <c r="B439" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="238"/>
+      <c r="C439" s="239"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="238" t="s">
+      <c r="B467" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="238"/>
+      <c r="C467" s="239"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="238" t="s">
+      <c r="B493" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="238"/>
+      <c r="C493" s="239"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="238" t="s">
+      <c r="B520" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="238"/>
+      <c r="C520" s="239"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="238" t="s">
+      <c r="B547" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="238"/>
+      <c r="C547" s="239"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="238" t="s">
+      <c r="B577" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="238"/>
+      <c r="C577" s="239"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="238" t="s">
+      <c r="B612" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="238"/>
+      <c r="C612" s="239"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="238" t="s">
+      <c r="B641" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="238"/>
+      <c r="C641" s="239"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="241" t="s">
+      <c r="B665" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="241"/>
+      <c r="C665" s="243"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="238" t="s">
+      <c r="B691" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="238"/>
+      <c r="C691" s="239"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="238" t="s">
+      <c r="B715" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="238"/>
+      <c r="C715" s="239"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="238" t="s">
+      <c r="B744" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="238"/>
+      <c r="C744" s="239"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="238" t="s">
+      <c r="B771" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="238"/>
+      <c r="C771" s="239"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="238" t="s">
+      <c r="B800" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="238"/>
+      <c r="C800" s="239"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="238" t="s">
+      <c r="B829" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="238"/>
+      <c r="C829" s="239"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="238" t="s">
+      <c r="B858" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="238"/>
+      <c r="C858" s="239"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="238" t="s">
+      <c r="B890" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="238"/>
+      <c r="C890" s="239"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="238" t="s">
+      <c r="B922" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="238"/>
+      <c r="C922" s="239"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="238" t="s">
+      <c r="B954" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="238"/>
+      <c r="C954" s="239"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="238" t="s">
+      <c r="B980" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="238"/>
+      <c r="C980" s="239"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="238" t="s">
+      <c r="B1009" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="238"/>
+      <c r="C1009" s="239"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="238" t="s">
+      <c r="B1034" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="238"/>
+      <c r="C1034" s="239"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="238" t="s">
+      <c r="B1059" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="238"/>
+      <c r="C1059" s="239"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="238" t="s">
+      <c r="B1080" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="238"/>
+      <c r="C1080" s="239"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="238" t="s">
+      <c r="B1107" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="238"/>
+      <c r="C1107" s="239"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="238" t="s">
+      <c r="B1131" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="238"/>
+      <c r="C1131" s="239"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="238" t="s">
+      <c r="B1158" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="238"/>
+      <c r="C1158" s="239"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="238" t="s">
+      <c r="B1190" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="238"/>
+      <c r="C1190" s="239"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="238" t="s">
+      <c r="B1223" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="238"/>
+      <c r="C1223" s="239"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,51 +38142,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38195,6 +38150,51 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="254" t="s">
+      <c r="E2" s="245" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="254"/>
+      <c r="F2" s="245"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="251" t="s">
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="250" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="248" t="s">
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248" t="s">
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248" t="s">
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="257" t="s">
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="251" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="257"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="245" t="s">
+      <c r="T5" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="245"/>
+      <c r="T6" s="252"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="246" t="s">
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="253"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="253"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="247" t="s">
+      <c r="B24" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="248" t="s">
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="249" t="s">
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="254" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="249"/>
-      <c r="J24" s="249"/>
-      <c r="K24" s="248" t="s">
+      <c r="I24" s="254"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="248" t="s">
+      <c r="L24" s="249"/>
+      <c r="M24" s="249"/>
+      <c r="N24" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="248"/>
-      <c r="P24" s="248"/>
-      <c r="Q24" s="248" t="s">
+      <c r="O24" s="249"/>
+      <c r="P24" s="249"/>
+      <c r="Q24" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="248"/>
-      <c r="S24" s="248"/>
-      <c r="T24" s="250" t="s">
+      <c r="R24" s="249"/>
+      <c r="S24" s="249"/>
+      <c r="T24" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="250"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="250"/>
+      <c r="U24" s="255"/>
+      <c r="V24" s="255"/>
+      <c r="W24" s="255"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="245" t="s">
+      <c r="T25" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="245"/>
+      <c r="T26" s="252"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="246" t="s">
+      <c r="B44" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="246"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="246"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="246" t="s">
+      <c r="C44" s="253"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="253"/>
+      <c r="G44" s="253"/>
+      <c r="H44" s="253"/>
+      <c r="I44" s="253"/>
+      <c r="J44" s="253"/>
+      <c r="K44" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
-      <c r="N44" s="246"/>
-      <c r="O44" s="246"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="246"/>
-      <c r="T44" s="246"/>
-      <c r="U44" s="246"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="253"/>
+      <c r="N44" s="253"/>
+      <c r="O44" s="253"/>
+      <c r="P44" s="253"/>
+      <c r="Q44" s="253"/>
+      <c r="R44" s="253"/>
+      <c r="S44" s="253"/>
+      <c r="T44" s="253"/>
+      <c r="U44" s="253"/>
+      <c r="V44" s="253"/>
+      <c r="W44" s="253"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
-      <c r="E45" s="248" t="s">
+      <c r="C45" s="248"/>
+      <c r="D45" s="248"/>
+      <c r="E45" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="248"/>
-      <c r="G45" s="248"/>
-      <c r="H45" s="249" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="254" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="248" t="s">
+      <c r="I45" s="254"/>
+      <c r="J45" s="254"/>
+      <c r="K45" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="248"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="248" t="s">
+      <c r="L45" s="249"/>
+      <c r="M45" s="249"/>
+      <c r="N45" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="248"/>
-      <c r="P45" s="248"/>
-      <c r="Q45" s="248" t="s">
+      <c r="O45" s="249"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="248"/>
-      <c r="S45" s="248"/>
-      <c r="T45" s="253" t="s">
+      <c r="R45" s="249"/>
+      <c r="S45" s="249"/>
+      <c r="T45" s="256" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="253"/>
-      <c r="V45" s="253"/>
-      <c r="W45" s="253"/>
+      <c r="U45" s="256"/>
+      <c r="V45" s="256"/>
+      <c r="W45" s="256"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="252" t="s">
+      <c r="T46" s="257" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="252"/>
+      <c r="T47" s="257"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="246" t="s">
+      <c r="B62" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="246"/>
-      <c r="D62" s="246"/>
-      <c r="E62" s="246"/>
-      <c r="F62" s="246"/>
-      <c r="G62" s="246"/>
-      <c r="H62" s="246"/>
-      <c r="I62" s="246"/>
-      <c r="J62" s="246"/>
-      <c r="K62" s="246" t="s">
+      <c r="C62" s="253"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
+      <c r="G62" s="253"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="253"/>
+      <c r="J62" s="253"/>
+      <c r="K62" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="246"/>
-      <c r="M62" s="246"/>
-      <c r="N62" s="246"/>
-      <c r="O62" s="246"/>
-      <c r="P62" s="246"/>
-      <c r="Q62" s="246"/>
-      <c r="R62" s="246"/>
-      <c r="S62" s="246"/>
-      <c r="T62" s="246"/>
-      <c r="U62" s="246"/>
-      <c r="V62" s="246"/>
-      <c r="W62" s="246"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="253"/>
+      <c r="N62" s="253"/>
+      <c r="O62" s="253"/>
+      <c r="P62" s="253"/>
+      <c r="Q62" s="253"/>
+      <c r="R62" s="253"/>
+      <c r="S62" s="253"/>
+      <c r="T62" s="253"/>
+      <c r="U62" s="253"/>
+      <c r="V62" s="253"/>
+      <c r="W62" s="253"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="247" t="s">
+      <c r="B63" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="247"/>
-      <c r="D63" s="247"/>
-      <c r="E63" s="248" t="s">
+      <c r="C63" s="248"/>
+      <c r="D63" s="248"/>
+      <c r="E63" s="249" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="248"/>
-      <c r="G63" s="248"/>
-      <c r="H63" s="249" t="s">
+      <c r="F63" s="249"/>
+      <c r="G63" s="249"/>
+      <c r="H63" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="249"/>
-      <c r="J63" s="249"/>
-      <c r="K63" s="248" t="s">
+      <c r="I63" s="254"/>
+      <c r="J63" s="254"/>
+      <c r="K63" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="248"/>
-      <c r="M63" s="248"/>
-      <c r="N63" s="248" t="s">
+      <c r="L63" s="249"/>
+      <c r="M63" s="249"/>
+      <c r="N63" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="248"/>
-      <c r="P63" s="248"/>
-      <c r="Q63" s="248" t="s">
+      <c r="O63" s="249"/>
+      <c r="P63" s="249"/>
+      <c r="Q63" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="248"/>
-      <c r="S63" s="248"/>
-      <c r="T63" s="250" t="s">
+      <c r="R63" s="249"/>
+      <c r="S63" s="249"/>
+      <c r="T63" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="250"/>
-      <c r="V63" s="250"/>
-      <c r="W63" s="250"/>
+      <c r="U63" s="255"/>
+      <c r="V63" s="255"/>
+      <c r="W63" s="255"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="245" t="s">
+      <c r="T64" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="245"/>
+      <c r="T65" s="252"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="246" t="s">
+      <c r="B85" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="246"/>
-      <c r="D85" s="246"/>
-      <c r="E85" s="246"/>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
-      <c r="H85" s="246"/>
-      <c r="I85" s="246"/>
-      <c r="J85" s="246"/>
-      <c r="K85" s="246" t="s">
+      <c r="C85" s="253"/>
+      <c r="D85" s="253"/>
+      <c r="E85" s="253"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
+      <c r="H85" s="253"/>
+      <c r="I85" s="253"/>
+      <c r="J85" s="253"/>
+      <c r="K85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="246"/>
-      <c r="M85" s="246"/>
-      <c r="N85" s="246"/>
-      <c r="O85" s="246"/>
-      <c r="P85" s="246"/>
-      <c r="Q85" s="246"/>
-      <c r="R85" s="246"/>
-      <c r="S85" s="246"/>
-      <c r="T85" s="246"/>
-      <c r="U85" s="246"/>
-      <c r="V85" s="246"/>
-      <c r="W85" s="246"/>
+      <c r="L85" s="253"/>
+      <c r="M85" s="253"/>
+      <c r="N85" s="253"/>
+      <c r="O85" s="253"/>
+      <c r="P85" s="253"/>
+      <c r="Q85" s="253"/>
+      <c r="R85" s="253"/>
+      <c r="S85" s="253"/>
+      <c r="T85" s="253"/>
+      <c r="U85" s="253"/>
+      <c r="V85" s="253"/>
+      <c r="W85" s="253"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
-      <c r="H86" s="249" t="s">
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
+      <c r="H86" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="249"/>
-      <c r="J86" s="249"/>
-      <c r="K86" s="248" t="s">
+      <c r="I86" s="254"/>
+      <c r="J86" s="254"/>
+      <c r="K86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="248"/>
-      <c r="M86" s="248"/>
-      <c r="N86" s="248" t="s">
+      <c r="L86" s="249"/>
+      <c r="M86" s="249"/>
+      <c r="N86" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="248"/>
-      <c r="P86" s="248"/>
-      <c r="Q86" s="248" t="s">
+      <c r="O86" s="249"/>
+      <c r="P86" s="249"/>
+      <c r="Q86" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="248"/>
-      <c r="S86" s="248"/>
-      <c r="T86" s="250" t="s">
+      <c r="R86" s="249"/>
+      <c r="S86" s="249"/>
+      <c r="T86" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="250"/>
-      <c r="V86" s="250"/>
-      <c r="W86" s="250"/>
+      <c r="U86" s="255"/>
+      <c r="V86" s="255"/>
+      <c r="W86" s="255"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="245" t="s">
+      <c r="T87" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="245"/>
+      <c r="T88" s="252"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="246" t="s">
+      <c r="B107" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="246"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="246"/>
-      <c r="F107" s="246"/>
-      <c r="G107" s="246"/>
-      <c r="H107" s="246"/>
-      <c r="I107" s="246"/>
-      <c r="J107" s="246"/>
-      <c r="K107" s="246" t="s">
+      <c r="C107" s="253"/>
+      <c r="D107" s="253"/>
+      <c r="E107" s="253"/>
+      <c r="F107" s="253"/>
+      <c r="G107" s="253"/>
+      <c r="H107" s="253"/>
+      <c r="I107" s="253"/>
+      <c r="J107" s="253"/>
+      <c r="K107" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="246"/>
-      <c r="M107" s="246"/>
-      <c r="N107" s="246"/>
-      <c r="O107" s="246"/>
-      <c r="P107" s="246"/>
-      <c r="Q107" s="246"/>
-      <c r="R107" s="246"/>
-      <c r="S107" s="246"/>
-      <c r="T107" s="246"/>
-      <c r="U107" s="246"/>
-      <c r="V107" s="246"/>
-      <c r="W107" s="246"/>
+      <c r="L107" s="253"/>
+      <c r="M107" s="253"/>
+      <c r="N107" s="253"/>
+      <c r="O107" s="253"/>
+      <c r="P107" s="253"/>
+      <c r="Q107" s="253"/>
+      <c r="R107" s="253"/>
+      <c r="S107" s="253"/>
+      <c r="T107" s="253"/>
+      <c r="U107" s="253"/>
+      <c r="V107" s="253"/>
+      <c r="W107" s="253"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="247" t="s">
+      <c r="B108" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="247"/>
-      <c r="D108" s="247"/>
-      <c r="E108" s="248" t="s">
+      <c r="C108" s="248"/>
+      <c r="D108" s="248"/>
+      <c r="E108" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="248"/>
-      <c r="G108" s="248"/>
-      <c r="H108" s="249" t="s">
+      <c r="F108" s="249"/>
+      <c r="G108" s="249"/>
+      <c r="H108" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="249"/>
-      <c r="J108" s="249"/>
-      <c r="K108" s="248" t="s">
+      <c r="I108" s="254"/>
+      <c r="J108" s="254"/>
+      <c r="K108" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="248"/>
-      <c r="M108" s="248"/>
-      <c r="N108" s="248" t="s">
+      <c r="L108" s="249"/>
+      <c r="M108" s="249"/>
+      <c r="N108" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="248"/>
-      <c r="P108" s="248"/>
-      <c r="Q108" s="248" t="s">
+      <c r="O108" s="249"/>
+      <c r="P108" s="249"/>
+      <c r="Q108" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="248"/>
-      <c r="S108" s="248"/>
-      <c r="T108" s="250" t="s">
+      <c r="R108" s="249"/>
+      <c r="S108" s="249"/>
+      <c r="T108" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="250"/>
-      <c r="V108" s="250"/>
-      <c r="W108" s="250"/>
+      <c r="U108" s="255"/>
+      <c r="V108" s="255"/>
+      <c r="W108" s="255"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="245" t="s">
+      <c r="T109" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="245"/>
+      <c r="T110" s="252"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="246" t="s">
+      <c r="B128" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="246"/>
-      <c r="D128" s="246"/>
-      <c r="E128" s="246"/>
-      <c r="F128" s="246"/>
-      <c r="G128" s="246"/>
-      <c r="H128" s="246"/>
-      <c r="I128" s="246"/>
-      <c r="J128" s="246"/>
-      <c r="K128" s="246" t="s">
+      <c r="C128" s="253"/>
+      <c r="D128" s="253"/>
+      <c r="E128" s="253"/>
+      <c r="F128" s="253"/>
+      <c r="G128" s="253"/>
+      <c r="H128" s="253"/>
+      <c r="I128" s="253"/>
+      <c r="J128" s="253"/>
+      <c r="K128" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="246"/>
-      <c r="M128" s="246"/>
-      <c r="N128" s="246"/>
-      <c r="O128" s="246"/>
-      <c r="P128" s="246"/>
-      <c r="Q128" s="246"/>
-      <c r="R128" s="246"/>
-      <c r="S128" s="246"/>
-      <c r="T128" s="246"/>
-      <c r="U128" s="246"/>
-      <c r="V128" s="246"/>
-      <c r="W128" s="246"/>
+      <c r="L128" s="253"/>
+      <c r="M128" s="253"/>
+      <c r="N128" s="253"/>
+      <c r="O128" s="253"/>
+      <c r="P128" s="253"/>
+      <c r="Q128" s="253"/>
+      <c r="R128" s="253"/>
+      <c r="S128" s="253"/>
+      <c r="T128" s="253"/>
+      <c r="U128" s="253"/>
+      <c r="V128" s="253"/>
+      <c r="W128" s="253"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="247" t="s">
+      <c r="B129" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="247"/>
-      <c r="D129" s="247"/>
-      <c r="E129" s="248" t="s">
+      <c r="C129" s="248"/>
+      <c r="D129" s="248"/>
+      <c r="E129" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="248"/>
-      <c r="G129" s="248"/>
-      <c r="H129" s="249" t="s">
+      <c r="F129" s="249"/>
+      <c r="G129" s="249"/>
+      <c r="H129" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="249"/>
-      <c r="J129" s="249"/>
-      <c r="K129" s="248" t="s">
+      <c r="I129" s="254"/>
+      <c r="J129" s="254"/>
+      <c r="K129" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="248"/>
-      <c r="M129" s="248"/>
-      <c r="N129" s="248" t="s">
+      <c r="L129" s="249"/>
+      <c r="M129" s="249"/>
+      <c r="N129" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="248"/>
-      <c r="P129" s="248"/>
-      <c r="Q129" s="248" t="s">
+      <c r="O129" s="249"/>
+      <c r="P129" s="249"/>
+      <c r="Q129" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="248"/>
-      <c r="S129" s="248"/>
-      <c r="T129" s="250" t="s">
+      <c r="R129" s="249"/>
+      <c r="S129" s="249"/>
+      <c r="T129" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="250"/>
-      <c r="V129" s="250"/>
-      <c r="W129" s="250"/>
+      <c r="U129" s="255"/>
+      <c r="V129" s="255"/>
+      <c r="W129" s="255"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="245" t="s">
+      <c r="T130" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="245"/>
+      <c r="T131" s="252"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="246" t="s">
+      <c r="B142" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="246"/>
-      <c r="D142" s="246"/>
-      <c r="E142" s="246"/>
-      <c r="F142" s="246"/>
-      <c r="G142" s="246"/>
-      <c r="H142" s="246"/>
-      <c r="I142" s="246"/>
-      <c r="J142" s="246"/>
-      <c r="K142" s="246" t="s">
+      <c r="C142" s="253"/>
+      <c r="D142" s="253"/>
+      <c r="E142" s="253"/>
+      <c r="F142" s="253"/>
+      <c r="G142" s="253"/>
+      <c r="H142" s="253"/>
+      <c r="I142" s="253"/>
+      <c r="J142" s="253"/>
+      <c r="K142" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="246"/>
-      <c r="M142" s="246"/>
-      <c r="N142" s="246"/>
-      <c r="O142" s="246"/>
-      <c r="P142" s="246"/>
-      <c r="Q142" s="246"/>
-      <c r="R142" s="246"/>
-      <c r="S142" s="246"/>
-      <c r="T142" s="246"/>
-      <c r="U142" s="246"/>
-      <c r="V142" s="246"/>
-      <c r="W142" s="246"/>
+      <c r="L142" s="253"/>
+      <c r="M142" s="253"/>
+      <c r="N142" s="253"/>
+      <c r="O142" s="253"/>
+      <c r="P142" s="253"/>
+      <c r="Q142" s="253"/>
+      <c r="R142" s="253"/>
+      <c r="S142" s="253"/>
+      <c r="T142" s="253"/>
+      <c r="U142" s="253"/>
+      <c r="V142" s="253"/>
+      <c r="W142" s="253"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="247" t="s">
+      <c r="B143" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="247"/>
-      <c r="D143" s="247"/>
-      <c r="E143" s="248" t="s">
+      <c r="C143" s="248"/>
+      <c r="D143" s="248"/>
+      <c r="E143" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="248"/>
-      <c r="G143" s="248"/>
-      <c r="H143" s="249" t="s">
+      <c r="F143" s="249"/>
+      <c r="G143" s="249"/>
+      <c r="H143" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="249"/>
-      <c r="J143" s="249"/>
-      <c r="K143" s="248" t="s">
+      <c r="I143" s="254"/>
+      <c r="J143" s="254"/>
+      <c r="K143" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="248"/>
-      <c r="M143" s="248"/>
-      <c r="N143" s="248" t="s">
+      <c r="L143" s="249"/>
+      <c r="M143" s="249"/>
+      <c r="N143" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="248"/>
-      <c r="P143" s="248"/>
-      <c r="Q143" s="248" t="s">
+      <c r="O143" s="249"/>
+      <c r="P143" s="249"/>
+      <c r="Q143" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="248"/>
-      <c r="S143" s="248"/>
-      <c r="T143" s="250" t="s">
+      <c r="R143" s="249"/>
+      <c r="S143" s="249"/>
+      <c r="T143" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="250"/>
-      <c r="V143" s="250"/>
-      <c r="W143" s="250"/>
+      <c r="U143" s="255"/>
+      <c r="V143" s="255"/>
+      <c r="W143" s="255"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="245" t="s">
+      <c r="T144" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="245"/>
+      <c r="T145" s="252"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="251" t="s">
+      <c r="B157" s="247" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="251"/>
-      <c r="D157" s="251"/>
-      <c r="E157" s="251"/>
-      <c r="F157" s="251"/>
-      <c r="G157" s="251"/>
-      <c r="H157" s="251"/>
-      <c r="I157" s="251"/>
-      <c r="J157" s="251"/>
-      <c r="K157" s="251" t="s">
+      <c r="C157" s="247"/>
+      <c r="D157" s="247"/>
+      <c r="E157" s="247"/>
+      <c r="F157" s="247"/>
+      <c r="G157" s="247"/>
+      <c r="H157" s="247"/>
+      <c r="I157" s="247"/>
+      <c r="J157" s="247"/>
+      <c r="K157" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="251"/>
-      <c r="M157" s="251"/>
-      <c r="N157" s="251"/>
-      <c r="O157" s="251"/>
-      <c r="P157" s="251"/>
-      <c r="Q157" s="251"/>
-      <c r="R157" s="251"/>
-      <c r="S157" s="251"/>
-      <c r="T157" s="251"/>
-      <c r="U157" s="251"/>
-      <c r="V157" s="251"/>
-      <c r="W157" s="251"/>
+      <c r="L157" s="247"/>
+      <c r="M157" s="247"/>
+      <c r="N157" s="247"/>
+      <c r="O157" s="247"/>
+      <c r="P157" s="247"/>
+      <c r="Q157" s="247"/>
+      <c r="R157" s="247"/>
+      <c r="S157" s="247"/>
+      <c r="T157" s="247"/>
+      <c r="U157" s="247"/>
+      <c r="V157" s="247"/>
+      <c r="W157" s="247"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="247" t="s">
+      <c r="B158" s="248" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="247"/>
-      <c r="D158" s="247"/>
-      <c r="E158" s="248" t="s">
+      <c r="C158" s="248"/>
+      <c r="D158" s="248"/>
+      <c r="E158" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="248"/>
-      <c r="G158" s="248"/>
-      <c r="H158" s="249" t="s">
+      <c r="F158" s="249"/>
+      <c r="G158" s="249"/>
+      <c r="H158" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="249"/>
-      <c r="J158" s="249"/>
-      <c r="K158" s="248" t="s">
+      <c r="I158" s="254"/>
+      <c r="J158" s="254"/>
+      <c r="K158" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="248"/>
-      <c r="M158" s="248"/>
-      <c r="N158" s="248" t="s">
+      <c r="L158" s="249"/>
+      <c r="M158" s="249"/>
+      <c r="N158" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="248"/>
-      <c r="P158" s="248"/>
-      <c r="Q158" s="248" t="s">
+      <c r="O158" s="249"/>
+      <c r="P158" s="249"/>
+      <c r="Q158" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="248"/>
-      <c r="S158" s="248"/>
-      <c r="T158" s="250" t="s">
+      <c r="R158" s="249"/>
+      <c r="S158" s="249"/>
+      <c r="T158" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="250"/>
-      <c r="V158" s="250"/>
-      <c r="W158" s="250"/>
+      <c r="U158" s="255"/>
+      <c r="V158" s="255"/>
+      <c r="W158" s="255"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="245" t="s">
+      <c r="T159" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="245"/>
+      <c r="T160" s="252"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="245"/>
+      <c r="T161" s="252"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="246" t="s">
+      <c r="B172" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="246"/>
-      <c r="D172" s="246"/>
-      <c r="E172" s="246"/>
-      <c r="F172" s="246"/>
-      <c r="G172" s="246"/>
-      <c r="H172" s="246"/>
-      <c r="I172" s="246"/>
-      <c r="J172" s="246"/>
-      <c r="K172" s="246" t="s">
+      <c r="C172" s="253"/>
+      <c r="D172" s="253"/>
+      <c r="E172" s="253"/>
+      <c r="F172" s="253"/>
+      <c r="G172" s="253"/>
+      <c r="H172" s="253"/>
+      <c r="I172" s="253"/>
+      <c r="J172" s="253"/>
+      <c r="K172" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="246"/>
-      <c r="M172" s="246"/>
-      <c r="N172" s="246"/>
-      <c r="O172" s="246"/>
-      <c r="P172" s="246"/>
-      <c r="Q172" s="246"/>
-      <c r="R172" s="246"/>
-      <c r="S172" s="246"/>
-      <c r="T172" s="246"/>
-      <c r="U172" s="246"/>
-      <c r="V172" s="246"/>
-      <c r="W172" s="246"/>
+      <c r="L172" s="253"/>
+      <c r="M172" s="253"/>
+      <c r="N172" s="253"/>
+      <c r="O172" s="253"/>
+      <c r="P172" s="253"/>
+      <c r="Q172" s="253"/>
+      <c r="R172" s="253"/>
+      <c r="S172" s="253"/>
+      <c r="T172" s="253"/>
+      <c r="U172" s="253"/>
+      <c r="V172" s="253"/>
+      <c r="W172" s="253"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="247" t="s">
+      <c r="B173" s="248" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="247"/>
-      <c r="D173" s="247"/>
-      <c r="E173" s="248" t="s">
+      <c r="C173" s="248"/>
+      <c r="D173" s="248"/>
+      <c r="E173" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="248"/>
-      <c r="G173" s="248"/>
-      <c r="H173" s="249" t="s">
+      <c r="F173" s="249"/>
+      <c r="G173" s="249"/>
+      <c r="H173" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="249"/>
-      <c r="J173" s="249"/>
-      <c r="K173" s="248" t="s">
+      <c r="I173" s="254"/>
+      <c r="J173" s="254"/>
+      <c r="K173" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="248"/>
-      <c r="M173" s="248"/>
-      <c r="N173" s="248" t="s">
+      <c r="L173" s="249"/>
+      <c r="M173" s="249"/>
+      <c r="N173" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="248"/>
-      <c r="P173" s="248"/>
-      <c r="Q173" s="248" t="s">
+      <c r="O173" s="249"/>
+      <c r="P173" s="249"/>
+      <c r="Q173" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="248"/>
-      <c r="S173" s="248"/>
-      <c r="T173" s="250" t="s">
+      <c r="R173" s="249"/>
+      <c r="S173" s="249"/>
+      <c r="T173" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="250"/>
-      <c r="V173" s="250"/>
-      <c r="W173" s="250"/>
+      <c r="U173" s="255"/>
+      <c r="V173" s="255"/>
+      <c r="W173" s="255"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="245" t="s">
+      <c r="T174" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="245"/>
+      <c r="T175" s="252"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,96 +44442,6 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44543,6 +44453,96 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="246" t="s">
+      <c r="E15" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="247" t="s">
+      <c r="B16" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="248" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="247" t="s">
+      <c r="B28" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
-      <c r="E28" s="248" t="s">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="246" t="s">
+      <c r="E39" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="246"/>
-      <c r="G39" s="246"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="253"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="247" t="s">
+      <c r="B40" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="247"/>
-      <c r="D40" s="247"/>
-      <c r="E40" s="248" t="s">
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="248"/>
-      <c r="G40" s="248"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="246" t="s">
+      <c r="E57" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="246"/>
-      <c r="G57" s="246"/>
+      <c r="F57" s="253"/>
+      <c r="G57" s="253"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="247" t="s">
+      <c r="B58" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="247"/>
-      <c r="D58" s="247"/>
-      <c r="E58" s="248" t="s">
+      <c r="C58" s="248"/>
+      <c r="D58" s="248"/>
+      <c r="E58" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="248"/>
-      <c r="G58" s="248"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="249"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="246" t="s">
+      <c r="E72" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="246"/>
-      <c r="G72" s="246"/>
+      <c r="F72" s="253"/>
+      <c r="G72" s="253"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="247" t="s">
+      <c r="B73" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="247"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="248" t="s">
+      <c r="C73" s="248"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="248"/>
-      <c r="G73" s="248"/>
+      <c r="F73" s="249"/>
+      <c r="G73" s="249"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="246" t="s">
+      <c r="E85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="246" t="s">
+      <c r="E98" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="246"/>
-      <c r="G98" s="246"/>
+      <c r="F98" s="253"/>
+      <c r="G98" s="253"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="247" t="s">
+      <c r="B99" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="247"/>
-      <c r="D99" s="247"/>
-      <c r="E99" s="248" t="s">
+      <c r="C99" s="248"/>
+      <c r="D99" s="248"/>
+      <c r="E99" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="248"/>
-      <c r="G99" s="248"/>
+      <c r="F99" s="249"/>
+      <c r="G99" s="249"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="246" t="s">
+      <c r="E115" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="246"/>
-      <c r="G115" s="246"/>
+      <c r="F115" s="253"/>
+      <c r="G115" s="253"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="247" t="s">
+      <c r="B116" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="247"/>
-      <c r="D116" s="247"/>
-      <c r="E116" s="248" t="s">
+      <c r="C116" s="248"/>
+      <c r="D116" s="248"/>
+      <c r="E116" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="248"/>
-      <c r="G116" s="248"/>
+      <c r="F116" s="249"/>
+      <c r="G116" s="249"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="246" t="s">
+      <c r="E132" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="246"/>
-      <c r="G132" s="246"/>
+      <c r="F132" s="253"/>
+      <c r="G132" s="253"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="247" t="s">
+      <c r="B133" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="247"/>
-      <c r="D133" s="247"/>
-      <c r="E133" s="248" t="s">
+      <c r="C133" s="248"/>
+      <c r="D133" s="248"/>
+      <c r="E133" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="248"/>
-      <c r="G133" s="248"/>
+      <c r="F133" s="249"/>
+      <c r="G133" s="249"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="246" t="s">
+      <c r="E149" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="246"/>
-      <c r="G149" s="246"/>
+      <c r="F149" s="253"/>
+      <c r="G149" s="253"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="247" t="s">
+      <c r="B150" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="247"/>
-      <c r="D150" s="247"/>
-      <c r="E150" s="248" t="s">
+      <c r="C150" s="248"/>
+      <c r="D150" s="248"/>
+      <c r="E150" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="248"/>
-      <c r="G150" s="248"/>
+      <c r="F150" s="249"/>
+      <c r="G150" s="249"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="246" t="s">
+      <c r="E166" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="246"/>
-      <c r="G166" s="246"/>
+      <c r="F166" s="253"/>
+      <c r="G166" s="253"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="247" t="s">
+      <c r="B167" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="247"/>
-      <c r="D167" s="247"/>
-      <c r="E167" s="248" t="s">
+      <c r="C167" s="248"/>
+      <c r="D167" s="248"/>
+      <c r="E167" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="248"/>
-      <c r="G167" s="248"/>
+      <c r="F167" s="249"/>
+      <c r="G167" s="249"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="E167:G167"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF869F62-7864-44FF-B47F-AFC48E248AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0726903D-8231-4573-AE31-4134D098F48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,50 +5491,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5543,10 +5528,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="238"/>
+      <c r="D15" s="239"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="238"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="238"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="238"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="238"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="238"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="238"/>
+      <c r="D41" s="239"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="238"/>
+      <c r="D42" s="239"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="238"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="238"/>
+      <c r="D44" s="239"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="238"/>
+      <c r="D45" s="239"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="238"/>
+      <c r="D46" s="239"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="239" t="s">
+      <c r="B47" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="239"/>
+      <c r="C47" s="238"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="238"/>
+      <c r="D71" s="239"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="238"/>
+      <c r="D72" s="239"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="238"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="238"/>
+      <c r="D74" s="239"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="238"/>
+      <c r="D75" s="239"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="239" t="s">
+      <c r="B77" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="239"/>
+      <c r="C77" s="238"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="238"/>
+      <c r="D99" s="239"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="238"/>
+      <c r="D100" s="239"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="238"/>
+      <c r="D101" s="239"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="238"/>
+      <c r="D102" s="239"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="238"/>
+      <c r="D103" s="239"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="239" t="s">
+      <c r="B105" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="239"/>
+      <c r="C105" s="238"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="238"/>
+      <c r="D128" s="239"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="238"/>
+      <c r="D129" s="239"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="238"/>
+      <c r="D130" s="239"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="238"/>
+      <c r="D131" s="239"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="238"/>
+      <c r="D132" s="239"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="239" t="s">
+      <c r="B134" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="239"/>
+      <c r="C134" s="238"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="238"/>
+      <c r="D158" s="239"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="238"/>
+      <c r="D159" s="239"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="238"/>
+      <c r="D160" s="239"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="238"/>
+      <c r="D161" s="239"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="238"/>
+      <c r="D162" s="239"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="239" t="s">
+      <c r="B164" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="239"/>
+      <c r="C164" s="238"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="238"/>
+      <c r="D179" s="239"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="238"/>
+      <c r="D180" s="239"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="238"/>
+      <c r="D181" s="239"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="238"/>
+      <c r="D182" s="239"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="238"/>
+      <c r="D183" s="239"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="238"/>
+      <c r="D184" s="239"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="239" t="s">
+      <c r="B185" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="239"/>
+      <c r="C185" s="238"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="238"/>
+      <c r="D201" s="239"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="238"/>
+      <c r="D202" s="239"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="238"/>
+      <c r="D203" s="239"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="238"/>
+      <c r="D204" s="239"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="238"/>
+      <c r="D205" s="239"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="238"/>
+      <c r="D206" s="239"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="239" t="s">
+      <c r="B207" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="239"/>
+      <c r="C207" s="238"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="238"/>
+      <c r="D242" s="239"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="238"/>
+      <c r="D243" s="239"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="238"/>
+      <c r="D244" s="239"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="238"/>
+      <c r="D245" s="239"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="238"/>
+      <c r="D246" s="239"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="239" t="s">
+      <c r="B248" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="239"/>
+      <c r="C248" s="238"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="238"/>
+      <c r="D278" s="239"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="238"/>
+      <c r="D279" s="239"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="238"/>
+      <c r="D280" s="239"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="238"/>
+      <c r="D281" s="239"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="238"/>
+      <c r="D282" s="239"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="239" t="s">
+      <c r="B284" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="239"/>
+      <c r="C284" s="238"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="238"/>
+      <c r="D304" s="239"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="238"/>
+      <c r="D305" s="239"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="238"/>
+      <c r="D306" s="239"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="238"/>
+      <c r="D307" s="239"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="238"/>
+      <c r="D308" s="239"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="239" t="s">
+      <c r="B310" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="239"/>
+      <c r="C310" s="238"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="238"/>
+      <c r="D327" s="239"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="238"/>
+      <c r="D328" s="239"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="238"/>
+      <c r="D329" s="239"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="238"/>
+      <c r="D330" s="239"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="238"/>
+      <c r="D331" s="239"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="239" t="s">
+      <c r="B333" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="239"/>
+      <c r="C333" s="238"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="238"/>
+      <c r="D349" s="239"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="238"/>
+      <c r="D350" s="239"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="238"/>
+      <c r="D351" s="239"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="238"/>
+      <c r="D352" s="239"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="238"/>
+      <c r="D353" s="239"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="239" t="s">
+      <c r="B355" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="239"/>
+      <c r="C355" s="238"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="238"/>
+      <c r="D383" s="239"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="238"/>
+      <c r="D384" s="239"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="238"/>
+      <c r="D385" s="239"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="238"/>
+      <c r="D386" s="239"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="238"/>
+      <c r="D387" s="239"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="239" t="s">
+      <c r="B389" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="239"/>
+      <c r="C389" s="238"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="238"/>
+      <c r="D418" s="239"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="238"/>
+      <c r="D419" s="239"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="238"/>
+      <c r="D420" s="239"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="238"/>
+      <c r="D421" s="239"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="238"/>
+      <c r="D422" s="239"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="239" t="s">
+      <c r="B424" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="239"/>
+      <c r="C424" s="238"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="239" t="s">
+      <c r="B451" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="239"/>
+      <c r="C451" s="238"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="238"/>
+      <c r="D469" s="239"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="238"/>
+      <c r="D470" s="239"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="238"/>
+      <c r="D471" s="239"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="238"/>
+      <c r="D472" s="239"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="238"/>
+      <c r="D473" s="239"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="239" t="s">
+      <c r="B475" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="239"/>
+      <c r="C475" s="238"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="238"/>
+      <c r="D494" s="239"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="238"/>
+      <c r="D495" s="239"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="238"/>
+      <c r="D496" s="239"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="238"/>
+      <c r="D497" s="239"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="238"/>
+      <c r="D498" s="239"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="239" t="s">
+      <c r="B500" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="239"/>
+      <c r="C500" s="238"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="238"/>
+      <c r="D519" s="239"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="238"/>
+      <c r="D520" s="239"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="238"/>
+      <c r="D521" s="239"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="238"/>
+      <c r="D522" s="239"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="238"/>
+      <c r="D523" s="239"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="239" t="s">
+      <c r="B525" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="239"/>
+      <c r="C525" s="238"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="238"/>
+      <c r="D547" s="239"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="238"/>
+      <c r="D548" s="239"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="238"/>
+      <c r="D549" s="239"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="238"/>
+      <c r="D550" s="239"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="238"/>
+      <c r="D551" s="239"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="239" t="s">
+      <c r="B553" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="239"/>
+      <c r="C553" s="238"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="238"/>
+      <c r="D580" s="239"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="238"/>
+      <c r="D581" s="239"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="238"/>
+      <c r="D582" s="239"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="238"/>
+      <c r="D583" s="239"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="238"/>
+      <c r="D584" s="239"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="239" t="s">
+      <c r="B586" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="239"/>
+      <c r="C586" s="238"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="238"/>
+      <c r="D608" s="239"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="238"/>
+      <c r="D609" s="239"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="238"/>
+      <c r="D610" s="239"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="238"/>
+      <c r="D611" s="239"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="238"/>
+      <c r="D612" s="239"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="239" t="s">
+      <c r="B614" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="239"/>
+      <c r="C614" s="238"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="239" t="s">
+      <c r="B637" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="239"/>
+      <c r="C637" s="238"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="239" t="s">
+      <c r="B660" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="239"/>
+      <c r="C660" s="238"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="239" t="s">
+      <c r="B683" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="239"/>
+      <c r="C683" s="238"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="239" t="s">
+      <c r="B711" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="239"/>
+      <c r="C711" s="238"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="238"/>
+      <c r="D729" s="239"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="238"/>
+      <c r="D730" s="239"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="238"/>
+      <c r="D731" s="239"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="238"/>
+      <c r="D732" s="239"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="238"/>
+      <c r="D733" s="239"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="239" t="s">
+      <c r="B735" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="239"/>
+      <c r="C735" s="238"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="238"/>
+      <c r="D756" s="239"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="238"/>
+      <c r="D757" s="239"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="238"/>
+      <c r="D758" s="239"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="238"/>
+      <c r="D759" s="239"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="238"/>
+      <c r="D760" s="239"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="239" t="s">
+      <c r="B762" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="239"/>
+      <c r="C762" s="238"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="239" t="s">
+      <c r="B789" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="239"/>
+      <c r="C789" s="238"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="239" t="s">
+      <c r="B816" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="239"/>
+      <c r="C816" s="238"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="238"/>
+      <c r="D839" s="239"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="238"/>
+      <c r="D840" s="239"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="238"/>
+      <c r="D841" s="239"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="238"/>
+      <c r="D842" s="239"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="238"/>
+      <c r="D843" s="239"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="238"/>
+      <c r="D844" s="239"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="239" t="s">
+      <c r="B845" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="239"/>
+      <c r="C845" s="238"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="239" t="s">
+      <c r="B876" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="239"/>
+      <c r="C876" s="238"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="239" t="s">
+      <c r="B907" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="239"/>
+      <c r="C907" s="238"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="239" t="s">
+      <c r="B931" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="239"/>
+      <c r="C931" s="238"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="239" t="s">
+      <c r="B958" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="239"/>
+      <c r="C958" s="238"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="239" t="s">
+      <c r="B981" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="239"/>
+      <c r="C981" s="238"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="239" t="s">
+      <c r="B1005" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="239"/>
+      <c r="C1005" s="238"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="239" t="s">
+      <c r="B1024" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="239"/>
+      <c r="C1024" s="238"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="238"/>
+      <c r="D1042" s="239"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="238"/>
+      <c r="D1043" s="239"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="238"/>
+      <c r="D1044" s="239"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="238"/>
+      <c r="D1045" s="239"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="238"/>
+      <c r="D1046" s="239"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="239" t="s">
+      <c r="B1048" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="239"/>
+      <c r="C1048" s="238"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="239" t="s">
+      <c r="B1070" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="239"/>
+      <c r="C1070" s="238"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="238"/>
+      <c r="D1089" s="239"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="238"/>
+      <c r="D1090" s="239"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="238"/>
+      <c r="D1091" s="239"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="238"/>
+      <c r="D1092" s="239"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="238"/>
+      <c r="D1093" s="239"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="239" t="s">
+      <c r="B1095" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="239"/>
+      <c r="C1095" s="238"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="238"/>
+      <c r="D1120" s="239"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="238"/>
+      <c r="D1121" s="239"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="238"/>
+      <c r="D1122" s="239"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="238"/>
+      <c r="D1123" s="239"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="238"/>
+      <c r="D1124" s="239"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="239" t="s">
+      <c r="B1126" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="239"/>
+      <c r="C1126" s="238"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="239" t="s">
+      <c r="B1155" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="239"/>
+      <c r="C1155" s="238"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="241"/>
+      <c r="D43" s="242"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="241"/>
+      <c r="D44" s="242"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="241"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="241"/>
+      <c r="D46" s="242"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="241"/>
+      <c r="D47" s="242"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="241"/>
+      <c r="D48" s="242"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="239" t="s">
+      <c r="B49" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="239"/>
+      <c r="C49" s="238"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="242" t="s">
+      <c r="E68" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="242"/>
+      <c r="F68" s="244"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="241"/>
+      <c r="D74" s="242"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="241"/>
+      <c r="D75" s="242"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="241"/>
+      <c r="D76" s="242"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="241"/>
+      <c r="D77" s="242"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="241"/>
+      <c r="D78" s="242"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="239" t="s">
+      <c r="B80" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="239"/>
+      <c r="C80" s="238"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="243" t="s">
+      <c r="B107" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="243"/>
+      <c r="C107" s="241"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="239" t="s">
+      <c r="B137" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="239"/>
+      <c r="C137" s="238"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="239" t="s">
+      <c r="B167" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="239"/>
+      <c r="C167" s="238"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="239" t="s">
+      <c r="B189" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="239"/>
+      <c r="C189" s="238"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="239" t="s">
+      <c r="B212" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="239"/>
+      <c r="C212" s="238"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="239" t="s">
+      <c r="B249" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="239"/>
+      <c r="C249" s="238"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="241"/>
+      <c r="D285" s="242"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="241"/>
+      <c r="D286" s="242"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="241"/>
+      <c r="D287" s="242"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="241"/>
+      <c r="D288" s="242"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="241"/>
+      <c r="D289" s="242"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="244" t="s">
+      <c r="B291" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="244"/>
+      <c r="C291" s="243"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="241"/>
+      <c r="D314" s="242"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="241"/>
+      <c r="D315" s="242"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="241"/>
+      <c r="D316" s="242"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="241"/>
+      <c r="D317" s="242"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="241"/>
+      <c r="D318" s="242"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="239" t="s">
+      <c r="B320" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="239"/>
+      <c r="C320" s="238"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="241"/>
+      <c r="D339" s="242"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="241"/>
+      <c r="D340" s="242"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="241"/>
+      <c r="D341" s="242"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="241"/>
+      <c r="D342" s="242"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="241"/>
+      <c r="D343" s="242"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="239" t="s">
+      <c r="B345" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="239"/>
+      <c r="C345" s="238"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="241"/>
+      <c r="D363" s="242"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="241"/>
+      <c r="D364" s="242"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="241"/>
+      <c r="D365" s="242"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="241"/>
+      <c r="D366" s="242"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="241"/>
+      <c r="D367" s="242"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="239" t="s">
+      <c r="B369" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="239"/>
+      <c r="C369" s="238"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="239" t="s">
+      <c r="B403" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="239"/>
+      <c r="C403" s="238"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="239" t="s">
+      <c r="B439" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="239"/>
+      <c r="C439" s="238"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="239" t="s">
+      <c r="B467" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="239"/>
+      <c r="C467" s="238"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="239" t="s">
+      <c r="B493" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="239"/>
+      <c r="C493" s="238"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="239" t="s">
+      <c r="B520" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="239"/>
+      <c r="C520" s="238"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="239" t="s">
+      <c r="B547" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="239"/>
+      <c r="C547" s="238"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="239" t="s">
+      <c r="B577" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="239"/>
+      <c r="C577" s="238"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="239" t="s">
+      <c r="B612" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="239"/>
+      <c r="C612" s="238"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="239" t="s">
+      <c r="B641" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="239"/>
+      <c r="C641" s="238"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="243" t="s">
+      <c r="B665" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="243"/>
+      <c r="C665" s="241"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="239" t="s">
+      <c r="B691" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="239"/>
+      <c r="C691" s="238"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="239" t="s">
+      <c r="B715" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="239"/>
+      <c r="C715" s="238"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="239" t="s">
+      <c r="B744" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="239"/>
+      <c r="C744" s="238"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="239" t="s">
+      <c r="B771" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="239"/>
+      <c r="C771" s="238"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="239" t="s">
+      <c r="B800" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="239"/>
+      <c r="C800" s="238"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="239" t="s">
+      <c r="B829" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="239"/>
+      <c r="C829" s="238"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="239" t="s">
+      <c r="B858" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="239"/>
+      <c r="C858" s="238"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="239" t="s">
+      <c r="B890" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="239"/>
+      <c r="C890" s="238"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="239" t="s">
+      <c r="B922" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="239"/>
+      <c r="C922" s="238"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="239" t="s">
+      <c r="B954" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="239"/>
+      <c r="C954" s="238"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="239" t="s">
+      <c r="B980" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="239"/>
+      <c r="C980" s="238"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="239" t="s">
+      <c r="B1009" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="239"/>
+      <c r="C1009" s="238"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="239" t="s">
+      <c r="B1034" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="239"/>
+      <c r="C1034" s="238"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="239" t="s">
+      <c r="B1059" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="239"/>
+      <c r="C1059" s="238"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="239" t="s">
+      <c r="B1080" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="239"/>
+      <c r="C1080" s="238"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="239" t="s">
+      <c r="B1107" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="239"/>
+      <c r="C1107" s="238"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="239" t="s">
+      <c r="B1131" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="239"/>
+      <c r="C1131" s="238"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="239" t="s">
+      <c r="B1158" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="239"/>
+      <c r="C1158" s="238"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="239" t="s">
+      <c r="B1190" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="239"/>
+      <c r="C1190" s="238"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="239" t="s">
+      <c r="B1223" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="239"/>
+      <c r="C1223" s="238"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,6 +38142,51 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38150,51 +38195,6 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="245" t="s">
+      <c r="E2" s="254" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="245"/>
+      <c r="F2" s="254"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="255" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="247" t="s">
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="250" t="s">
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="256" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="249" t="s">
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249" t="s">
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249" t="s">
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="251" t="s">
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="257" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="252" t="s">
+      <c r="T5" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="252"/>
+      <c r="T6" s="245"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253" t="s">
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="253"/>
-      <c r="M23" s="253"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253"/>
-      <c r="R23" s="253"/>
-      <c r="S23" s="253"/>
-      <c r="T23" s="253"/>
-      <c r="U23" s="253"/>
-      <c r="V23" s="253"/>
-      <c r="W23" s="253"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249" t="s">
+      <c r="C24" s="247"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="254" t="s">
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="249" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="254"/>
-      <c r="J24" s="254"/>
-      <c r="K24" s="249" t="s">
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
-      <c r="N24" s="249" t="s">
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="249"/>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="249" t="s">
+      <c r="O24" s="248"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="249"/>
-      <c r="S24" s="249"/>
-      <c r="T24" s="255" t="s">
+      <c r="R24" s="248"/>
+      <c r="S24" s="248"/>
+      <c r="T24" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="255"/>
-      <c r="V24" s="255"/>
-      <c r="W24" s="255"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="250"/>
+      <c r="W24" s="250"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="252" t="s">
+      <c r="T25" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="252"/>
+      <c r="T26" s="245"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="253"/>
-      <c r="F44" s="253"/>
-      <c r="G44" s="253"/>
-      <c r="H44" s="253"/>
-      <c r="I44" s="253"/>
-      <c r="J44" s="253"/>
-      <c r="K44" s="253" t="s">
+      <c r="C44" s="246"/>
+      <c r="D44" s="246"/>
+      <c r="E44" s="246"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="246"/>
+      <c r="H44" s="246"/>
+      <c r="I44" s="246"/>
+      <c r="J44" s="246"/>
+      <c r="K44" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="253"/>
-      <c r="M44" s="253"/>
-      <c r="N44" s="253"/>
-      <c r="O44" s="253"/>
-      <c r="P44" s="253"/>
-      <c r="Q44" s="253"/>
-      <c r="R44" s="253"/>
-      <c r="S44" s="253"/>
-      <c r="T44" s="253"/>
-      <c r="U44" s="253"/>
-      <c r="V44" s="253"/>
-      <c r="W44" s="253"/>
+      <c r="L44" s="246"/>
+      <c r="M44" s="246"/>
+      <c r="N44" s="246"/>
+      <c r="O44" s="246"/>
+      <c r="P44" s="246"/>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="246"/>
+      <c r="S44" s="246"/>
+      <c r="T44" s="246"/>
+      <c r="U44" s="246"/>
+      <c r="V44" s="246"/>
+      <c r="W44" s="246"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="248" t="s">
+      <c r="B45" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="249" t="s">
+      <c r="C45" s="247"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="254" t="s">
+      <c r="F45" s="248"/>
+      <c r="G45" s="248"/>
+      <c r="H45" s="249" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="254"/>
-      <c r="J45" s="254"/>
-      <c r="K45" s="249" t="s">
+      <c r="I45" s="249"/>
+      <c r="J45" s="249"/>
+      <c r="K45" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249" t="s">
+      <c r="L45" s="248"/>
+      <c r="M45" s="248"/>
+      <c r="N45" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249" t="s">
+      <c r="O45" s="248"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="256" t="s">
+      <c r="R45" s="248"/>
+      <c r="S45" s="248"/>
+      <c r="T45" s="253" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="256"/>
-      <c r="V45" s="256"/>
-      <c r="W45" s="256"/>
+      <c r="U45" s="253"/>
+      <c r="V45" s="253"/>
+      <c r="W45" s="253"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="257" t="s">
+      <c r="T46" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="257"/>
+      <c r="T47" s="252"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="253" t="s">
+      <c r="B62" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="253"/>
-      <c r="J62" s="253"/>
-      <c r="K62" s="253" t="s">
+      <c r="C62" s="246"/>
+      <c r="D62" s="246"/>
+      <c r="E62" s="246"/>
+      <c r="F62" s="246"/>
+      <c r="G62" s="246"/>
+      <c r="H62" s="246"/>
+      <c r="I62" s="246"/>
+      <c r="J62" s="246"/>
+      <c r="K62" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="253"/>
-      <c r="M62" s="253"/>
-      <c r="N62" s="253"/>
-      <c r="O62" s="253"/>
-      <c r="P62" s="253"/>
-      <c r="Q62" s="253"/>
-      <c r="R62" s="253"/>
-      <c r="S62" s="253"/>
-      <c r="T62" s="253"/>
-      <c r="U62" s="253"/>
-      <c r="V62" s="253"/>
-      <c r="W62" s="253"/>
+      <c r="L62" s="246"/>
+      <c r="M62" s="246"/>
+      <c r="N62" s="246"/>
+      <c r="O62" s="246"/>
+      <c r="P62" s="246"/>
+      <c r="Q62" s="246"/>
+      <c r="R62" s="246"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="246"/>
+      <c r="U62" s="246"/>
+      <c r="V62" s="246"/>
+      <c r="W62" s="246"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="248"/>
-      <c r="D63" s="248"/>
-      <c r="E63" s="249" t="s">
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="248" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="254" t="s">
+      <c r="F63" s="248"/>
+      <c r="G63" s="248"/>
+      <c r="H63" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="254"/>
-      <c r="J63" s="254"/>
-      <c r="K63" s="249" t="s">
+      <c r="I63" s="249"/>
+      <c r="J63" s="249"/>
+      <c r="K63" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="249"/>
-      <c r="M63" s="249"/>
-      <c r="N63" s="249" t="s">
+      <c r="L63" s="248"/>
+      <c r="M63" s="248"/>
+      <c r="N63" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="249"/>
-      <c r="P63" s="249"/>
-      <c r="Q63" s="249" t="s">
+      <c r="O63" s="248"/>
+      <c r="P63" s="248"/>
+      <c r="Q63" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="249"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="255" t="s">
+      <c r="R63" s="248"/>
+      <c r="S63" s="248"/>
+      <c r="T63" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="255"/>
-      <c r="V63" s="255"/>
-      <c r="W63" s="255"/>
+      <c r="U63" s="250"/>
+      <c r="V63" s="250"/>
+      <c r="W63" s="250"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="252" t="s">
+      <c r="T64" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="252"/>
+      <c r="T65" s="245"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="253" t="s">
+      <c r="B85" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="253"/>
-      <c r="D85" s="253"/>
-      <c r="E85" s="253"/>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
-      <c r="H85" s="253"/>
-      <c r="I85" s="253"/>
-      <c r="J85" s="253"/>
-      <c r="K85" s="253" t="s">
+      <c r="C85" s="246"/>
+      <c r="D85" s="246"/>
+      <c r="E85" s="246"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
+      <c r="H85" s="246"/>
+      <c r="I85" s="246"/>
+      <c r="J85" s="246"/>
+      <c r="K85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="253"/>
-      <c r="M85" s="253"/>
-      <c r="N85" s="253"/>
-      <c r="O85" s="253"/>
-      <c r="P85" s="253"/>
-      <c r="Q85" s="253"/>
-      <c r="R85" s="253"/>
-      <c r="S85" s="253"/>
-      <c r="T85" s="253"/>
-      <c r="U85" s="253"/>
-      <c r="V85" s="253"/>
-      <c r="W85" s="253"/>
+      <c r="L85" s="246"/>
+      <c r="M85" s="246"/>
+      <c r="N85" s="246"/>
+      <c r="O85" s="246"/>
+      <c r="P85" s="246"/>
+      <c r="Q85" s="246"/>
+      <c r="R85" s="246"/>
+      <c r="S85" s="246"/>
+      <c r="T85" s="246"/>
+      <c r="U85" s="246"/>
+      <c r="V85" s="246"/>
+      <c r="W85" s="246"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
-      <c r="H86" s="254" t="s">
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
+      <c r="H86" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="254"/>
-      <c r="J86" s="254"/>
-      <c r="K86" s="249" t="s">
+      <c r="I86" s="249"/>
+      <c r="J86" s="249"/>
+      <c r="K86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="249"/>
-      <c r="M86" s="249"/>
-      <c r="N86" s="249" t="s">
+      <c r="L86" s="248"/>
+      <c r="M86" s="248"/>
+      <c r="N86" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="249"/>
-      <c r="P86" s="249"/>
-      <c r="Q86" s="249" t="s">
+      <c r="O86" s="248"/>
+      <c r="P86" s="248"/>
+      <c r="Q86" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="249"/>
-      <c r="S86" s="249"/>
-      <c r="T86" s="255" t="s">
+      <c r="R86" s="248"/>
+      <c r="S86" s="248"/>
+      <c r="T86" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="255"/>
-      <c r="V86" s="255"/>
-      <c r="W86" s="255"/>
+      <c r="U86" s="250"/>
+      <c r="V86" s="250"/>
+      <c r="W86" s="250"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="252" t="s">
+      <c r="T87" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="252"/>
+      <c r="T88" s="245"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="253" t="s">
+      <c r="B107" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="253"/>
-      <c r="D107" s="253"/>
-      <c r="E107" s="253"/>
-      <c r="F107" s="253"/>
-      <c r="G107" s="253"/>
-      <c r="H107" s="253"/>
-      <c r="I107" s="253"/>
-      <c r="J107" s="253"/>
-      <c r="K107" s="253" t="s">
+      <c r="C107" s="246"/>
+      <c r="D107" s="246"/>
+      <c r="E107" s="246"/>
+      <c r="F107" s="246"/>
+      <c r="G107" s="246"/>
+      <c r="H107" s="246"/>
+      <c r="I107" s="246"/>
+      <c r="J107" s="246"/>
+      <c r="K107" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="253"/>
-      <c r="M107" s="253"/>
-      <c r="N107" s="253"/>
-      <c r="O107" s="253"/>
-      <c r="P107" s="253"/>
-      <c r="Q107" s="253"/>
-      <c r="R107" s="253"/>
-      <c r="S107" s="253"/>
-      <c r="T107" s="253"/>
-      <c r="U107" s="253"/>
-      <c r="V107" s="253"/>
-      <c r="W107" s="253"/>
+      <c r="L107" s="246"/>
+      <c r="M107" s="246"/>
+      <c r="N107" s="246"/>
+      <c r="O107" s="246"/>
+      <c r="P107" s="246"/>
+      <c r="Q107" s="246"/>
+      <c r="R107" s="246"/>
+      <c r="S107" s="246"/>
+      <c r="T107" s="246"/>
+      <c r="U107" s="246"/>
+      <c r="V107" s="246"/>
+      <c r="W107" s="246"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="248" t="s">
+      <c r="B108" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="248"/>
-      <c r="D108" s="248"/>
-      <c r="E108" s="249" t="s">
+      <c r="C108" s="247"/>
+      <c r="D108" s="247"/>
+      <c r="E108" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="249"/>
-      <c r="G108" s="249"/>
-      <c r="H108" s="254" t="s">
+      <c r="F108" s="248"/>
+      <c r="G108" s="248"/>
+      <c r="H108" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="254"/>
-      <c r="J108" s="254"/>
-      <c r="K108" s="249" t="s">
+      <c r="I108" s="249"/>
+      <c r="J108" s="249"/>
+      <c r="K108" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="249"/>
-      <c r="M108" s="249"/>
-      <c r="N108" s="249" t="s">
+      <c r="L108" s="248"/>
+      <c r="M108" s="248"/>
+      <c r="N108" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="249"/>
-      <c r="P108" s="249"/>
-      <c r="Q108" s="249" t="s">
+      <c r="O108" s="248"/>
+      <c r="P108" s="248"/>
+      <c r="Q108" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="249"/>
-      <c r="S108" s="249"/>
-      <c r="T108" s="255" t="s">
+      <c r="R108" s="248"/>
+      <c r="S108" s="248"/>
+      <c r="T108" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="255"/>
-      <c r="V108" s="255"/>
-      <c r="W108" s="255"/>
+      <c r="U108" s="250"/>
+      <c r="V108" s="250"/>
+      <c r="W108" s="250"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="252" t="s">
+      <c r="T109" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="252"/>
+      <c r="T110" s="245"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="253" t="s">
+      <c r="B128" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="253"/>
-      <c r="D128" s="253"/>
-      <c r="E128" s="253"/>
-      <c r="F128" s="253"/>
-      <c r="G128" s="253"/>
-      <c r="H128" s="253"/>
-      <c r="I128" s="253"/>
-      <c r="J128" s="253"/>
-      <c r="K128" s="253" t="s">
+      <c r="C128" s="246"/>
+      <c r="D128" s="246"/>
+      <c r="E128" s="246"/>
+      <c r="F128" s="246"/>
+      <c r="G128" s="246"/>
+      <c r="H128" s="246"/>
+      <c r="I128" s="246"/>
+      <c r="J128" s="246"/>
+      <c r="K128" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="253"/>
-      <c r="M128" s="253"/>
-      <c r="N128" s="253"/>
-      <c r="O128" s="253"/>
-      <c r="P128" s="253"/>
-      <c r="Q128" s="253"/>
-      <c r="R128" s="253"/>
-      <c r="S128" s="253"/>
-      <c r="T128" s="253"/>
-      <c r="U128" s="253"/>
-      <c r="V128" s="253"/>
-      <c r="W128" s="253"/>
+      <c r="L128" s="246"/>
+      <c r="M128" s="246"/>
+      <c r="N128" s="246"/>
+      <c r="O128" s="246"/>
+      <c r="P128" s="246"/>
+      <c r="Q128" s="246"/>
+      <c r="R128" s="246"/>
+      <c r="S128" s="246"/>
+      <c r="T128" s="246"/>
+      <c r="U128" s="246"/>
+      <c r="V128" s="246"/>
+      <c r="W128" s="246"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="248" t="s">
+      <c r="B129" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="248"/>
-      <c r="D129" s="248"/>
-      <c r="E129" s="249" t="s">
+      <c r="C129" s="247"/>
+      <c r="D129" s="247"/>
+      <c r="E129" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="249"/>
-      <c r="G129" s="249"/>
-      <c r="H129" s="254" t="s">
+      <c r="F129" s="248"/>
+      <c r="G129" s="248"/>
+      <c r="H129" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="254"/>
-      <c r="J129" s="254"/>
-      <c r="K129" s="249" t="s">
+      <c r="I129" s="249"/>
+      <c r="J129" s="249"/>
+      <c r="K129" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="249"/>
-      <c r="M129" s="249"/>
-      <c r="N129" s="249" t="s">
+      <c r="L129" s="248"/>
+      <c r="M129" s="248"/>
+      <c r="N129" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="249"/>
-      <c r="P129" s="249"/>
-      <c r="Q129" s="249" t="s">
+      <c r="O129" s="248"/>
+      <c r="P129" s="248"/>
+      <c r="Q129" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="249"/>
-      <c r="S129" s="249"/>
-      <c r="T129" s="255" t="s">
+      <c r="R129" s="248"/>
+      <c r="S129" s="248"/>
+      <c r="T129" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="255"/>
-      <c r="V129" s="255"/>
-      <c r="W129" s="255"/>
+      <c r="U129" s="250"/>
+      <c r="V129" s="250"/>
+      <c r="W129" s="250"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="252" t="s">
+      <c r="T130" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="252"/>
+      <c r="T131" s="245"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="253" t="s">
+      <c r="B142" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="253"/>
-      <c r="D142" s="253"/>
-      <c r="E142" s="253"/>
-      <c r="F142" s="253"/>
-      <c r="G142" s="253"/>
-      <c r="H142" s="253"/>
-      <c r="I142" s="253"/>
-      <c r="J142" s="253"/>
-      <c r="K142" s="253" t="s">
+      <c r="C142" s="246"/>
+      <c r="D142" s="246"/>
+      <c r="E142" s="246"/>
+      <c r="F142" s="246"/>
+      <c r="G142" s="246"/>
+      <c r="H142" s="246"/>
+      <c r="I142" s="246"/>
+      <c r="J142" s="246"/>
+      <c r="K142" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="253"/>
-      <c r="M142" s="253"/>
-      <c r="N142" s="253"/>
-      <c r="O142" s="253"/>
-      <c r="P142" s="253"/>
-      <c r="Q142" s="253"/>
-      <c r="R142" s="253"/>
-      <c r="S142" s="253"/>
-      <c r="T142" s="253"/>
-      <c r="U142" s="253"/>
-      <c r="V142" s="253"/>
-      <c r="W142" s="253"/>
+      <c r="L142" s="246"/>
+      <c r="M142" s="246"/>
+      <c r="N142" s="246"/>
+      <c r="O142" s="246"/>
+      <c r="P142" s="246"/>
+      <c r="Q142" s="246"/>
+      <c r="R142" s="246"/>
+      <c r="S142" s="246"/>
+      <c r="T142" s="246"/>
+      <c r="U142" s="246"/>
+      <c r="V142" s="246"/>
+      <c r="W142" s="246"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="248" t="s">
+      <c r="B143" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="248"/>
-      <c r="D143" s="248"/>
-      <c r="E143" s="249" t="s">
+      <c r="C143" s="247"/>
+      <c r="D143" s="247"/>
+      <c r="E143" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="249"/>
-      <c r="G143" s="249"/>
-      <c r="H143" s="254" t="s">
+      <c r="F143" s="248"/>
+      <c r="G143" s="248"/>
+      <c r="H143" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="254"/>
-      <c r="J143" s="254"/>
-      <c r="K143" s="249" t="s">
+      <c r="I143" s="249"/>
+      <c r="J143" s="249"/>
+      <c r="K143" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="249"/>
-      <c r="M143" s="249"/>
-      <c r="N143" s="249" t="s">
+      <c r="L143" s="248"/>
+      <c r="M143" s="248"/>
+      <c r="N143" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="249"/>
-      <c r="P143" s="249"/>
-      <c r="Q143" s="249" t="s">
+      <c r="O143" s="248"/>
+      <c r="P143" s="248"/>
+      <c r="Q143" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="249"/>
-      <c r="S143" s="249"/>
-      <c r="T143" s="255" t="s">
+      <c r="R143" s="248"/>
+      <c r="S143" s="248"/>
+      <c r="T143" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="255"/>
-      <c r="V143" s="255"/>
-      <c r="W143" s="255"/>
+      <c r="U143" s="250"/>
+      <c r="V143" s="250"/>
+      <c r="W143" s="250"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="252" t="s">
+      <c r="T144" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="252"/>
+      <c r="T145" s="245"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="247" t="s">
+      <c r="B157" s="251" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="247"/>
-      <c r="D157" s="247"/>
-      <c r="E157" s="247"/>
-      <c r="F157" s="247"/>
-      <c r="G157" s="247"/>
-      <c r="H157" s="247"/>
-      <c r="I157" s="247"/>
-      <c r="J157" s="247"/>
-      <c r="K157" s="247" t="s">
+      <c r="C157" s="251"/>
+      <c r="D157" s="251"/>
+      <c r="E157" s="251"/>
+      <c r="F157" s="251"/>
+      <c r="G157" s="251"/>
+      <c r="H157" s="251"/>
+      <c r="I157" s="251"/>
+      <c r="J157" s="251"/>
+      <c r="K157" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="247"/>
-      <c r="M157" s="247"/>
-      <c r="N157" s="247"/>
-      <c r="O157" s="247"/>
-      <c r="P157" s="247"/>
-      <c r="Q157" s="247"/>
-      <c r="R157" s="247"/>
-      <c r="S157" s="247"/>
-      <c r="T157" s="247"/>
-      <c r="U157" s="247"/>
-      <c r="V157" s="247"/>
-      <c r="W157" s="247"/>
+      <c r="L157" s="251"/>
+      <c r="M157" s="251"/>
+      <c r="N157" s="251"/>
+      <c r="O157" s="251"/>
+      <c r="P157" s="251"/>
+      <c r="Q157" s="251"/>
+      <c r="R157" s="251"/>
+      <c r="S157" s="251"/>
+      <c r="T157" s="251"/>
+      <c r="U157" s="251"/>
+      <c r="V157" s="251"/>
+      <c r="W157" s="251"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="248" t="s">
+      <c r="B158" s="247" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="248"/>
-      <c r="D158" s="248"/>
-      <c r="E158" s="249" t="s">
+      <c r="C158" s="247"/>
+      <c r="D158" s="247"/>
+      <c r="E158" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="249"/>
-      <c r="G158" s="249"/>
-      <c r="H158" s="254" t="s">
+      <c r="F158" s="248"/>
+      <c r="G158" s="248"/>
+      <c r="H158" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="254"/>
-      <c r="J158" s="254"/>
-      <c r="K158" s="249" t="s">
+      <c r="I158" s="249"/>
+      <c r="J158" s="249"/>
+      <c r="K158" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="249"/>
-      <c r="M158" s="249"/>
-      <c r="N158" s="249" t="s">
+      <c r="L158" s="248"/>
+      <c r="M158" s="248"/>
+      <c r="N158" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="249"/>
-      <c r="P158" s="249"/>
-      <c r="Q158" s="249" t="s">
+      <c r="O158" s="248"/>
+      <c r="P158" s="248"/>
+      <c r="Q158" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="249"/>
-      <c r="S158" s="249"/>
-      <c r="T158" s="255" t="s">
+      <c r="R158" s="248"/>
+      <c r="S158" s="248"/>
+      <c r="T158" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="255"/>
-      <c r="V158" s="255"/>
-      <c r="W158" s="255"/>
+      <c r="U158" s="250"/>
+      <c r="V158" s="250"/>
+      <c r="W158" s="250"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="252" t="s">
+      <c r="T159" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="252"/>
+      <c r="T160" s="245"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="252"/>
+      <c r="T161" s="245"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="253" t="s">
+      <c r="B172" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="253"/>
-      <c r="D172" s="253"/>
-      <c r="E172" s="253"/>
-      <c r="F172" s="253"/>
-      <c r="G172" s="253"/>
-      <c r="H172" s="253"/>
-      <c r="I172" s="253"/>
-      <c r="J172" s="253"/>
-      <c r="K172" s="253" t="s">
+      <c r="C172" s="246"/>
+      <c r="D172" s="246"/>
+      <c r="E172" s="246"/>
+      <c r="F172" s="246"/>
+      <c r="G172" s="246"/>
+      <c r="H172" s="246"/>
+      <c r="I172" s="246"/>
+      <c r="J172" s="246"/>
+      <c r="K172" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="253"/>
-      <c r="M172" s="253"/>
-      <c r="N172" s="253"/>
-      <c r="O172" s="253"/>
-      <c r="P172" s="253"/>
-      <c r="Q172" s="253"/>
-      <c r="R172" s="253"/>
-      <c r="S172" s="253"/>
-      <c r="T172" s="253"/>
-      <c r="U172" s="253"/>
-      <c r="V172" s="253"/>
-      <c r="W172" s="253"/>
+      <c r="L172" s="246"/>
+      <c r="M172" s="246"/>
+      <c r="N172" s="246"/>
+      <c r="O172" s="246"/>
+      <c r="P172" s="246"/>
+      <c r="Q172" s="246"/>
+      <c r="R172" s="246"/>
+      <c r="S172" s="246"/>
+      <c r="T172" s="246"/>
+      <c r="U172" s="246"/>
+      <c r="V172" s="246"/>
+      <c r="W172" s="246"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="248" t="s">
+      <c r="B173" s="247" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="248"/>
-      <c r="D173" s="248"/>
-      <c r="E173" s="249" t="s">
+      <c r="C173" s="247"/>
+      <c r="D173" s="247"/>
+      <c r="E173" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="249"/>
-      <c r="G173" s="249"/>
-      <c r="H173" s="254" t="s">
+      <c r="F173" s="248"/>
+      <c r="G173" s="248"/>
+      <c r="H173" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="254"/>
-      <c r="J173" s="254"/>
-      <c r="K173" s="249" t="s">
+      <c r="I173" s="249"/>
+      <c r="J173" s="249"/>
+      <c r="K173" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="249"/>
-      <c r="M173" s="249"/>
-      <c r="N173" s="249" t="s">
+      <c r="L173" s="248"/>
+      <c r="M173" s="248"/>
+      <c r="N173" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="249"/>
-      <c r="P173" s="249"/>
-      <c r="Q173" s="249" t="s">
+      <c r="O173" s="248"/>
+      <c r="P173" s="248"/>
+      <c r="Q173" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="249"/>
-      <c r="S173" s="249"/>
-      <c r="T173" s="255" t="s">
+      <c r="R173" s="248"/>
+      <c r="S173" s="248"/>
+      <c r="T173" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="255"/>
-      <c r="V173" s="255"/>
-      <c r="W173" s="255"/>
+      <c r="U173" s="250"/>
+      <c r="V173" s="250"/>
+      <c r="W173" s="250"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="252" t="s">
+      <c r="T174" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="252"/>
+      <c r="T175" s="245"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,6 +44442,96 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44453,96 +44543,6 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="253" t="s">
+      <c r="E3" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="253" t="s">
+      <c r="E15" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249" t="s">
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="253" t="s">
+      <c r="E27" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249" t="s">
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="253" t="s">
+      <c r="E39" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="246"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="249" t="s">
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="248"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="253" t="s">
+      <c r="E57" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="253"/>
-      <c r="G57" s="253"/>
+      <c r="F57" s="246"/>
+      <c r="G57" s="246"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="248"/>
-      <c r="D58" s="248"/>
-      <c r="E58" s="249" t="s">
+      <c r="C58" s="247"/>
+      <c r="D58" s="247"/>
+      <c r="E58" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="249"/>
-      <c r="G58" s="249"/>
+      <c r="F58" s="248"/>
+      <c r="G58" s="248"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="253" t="s">
+      <c r="E72" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="G72" s="253"/>
+      <c r="F72" s="246"/>
+      <c r="G72" s="246"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="248" t="s">
+      <c r="B73" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="248"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="249" t="s">
+      <c r="C73" s="247"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="249"/>
-      <c r="G73" s="249"/>
+      <c r="F73" s="248"/>
+      <c r="G73" s="248"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="253" t="s">
+      <c r="E85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="253" t="s">
+      <c r="E98" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="253"/>
-      <c r="G98" s="253"/>
+      <c r="F98" s="246"/>
+      <c r="G98" s="246"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="248" t="s">
+      <c r="B99" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="248"/>
-      <c r="D99" s="248"/>
-      <c r="E99" s="249" t="s">
+      <c r="C99" s="247"/>
+      <c r="D99" s="247"/>
+      <c r="E99" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="249"/>
-      <c r="G99" s="249"/>
+      <c r="F99" s="248"/>
+      <c r="G99" s="248"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="253" t="s">
+      <c r="E115" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="253"/>
-      <c r="G115" s="253"/>
+      <c r="F115" s="246"/>
+      <c r="G115" s="246"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="248" t="s">
+      <c r="B116" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="248"/>
-      <c r="D116" s="248"/>
-      <c r="E116" s="249" t="s">
+      <c r="C116" s="247"/>
+      <c r="D116" s="247"/>
+      <c r="E116" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="249"/>
-      <c r="G116" s="249"/>
+      <c r="F116" s="248"/>
+      <c r="G116" s="248"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="253" t="s">
+      <c r="E132" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="253"/>
-      <c r="G132" s="253"/>
+      <c r="F132" s="246"/>
+      <c r="G132" s="246"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="248" t="s">
+      <c r="B133" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="248"/>
-      <c r="D133" s="248"/>
-      <c r="E133" s="249" t="s">
+      <c r="C133" s="247"/>
+      <c r="D133" s="247"/>
+      <c r="E133" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="249"/>
-      <c r="G133" s="249"/>
+      <c r="F133" s="248"/>
+      <c r="G133" s="248"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="253" t="s">
+      <c r="E149" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="253"/>
-      <c r="G149" s="253"/>
+      <c r="F149" s="246"/>
+      <c r="G149" s="246"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="248" t="s">
+      <c r="B150" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="248"/>
-      <c r="D150" s="248"/>
-      <c r="E150" s="249" t="s">
+      <c r="C150" s="247"/>
+      <c r="D150" s="247"/>
+      <c r="E150" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="249"/>
-      <c r="G150" s="249"/>
+      <c r="F150" s="248"/>
+      <c r="G150" s="248"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="253" t="s">
+      <c r="E166" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="253"/>
-      <c r="G166" s="253"/>
+      <c r="F166" s="246"/>
+      <c r="G166" s="246"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="248" t="s">
+      <c r="B167" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="248"/>
-      <c r="D167" s="248"/>
-      <c r="E167" s="249" t="s">
+      <c r="C167" s="247"/>
+      <c r="D167" s="247"/>
+      <c r="E167" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="249"/>
-      <c r="G167" s="249"/>
+      <c r="F167" s="248"/>
+      <c r="G167" s="248"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="E150:G150"/>
     <mergeCell ref="B166:D166"/>
     <mergeCell ref="E166:G166"/>
     <mergeCell ref="B167:D167"/>
     <mergeCell ref="E167:G167"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0726903D-8231-4573-AE31-4134D098F48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506502DA-6A44-422B-AD3F-4E30D6A7A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506502DA-6A44-422B-AD3F-4E30D6A7A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB3D545-74CF-438D-A52A-C352127057EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,35 +5491,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5528,25 +5543,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="239"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="239"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="239"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="239"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="239"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="239"/>
+      <c r="D41" s="238"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="239"/>
+      <c r="D42" s="238"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="239"/>
+      <c r="D43" s="238"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="239"/>
+      <c r="D44" s="238"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="239"/>
+      <c r="D45" s="238"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="239"/>
+      <c r="D46" s="238"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="238" t="s">
+      <c r="B47" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="238"/>
+      <c r="C47" s="239"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="239"/>
+      <c r="D71" s="238"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="239"/>
+      <c r="D72" s="238"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="239"/>
+      <c r="D73" s="238"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="239"/>
+      <c r="D74" s="238"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="239"/>
+      <c r="D75" s="238"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="238" t="s">
+      <c r="B77" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="238"/>
+      <c r="C77" s="239"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="239"/>
+      <c r="D99" s="238"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="239"/>
+      <c r="D100" s="238"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="239"/>
+      <c r="D101" s="238"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="239"/>
+      <c r="D102" s="238"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="239"/>
+      <c r="D103" s="238"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="238" t="s">
+      <c r="B105" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="238"/>
+      <c r="C105" s="239"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="239"/>
+      <c r="D128" s="238"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="239"/>
+      <c r="D129" s="238"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="239"/>
+      <c r="D130" s="238"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="239"/>
+      <c r="D131" s="238"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="239"/>
+      <c r="D132" s="238"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="238" t="s">
+      <c r="B134" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="238"/>
+      <c r="C134" s="239"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="239"/>
+      <c r="D158" s="238"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="239"/>
+      <c r="D159" s="238"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="239"/>
+      <c r="D160" s="238"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="239"/>
+      <c r="D161" s="238"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="239"/>
+      <c r="D162" s="238"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="238" t="s">
+      <c r="B164" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="238"/>
+      <c r="C164" s="239"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="239"/>
+      <c r="D179" s="238"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="239"/>
+      <c r="D180" s="238"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="239"/>
+      <c r="D181" s="238"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="239"/>
+      <c r="D182" s="238"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="239"/>
+      <c r="D183" s="238"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="239"/>
+      <c r="D184" s="238"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="238" t="s">
+      <c r="B185" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="238"/>
+      <c r="C185" s="239"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="239"/>
+      <c r="D201" s="238"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="239"/>
+      <c r="D202" s="238"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="239"/>
+      <c r="D203" s="238"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="239"/>
+      <c r="D204" s="238"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="239"/>
+      <c r="D205" s="238"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="239"/>
+      <c r="D206" s="238"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="238" t="s">
+      <c r="B207" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="238"/>
+      <c r="C207" s="239"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="239"/>
+      <c r="D242" s="238"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="239"/>
+      <c r="D243" s="238"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="239"/>
+      <c r="D244" s="238"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="239"/>
+      <c r="D245" s="238"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="239"/>
+      <c r="D246" s="238"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="238" t="s">
+      <c r="B248" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="238"/>
+      <c r="C248" s="239"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="239"/>
+      <c r="D278" s="238"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="239"/>
+      <c r="D279" s="238"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="239"/>
+      <c r="D280" s="238"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="239"/>
+      <c r="D281" s="238"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="239"/>
+      <c r="D282" s="238"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="238" t="s">
+      <c r="B284" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="238"/>
+      <c r="C284" s="239"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="239"/>
+      <c r="D304" s="238"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="239"/>
+      <c r="D305" s="238"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="239"/>
+      <c r="D306" s="238"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="239"/>
+      <c r="D307" s="238"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="239"/>
+      <c r="D308" s="238"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="238" t="s">
+      <c r="B310" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="238"/>
+      <c r="C310" s="239"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="239"/>
+      <c r="D327" s="238"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="239"/>
+      <c r="D328" s="238"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="239"/>
+      <c r="D329" s="238"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="239"/>
+      <c r="D330" s="238"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="239"/>
+      <c r="D331" s="238"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="238" t="s">
+      <c r="B333" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="238"/>
+      <c r="C333" s="239"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="239"/>
+      <c r="D349" s="238"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="239"/>
+      <c r="D350" s="238"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="239"/>
+      <c r="D351" s="238"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="239"/>
+      <c r="D352" s="238"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="239"/>
+      <c r="D353" s="238"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="238" t="s">
+      <c r="B355" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="238"/>
+      <c r="C355" s="239"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="239"/>
+      <c r="D383" s="238"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="239"/>
+      <c r="D384" s="238"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="239"/>
+      <c r="D385" s="238"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="239"/>
+      <c r="D386" s="238"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="239"/>
+      <c r="D387" s="238"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="238" t="s">
+      <c r="B389" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="238"/>
+      <c r="C389" s="239"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="239"/>
+      <c r="D418" s="238"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="239"/>
+      <c r="D419" s="238"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="239"/>
+      <c r="D420" s="238"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="239"/>
+      <c r="D421" s="238"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="239"/>
+      <c r="D422" s="238"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="238" t="s">
+      <c r="B424" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="238"/>
+      <c r="C424" s="239"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="238" t="s">
+      <c r="B451" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="238"/>
+      <c r="C451" s="239"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="239"/>
+      <c r="D469" s="238"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="239"/>
+      <c r="D470" s="238"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="239"/>
+      <c r="D471" s="238"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="239"/>
+      <c r="D472" s="238"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="239"/>
+      <c r="D473" s="238"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="238" t="s">
+      <c r="B475" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="238"/>
+      <c r="C475" s="239"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="239"/>
+      <c r="D494" s="238"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="239"/>
+      <c r="D495" s="238"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="239"/>
+      <c r="D496" s="238"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="239"/>
+      <c r="D497" s="238"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="239"/>
+      <c r="D498" s="238"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="238" t="s">
+      <c r="B500" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="238"/>
+      <c r="C500" s="239"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="239"/>
+      <c r="D519" s="238"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="239"/>
+      <c r="D520" s="238"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="239"/>
+      <c r="D521" s="238"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="239"/>
+      <c r="D522" s="238"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="239"/>
+      <c r="D523" s="238"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="238" t="s">
+      <c r="B525" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="238"/>
+      <c r="C525" s="239"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="239"/>
+      <c r="D547" s="238"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="239"/>
+      <c r="D548" s="238"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="239"/>
+      <c r="D549" s="238"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="239"/>
+      <c r="D550" s="238"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="239"/>
+      <c r="D551" s="238"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="238" t="s">
+      <c r="B553" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="238"/>
+      <c r="C553" s="239"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="239"/>
+      <c r="D580" s="238"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="239"/>
+      <c r="D581" s="238"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="239"/>
+      <c r="D582" s="238"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="239"/>
+      <c r="D583" s="238"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="239"/>
+      <c r="D584" s="238"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="238" t="s">
+      <c r="B586" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="238"/>
+      <c r="C586" s="239"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="239"/>
+      <c r="D608" s="238"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="239"/>
+      <c r="D609" s="238"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="239"/>
+      <c r="D610" s="238"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="239"/>
+      <c r="D611" s="238"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="239"/>
+      <c r="D612" s="238"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="238" t="s">
+      <c r="B614" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="238"/>
+      <c r="C614" s="239"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="238" t="s">
+      <c r="B637" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="238"/>
+      <c r="C637" s="239"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="238" t="s">
+      <c r="B660" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="238"/>
+      <c r="C660" s="239"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="238" t="s">
+      <c r="B683" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="238"/>
+      <c r="C683" s="239"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="238" t="s">
+      <c r="B711" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="238"/>
+      <c r="C711" s="239"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="239"/>
+      <c r="D729" s="238"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="239"/>
+      <c r="D730" s="238"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="239"/>
+      <c r="D731" s="238"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="239"/>
+      <c r="D732" s="238"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="239"/>
+      <c r="D733" s="238"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="238" t="s">
+      <c r="B735" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="238"/>
+      <c r="C735" s="239"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="239"/>
+      <c r="D756" s="238"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="239"/>
+      <c r="D757" s="238"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="239"/>
+      <c r="D758" s="238"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="239"/>
+      <c r="D759" s="238"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="239"/>
+      <c r="D760" s="238"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="238" t="s">
+      <c r="B762" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="238"/>
+      <c r="C762" s="239"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="238" t="s">
+      <c r="B789" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="238"/>
+      <c r="C789" s="239"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="238" t="s">
+      <c r="B816" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="238"/>
+      <c r="C816" s="239"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="239"/>
+      <c r="D839" s="238"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="239"/>
+      <c r="D840" s="238"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="239"/>
+      <c r="D841" s="238"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="239"/>
+      <c r="D842" s="238"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="239"/>
+      <c r="D843" s="238"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="239"/>
+      <c r="D844" s="238"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="238" t="s">
+      <c r="B845" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="238"/>
+      <c r="C845" s="239"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="238" t="s">
+      <c r="B876" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="238"/>
+      <c r="C876" s="239"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="238" t="s">
+      <c r="B907" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="238"/>
+      <c r="C907" s="239"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="238" t="s">
+      <c r="B931" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="238"/>
+      <c r="C931" s="239"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="238" t="s">
+      <c r="B958" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="238"/>
+      <c r="C958" s="239"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="238" t="s">
+      <c r="B981" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="238"/>
+      <c r="C981" s="239"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="238" t="s">
+      <c r="B1005" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="238"/>
+      <c r="C1005" s="239"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="238" t="s">
+      <c r="B1024" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="238"/>
+      <c r="C1024" s="239"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="239"/>
+      <c r="D1042" s="238"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="239"/>
+      <c r="D1043" s="238"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="239"/>
+      <c r="D1044" s="238"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="239"/>
+      <c r="D1045" s="238"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="239"/>
+      <c r="D1046" s="238"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="238" t="s">
+      <c r="B1048" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="238"/>
+      <c r="C1048" s="239"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="238" t="s">
+      <c r="B1070" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="238"/>
+      <c r="C1070" s="239"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="239"/>
+      <c r="D1089" s="238"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="239"/>
+      <c r="D1090" s="238"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="239"/>
+      <c r="D1091" s="238"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="239"/>
+      <c r="D1092" s="238"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="239"/>
+      <c r="D1093" s="238"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="238" t="s">
+      <c r="B1095" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="238"/>
+      <c r="C1095" s="239"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="239"/>
+      <c r="D1120" s="238"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="239"/>
+      <c r="D1121" s="238"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="239"/>
+      <c r="D1122" s="238"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="239"/>
+      <c r="D1123" s="238"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="239"/>
+      <c r="D1124" s="238"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="238" t="s">
+      <c r="B1126" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="238"/>
+      <c r="C1126" s="239"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="238" t="s">
+      <c r="B1155" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="238"/>
+      <c r="C1155" s="239"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="242"/>
+      <c r="D43" s="241"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="242"/>
+      <c r="D44" s="241"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="241"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="242"/>
+      <c r="D46" s="241"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="242"/>
+      <c r="D47" s="241"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="242"/>
+      <c r="D48" s="241"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="238" t="s">
+      <c r="B49" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="238"/>
+      <c r="C49" s="239"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="244" t="s">
+      <c r="E68" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="244"/>
+      <c r="F68" s="242"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="242"/>
+      <c r="D74" s="241"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="242"/>
+      <c r="D75" s="241"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="242"/>
+      <c r="D76" s="241"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="242"/>
+      <c r="D77" s="241"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="242"/>
+      <c r="D78" s="241"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="238" t="s">
+      <c r="B80" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="238"/>
+      <c r="C80" s="239"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="241" t="s">
+      <c r="B107" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="241"/>
+      <c r="C107" s="243"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="238" t="s">
+      <c r="B137" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="238"/>
+      <c r="C137" s="239"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="238" t="s">
+      <c r="B167" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="238"/>
+      <c r="C167" s="239"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="238" t="s">
+      <c r="B189" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="238"/>
+      <c r="C189" s="239"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="238" t="s">
+      <c r="B212" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="238"/>
+      <c r="C212" s="239"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="238" t="s">
+      <c r="B249" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="238"/>
+      <c r="C249" s="239"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="242"/>
+      <c r="D285" s="241"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="242"/>
+      <c r="D286" s="241"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="242"/>
+      <c r="D287" s="241"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="242"/>
+      <c r="D288" s="241"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="242"/>
+      <c r="D289" s="241"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="243" t="s">
+      <c r="B291" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="243"/>
+      <c r="C291" s="244"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="242"/>
+      <c r="D314" s="241"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="242"/>
+      <c r="D315" s="241"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="242"/>
+      <c r="D316" s="241"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="242"/>
+      <c r="D317" s="241"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="242"/>
+      <c r="D318" s="241"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="238" t="s">
+      <c r="B320" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="238"/>
+      <c r="C320" s="239"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="242"/>
+      <c r="D339" s="241"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="242"/>
+      <c r="D340" s="241"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="242"/>
+      <c r="D341" s="241"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="242"/>
+      <c r="D342" s="241"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="242"/>
+      <c r="D343" s="241"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="238" t="s">
+      <c r="B345" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="238"/>
+      <c r="C345" s="239"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="242"/>
+      <c r="D363" s="241"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="242"/>
+      <c r="D364" s="241"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="242"/>
+      <c r="D365" s="241"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="242"/>
+      <c r="D366" s="241"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="242"/>
+      <c r="D367" s="241"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="238" t="s">
+      <c r="B369" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="238"/>
+      <c r="C369" s="239"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="238" t="s">
+      <c r="B403" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="238"/>
+      <c r="C403" s="239"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="238" t="s">
+      <c r="B439" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="238"/>
+      <c r="C439" s="239"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="238" t="s">
+      <c r="B467" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="238"/>
+      <c r="C467" s="239"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="238" t="s">
+      <c r="B493" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="238"/>
+      <c r="C493" s="239"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="238" t="s">
+      <c r="B520" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="238"/>
+      <c r="C520" s="239"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="238" t="s">
+      <c r="B547" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="238"/>
+      <c r="C547" s="239"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="238" t="s">
+      <c r="B577" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="238"/>
+      <c r="C577" s="239"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="238" t="s">
+      <c r="B612" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="238"/>
+      <c r="C612" s="239"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="238" t="s">
+      <c r="B641" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="238"/>
+      <c r="C641" s="239"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="241" t="s">
+      <c r="B665" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="241"/>
+      <c r="C665" s="243"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="238" t="s">
+      <c r="B691" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="238"/>
+      <c r="C691" s="239"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="238" t="s">
+      <c r="B715" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="238"/>
+      <c r="C715" s="239"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="238" t="s">
+      <c r="B744" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="238"/>
+      <c r="C744" s="239"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="238" t="s">
+      <c r="B771" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="238"/>
+      <c r="C771" s="239"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="238" t="s">
+      <c r="B800" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="238"/>
+      <c r="C800" s="239"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="238" t="s">
+      <c r="B829" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="238"/>
+      <c r="C829" s="239"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="238" t="s">
+      <c r="B858" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="238"/>
+      <c r="C858" s="239"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="238" t="s">
+      <c r="B890" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="238"/>
+      <c r="C890" s="239"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="238" t="s">
+      <c r="B922" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="238"/>
+      <c r="C922" s="239"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="238" t="s">
+      <c r="B954" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="238"/>
+      <c r="C954" s="239"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="238" t="s">
+      <c r="B980" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="238"/>
+      <c r="C980" s="239"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="238" t="s">
+      <c r="B1009" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="238"/>
+      <c r="C1009" s="239"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="238" t="s">
+      <c r="B1034" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="238"/>
+      <c r="C1034" s="239"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="238" t="s">
+      <c r="B1059" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="238"/>
+      <c r="C1059" s="239"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="238" t="s">
+      <c r="B1080" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="238"/>
+      <c r="C1080" s="239"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="238" t="s">
+      <c r="B1107" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="238"/>
+      <c r="C1107" s="239"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="238" t="s">
+      <c r="B1131" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="238"/>
+      <c r="C1131" s="239"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="238" t="s">
+      <c r="B1158" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="238"/>
+      <c r="C1158" s="239"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="238" t="s">
+      <c r="B1190" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="238"/>
+      <c r="C1190" s="239"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="238" t="s">
+      <c r="B1223" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="238"/>
+      <c r="C1223" s="239"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,51 +38142,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38195,6 +38150,51 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="254" t="s">
+      <c r="E2" s="245" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="254"/>
+      <c r="F2" s="245"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="251" t="s">
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="250" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="248" t="s">
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248" t="s">
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248" t="s">
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="257" t="s">
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="251" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="257"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="245" t="s">
+      <c r="T5" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="245"/>
+      <c r="T6" s="252"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="246" t="s">
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="253"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="253"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="247" t="s">
+      <c r="B24" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="248" t="s">
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="249" t="s">
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="254" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="249"/>
-      <c r="J24" s="249"/>
-      <c r="K24" s="248" t="s">
+      <c r="I24" s="254"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="248" t="s">
+      <c r="L24" s="249"/>
+      <c r="M24" s="249"/>
+      <c r="N24" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="248"/>
-      <c r="P24" s="248"/>
-      <c r="Q24" s="248" t="s">
+      <c r="O24" s="249"/>
+      <c r="P24" s="249"/>
+      <c r="Q24" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="248"/>
-      <c r="S24" s="248"/>
-      <c r="T24" s="250" t="s">
+      <c r="R24" s="249"/>
+      <c r="S24" s="249"/>
+      <c r="T24" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="250"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="250"/>
+      <c r="U24" s="255"/>
+      <c r="V24" s="255"/>
+      <c r="W24" s="255"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="245" t="s">
+      <c r="T25" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="245"/>
+      <c r="T26" s="252"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="246" t="s">
+      <c r="B44" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="246"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="246"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="246" t="s">
+      <c r="C44" s="253"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="253"/>
+      <c r="G44" s="253"/>
+      <c r="H44" s="253"/>
+      <c r="I44" s="253"/>
+      <c r="J44" s="253"/>
+      <c r="K44" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
-      <c r="N44" s="246"/>
-      <c r="O44" s="246"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="246"/>
-      <c r="T44" s="246"/>
-      <c r="U44" s="246"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="253"/>
+      <c r="N44" s="253"/>
+      <c r="O44" s="253"/>
+      <c r="P44" s="253"/>
+      <c r="Q44" s="253"/>
+      <c r="R44" s="253"/>
+      <c r="S44" s="253"/>
+      <c r="T44" s="253"/>
+      <c r="U44" s="253"/>
+      <c r="V44" s="253"/>
+      <c r="W44" s="253"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
-      <c r="E45" s="248" t="s">
+      <c r="C45" s="248"/>
+      <c r="D45" s="248"/>
+      <c r="E45" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="248"/>
-      <c r="G45" s="248"/>
-      <c r="H45" s="249" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="254" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="248" t="s">
+      <c r="I45" s="254"/>
+      <c r="J45" s="254"/>
+      <c r="K45" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="248"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="248" t="s">
+      <c r="L45" s="249"/>
+      <c r="M45" s="249"/>
+      <c r="N45" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="248"/>
-      <c r="P45" s="248"/>
-      <c r="Q45" s="248" t="s">
+      <c r="O45" s="249"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="248"/>
-      <c r="S45" s="248"/>
-      <c r="T45" s="253" t="s">
+      <c r="R45" s="249"/>
+      <c r="S45" s="249"/>
+      <c r="T45" s="256" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="253"/>
-      <c r="V45" s="253"/>
-      <c r="W45" s="253"/>
+      <c r="U45" s="256"/>
+      <c r="V45" s="256"/>
+      <c r="W45" s="256"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="252" t="s">
+      <c r="T46" s="257" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="252"/>
+      <c r="T47" s="257"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="246" t="s">
+      <c r="B62" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="246"/>
-      <c r="D62" s="246"/>
-      <c r="E62" s="246"/>
-      <c r="F62" s="246"/>
-      <c r="G62" s="246"/>
-      <c r="H62" s="246"/>
-      <c r="I62" s="246"/>
-      <c r="J62" s="246"/>
-      <c r="K62" s="246" t="s">
+      <c r="C62" s="253"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
+      <c r="G62" s="253"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="253"/>
+      <c r="J62" s="253"/>
+      <c r="K62" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="246"/>
-      <c r="M62" s="246"/>
-      <c r="N62" s="246"/>
-      <c r="O62" s="246"/>
-      <c r="P62" s="246"/>
-      <c r="Q62" s="246"/>
-      <c r="R62" s="246"/>
-      <c r="S62" s="246"/>
-      <c r="T62" s="246"/>
-      <c r="U62" s="246"/>
-      <c r="V62" s="246"/>
-      <c r="W62" s="246"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="253"/>
+      <c r="N62" s="253"/>
+      <c r="O62" s="253"/>
+      <c r="P62" s="253"/>
+      <c r="Q62" s="253"/>
+      <c r="R62" s="253"/>
+      <c r="S62" s="253"/>
+      <c r="T62" s="253"/>
+      <c r="U62" s="253"/>
+      <c r="V62" s="253"/>
+      <c r="W62" s="253"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="247" t="s">
+      <c r="B63" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="247"/>
-      <c r="D63" s="247"/>
-      <c r="E63" s="248" t="s">
+      <c r="C63" s="248"/>
+      <c r="D63" s="248"/>
+      <c r="E63" s="249" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="248"/>
-      <c r="G63" s="248"/>
-      <c r="H63" s="249" t="s">
+      <c r="F63" s="249"/>
+      <c r="G63" s="249"/>
+      <c r="H63" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="249"/>
-      <c r="J63" s="249"/>
-      <c r="K63" s="248" t="s">
+      <c r="I63" s="254"/>
+      <c r="J63" s="254"/>
+      <c r="K63" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="248"/>
-      <c r="M63" s="248"/>
-      <c r="N63" s="248" t="s">
+      <c r="L63" s="249"/>
+      <c r="M63" s="249"/>
+      <c r="N63" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="248"/>
-      <c r="P63" s="248"/>
-      <c r="Q63" s="248" t="s">
+      <c r="O63" s="249"/>
+      <c r="P63" s="249"/>
+      <c r="Q63" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="248"/>
-      <c r="S63" s="248"/>
-      <c r="T63" s="250" t="s">
+      <c r="R63" s="249"/>
+      <c r="S63" s="249"/>
+      <c r="T63" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="250"/>
-      <c r="V63" s="250"/>
-      <c r="W63" s="250"/>
+      <c r="U63" s="255"/>
+      <c r="V63" s="255"/>
+      <c r="W63" s="255"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="245" t="s">
+      <c r="T64" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="245"/>
+      <c r="T65" s="252"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="246" t="s">
+      <c r="B85" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="246"/>
-      <c r="D85" s="246"/>
-      <c r="E85" s="246"/>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
-      <c r="H85" s="246"/>
-      <c r="I85" s="246"/>
-      <c r="J85" s="246"/>
-      <c r="K85" s="246" t="s">
+      <c r="C85" s="253"/>
+      <c r="D85" s="253"/>
+      <c r="E85" s="253"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
+      <c r="H85" s="253"/>
+      <c r="I85" s="253"/>
+      <c r="J85" s="253"/>
+      <c r="K85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="246"/>
-      <c r="M85" s="246"/>
-      <c r="N85" s="246"/>
-      <c r="O85" s="246"/>
-      <c r="P85" s="246"/>
-      <c r="Q85" s="246"/>
-      <c r="R85" s="246"/>
-      <c r="S85" s="246"/>
-      <c r="T85" s="246"/>
-      <c r="U85" s="246"/>
-      <c r="V85" s="246"/>
-      <c r="W85" s="246"/>
+      <c r="L85" s="253"/>
+      <c r="M85" s="253"/>
+      <c r="N85" s="253"/>
+      <c r="O85" s="253"/>
+      <c r="P85" s="253"/>
+      <c r="Q85" s="253"/>
+      <c r="R85" s="253"/>
+      <c r="S85" s="253"/>
+      <c r="T85" s="253"/>
+      <c r="U85" s="253"/>
+      <c r="V85" s="253"/>
+      <c r="W85" s="253"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
-      <c r="H86" s="249" t="s">
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
+      <c r="H86" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="249"/>
-      <c r="J86" s="249"/>
-      <c r="K86" s="248" t="s">
+      <c r="I86" s="254"/>
+      <c r="J86" s="254"/>
+      <c r="K86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="248"/>
-      <c r="M86" s="248"/>
-      <c r="N86" s="248" t="s">
+      <c r="L86" s="249"/>
+      <c r="M86" s="249"/>
+      <c r="N86" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="248"/>
-      <c r="P86" s="248"/>
-      <c r="Q86" s="248" t="s">
+      <c r="O86" s="249"/>
+      <c r="P86" s="249"/>
+      <c r="Q86" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="248"/>
-      <c r="S86" s="248"/>
-      <c r="T86" s="250" t="s">
+      <c r="R86" s="249"/>
+      <c r="S86" s="249"/>
+      <c r="T86" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="250"/>
-      <c r="V86" s="250"/>
-      <c r="W86" s="250"/>
+      <c r="U86" s="255"/>
+      <c r="V86" s="255"/>
+      <c r="W86" s="255"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="245" t="s">
+      <c r="T87" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="245"/>
+      <c r="T88" s="252"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="246" t="s">
+      <c r="B107" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="246"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="246"/>
-      <c r="F107" s="246"/>
-      <c r="G107" s="246"/>
-      <c r="H107" s="246"/>
-      <c r="I107" s="246"/>
-      <c r="J107" s="246"/>
-      <c r="K107" s="246" t="s">
+      <c r="C107" s="253"/>
+      <c r="D107" s="253"/>
+      <c r="E107" s="253"/>
+      <c r="F107" s="253"/>
+      <c r="G107" s="253"/>
+      <c r="H107" s="253"/>
+      <c r="I107" s="253"/>
+      <c r="J107" s="253"/>
+      <c r="K107" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="246"/>
-      <c r="M107" s="246"/>
-      <c r="N107" s="246"/>
-      <c r="O107" s="246"/>
-      <c r="P107" s="246"/>
-      <c r="Q107" s="246"/>
-      <c r="R107" s="246"/>
-      <c r="S107" s="246"/>
-      <c r="T107" s="246"/>
-      <c r="U107" s="246"/>
-      <c r="V107" s="246"/>
-      <c r="W107" s="246"/>
+      <c r="L107" s="253"/>
+      <c r="M107" s="253"/>
+      <c r="N107" s="253"/>
+      <c r="O107" s="253"/>
+      <c r="P107" s="253"/>
+      <c r="Q107" s="253"/>
+      <c r="R107" s="253"/>
+      <c r="S107" s="253"/>
+      <c r="T107" s="253"/>
+      <c r="U107" s="253"/>
+      <c r="V107" s="253"/>
+      <c r="W107" s="253"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="247" t="s">
+      <c r="B108" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="247"/>
-      <c r="D108" s="247"/>
-      <c r="E108" s="248" t="s">
+      <c r="C108" s="248"/>
+      <c r="D108" s="248"/>
+      <c r="E108" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="248"/>
-      <c r="G108" s="248"/>
-      <c r="H108" s="249" t="s">
+      <c r="F108" s="249"/>
+      <c r="G108" s="249"/>
+      <c r="H108" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="249"/>
-      <c r="J108" s="249"/>
-      <c r="K108" s="248" t="s">
+      <c r="I108" s="254"/>
+      <c r="J108" s="254"/>
+      <c r="K108" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="248"/>
-      <c r="M108" s="248"/>
-      <c r="N108" s="248" t="s">
+      <c r="L108" s="249"/>
+      <c r="M108" s="249"/>
+      <c r="N108" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="248"/>
-      <c r="P108" s="248"/>
-      <c r="Q108" s="248" t="s">
+      <c r="O108" s="249"/>
+      <c r="P108" s="249"/>
+      <c r="Q108" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="248"/>
-      <c r="S108" s="248"/>
-      <c r="T108" s="250" t="s">
+      <c r="R108" s="249"/>
+      <c r="S108" s="249"/>
+      <c r="T108" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="250"/>
-      <c r="V108" s="250"/>
-      <c r="W108" s="250"/>
+      <c r="U108" s="255"/>
+      <c r="V108" s="255"/>
+      <c r="W108" s="255"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="245" t="s">
+      <c r="T109" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="245"/>
+      <c r="T110" s="252"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="246" t="s">
+      <c r="B128" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="246"/>
-      <c r="D128" s="246"/>
-      <c r="E128" s="246"/>
-      <c r="F128" s="246"/>
-      <c r="G128" s="246"/>
-      <c r="H128" s="246"/>
-      <c r="I128" s="246"/>
-      <c r="J128" s="246"/>
-      <c r="K128" s="246" t="s">
+      <c r="C128" s="253"/>
+      <c r="D128" s="253"/>
+      <c r="E128" s="253"/>
+      <c r="F128" s="253"/>
+      <c r="G128" s="253"/>
+      <c r="H128" s="253"/>
+      <c r="I128" s="253"/>
+      <c r="J128" s="253"/>
+      <c r="K128" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="246"/>
-      <c r="M128" s="246"/>
-      <c r="N128" s="246"/>
-      <c r="O128" s="246"/>
-      <c r="P128" s="246"/>
-      <c r="Q128" s="246"/>
-      <c r="R128" s="246"/>
-      <c r="S128" s="246"/>
-      <c r="T128" s="246"/>
-      <c r="U128" s="246"/>
-      <c r="V128" s="246"/>
-      <c r="W128" s="246"/>
+      <c r="L128" s="253"/>
+      <c r="M128" s="253"/>
+      <c r="N128" s="253"/>
+      <c r="O128" s="253"/>
+      <c r="P128" s="253"/>
+      <c r="Q128" s="253"/>
+      <c r="R128" s="253"/>
+      <c r="S128" s="253"/>
+      <c r="T128" s="253"/>
+      <c r="U128" s="253"/>
+      <c r="V128" s="253"/>
+      <c r="W128" s="253"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="247" t="s">
+      <c r="B129" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="247"/>
-      <c r="D129" s="247"/>
-      <c r="E129" s="248" t="s">
+      <c r="C129" s="248"/>
+      <c r="D129" s="248"/>
+      <c r="E129" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="248"/>
-      <c r="G129" s="248"/>
-      <c r="H129" s="249" t="s">
+      <c r="F129" s="249"/>
+      <c r="G129" s="249"/>
+      <c r="H129" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="249"/>
-      <c r="J129" s="249"/>
-      <c r="K129" s="248" t="s">
+      <c r="I129" s="254"/>
+      <c r="J129" s="254"/>
+      <c r="K129" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="248"/>
-      <c r="M129" s="248"/>
-      <c r="N129" s="248" t="s">
+      <c r="L129" s="249"/>
+      <c r="M129" s="249"/>
+      <c r="N129" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="248"/>
-      <c r="P129" s="248"/>
-      <c r="Q129" s="248" t="s">
+      <c r="O129" s="249"/>
+      <c r="P129" s="249"/>
+      <c r="Q129" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="248"/>
-      <c r="S129" s="248"/>
-      <c r="T129" s="250" t="s">
+      <c r="R129" s="249"/>
+      <c r="S129" s="249"/>
+      <c r="T129" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="250"/>
-      <c r="V129" s="250"/>
-      <c r="W129" s="250"/>
+      <c r="U129" s="255"/>
+      <c r="V129" s="255"/>
+      <c r="W129" s="255"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="245" t="s">
+      <c r="T130" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="245"/>
+      <c r="T131" s="252"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="246" t="s">
+      <c r="B142" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="246"/>
-      <c r="D142" s="246"/>
-      <c r="E142" s="246"/>
-      <c r="F142" s="246"/>
-      <c r="G142" s="246"/>
-      <c r="H142" s="246"/>
-      <c r="I142" s="246"/>
-      <c r="J142" s="246"/>
-      <c r="K142" s="246" t="s">
+      <c r="C142" s="253"/>
+      <c r="D142" s="253"/>
+      <c r="E142" s="253"/>
+      <c r="F142" s="253"/>
+      <c r="G142" s="253"/>
+      <c r="H142" s="253"/>
+      <c r="I142" s="253"/>
+      <c r="J142" s="253"/>
+      <c r="K142" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="246"/>
-      <c r="M142" s="246"/>
-      <c r="N142" s="246"/>
-      <c r="O142" s="246"/>
-      <c r="P142" s="246"/>
-      <c r="Q142" s="246"/>
-      <c r="R142" s="246"/>
-      <c r="S142" s="246"/>
-      <c r="T142" s="246"/>
-      <c r="U142" s="246"/>
-      <c r="V142" s="246"/>
-      <c r="W142" s="246"/>
+      <c r="L142" s="253"/>
+      <c r="M142" s="253"/>
+      <c r="N142" s="253"/>
+      <c r="O142" s="253"/>
+      <c r="P142" s="253"/>
+      <c r="Q142" s="253"/>
+      <c r="R142" s="253"/>
+      <c r="S142" s="253"/>
+      <c r="T142" s="253"/>
+      <c r="U142" s="253"/>
+      <c r="V142" s="253"/>
+      <c r="W142" s="253"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="247" t="s">
+      <c r="B143" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="247"/>
-      <c r="D143" s="247"/>
-      <c r="E143" s="248" t="s">
+      <c r="C143" s="248"/>
+      <c r="D143" s="248"/>
+      <c r="E143" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="248"/>
-      <c r="G143" s="248"/>
-      <c r="H143" s="249" t="s">
+      <c r="F143" s="249"/>
+      <c r="G143" s="249"/>
+      <c r="H143" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="249"/>
-      <c r="J143" s="249"/>
-      <c r="K143" s="248" t="s">
+      <c r="I143" s="254"/>
+      <c r="J143" s="254"/>
+      <c r="K143" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="248"/>
-      <c r="M143" s="248"/>
-      <c r="N143" s="248" t="s">
+      <c r="L143" s="249"/>
+      <c r="M143" s="249"/>
+      <c r="N143" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="248"/>
-      <c r="P143" s="248"/>
-      <c r="Q143" s="248" t="s">
+      <c r="O143" s="249"/>
+      <c r="P143" s="249"/>
+      <c r="Q143" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="248"/>
-      <c r="S143" s="248"/>
-      <c r="T143" s="250" t="s">
+      <c r="R143" s="249"/>
+      <c r="S143" s="249"/>
+      <c r="T143" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="250"/>
-      <c r="V143" s="250"/>
-      <c r="W143" s="250"/>
+      <c r="U143" s="255"/>
+      <c r="V143" s="255"/>
+      <c r="W143" s="255"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="245" t="s">
+      <c r="T144" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="245"/>
+      <c r="T145" s="252"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="251" t="s">
+      <c r="B157" s="247" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="251"/>
-      <c r="D157" s="251"/>
-      <c r="E157" s="251"/>
-      <c r="F157" s="251"/>
-      <c r="G157" s="251"/>
-      <c r="H157" s="251"/>
-      <c r="I157" s="251"/>
-      <c r="J157" s="251"/>
-      <c r="K157" s="251" t="s">
+      <c r="C157" s="247"/>
+      <c r="D157" s="247"/>
+      <c r="E157" s="247"/>
+      <c r="F157" s="247"/>
+      <c r="G157" s="247"/>
+      <c r="H157" s="247"/>
+      <c r="I157" s="247"/>
+      <c r="J157" s="247"/>
+      <c r="K157" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="251"/>
-      <c r="M157" s="251"/>
-      <c r="N157" s="251"/>
-      <c r="O157" s="251"/>
-      <c r="P157" s="251"/>
-      <c r="Q157" s="251"/>
-      <c r="R157" s="251"/>
-      <c r="S157" s="251"/>
-      <c r="T157" s="251"/>
-      <c r="U157" s="251"/>
-      <c r="V157" s="251"/>
-      <c r="W157" s="251"/>
+      <c r="L157" s="247"/>
+      <c r="M157" s="247"/>
+      <c r="N157" s="247"/>
+      <c r="O157" s="247"/>
+      <c r="P157" s="247"/>
+      <c r="Q157" s="247"/>
+      <c r="R157" s="247"/>
+      <c r="S157" s="247"/>
+      <c r="T157" s="247"/>
+      <c r="U157" s="247"/>
+      <c r="V157" s="247"/>
+      <c r="W157" s="247"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="247" t="s">
+      <c r="B158" s="248" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="247"/>
-      <c r="D158" s="247"/>
-      <c r="E158" s="248" t="s">
+      <c r="C158" s="248"/>
+      <c r="D158" s="248"/>
+      <c r="E158" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="248"/>
-      <c r="G158" s="248"/>
-      <c r="H158" s="249" t="s">
+      <c r="F158" s="249"/>
+      <c r="G158" s="249"/>
+      <c r="H158" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="249"/>
-      <c r="J158" s="249"/>
-      <c r="K158" s="248" t="s">
+      <c r="I158" s="254"/>
+      <c r="J158" s="254"/>
+      <c r="K158" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="248"/>
-      <c r="M158" s="248"/>
-      <c r="N158" s="248" t="s">
+      <c r="L158" s="249"/>
+      <c r="M158" s="249"/>
+      <c r="N158" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="248"/>
-      <c r="P158" s="248"/>
-      <c r="Q158" s="248" t="s">
+      <c r="O158" s="249"/>
+      <c r="P158" s="249"/>
+      <c r="Q158" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="248"/>
-      <c r="S158" s="248"/>
-      <c r="T158" s="250" t="s">
+      <c r="R158" s="249"/>
+      <c r="S158" s="249"/>
+      <c r="T158" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="250"/>
-      <c r="V158" s="250"/>
-      <c r="W158" s="250"/>
+      <c r="U158" s="255"/>
+      <c r="V158" s="255"/>
+      <c r="W158" s="255"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="245" t="s">
+      <c r="T159" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="245"/>
+      <c r="T160" s="252"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="245"/>
+      <c r="T161" s="252"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="246" t="s">
+      <c r="B172" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="246"/>
-      <c r="D172" s="246"/>
-      <c r="E172" s="246"/>
-      <c r="F172" s="246"/>
-      <c r="G172" s="246"/>
-      <c r="H172" s="246"/>
-      <c r="I172" s="246"/>
-      <c r="J172" s="246"/>
-      <c r="K172" s="246" t="s">
+      <c r="C172" s="253"/>
+      <c r="D172" s="253"/>
+      <c r="E172" s="253"/>
+      <c r="F172" s="253"/>
+      <c r="G172" s="253"/>
+      <c r="H172" s="253"/>
+      <c r="I172" s="253"/>
+      <c r="J172" s="253"/>
+      <c r="K172" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="246"/>
-      <c r="M172" s="246"/>
-      <c r="N172" s="246"/>
-      <c r="O172" s="246"/>
-      <c r="P172" s="246"/>
-      <c r="Q172" s="246"/>
-      <c r="R172" s="246"/>
-      <c r="S172" s="246"/>
-      <c r="T172" s="246"/>
-      <c r="U172" s="246"/>
-      <c r="V172" s="246"/>
-      <c r="W172" s="246"/>
+      <c r="L172" s="253"/>
+      <c r="M172" s="253"/>
+      <c r="N172" s="253"/>
+      <c r="O172" s="253"/>
+      <c r="P172" s="253"/>
+      <c r="Q172" s="253"/>
+      <c r="R172" s="253"/>
+      <c r="S172" s="253"/>
+      <c r="T172" s="253"/>
+      <c r="U172" s="253"/>
+      <c r="V172" s="253"/>
+      <c r="W172" s="253"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="247" t="s">
+      <c r="B173" s="248" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="247"/>
-      <c r="D173" s="247"/>
-      <c r="E173" s="248" t="s">
+      <c r="C173" s="248"/>
+      <c r="D173" s="248"/>
+      <c r="E173" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="248"/>
-      <c r="G173" s="248"/>
-      <c r="H173" s="249" t="s">
+      <c r="F173" s="249"/>
+      <c r="G173" s="249"/>
+      <c r="H173" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="249"/>
-      <c r="J173" s="249"/>
-      <c r="K173" s="248" t="s">
+      <c r="I173" s="254"/>
+      <c r="J173" s="254"/>
+      <c r="K173" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="248"/>
-      <c r="M173" s="248"/>
-      <c r="N173" s="248" t="s">
+      <c r="L173" s="249"/>
+      <c r="M173" s="249"/>
+      <c r="N173" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="248"/>
-      <c r="P173" s="248"/>
-      <c r="Q173" s="248" t="s">
+      <c r="O173" s="249"/>
+      <c r="P173" s="249"/>
+      <c r="Q173" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="248"/>
-      <c r="S173" s="248"/>
-      <c r="T173" s="250" t="s">
+      <c r="R173" s="249"/>
+      <c r="S173" s="249"/>
+      <c r="T173" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="250"/>
-      <c r="V173" s="250"/>
-      <c r="W173" s="250"/>
+      <c r="U173" s="255"/>
+      <c r="V173" s="255"/>
+      <c r="W173" s="255"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="245" t="s">
+      <c r="T174" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="245"/>
+      <c r="T175" s="252"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,96 +44442,6 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44543,6 +44453,96 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="246" t="s">
+      <c r="E15" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="247" t="s">
+      <c r="B16" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="248" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="247" t="s">
+      <c r="B28" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
-      <c r="E28" s="248" t="s">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="246" t="s">
+      <c r="E39" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="246"/>
-      <c r="G39" s="246"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="253"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="247" t="s">
+      <c r="B40" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="247"/>
-      <c r="D40" s="247"/>
-      <c r="E40" s="248" t="s">
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="248"/>
-      <c r="G40" s="248"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="246" t="s">
+      <c r="E57" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="246"/>
-      <c r="G57" s="246"/>
+      <c r="F57" s="253"/>
+      <c r="G57" s="253"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="247" t="s">
+      <c r="B58" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="247"/>
-      <c r="D58" s="247"/>
-      <c r="E58" s="248" t="s">
+      <c r="C58" s="248"/>
+      <c r="D58" s="248"/>
+      <c r="E58" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="248"/>
-      <c r="G58" s="248"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="249"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="246" t="s">
+      <c r="E72" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="246"/>
-      <c r="G72" s="246"/>
+      <c r="F72" s="253"/>
+      <c r="G72" s="253"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="247" t="s">
+      <c r="B73" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="247"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="248" t="s">
+      <c r="C73" s="248"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="248"/>
-      <c r="G73" s="248"/>
+      <c r="F73" s="249"/>
+      <c r="G73" s="249"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="246" t="s">
+      <c r="E85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="246" t="s">
+      <c r="E98" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="246"/>
-      <c r="G98" s="246"/>
+      <c r="F98" s="253"/>
+      <c r="G98" s="253"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="247" t="s">
+      <c r="B99" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="247"/>
-      <c r="D99" s="247"/>
-      <c r="E99" s="248" t="s">
+      <c r="C99" s="248"/>
+      <c r="D99" s="248"/>
+      <c r="E99" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="248"/>
-      <c r="G99" s="248"/>
+      <c r="F99" s="249"/>
+      <c r="G99" s="249"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="246" t="s">
+      <c r="E115" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="246"/>
-      <c r="G115" s="246"/>
+      <c r="F115" s="253"/>
+      <c r="G115" s="253"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="247" t="s">
+      <c r="B116" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="247"/>
-      <c r="D116" s="247"/>
-      <c r="E116" s="248" t="s">
+      <c r="C116" s="248"/>
+      <c r="D116" s="248"/>
+      <c r="E116" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="248"/>
-      <c r="G116" s="248"/>
+      <c r="F116" s="249"/>
+      <c r="G116" s="249"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="246" t="s">
+      <c r="E132" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="246"/>
-      <c r="G132" s="246"/>
+      <c r="F132" s="253"/>
+      <c r="G132" s="253"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="247" t="s">
+      <c r="B133" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="247"/>
-      <c r="D133" s="247"/>
-      <c r="E133" s="248" t="s">
+      <c r="C133" s="248"/>
+      <c r="D133" s="248"/>
+      <c r="E133" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="248"/>
-      <c r="G133" s="248"/>
+      <c r="F133" s="249"/>
+      <c r="G133" s="249"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="246" t="s">
+      <c r="E149" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="246"/>
-      <c r="G149" s="246"/>
+      <c r="F149" s="253"/>
+      <c r="G149" s="253"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="247" t="s">
+      <c r="B150" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="247"/>
-      <c r="D150" s="247"/>
-      <c r="E150" s="248" t="s">
+      <c r="C150" s="248"/>
+      <c r="D150" s="248"/>
+      <c r="E150" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="248"/>
-      <c r="G150" s="248"/>
+      <c r="F150" s="249"/>
+      <c r="G150" s="249"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="246" t="s">
+      <c r="E166" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="246"/>
-      <c r="G166" s="246"/>
+      <c r="F166" s="253"/>
+      <c r="G166" s="253"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="247" t="s">
+      <c r="B167" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="247"/>
-      <c r="D167" s="247"/>
-      <c r="E167" s="248" t="s">
+      <c r="C167" s="248"/>
+      <c r="D167" s="248"/>
+      <c r="E167" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="248"/>
-      <c r="G167" s="248"/>
+      <c r="F167" s="249"/>
+      <c r="G167" s="249"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="E167:G167"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB3D545-74CF-438D-A52A-C352127057EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE71A40B-E98C-419F-B5FB-0BF3FA72EC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,50 +5491,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5543,10 +5528,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="238"/>
+      <c r="D15" s="239"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="238"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="238"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="238"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="238"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="238"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="238"/>
+      <c r="D41" s="239"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="238"/>
+      <c r="D42" s="239"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="238"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="238"/>
+      <c r="D44" s="239"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="238"/>
+      <c r="D45" s="239"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="238"/>
+      <c r="D46" s="239"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="239" t="s">
+      <c r="B47" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="239"/>
+      <c r="C47" s="238"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="238"/>
+      <c r="D71" s="239"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="238"/>
+      <c r="D72" s="239"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="238"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="238"/>
+      <c r="D74" s="239"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="238"/>
+      <c r="D75" s="239"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="239" t="s">
+      <c r="B77" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="239"/>
+      <c r="C77" s="238"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="238"/>
+      <c r="D99" s="239"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="238"/>
+      <c r="D100" s="239"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="238"/>
+      <c r="D101" s="239"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="238"/>
+      <c r="D102" s="239"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="238"/>
+      <c r="D103" s="239"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="239" t="s">
+      <c r="B105" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="239"/>
+      <c r="C105" s="238"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="238"/>
+      <c r="D128" s="239"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="238"/>
+      <c r="D129" s="239"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="238"/>
+      <c r="D130" s="239"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="238"/>
+      <c r="D131" s="239"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="238"/>
+      <c r="D132" s="239"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="239" t="s">
+      <c r="B134" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="239"/>
+      <c r="C134" s="238"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="238"/>
+      <c r="D158" s="239"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="238"/>
+      <c r="D159" s="239"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="238"/>
+      <c r="D160" s="239"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="238"/>
+      <c r="D161" s="239"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="238"/>
+      <c r="D162" s="239"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="239" t="s">
+      <c r="B164" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="239"/>
+      <c r="C164" s="238"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="238"/>
+      <c r="D179" s="239"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="238"/>
+      <c r="D180" s="239"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="238"/>
+      <c r="D181" s="239"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="238"/>
+      <c r="D182" s="239"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="238"/>
+      <c r="D183" s="239"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="238"/>
+      <c r="D184" s="239"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="239" t="s">
+      <c r="B185" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="239"/>
+      <c r="C185" s="238"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="238"/>
+      <c r="D201" s="239"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="238"/>
+      <c r="D202" s="239"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="238"/>
+      <c r="D203" s="239"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="238"/>
+      <c r="D204" s="239"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="238"/>
+      <c r="D205" s="239"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="238"/>
+      <c r="D206" s="239"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="239" t="s">
+      <c r="B207" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="239"/>
+      <c r="C207" s="238"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="238"/>
+      <c r="D242" s="239"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="238"/>
+      <c r="D243" s="239"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="238"/>
+      <c r="D244" s="239"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="238"/>
+      <c r="D245" s="239"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="238"/>
+      <c r="D246" s="239"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="239" t="s">
+      <c r="B248" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="239"/>
+      <c r="C248" s="238"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="238"/>
+      <c r="D278" s="239"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="238"/>
+      <c r="D279" s="239"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="238"/>
+      <c r="D280" s="239"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="238"/>
+      <c r="D281" s="239"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="238"/>
+      <c r="D282" s="239"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="239" t="s">
+      <c r="B284" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="239"/>
+      <c r="C284" s="238"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="238"/>
+      <c r="D304" s="239"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="238"/>
+      <c r="D305" s="239"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="238"/>
+      <c r="D306" s="239"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="238"/>
+      <c r="D307" s="239"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="238"/>
+      <c r="D308" s="239"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="239" t="s">
+      <c r="B310" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="239"/>
+      <c r="C310" s="238"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="238"/>
+      <c r="D327" s="239"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="238"/>
+      <c r="D328" s="239"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="238"/>
+      <c r="D329" s="239"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="238"/>
+      <c r="D330" s="239"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="238"/>
+      <c r="D331" s="239"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="239" t="s">
+      <c r="B333" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="239"/>
+      <c r="C333" s="238"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="238"/>
+      <c r="D349" s="239"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="238"/>
+      <c r="D350" s="239"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="238"/>
+      <c r="D351" s="239"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="238"/>
+      <c r="D352" s="239"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="238"/>
+      <c r="D353" s="239"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="239" t="s">
+      <c r="B355" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="239"/>
+      <c r="C355" s="238"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="238"/>
+      <c r="D383" s="239"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="238"/>
+      <c r="D384" s="239"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="238"/>
+      <c r="D385" s="239"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="238"/>
+      <c r="D386" s="239"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="238"/>
+      <c r="D387" s="239"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="239" t="s">
+      <c r="B389" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="239"/>
+      <c r="C389" s="238"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="238"/>
+      <c r="D418" s="239"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="238"/>
+      <c r="D419" s="239"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="238"/>
+      <c r="D420" s="239"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="238"/>
+      <c r="D421" s="239"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="238"/>
+      <c r="D422" s="239"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="239" t="s">
+      <c r="B424" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="239"/>
+      <c r="C424" s="238"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="239" t="s">
+      <c r="B451" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="239"/>
+      <c r="C451" s="238"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="238"/>
+      <c r="D469" s="239"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="238"/>
+      <c r="D470" s="239"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="238"/>
+      <c r="D471" s="239"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="238"/>
+      <c r="D472" s="239"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="238"/>
+      <c r="D473" s="239"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="239" t="s">
+      <c r="B475" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="239"/>
+      <c r="C475" s="238"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="238"/>
+      <c r="D494" s="239"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="238"/>
+      <c r="D495" s="239"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="238"/>
+      <c r="D496" s="239"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="238"/>
+      <c r="D497" s="239"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="238"/>
+      <c r="D498" s="239"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="239" t="s">
+      <c r="B500" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="239"/>
+      <c r="C500" s="238"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="238"/>
+      <c r="D519" s="239"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="238"/>
+      <c r="D520" s="239"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="238"/>
+      <c r="D521" s="239"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="238"/>
+      <c r="D522" s="239"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="238"/>
+      <c r="D523" s="239"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="239" t="s">
+      <c r="B525" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="239"/>
+      <c r="C525" s="238"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="238"/>
+      <c r="D547" s="239"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="238"/>
+      <c r="D548" s="239"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="238"/>
+      <c r="D549" s="239"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="238"/>
+      <c r="D550" s="239"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="238"/>
+      <c r="D551" s="239"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="239" t="s">
+      <c r="B553" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="239"/>
+      <c r="C553" s="238"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="238"/>
+      <c r="D580" s="239"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="238"/>
+      <c r="D581" s="239"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="238"/>
+      <c r="D582" s="239"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="238"/>
+      <c r="D583" s="239"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="238"/>
+      <c r="D584" s="239"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="239" t="s">
+      <c r="B586" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="239"/>
+      <c r="C586" s="238"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="238"/>
+      <c r="D608" s="239"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="238"/>
+      <c r="D609" s="239"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="238"/>
+      <c r="D610" s="239"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="238"/>
+      <c r="D611" s="239"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="238"/>
+      <c r="D612" s="239"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="239" t="s">
+      <c r="B614" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="239"/>
+      <c r="C614" s="238"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="239" t="s">
+      <c r="B637" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="239"/>
+      <c r="C637" s="238"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="239" t="s">
+      <c r="B660" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="239"/>
+      <c r="C660" s="238"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="239" t="s">
+      <c r="B683" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="239"/>
+      <c r="C683" s="238"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="239" t="s">
+      <c r="B711" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="239"/>
+      <c r="C711" s="238"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="238"/>
+      <c r="D729" s="239"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="238"/>
+      <c r="D730" s="239"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="238"/>
+      <c r="D731" s="239"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="238"/>
+      <c r="D732" s="239"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="238"/>
+      <c r="D733" s="239"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="239" t="s">
+      <c r="B735" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="239"/>
+      <c r="C735" s="238"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="238"/>
+      <c r="D756" s="239"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="238"/>
+      <c r="D757" s="239"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="238"/>
+      <c r="D758" s="239"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="238"/>
+      <c r="D759" s="239"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="238"/>
+      <c r="D760" s="239"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="239" t="s">
+      <c r="B762" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="239"/>
+      <c r="C762" s="238"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="239" t="s">
+      <c r="B789" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="239"/>
+      <c r="C789" s="238"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="239" t="s">
+      <c r="B816" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="239"/>
+      <c r="C816" s="238"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="238"/>
+      <c r="D839" s="239"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="238"/>
+      <c r="D840" s="239"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="238"/>
+      <c r="D841" s="239"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="238"/>
+      <c r="D842" s="239"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="238"/>
+      <c r="D843" s="239"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="238"/>
+      <c r="D844" s="239"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="239" t="s">
+      <c r="B845" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="239"/>
+      <c r="C845" s="238"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="239" t="s">
+      <c r="B876" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="239"/>
+      <c r="C876" s="238"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="239" t="s">
+      <c r="B907" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="239"/>
+      <c r="C907" s="238"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="239" t="s">
+      <c r="B931" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="239"/>
+      <c r="C931" s="238"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="239" t="s">
+      <c r="B958" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="239"/>
+      <c r="C958" s="238"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="239" t="s">
+      <c r="B981" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="239"/>
+      <c r="C981" s="238"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="239" t="s">
+      <c r="B1005" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="239"/>
+      <c r="C1005" s="238"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="239" t="s">
+      <c r="B1024" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="239"/>
+      <c r="C1024" s="238"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="238"/>
+      <c r="D1042" s="239"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="238"/>
+      <c r="D1043" s="239"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="238"/>
+      <c r="D1044" s="239"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="238"/>
+      <c r="D1045" s="239"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="238"/>
+      <c r="D1046" s="239"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="239" t="s">
+      <c r="B1048" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="239"/>
+      <c r="C1048" s="238"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="239" t="s">
+      <c r="B1070" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="239"/>
+      <c r="C1070" s="238"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="238"/>
+      <c r="D1089" s="239"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="238"/>
+      <c r="D1090" s="239"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="238"/>
+      <c r="D1091" s="239"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="238"/>
+      <c r="D1092" s="239"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="238"/>
+      <c r="D1093" s="239"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="239" t="s">
+      <c r="B1095" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="239"/>
+      <c r="C1095" s="238"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="238"/>
+      <c r="D1120" s="239"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="238"/>
+      <c r="D1121" s="239"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="238"/>
+      <c r="D1122" s="239"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="238"/>
+      <c r="D1123" s="239"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="238"/>
+      <c r="D1124" s="239"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="239" t="s">
+      <c r="B1126" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="239"/>
+      <c r="C1126" s="238"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="239" t="s">
+      <c r="B1155" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="239"/>
+      <c r="C1155" s="238"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="239" t="s">
+      <c r="B21" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="239"/>
+      <c r="C21" s="238"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="241"/>
+      <c r="D43" s="242"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="241"/>
+      <c r="D44" s="242"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="241"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="241"/>
+      <c r="D46" s="242"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="241"/>
+      <c r="D47" s="242"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="241"/>
+      <c r="D48" s="242"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="239" t="s">
+      <c r="B49" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="239"/>
+      <c r="C49" s="238"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="242" t="s">
+      <c r="E68" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="242"/>
+      <c r="F68" s="244"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="241"/>
+      <c r="D74" s="242"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="241"/>
+      <c r="D75" s="242"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="241"/>
+      <c r="D76" s="242"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="241"/>
+      <c r="D77" s="242"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="241"/>
+      <c r="D78" s="242"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="239" t="s">
+      <c r="B80" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="239"/>
+      <c r="C80" s="238"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="243" t="s">
+      <c r="B107" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="243"/>
+      <c r="C107" s="241"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="239" t="s">
+      <c r="B137" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="239"/>
+      <c r="C137" s="238"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="239" t="s">
+      <c r="B167" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="239"/>
+      <c r="C167" s="238"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="239" t="s">
+      <c r="B189" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="239"/>
+      <c r="C189" s="238"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="239" t="s">
+      <c r="B212" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="239"/>
+      <c r="C212" s="238"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="239" t="s">
+      <c r="B249" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="239"/>
+      <c r="C249" s="238"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="241"/>
+      <c r="D285" s="242"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="241"/>
+      <c r="D286" s="242"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="241"/>
+      <c r="D287" s="242"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="241"/>
+      <c r="D288" s="242"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="241"/>
+      <c r="D289" s="242"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="244" t="s">
+      <c r="B291" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="244"/>
+      <c r="C291" s="243"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="241"/>
+      <c r="D314" s="242"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="241"/>
+      <c r="D315" s="242"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="241"/>
+      <c r="D316" s="242"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="241"/>
+      <c r="D317" s="242"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="241"/>
+      <c r="D318" s="242"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="239" t="s">
+      <c r="B320" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="239"/>
+      <c r="C320" s="238"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="241"/>
+      <c r="D339" s="242"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="241"/>
+      <c r="D340" s="242"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="241"/>
+      <c r="D341" s="242"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="241"/>
+      <c r="D342" s="242"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="241"/>
+      <c r="D343" s="242"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="239" t="s">
+      <c r="B345" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="239"/>
+      <c r="C345" s="238"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="241"/>
+      <c r="D363" s="242"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="241"/>
+      <c r="D364" s="242"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="241"/>
+      <c r="D365" s="242"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="241"/>
+      <c r="D366" s="242"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="241"/>
+      <c r="D367" s="242"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="239" t="s">
+      <c r="B369" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="239"/>
+      <c r="C369" s="238"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="239" t="s">
+      <c r="B403" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="239"/>
+      <c r="C403" s="238"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="239" t="s">
+      <c r="B439" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="239"/>
+      <c r="C439" s="238"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="239" t="s">
+      <c r="B467" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="239"/>
+      <c r="C467" s="238"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="239" t="s">
+      <c r="B493" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="239"/>
+      <c r="C493" s="238"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="239" t="s">
+      <c r="B520" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="239"/>
+      <c r="C520" s="238"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="239" t="s">
+      <c r="B547" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="239"/>
+      <c r="C547" s="238"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="239" t="s">
+      <c r="B577" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="239"/>
+      <c r="C577" s="238"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="239" t="s">
+      <c r="B612" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="239"/>
+      <c r="C612" s="238"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="239" t="s">
+      <c r="B641" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="239"/>
+      <c r="C641" s="238"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="243" t="s">
+      <c r="B665" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="243"/>
+      <c r="C665" s="241"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="239" t="s">
+      <c r="B691" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="239"/>
+      <c r="C691" s="238"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="239" t="s">
+      <c r="B715" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="239"/>
+      <c r="C715" s="238"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="239" t="s">
+      <c r="B744" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="239"/>
+      <c r="C744" s="238"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="239" t="s">
+      <c r="B771" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="239"/>
+      <c r="C771" s="238"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="239" t="s">
+      <c r="B800" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="239"/>
+      <c r="C800" s="238"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="239" t="s">
+      <c r="B829" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="239"/>
+      <c r="C829" s="238"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="239" t="s">
+      <c r="B858" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="239"/>
+      <c r="C858" s="238"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="239" t="s">
+      <c r="B890" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="239"/>
+      <c r="C890" s="238"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="239" t="s">
+      <c r="B922" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="239"/>
+      <c r="C922" s="238"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="239" t="s">
+      <c r="B954" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="239"/>
+      <c r="C954" s="238"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="239" t="s">
+      <c r="B980" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="239"/>
+      <c r="C980" s="238"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="239" t="s">
+      <c r="B1009" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="239"/>
+      <c r="C1009" s="238"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="239" t="s">
+      <c r="B1034" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="239"/>
+      <c r="C1034" s="238"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="239" t="s">
+      <c r="B1059" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="239"/>
+      <c r="C1059" s="238"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="239" t="s">
+      <c r="B1080" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="239"/>
+      <c r="C1080" s="238"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="239" t="s">
+      <c r="B1107" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="239"/>
+      <c r="C1107" s="238"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="239" t="s">
+      <c r="B1131" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="239"/>
+      <c r="C1131" s="238"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="239" t="s">
+      <c r="B1158" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="239"/>
+      <c r="C1158" s="238"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="239" t="s">
+      <c r="B1190" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="239"/>
+      <c r="C1190" s="238"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="239" t="s">
+      <c r="B1223" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="239"/>
+      <c r="C1223" s="238"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,6 +38142,51 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38150,51 +38195,6 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="245" t="s">
+      <c r="E2" s="254" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="245"/>
+      <c r="F2" s="254"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="255" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="247" t="s">
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="250" t="s">
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="256" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="249" t="s">
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249" t="s">
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249" t="s">
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="251" t="s">
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="257" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="252" t="s">
+      <c r="T5" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="252"/>
+      <c r="T6" s="245"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253" t="s">
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="253"/>
-      <c r="M23" s="253"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253"/>
-      <c r="R23" s="253"/>
-      <c r="S23" s="253"/>
-      <c r="T23" s="253"/>
-      <c r="U23" s="253"/>
-      <c r="V23" s="253"/>
-      <c r="W23" s="253"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="249" t="s">
+      <c r="C24" s="247"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="254" t="s">
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="249" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="254"/>
-      <c r="J24" s="254"/>
-      <c r="K24" s="249" t="s">
+      <c r="I24" s="249"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
-      <c r="N24" s="249" t="s">
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="249"/>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="249" t="s">
+      <c r="O24" s="248"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="249"/>
-      <c r="S24" s="249"/>
-      <c r="T24" s="255" t="s">
+      <c r="R24" s="248"/>
+      <c r="S24" s="248"/>
+      <c r="T24" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="255"/>
-      <c r="V24" s="255"/>
-      <c r="W24" s="255"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="250"/>
+      <c r="W24" s="250"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="252" t="s">
+      <c r="T25" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="252"/>
+      <c r="T26" s="245"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="253"/>
-      <c r="F44" s="253"/>
-      <c r="G44" s="253"/>
-      <c r="H44" s="253"/>
-      <c r="I44" s="253"/>
-      <c r="J44" s="253"/>
-      <c r="K44" s="253" t="s">
+      <c r="C44" s="246"/>
+      <c r="D44" s="246"/>
+      <c r="E44" s="246"/>
+      <c r="F44" s="246"/>
+      <c r="G44" s="246"/>
+      <c r="H44" s="246"/>
+      <c r="I44" s="246"/>
+      <c r="J44" s="246"/>
+      <c r="K44" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="253"/>
-      <c r="M44" s="253"/>
-      <c r="N44" s="253"/>
-      <c r="O44" s="253"/>
-      <c r="P44" s="253"/>
-      <c r="Q44" s="253"/>
-      <c r="R44" s="253"/>
-      <c r="S44" s="253"/>
-      <c r="T44" s="253"/>
-      <c r="U44" s="253"/>
-      <c r="V44" s="253"/>
-      <c r="W44" s="253"/>
+      <c r="L44" s="246"/>
+      <c r="M44" s="246"/>
+      <c r="N44" s="246"/>
+      <c r="O44" s="246"/>
+      <c r="P44" s="246"/>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="246"/>
+      <c r="S44" s="246"/>
+      <c r="T44" s="246"/>
+      <c r="U44" s="246"/>
+      <c r="V44" s="246"/>
+      <c r="W44" s="246"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="248" t="s">
+      <c r="B45" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="249" t="s">
+      <c r="C45" s="247"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="254" t="s">
+      <c r="F45" s="248"/>
+      <c r="G45" s="248"/>
+      <c r="H45" s="249" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="254"/>
-      <c r="J45" s="254"/>
-      <c r="K45" s="249" t="s">
+      <c r="I45" s="249"/>
+      <c r="J45" s="249"/>
+      <c r="K45" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249" t="s">
+      <c r="L45" s="248"/>
+      <c r="M45" s="248"/>
+      <c r="N45" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249" t="s">
+      <c r="O45" s="248"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="256" t="s">
+      <c r="R45" s="248"/>
+      <c r="S45" s="248"/>
+      <c r="T45" s="253" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="256"/>
-      <c r="V45" s="256"/>
-      <c r="W45" s="256"/>
+      <c r="U45" s="253"/>
+      <c r="V45" s="253"/>
+      <c r="W45" s="253"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="257" t="s">
+      <c r="T46" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="257"/>
+      <c r="T47" s="252"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="253" t="s">
+      <c r="B62" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="253"/>
-      <c r="G62" s="253"/>
-      <c r="H62" s="253"/>
-      <c r="I62" s="253"/>
-      <c r="J62" s="253"/>
-      <c r="K62" s="253" t="s">
+      <c r="C62" s="246"/>
+      <c r="D62" s="246"/>
+      <c r="E62" s="246"/>
+      <c r="F62" s="246"/>
+      <c r="G62" s="246"/>
+      <c r="H62" s="246"/>
+      <c r="I62" s="246"/>
+      <c r="J62" s="246"/>
+      <c r="K62" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="253"/>
-      <c r="M62" s="253"/>
-      <c r="N62" s="253"/>
-      <c r="O62" s="253"/>
-      <c r="P62" s="253"/>
-      <c r="Q62" s="253"/>
-      <c r="R62" s="253"/>
-      <c r="S62" s="253"/>
-      <c r="T62" s="253"/>
-      <c r="U62" s="253"/>
-      <c r="V62" s="253"/>
-      <c r="W62" s="253"/>
+      <c r="L62" s="246"/>
+      <c r="M62" s="246"/>
+      <c r="N62" s="246"/>
+      <c r="O62" s="246"/>
+      <c r="P62" s="246"/>
+      <c r="Q62" s="246"/>
+      <c r="R62" s="246"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="246"/>
+      <c r="U62" s="246"/>
+      <c r="V62" s="246"/>
+      <c r="W62" s="246"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="248" t="s">
+      <c r="B63" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="248"/>
-      <c r="D63" s="248"/>
-      <c r="E63" s="249" t="s">
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="248" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="254" t="s">
+      <c r="F63" s="248"/>
+      <c r="G63" s="248"/>
+      <c r="H63" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="254"/>
-      <c r="J63" s="254"/>
-      <c r="K63" s="249" t="s">
+      <c r="I63" s="249"/>
+      <c r="J63" s="249"/>
+      <c r="K63" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="249"/>
-      <c r="M63" s="249"/>
-      <c r="N63" s="249" t="s">
+      <c r="L63" s="248"/>
+      <c r="M63" s="248"/>
+      <c r="N63" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="249"/>
-      <c r="P63" s="249"/>
-      <c r="Q63" s="249" t="s">
+      <c r="O63" s="248"/>
+      <c r="P63" s="248"/>
+      <c r="Q63" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="249"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="255" t="s">
+      <c r="R63" s="248"/>
+      <c r="S63" s="248"/>
+      <c r="T63" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="255"/>
-      <c r="V63" s="255"/>
-      <c r="W63" s="255"/>
+      <c r="U63" s="250"/>
+      <c r="V63" s="250"/>
+      <c r="W63" s="250"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="252" t="s">
+      <c r="T64" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="252"/>
+      <c r="T65" s="245"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="253" t="s">
+      <c r="B85" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="253"/>
-      <c r="D85" s="253"/>
-      <c r="E85" s="253"/>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
-      <c r="H85" s="253"/>
-      <c r="I85" s="253"/>
-      <c r="J85" s="253"/>
-      <c r="K85" s="253" t="s">
+      <c r="C85" s="246"/>
+      <c r="D85" s="246"/>
+      <c r="E85" s="246"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
+      <c r="H85" s="246"/>
+      <c r="I85" s="246"/>
+      <c r="J85" s="246"/>
+      <c r="K85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="253"/>
-      <c r="M85" s="253"/>
-      <c r="N85" s="253"/>
-      <c r="O85" s="253"/>
-      <c r="P85" s="253"/>
-      <c r="Q85" s="253"/>
-      <c r="R85" s="253"/>
-      <c r="S85" s="253"/>
-      <c r="T85" s="253"/>
-      <c r="U85" s="253"/>
-      <c r="V85" s="253"/>
-      <c r="W85" s="253"/>
+      <c r="L85" s="246"/>
+      <c r="M85" s="246"/>
+      <c r="N85" s="246"/>
+      <c r="O85" s="246"/>
+      <c r="P85" s="246"/>
+      <c r="Q85" s="246"/>
+      <c r="R85" s="246"/>
+      <c r="S85" s="246"/>
+      <c r="T85" s="246"/>
+      <c r="U85" s="246"/>
+      <c r="V85" s="246"/>
+      <c r="W85" s="246"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
-      <c r="H86" s="254" t="s">
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
+      <c r="H86" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="254"/>
-      <c r="J86" s="254"/>
-      <c r="K86" s="249" t="s">
+      <c r="I86" s="249"/>
+      <c r="J86" s="249"/>
+      <c r="K86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="249"/>
-      <c r="M86" s="249"/>
-      <c r="N86" s="249" t="s">
+      <c r="L86" s="248"/>
+      <c r="M86" s="248"/>
+      <c r="N86" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="249"/>
-      <c r="P86" s="249"/>
-      <c r="Q86" s="249" t="s">
+      <c r="O86" s="248"/>
+      <c r="P86" s="248"/>
+      <c r="Q86" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="249"/>
-      <c r="S86" s="249"/>
-      <c r="T86" s="255" t="s">
+      <c r="R86" s="248"/>
+      <c r="S86" s="248"/>
+      <c r="T86" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="255"/>
-      <c r="V86" s="255"/>
-      <c r="W86" s="255"/>
+      <c r="U86" s="250"/>
+      <c r="V86" s="250"/>
+      <c r="W86" s="250"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="252" t="s">
+      <c r="T87" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="252"/>
+      <c r="T88" s="245"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="253" t="s">
+      <c r="B107" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="253"/>
-      <c r="D107" s="253"/>
-      <c r="E107" s="253"/>
-      <c r="F107" s="253"/>
-      <c r="G107" s="253"/>
-      <c r="H107" s="253"/>
-      <c r="I107" s="253"/>
-      <c r="J107" s="253"/>
-      <c r="K107" s="253" t="s">
+      <c r="C107" s="246"/>
+      <c r="D107" s="246"/>
+      <c r="E107" s="246"/>
+      <c r="F107" s="246"/>
+      <c r="G107" s="246"/>
+      <c r="H107" s="246"/>
+      <c r="I107" s="246"/>
+      <c r="J107" s="246"/>
+      <c r="K107" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="253"/>
-      <c r="M107" s="253"/>
-      <c r="N107" s="253"/>
-      <c r="O107" s="253"/>
-      <c r="P107" s="253"/>
-      <c r="Q107" s="253"/>
-      <c r="R107" s="253"/>
-      <c r="S107" s="253"/>
-      <c r="T107" s="253"/>
-      <c r="U107" s="253"/>
-      <c r="V107" s="253"/>
-      <c r="W107" s="253"/>
+      <c r="L107" s="246"/>
+      <c r="M107" s="246"/>
+      <c r="N107" s="246"/>
+      <c r="O107" s="246"/>
+      <c r="P107" s="246"/>
+      <c r="Q107" s="246"/>
+      <c r="R107" s="246"/>
+      <c r="S107" s="246"/>
+      <c r="T107" s="246"/>
+      <c r="U107" s="246"/>
+      <c r="V107" s="246"/>
+      <c r="W107" s="246"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="248" t="s">
+      <c r="B108" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="248"/>
-      <c r="D108" s="248"/>
-      <c r="E108" s="249" t="s">
+      <c r="C108" s="247"/>
+      <c r="D108" s="247"/>
+      <c r="E108" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="249"/>
-      <c r="G108" s="249"/>
-      <c r="H108" s="254" t="s">
+      <c r="F108" s="248"/>
+      <c r="G108" s="248"/>
+      <c r="H108" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="254"/>
-      <c r="J108" s="254"/>
-      <c r="K108" s="249" t="s">
+      <c r="I108" s="249"/>
+      <c r="J108" s="249"/>
+      <c r="K108" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="249"/>
-      <c r="M108" s="249"/>
-      <c r="N108" s="249" t="s">
+      <c r="L108" s="248"/>
+      <c r="M108" s="248"/>
+      <c r="N108" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="249"/>
-      <c r="P108" s="249"/>
-      <c r="Q108" s="249" t="s">
+      <c r="O108" s="248"/>
+      <c r="P108" s="248"/>
+      <c r="Q108" s="248" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="249"/>
-      <c r="S108" s="249"/>
-      <c r="T108" s="255" t="s">
+      <c r="R108" s="248"/>
+      <c r="S108" s="248"/>
+      <c r="T108" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="255"/>
-      <c r="V108" s="255"/>
-      <c r="W108" s="255"/>
+      <c r="U108" s="250"/>
+      <c r="V108" s="250"/>
+      <c r="W108" s="250"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="252" t="s">
+      <c r="T109" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="252"/>
+      <c r="T110" s="245"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="253" t="s">
+      <c r="B128" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="253"/>
-      <c r="D128" s="253"/>
-      <c r="E128" s="253"/>
-      <c r="F128" s="253"/>
-      <c r="G128" s="253"/>
-      <c r="H128" s="253"/>
-      <c r="I128" s="253"/>
-      <c r="J128" s="253"/>
-      <c r="K128" s="253" t="s">
+      <c r="C128" s="246"/>
+      <c r="D128" s="246"/>
+      <c r="E128" s="246"/>
+      <c r="F128" s="246"/>
+      <c r="G128" s="246"/>
+      <c r="H128" s="246"/>
+      <c r="I128" s="246"/>
+      <c r="J128" s="246"/>
+      <c r="K128" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="253"/>
-      <c r="M128" s="253"/>
-      <c r="N128" s="253"/>
-      <c r="O128" s="253"/>
-      <c r="P128" s="253"/>
-      <c r="Q128" s="253"/>
-      <c r="R128" s="253"/>
-      <c r="S128" s="253"/>
-      <c r="T128" s="253"/>
-      <c r="U128" s="253"/>
-      <c r="V128" s="253"/>
-      <c r="W128" s="253"/>
+      <c r="L128" s="246"/>
+      <c r="M128" s="246"/>
+      <c r="N128" s="246"/>
+      <c r="O128" s="246"/>
+      <c r="P128" s="246"/>
+      <c r="Q128" s="246"/>
+      <c r="R128" s="246"/>
+      <c r="S128" s="246"/>
+      <c r="T128" s="246"/>
+      <c r="U128" s="246"/>
+      <c r="V128" s="246"/>
+      <c r="W128" s="246"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="248" t="s">
+      <c r="B129" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="248"/>
-      <c r="D129" s="248"/>
-      <c r="E129" s="249" t="s">
+      <c r="C129" s="247"/>
+      <c r="D129" s="247"/>
+      <c r="E129" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="249"/>
-      <c r="G129" s="249"/>
-      <c r="H129" s="254" t="s">
+      <c r="F129" s="248"/>
+      <c r="G129" s="248"/>
+      <c r="H129" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="254"/>
-      <c r="J129" s="254"/>
-      <c r="K129" s="249" t="s">
+      <c r="I129" s="249"/>
+      <c r="J129" s="249"/>
+      <c r="K129" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="249"/>
-      <c r="M129" s="249"/>
-      <c r="N129" s="249" t="s">
+      <c r="L129" s="248"/>
+      <c r="M129" s="248"/>
+      <c r="N129" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="249"/>
-      <c r="P129" s="249"/>
-      <c r="Q129" s="249" t="s">
+      <c r="O129" s="248"/>
+      <c r="P129" s="248"/>
+      <c r="Q129" s="248" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="249"/>
-      <c r="S129" s="249"/>
-      <c r="T129" s="255" t="s">
+      <c r="R129" s="248"/>
+      <c r="S129" s="248"/>
+      <c r="T129" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="255"/>
-      <c r="V129" s="255"/>
-      <c r="W129" s="255"/>
+      <c r="U129" s="250"/>
+      <c r="V129" s="250"/>
+      <c r="W129" s="250"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="252" t="s">
+      <c r="T130" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="252"/>
+      <c r="T131" s="245"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="253" t="s">
+      <c r="B142" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="253"/>
-      <c r="D142" s="253"/>
-      <c r="E142" s="253"/>
-      <c r="F142" s="253"/>
-      <c r="G142" s="253"/>
-      <c r="H142" s="253"/>
-      <c r="I142" s="253"/>
-      <c r="J142" s="253"/>
-      <c r="K142" s="253" t="s">
+      <c r="C142" s="246"/>
+      <c r="D142" s="246"/>
+      <c r="E142" s="246"/>
+      <c r="F142" s="246"/>
+      <c r="G142" s="246"/>
+      <c r="H142" s="246"/>
+      <c r="I142" s="246"/>
+      <c r="J142" s="246"/>
+      <c r="K142" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="253"/>
-      <c r="M142" s="253"/>
-      <c r="N142" s="253"/>
-      <c r="O142" s="253"/>
-      <c r="P142" s="253"/>
-      <c r="Q142" s="253"/>
-      <c r="R142" s="253"/>
-      <c r="S142" s="253"/>
-      <c r="T142" s="253"/>
-      <c r="U142" s="253"/>
-      <c r="V142" s="253"/>
-      <c r="W142" s="253"/>
+      <c r="L142" s="246"/>
+      <c r="M142" s="246"/>
+      <c r="N142" s="246"/>
+      <c r="O142" s="246"/>
+      <c r="P142" s="246"/>
+      <c r="Q142" s="246"/>
+      <c r="R142" s="246"/>
+      <c r="S142" s="246"/>
+      <c r="T142" s="246"/>
+      <c r="U142" s="246"/>
+      <c r="V142" s="246"/>
+      <c r="W142" s="246"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="248" t="s">
+      <c r="B143" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="248"/>
-      <c r="D143" s="248"/>
-      <c r="E143" s="249" t="s">
+      <c r="C143" s="247"/>
+      <c r="D143" s="247"/>
+      <c r="E143" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="249"/>
-      <c r="G143" s="249"/>
-      <c r="H143" s="254" t="s">
+      <c r="F143" s="248"/>
+      <c r="G143" s="248"/>
+      <c r="H143" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="254"/>
-      <c r="J143" s="254"/>
-      <c r="K143" s="249" t="s">
+      <c r="I143" s="249"/>
+      <c r="J143" s="249"/>
+      <c r="K143" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="249"/>
-      <c r="M143" s="249"/>
-      <c r="N143" s="249" t="s">
+      <c r="L143" s="248"/>
+      <c r="M143" s="248"/>
+      <c r="N143" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="249"/>
-      <c r="P143" s="249"/>
-      <c r="Q143" s="249" t="s">
+      <c r="O143" s="248"/>
+      <c r="P143" s="248"/>
+      <c r="Q143" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="249"/>
-      <c r="S143" s="249"/>
-      <c r="T143" s="255" t="s">
+      <c r="R143" s="248"/>
+      <c r="S143" s="248"/>
+      <c r="T143" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="255"/>
-      <c r="V143" s="255"/>
-      <c r="W143" s="255"/>
+      <c r="U143" s="250"/>
+      <c r="V143" s="250"/>
+      <c r="W143" s="250"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="252" t="s">
+      <c r="T144" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="252"/>
+      <c r="T145" s="245"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="247" t="s">
+      <c r="B157" s="251" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="247"/>
-      <c r="D157" s="247"/>
-      <c r="E157" s="247"/>
-      <c r="F157" s="247"/>
-      <c r="G157" s="247"/>
-      <c r="H157" s="247"/>
-      <c r="I157" s="247"/>
-      <c r="J157" s="247"/>
-      <c r="K157" s="247" t="s">
+      <c r="C157" s="251"/>
+      <c r="D157" s="251"/>
+      <c r="E157" s="251"/>
+      <c r="F157" s="251"/>
+      <c r="G157" s="251"/>
+      <c r="H157" s="251"/>
+      <c r="I157" s="251"/>
+      <c r="J157" s="251"/>
+      <c r="K157" s="251" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="247"/>
-      <c r="M157" s="247"/>
-      <c r="N157" s="247"/>
-      <c r="O157" s="247"/>
-      <c r="P157" s="247"/>
-      <c r="Q157" s="247"/>
-      <c r="R157" s="247"/>
-      <c r="S157" s="247"/>
-      <c r="T157" s="247"/>
-      <c r="U157" s="247"/>
-      <c r="V157" s="247"/>
-      <c r="W157" s="247"/>
+      <c r="L157" s="251"/>
+      <c r="M157" s="251"/>
+      <c r="N157" s="251"/>
+      <c r="O157" s="251"/>
+      <c r="P157" s="251"/>
+      <c r="Q157" s="251"/>
+      <c r="R157" s="251"/>
+      <c r="S157" s="251"/>
+      <c r="T157" s="251"/>
+      <c r="U157" s="251"/>
+      <c r="V157" s="251"/>
+      <c r="W157" s="251"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="248" t="s">
+      <c r="B158" s="247" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="248"/>
-      <c r="D158" s="248"/>
-      <c r="E158" s="249" t="s">
+      <c r="C158" s="247"/>
+      <c r="D158" s="247"/>
+      <c r="E158" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="249"/>
-      <c r="G158" s="249"/>
-      <c r="H158" s="254" t="s">
+      <c r="F158" s="248"/>
+      <c r="G158" s="248"/>
+      <c r="H158" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="254"/>
-      <c r="J158" s="254"/>
-      <c r="K158" s="249" t="s">
+      <c r="I158" s="249"/>
+      <c r="J158" s="249"/>
+      <c r="K158" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="249"/>
-      <c r="M158" s="249"/>
-      <c r="N158" s="249" t="s">
+      <c r="L158" s="248"/>
+      <c r="M158" s="248"/>
+      <c r="N158" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="249"/>
-      <c r="P158" s="249"/>
-      <c r="Q158" s="249" t="s">
+      <c r="O158" s="248"/>
+      <c r="P158" s="248"/>
+      <c r="Q158" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="249"/>
-      <c r="S158" s="249"/>
-      <c r="T158" s="255" t="s">
+      <c r="R158" s="248"/>
+      <c r="S158" s="248"/>
+      <c r="T158" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="255"/>
-      <c r="V158" s="255"/>
-      <c r="W158" s="255"/>
+      <c r="U158" s="250"/>
+      <c r="V158" s="250"/>
+      <c r="W158" s="250"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="252" t="s">
+      <c r="T159" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="252"/>
+      <c r="T160" s="245"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="252"/>
+      <c r="T161" s="245"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="253" t="s">
+      <c r="B172" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="253"/>
-      <c r="D172" s="253"/>
-      <c r="E172" s="253"/>
-      <c r="F172" s="253"/>
-      <c r="G172" s="253"/>
-      <c r="H172" s="253"/>
-      <c r="I172" s="253"/>
-      <c r="J172" s="253"/>
-      <c r="K172" s="253" t="s">
+      <c r="C172" s="246"/>
+      <c r="D172" s="246"/>
+      <c r="E172" s="246"/>
+      <c r="F172" s="246"/>
+      <c r="G172" s="246"/>
+      <c r="H172" s="246"/>
+      <c r="I172" s="246"/>
+      <c r="J172" s="246"/>
+      <c r="K172" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="253"/>
-      <c r="M172" s="253"/>
-      <c r="N172" s="253"/>
-      <c r="O172" s="253"/>
-      <c r="P172" s="253"/>
-      <c r="Q172" s="253"/>
-      <c r="R172" s="253"/>
-      <c r="S172" s="253"/>
-      <c r="T172" s="253"/>
-      <c r="U172" s="253"/>
-      <c r="V172" s="253"/>
-      <c r="W172" s="253"/>
+      <c r="L172" s="246"/>
+      <c r="M172" s="246"/>
+      <c r="N172" s="246"/>
+      <c r="O172" s="246"/>
+      <c r="P172" s="246"/>
+      <c r="Q172" s="246"/>
+      <c r="R172" s="246"/>
+      <c r="S172" s="246"/>
+      <c r="T172" s="246"/>
+      <c r="U172" s="246"/>
+      <c r="V172" s="246"/>
+      <c r="W172" s="246"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="248" t="s">
+      <c r="B173" s="247" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="248"/>
-      <c r="D173" s="248"/>
-      <c r="E173" s="249" t="s">
+      <c r="C173" s="247"/>
+      <c r="D173" s="247"/>
+      <c r="E173" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="249"/>
-      <c r="G173" s="249"/>
-      <c r="H173" s="254" t="s">
+      <c r="F173" s="248"/>
+      <c r="G173" s="248"/>
+      <c r="H173" s="249" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="254"/>
-      <c r="J173" s="254"/>
-      <c r="K173" s="249" t="s">
+      <c r="I173" s="249"/>
+      <c r="J173" s="249"/>
+      <c r="K173" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="249"/>
-      <c r="M173" s="249"/>
-      <c r="N173" s="249" t="s">
+      <c r="L173" s="248"/>
+      <c r="M173" s="248"/>
+      <c r="N173" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="249"/>
-      <c r="P173" s="249"/>
-      <c r="Q173" s="249" t="s">
+      <c r="O173" s="248"/>
+      <c r="P173" s="248"/>
+      <c r="Q173" s="248" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="249"/>
-      <c r="S173" s="249"/>
-      <c r="T173" s="255" t="s">
+      <c r="R173" s="248"/>
+      <c r="S173" s="248"/>
+      <c r="T173" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="255"/>
-      <c r="V173" s="255"/>
-      <c r="W173" s="255"/>
+      <c r="U173" s="250"/>
+      <c r="V173" s="250"/>
+      <c r="W173" s="250"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="252" t="s">
+      <c r="T174" s="245" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="252"/>
+      <c r="T175" s="245"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,6 +44442,96 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44453,96 +44543,6 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="253" t="s">
+      <c r="E3" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="253" t="s">
+      <c r="E15" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="248"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249" t="s">
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="253" t="s">
+      <c r="E27" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="253"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="249" t="s">
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="253" t="s">
+      <c r="E39" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="253"/>
-      <c r="G39" s="253"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="246"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="248" t="s">
+      <c r="B40" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="249" t="s">
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="248"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="253" t="s">
+      <c r="E57" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="253"/>
-      <c r="G57" s="253"/>
+      <c r="F57" s="246"/>
+      <c r="G57" s="246"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="248"/>
-      <c r="D58" s="248"/>
-      <c r="E58" s="249" t="s">
+      <c r="C58" s="247"/>
+      <c r="D58" s="247"/>
+      <c r="E58" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="249"/>
-      <c r="G58" s="249"/>
+      <c r="F58" s="248"/>
+      <c r="G58" s="248"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="253" t="s">
+      <c r="E72" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="G72" s="253"/>
+      <c r="F72" s="246"/>
+      <c r="G72" s="246"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="248" t="s">
+      <c r="B73" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="248"/>
-      <c r="D73" s="248"/>
-      <c r="E73" s="249" t="s">
+      <c r="C73" s="247"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="249"/>
-      <c r="G73" s="249"/>
+      <c r="F73" s="248"/>
+      <c r="G73" s="248"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="253" t="s">
+      <c r="E85" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="253"/>
-      <c r="G85" s="253"/>
+      <c r="F85" s="246"/>
+      <c r="G85" s="246"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="248"/>
-      <c r="D86" s="248"/>
-      <c r="E86" s="249" t="s">
+      <c r="C86" s="247"/>
+      <c r="D86" s="247"/>
+      <c r="E86" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
+      <c r="F86" s="248"/>
+      <c r="G86" s="248"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="253" t="s">
+      <c r="E98" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="253"/>
-      <c r="G98" s="253"/>
+      <c r="F98" s="246"/>
+      <c r="G98" s="246"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="248" t="s">
+      <c r="B99" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="248"/>
-      <c r="D99" s="248"/>
-      <c r="E99" s="249" t="s">
+      <c r="C99" s="247"/>
+      <c r="D99" s="247"/>
+      <c r="E99" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="249"/>
-      <c r="G99" s="249"/>
+      <c r="F99" s="248"/>
+      <c r="G99" s="248"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="253" t="s">
+      <c r="E115" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="253"/>
-      <c r="G115" s="253"/>
+      <c r="F115" s="246"/>
+      <c r="G115" s="246"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="248" t="s">
+      <c r="B116" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="248"/>
-      <c r="D116" s="248"/>
-      <c r="E116" s="249" t="s">
+      <c r="C116" s="247"/>
+      <c r="D116" s="247"/>
+      <c r="E116" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="249"/>
-      <c r="G116" s="249"/>
+      <c r="F116" s="248"/>
+      <c r="G116" s="248"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="253" t="s">
+      <c r="E132" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="253"/>
-      <c r="G132" s="253"/>
+      <c r="F132" s="246"/>
+      <c r="G132" s="246"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="248" t="s">
+      <c r="B133" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="248"/>
-      <c r="D133" s="248"/>
-      <c r="E133" s="249" t="s">
+      <c r="C133" s="247"/>
+      <c r="D133" s="247"/>
+      <c r="E133" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="249"/>
-      <c r="G133" s="249"/>
+      <c r="F133" s="248"/>
+      <c r="G133" s="248"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="253" t="s">
+      <c r="E149" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="253"/>
-      <c r="G149" s="253"/>
+      <c r="F149" s="246"/>
+      <c r="G149" s="246"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="248" t="s">
+      <c r="B150" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="248"/>
-      <c r="D150" s="248"/>
-      <c r="E150" s="249" t="s">
+      <c r="C150" s="247"/>
+      <c r="D150" s="247"/>
+      <c r="E150" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="249"/>
-      <c r="G150" s="249"/>
+      <c r="F150" s="248"/>
+      <c r="G150" s="248"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="253" t="s">
+      <c r="E166" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="253"/>
-      <c r="G166" s="253"/>
+      <c r="F166" s="246"/>
+      <c r="G166" s="246"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="248" t="s">
+      <c r="B167" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="248"/>
-      <c r="D167" s="248"/>
-      <c r="E167" s="249" t="s">
+      <c r="C167" s="247"/>
+      <c r="D167" s="247"/>
+      <c r="E167" s="248" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="249"/>
-      <c r="G167" s="249"/>
+      <c r="F167" s="248"/>
+      <c r="G167" s="248"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
     <mergeCell ref="B150:D150"/>
     <mergeCell ref="E150:G150"/>
     <mergeCell ref="B166:D166"/>
     <mergeCell ref="E166:G166"/>
     <mergeCell ref="B167:D167"/>
     <mergeCell ref="E167:G167"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>

--- a/microgrid_base/设备信息库各参数_23_7_24.xlsx
+++ b/microgrid_base/设备信息库各参数_23_7_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\works\jubilant-adventure2\microgrid_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE71A40B-E98C-419F-B5FB-0BF3FA72EC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C95F2F4-0B2B-49F4-A7CB-41BC597D2123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,35 +5491,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5528,25 +5543,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7119,7 +7119,7 @@
       <c r="C15" s="6">
         <v>560</v>
       </c>
-      <c r="D15" s="239"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7133,7 +7133,7 @@
       <c r="C16" s="6">
         <v>1.2</v>
       </c>
-      <c r="D16" s="239"/>
+      <c r="D16" s="238"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7147,7 +7147,7 @@
       <c r="C17" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D17" s="239"/>
+      <c r="D17" s="238"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -7161,7 +7161,7 @@
       <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D18" s="239"/>
+      <c r="D18" s="238"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -7175,7 +7175,7 @@
       <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="239"/>
+      <c r="D19" s="238"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -7189,7 +7189,7 @@
       <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="239"/>
+      <c r="D20" s="238"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7475,7 +7475,7 @@
       <c r="C41" s="20">
         <v>560</v>
       </c>
-      <c r="D41" s="239"/>
+      <c r="D41" s="238"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -7489,7 +7489,7 @@
       <c r="C42" s="6">
         <v>1.2</v>
       </c>
-      <c r="D42" s="239"/>
+      <c r="D42" s="238"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -7503,7 +7503,7 @@
       <c r="C43" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D43" s="239"/>
+      <c r="D43" s="238"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -7517,7 +7517,7 @@
       <c r="C44" s="6">
         <v>25</v>
       </c>
-      <c r="D44" s="239"/>
+      <c r="D44" s="238"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -7531,7 +7531,7 @@
       <c r="C45" s="6">
         <v>15</v>
       </c>
-      <c r="D45" s="239"/>
+      <c r="D45" s="238"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -7545,7 +7545,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="239"/>
+      <c r="D46" s="238"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="47" spans="1:8" ht="14.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="238" t="s">
+      <c r="B47" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="238"/>
+      <c r="C47" s="239"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7891,7 +7891,7 @@
       <c r="C71" s="6">
         <v>560</v>
       </c>
-      <c r="D71" s="239"/>
+      <c r="D71" s="238"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -7905,7 +7905,7 @@
       <c r="C72" s="6">
         <v>1.2</v>
       </c>
-      <c r="D72" s="239"/>
+      <c r="D72" s="238"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="C73" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D73" s="239"/>
+      <c r="D73" s="238"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -7933,7 +7933,7 @@
       <c r="C74" s="6">
         <v>25</v>
       </c>
-      <c r="D74" s="239"/>
+      <c r="D74" s="238"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -7947,7 +7947,7 @@
       <c r="C75" s="6">
         <v>15</v>
       </c>
-      <c r="D75" s="239"/>
+      <c r="D75" s="238"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="77" spans="1:8" ht="14.35">
       <c r="A77" s="12"/>
-      <c r="B77" s="238" t="s">
+      <c r="B77" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="238"/>
+      <c r="C77" s="239"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -8277,7 +8277,7 @@
       <c r="C99" s="6">
         <v>560</v>
       </c>
-      <c r="D99" s="239"/>
+      <c r="D99" s="238"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -8291,7 +8291,7 @@
       <c r="C100" s="6">
         <v>1.2</v>
       </c>
-      <c r="D100" s="239"/>
+      <c r="D100" s="238"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
@@ -8305,7 +8305,7 @@
       <c r="C101" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D101" s="239"/>
+      <c r="D101" s="238"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -8319,7 +8319,7 @@
       <c r="C102" s="6">
         <v>25</v>
       </c>
-      <c r="D102" s="239"/>
+      <c r="D102" s="238"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -8333,7 +8333,7 @@
       <c r="C103" s="6">
         <v>15</v>
       </c>
-      <c r="D103" s="239"/>
+      <c r="D103" s="238"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="105" spans="1:8" ht="14.35">
       <c r="A105" s="12"/>
-      <c r="B105" s="238" t="s">
+      <c r="B105" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="238"/>
+      <c r="C105" s="239"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8657,7 +8657,7 @@
       <c r="C128" s="6">
         <v>560</v>
       </c>
-      <c r="D128" s="239"/>
+      <c r="D128" s="238"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
@@ -8671,7 +8671,7 @@
       <c r="C129" s="6">
         <v>1.2</v>
       </c>
-      <c r="D129" s="239"/>
+      <c r="D129" s="238"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
@@ -8685,7 +8685,7 @@
       <c r="C130" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D130" s="239"/>
+      <c r="D130" s="238"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
@@ -8699,7 +8699,7 @@
       <c r="C131" s="6">
         <v>25</v>
       </c>
-      <c r="D131" s="239"/>
+      <c r="D131" s="238"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -8713,7 +8713,7 @@
       <c r="C132" s="6">
         <v>15</v>
       </c>
-      <c r="D132" s="239"/>
+      <c r="D132" s="238"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="134" spans="1:8" ht="14.35">
       <c r="A134" s="12"/>
-      <c r="B134" s="238" t="s">
+      <c r="B134" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="238"/>
+      <c r="C134" s="239"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -9011,7 +9011,7 @@
       <c r="C158" s="6">
         <v>560</v>
       </c>
-      <c r="D158" s="239"/>
+      <c r="D158" s="238"/>
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:8" ht="14.35">
@@ -9022,7 +9022,7 @@
       <c r="C159" s="6">
         <v>1.2</v>
       </c>
-      <c r="D159" s="239"/>
+      <c r="D159" s="238"/>
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="14.35">
@@ -9033,7 +9033,7 @@
       <c r="C160" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D160" s="239"/>
+      <c r="D160" s="238"/>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:8" ht="14.35">
@@ -9044,7 +9044,7 @@
       <c r="C161" s="6">
         <v>25</v>
       </c>
-      <c r="D161" s="239"/>
+      <c r="D161" s="238"/>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:8" ht="14.35">
@@ -9055,7 +9055,7 @@
       <c r="C162" s="6">
         <v>15</v>
       </c>
-      <c r="D162" s="239"/>
+      <c r="D162" s="238"/>
       <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:8" ht="14.35">
@@ -9071,10 +9071,10 @@
     </row>
     <row r="164" spans="1:8" ht="14.35">
       <c r="A164" s="12"/>
-      <c r="B164" s="238" t="s">
+      <c r="B164" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C164" s="238"/>
+      <c r="C164" s="239"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
@@ -9214,7 +9214,7 @@
       <c r="C179" s="20">
         <v>560</v>
       </c>
-      <c r="D179" s="239"/>
+      <c r="D179" s="238"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
@@ -9228,7 +9228,7 @@
       <c r="C180" s="6">
         <v>1.2</v>
       </c>
-      <c r="D180" s="239"/>
+      <c r="D180" s="238"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -9242,7 +9242,7 @@
       <c r="C181" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D181" s="239"/>
+      <c r="D181" s="238"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -9256,7 +9256,7 @@
       <c r="C182" s="6">
         <v>25</v>
       </c>
-      <c r="D182" s="239"/>
+      <c r="D182" s="238"/>
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
@@ -9270,7 +9270,7 @@
       <c r="C183" s="6">
         <v>15</v>
       </c>
-      <c r="D183" s="239"/>
+      <c r="D183" s="238"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
@@ -9284,7 +9284,7 @@
       <c r="C184" s="6">
         <v>10</v>
       </c>
-      <c r="D184" s="239"/>
+      <c r="D184" s="238"/>
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="185" spans="1:8" ht="14.35">
       <c r="A185" s="12"/>
-      <c r="B185" s="238" t="s">
+      <c r="B185" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C185" s="238"/>
+      <c r="C185" s="239"/>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -9492,7 +9492,7 @@
       <c r="C201" s="20">
         <v>560</v>
       </c>
-      <c r="D201" s="239"/>
+      <c r="D201" s="238"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
@@ -9506,7 +9506,7 @@
       <c r="C202" s="6">
         <v>1.2</v>
       </c>
-      <c r="D202" s="239"/>
+      <c r="D202" s="238"/>
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
@@ -9519,7 +9519,7 @@
       <c r="C203" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D203" s="239"/>
+      <c r="D203" s="238"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
@@ -9533,7 +9533,7 @@
       <c r="C204" s="6">
         <v>25</v>
       </c>
-      <c r="D204" s="239"/>
+      <c r="D204" s="238"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
@@ -9547,7 +9547,7 @@
       <c r="C205" s="6">
         <v>15</v>
       </c>
-      <c r="D205" s="239"/>
+      <c r="D205" s="238"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
@@ -9561,7 +9561,7 @@
       <c r="C206" s="6">
         <v>10</v>
       </c>
-      <c r="D206" s="239"/>
+      <c r="D206" s="238"/>
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="207" spans="1:8" ht="14.35">
       <c r="A207" s="12"/>
-      <c r="B207" s="238" t="s">
+      <c r="B207" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C207" s="238"/>
+      <c r="C207" s="239"/>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
@@ -10067,7 +10067,7 @@
       <c r="C242" s="6">
         <v>560</v>
       </c>
-      <c r="D242" s="239"/>
+      <c r="D242" s="238"/>
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
@@ -10081,7 +10081,7 @@
       <c r="C243" s="6">
         <v>1.2</v>
       </c>
-      <c r="D243" s="239"/>
+      <c r="D243" s="238"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
@@ -10095,7 +10095,7 @@
       <c r="C244" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D244" s="239"/>
+      <c r="D244" s="238"/>
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -10109,7 +10109,7 @@
       <c r="C245" s="6">
         <v>25</v>
       </c>
-      <c r="D245" s="239"/>
+      <c r="D245" s="238"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -10123,7 +10123,7 @@
       <c r="C246" s="6">
         <v>15</v>
       </c>
-      <c r="D246" s="239"/>
+      <c r="D246" s="238"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="248" spans="1:8" ht="14.35">
       <c r="A248" s="12"/>
-      <c r="B248" s="238" t="s">
+      <c r="B248" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C248" s="238"/>
+      <c r="C248" s="239"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
@@ -10537,7 +10537,7 @@
       <c r="C278" s="6">
         <v>560</v>
       </c>
-      <c r="D278" s="239"/>
+      <c r="D278" s="238"/>
       <c r="E278" s="12"/>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -10551,7 +10551,7 @@
       <c r="C279" s="6">
         <v>1.2</v>
       </c>
-      <c r="D279" s="239"/>
+      <c r="D279" s="238"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -10565,7 +10565,7 @@
       <c r="C280" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D280" s="239"/>
+      <c r="D280" s="238"/>
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
@@ -10579,7 +10579,7 @@
       <c r="C281" s="6">
         <v>25</v>
       </c>
-      <c r="D281" s="239"/>
+      <c r="D281" s="238"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
@@ -10593,7 +10593,7 @@
       <c r="C282" s="6">
         <v>15</v>
       </c>
-      <c r="D282" s="239"/>
+      <c r="D282" s="238"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="284" spans="1:8" ht="14.35">
       <c r="A284" s="12"/>
-      <c r="B284" s="238" t="s">
+      <c r="B284" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C284" s="238"/>
+      <c r="C284" s="239"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
@@ -10848,7 +10848,7 @@
       <c r="C304" s="6">
         <v>560</v>
       </c>
-      <c r="D304" s="239"/>
+      <c r="D304" s="238"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -10862,7 +10862,7 @@
       <c r="C305" s="6">
         <v>1.2</v>
       </c>
-      <c r="D305" s="239"/>
+      <c r="D305" s="238"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
@@ -10876,7 +10876,7 @@
       <c r="C306" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D306" s="239"/>
+      <c r="D306" s="238"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -10890,7 +10890,7 @@
       <c r="C307" s="6">
         <v>25</v>
       </c>
-      <c r="D307" s="239"/>
+      <c r="D307" s="238"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -10904,7 +10904,7 @@
       <c r="C308" s="6">
         <v>15</v>
       </c>
-      <c r="D308" s="239"/>
+      <c r="D308" s="238"/>
       <c r="E308" s="12"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
@@ -10926,10 +10926,10 @@
     </row>
     <row r="310" spans="1:8" ht="14.35">
       <c r="A310" s="12"/>
-      <c r="B310" s="238" t="s">
+      <c r="B310" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C310" s="238"/>
+      <c r="C310" s="239"/>
       <c r="D310" s="12"/>
       <c r="E310" s="12"/>
       <c r="F310" s="12"/>
@@ -11116,7 +11116,7 @@
       <c r="C327" s="6">
         <v>560</v>
       </c>
-      <c r="D327" s="239"/>
+      <c r="D327" s="238"/>
       <c r="E327" s="12"/>
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
@@ -11130,7 +11130,7 @@
       <c r="C328" s="6">
         <v>1.2</v>
       </c>
-      <c r="D328" s="239"/>
+      <c r="D328" s="238"/>
       <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
@@ -11144,7 +11144,7 @@
       <c r="C329" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D329" s="239"/>
+      <c r="D329" s="238"/>
       <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
@@ -11158,7 +11158,7 @@
       <c r="C330" s="6">
         <v>25</v>
       </c>
-      <c r="D330" s="239"/>
+      <c r="D330" s="238"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
@@ -11172,7 +11172,7 @@
       <c r="C331" s="6">
         <v>15</v>
       </c>
-      <c r="D331" s="239"/>
+      <c r="D331" s="238"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
@@ -11194,10 +11194,10 @@
     </row>
     <row r="333" spans="1:8" ht="14.35">
       <c r="A333" s="12"/>
-      <c r="B333" s="238" t="s">
+      <c r="B333" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C333" s="238"/>
+      <c r="C333" s="239"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
       <c r="F333" s="12"/>
@@ -11390,7 +11390,7 @@
       <c r="C349" s="6">
         <v>560</v>
       </c>
-      <c r="D349" s="239"/>
+      <c r="D349" s="238"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
       <c r="H349" s="12"/>
@@ -11403,7 +11403,7 @@
       <c r="C350" s="6">
         <v>1.2</v>
       </c>
-      <c r="D350" s="239"/>
+      <c r="D350" s="238"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
       <c r="H350" s="12"/>
@@ -11416,7 +11416,7 @@
       <c r="C351" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D351" s="239"/>
+      <c r="D351" s="238"/>
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
       <c r="H351" s="12"/>
@@ -11429,7 +11429,7 @@
       <c r="C352" s="6">
         <v>25</v>
       </c>
-      <c r="D352" s="239"/>
+      <c r="D352" s="238"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
       <c r="H352" s="12"/>
@@ -11442,7 +11442,7 @@
       <c r="C353" s="6">
         <v>15</v>
       </c>
-      <c r="D353" s="239"/>
+      <c r="D353" s="238"/>
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
       <c r="H353" s="12"/>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="355" spans="1:8" ht="14.35">
       <c r="A355" s="12"/>
-      <c r="B355" s="238" t="s">
+      <c r="B355" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C355" s="238"/>
+      <c r="C355" s="239"/>
       <c r="D355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
@@ -11810,7 +11810,7 @@
       <c r="C383" s="6">
         <v>560</v>
       </c>
-      <c r="D383" s="239"/>
+      <c r="D383" s="238"/>
       <c r="E383" s="12"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
@@ -11824,7 +11824,7 @@
       <c r="C384" s="6">
         <v>1.2</v>
       </c>
-      <c r="D384" s="239"/>
+      <c r="D384" s="238"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
@@ -11838,7 +11838,7 @@
       <c r="C385" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D385" s="239"/>
+      <c r="D385" s="238"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
@@ -11852,7 +11852,7 @@
       <c r="C386" s="6">
         <v>25</v>
       </c>
-      <c r="D386" s="239"/>
+      <c r="D386" s="238"/>
       <c r="E386" s="12"/>
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
@@ -11866,7 +11866,7 @@
       <c r="C387" s="6">
         <v>15</v>
       </c>
-      <c r="D387" s="239"/>
+      <c r="D387" s="238"/>
       <c r="E387" s="12"/>
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
@@ -11888,10 +11888,10 @@
     </row>
     <row r="389" spans="1:8" ht="14.35">
       <c r="A389" s="12"/>
-      <c r="B389" s="238" t="s">
+      <c r="B389" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C389" s="238"/>
+      <c r="C389" s="239"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
       <c r="F389" s="12"/>
@@ -12239,7 +12239,7 @@
       <c r="C418" s="6">
         <v>560</v>
       </c>
-      <c r="D418" s="239"/>
+      <c r="D418" s="238"/>
       <c r="E418" s="12"/>
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
@@ -12253,7 +12253,7 @@
       <c r="C419" s="6">
         <v>1.2</v>
       </c>
-      <c r="D419" s="239"/>
+      <c r="D419" s="238"/>
       <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
@@ -12267,7 +12267,7 @@
       <c r="C420" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D420" s="239"/>
+      <c r="D420" s="238"/>
       <c r="E420" s="12"/>
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
@@ -12281,7 +12281,7 @@
       <c r="C421" s="6">
         <v>25</v>
       </c>
-      <c r="D421" s="239"/>
+      <c r="D421" s="238"/>
       <c r="E421" s="12"/>
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
@@ -12295,7 +12295,7 @@
       <c r="C422" s="6">
         <v>15</v>
       </c>
-      <c r="D422" s="239"/>
+      <c r="D422" s="238"/>
       <c r="E422" s="12"/>
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="424" spans="1:8" ht="14.35">
       <c r="A424" s="12"/>
-      <c r="B424" s="238" t="s">
+      <c r="B424" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C424" s="238"/>
+      <c r="C424" s="239"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
       <c r="F424" s="12"/>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="451" spans="1:8" ht="14.35">
       <c r="A451" s="12"/>
-      <c r="B451" s="238" t="s">
+      <c r="B451" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C451" s="238"/>
+      <c r="C451" s="239"/>
       <c r="D451" s="12"/>
       <c r="E451" s="12"/>
       <c r="F451" s="12"/>
@@ -12861,7 +12861,7 @@
       <c r="C469" s="6">
         <v>560</v>
       </c>
-      <c r="D469" s="239"/>
+      <c r="D469" s="238"/>
       <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
@@ -12875,7 +12875,7 @@
       <c r="C470" s="6">
         <v>1.2</v>
       </c>
-      <c r="D470" s="239"/>
+      <c r="D470" s="238"/>
       <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
@@ -12889,7 +12889,7 @@
       <c r="C471" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D471" s="239"/>
+      <c r="D471" s="238"/>
       <c r="E471" s="12"/>
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
@@ -12903,7 +12903,7 @@
       <c r="C472" s="6">
         <v>25</v>
       </c>
-      <c r="D472" s="239"/>
+      <c r="D472" s="238"/>
       <c r="E472" s="12"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
@@ -12917,7 +12917,7 @@
       <c r="C473" s="6">
         <v>15</v>
       </c>
-      <c r="D473" s="239"/>
+      <c r="D473" s="238"/>
       <c r="E473" s="12"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
@@ -12939,10 +12939,10 @@
     </row>
     <row r="475" spans="1:8" ht="14.35">
       <c r="A475" s="12"/>
-      <c r="B475" s="238" t="s">
+      <c r="B475" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C475" s="238"/>
+      <c r="C475" s="239"/>
       <c r="D475" s="12"/>
       <c r="E475" s="12"/>
       <c r="F475" s="12"/>
@@ -13169,7 +13169,7 @@
       <c r="C494" s="6">
         <v>560</v>
       </c>
-      <c r="D494" s="239"/>
+      <c r="D494" s="238"/>
       <c r="E494" s="13" t="s">
         <v>267</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="C495" s="6">
         <v>1.2</v>
       </c>
-      <c r="D495" s="239"/>
+      <c r="D495" s="238"/>
       <c r="E495" s="12"/>
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
@@ -13199,7 +13199,7 @@
       <c r="C496" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D496" s="239"/>
+      <c r="D496" s="238"/>
       <c r="E496" s="12"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
@@ -13213,7 +13213,7 @@
       <c r="C497" s="6">
         <v>25</v>
       </c>
-      <c r="D497" s="239"/>
+      <c r="D497" s="238"/>
       <c r="E497" s="12"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
@@ -13227,7 +13227,7 @@
       <c r="C498" s="6">
         <v>15</v>
       </c>
-      <c r="D498" s="239"/>
+      <c r="D498" s="238"/>
       <c r="E498" s="12"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="500" spans="1:8" ht="14.35">
       <c r="A500" s="12"/>
-      <c r="B500" s="238" t="s">
+      <c r="B500" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C500" s="238"/>
+      <c r="C500" s="239"/>
       <c r="D500" s="12"/>
       <c r="E500" s="12"/>
       <c r="F500" s="12"/>
@@ -13473,7 +13473,7 @@
       <c r="C519" s="6">
         <v>560</v>
       </c>
-      <c r="D519" s="239"/>
+      <c r="D519" s="238"/>
       <c r="E519" s="13" t="s">
         <v>271</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="C520" s="6">
         <v>1.2</v>
       </c>
-      <c r="D520" s="239"/>
+      <c r="D520" s="238"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
@@ -13503,7 +13503,7 @@
       <c r="C521" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D521" s="239"/>
+      <c r="D521" s="238"/>
       <c r="E521" s="12"/>
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
@@ -13517,7 +13517,7 @@
       <c r="C522" s="6">
         <v>25</v>
       </c>
-      <c r="D522" s="239"/>
+      <c r="D522" s="238"/>
       <c r="E522" s="12"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
@@ -13531,7 +13531,7 @@
       <c r="C523" s="6">
         <v>15</v>
       </c>
-      <c r="D523" s="239"/>
+      <c r="D523" s="238"/>
       <c r="E523" s="12"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="525" spans="1:8" ht="14.35">
       <c r="A525" s="12"/>
-      <c r="B525" s="238" t="s">
+      <c r="B525" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C525" s="238"/>
+      <c r="C525" s="239"/>
       <c r="D525" s="12"/>
       <c r="E525" s="12"/>
       <c r="F525" s="12"/>
@@ -13823,7 +13823,7 @@
       <c r="C547" s="6">
         <v>560</v>
       </c>
-      <c r="D547" s="239"/>
+      <c r="D547" s="238"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
@@ -13837,7 +13837,7 @@
       <c r="C548" s="6">
         <v>1.2</v>
       </c>
-      <c r="D548" s="239"/>
+      <c r="D548" s="238"/>
       <c r="E548" s="12"/>
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
@@ -13851,7 +13851,7 @@
       <c r="C549" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D549" s="239"/>
+      <c r="D549" s="238"/>
       <c r="E549" s="12"/>
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
@@ -13865,7 +13865,7 @@
       <c r="C550" s="6">
         <v>25</v>
       </c>
-      <c r="D550" s="239"/>
+      <c r="D550" s="238"/>
       <c r="E550" s="12"/>
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
@@ -13879,7 +13879,7 @@
       <c r="C551" s="6">
         <v>15</v>
       </c>
-      <c r="D551" s="239"/>
+      <c r="D551" s="238"/>
       <c r="E551" s="12"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="553" spans="1:8" ht="14.35">
       <c r="A553" s="12"/>
-      <c r="B553" s="238" t="s">
+      <c r="B553" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C553" s="238"/>
+      <c r="C553" s="239"/>
       <c r="D553" s="12"/>
       <c r="E553" s="12"/>
       <c r="F553" s="12"/>
@@ -14235,7 +14235,7 @@
       <c r="C580" s="6">
         <v>560</v>
       </c>
-      <c r="D580" s="239"/>
+      <c r="D580" s="238"/>
       <c r="E580" s="12"/>
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
@@ -14249,7 +14249,7 @@
       <c r="C581" s="6">
         <v>1.2</v>
       </c>
-      <c r="D581" s="239"/>
+      <c r="D581" s="238"/>
       <c r="E581" s="12"/>
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
@@ -14263,7 +14263,7 @@
       <c r="C582" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D582" s="239"/>
+      <c r="D582" s="238"/>
       <c r="E582" s="12"/>
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
@@ -14277,7 +14277,7 @@
       <c r="C583" s="6">
         <v>25</v>
       </c>
-      <c r="D583" s="239"/>
+      <c r="D583" s="238"/>
       <c r="E583" s="12"/>
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
@@ -14291,7 +14291,7 @@
       <c r="C584" s="6">
         <v>15</v>
       </c>
-      <c r="D584" s="239"/>
+      <c r="D584" s="238"/>
       <c r="E584" s="12"/>
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="586" spans="1:8" ht="14.35">
       <c r="A586" s="12"/>
-      <c r="B586" s="238" t="s">
+      <c r="B586" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C586" s="238"/>
+      <c r="C586" s="239"/>
       <c r="D586" s="12"/>
       <c r="E586" s="12"/>
       <c r="F586" s="12"/>
@@ -14580,7 +14580,7 @@
       <c r="C608" s="6">
         <v>560</v>
       </c>
-      <c r="D608" s="239"/>
+      <c r="D608" s="238"/>
       <c r="E608" s="12"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
@@ -14594,7 +14594,7 @@
       <c r="C609" s="6">
         <v>1.2</v>
       </c>
-      <c r="D609" s="239"/>
+      <c r="D609" s="238"/>
       <c r="E609" s="12"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
@@ -14608,7 +14608,7 @@
       <c r="C610" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D610" s="239"/>
+      <c r="D610" s="238"/>
       <c r="E610" s="12"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
@@ -14622,7 +14622,7 @@
       <c r="C611" s="6">
         <v>25</v>
       </c>
-      <c r="D611" s="239"/>
+      <c r="D611" s="238"/>
       <c r="E611" s="12"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
@@ -14636,7 +14636,7 @@
       <c r="C612" s="6">
         <v>15</v>
       </c>
-      <c r="D612" s="239"/>
+      <c r="D612" s="238"/>
       <c r="E612" s="12"/>
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
@@ -14658,10 +14658,10 @@
     </row>
     <row r="614" spans="1:8" ht="14.35">
       <c r="A614" s="12"/>
-      <c r="B614" s="238" t="s">
+      <c r="B614" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C614" s="238"/>
+      <c r="C614" s="239"/>
       <c r="D614" s="12"/>
       <c r="E614" s="12"/>
       <c r="F614" s="12"/>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="637" spans="1:8" ht="14.35">
       <c r="A637" s="12"/>
-      <c r="B637" s="238" t="s">
+      <c r="B637" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C637" s="238"/>
+      <c r="C637" s="239"/>
       <c r="D637" s="12"/>
       <c r="E637" s="12"/>
       <c r="F637" s="12"/>
@@ -15240,10 +15240,10 @@
     </row>
     <row r="660" spans="1:8" ht="14.35">
       <c r="A660" s="12"/>
-      <c r="B660" s="238" t="s">
+      <c r="B660" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C660" s="238"/>
+      <c r="C660" s="239"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="683" spans="1:8" ht="14.35">
       <c r="A683" s="12"/>
-      <c r="B683" s="238" t="s">
+      <c r="B683" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C683" s="238"/>
+      <c r="C683" s="239"/>
       <c r="D683" s="12"/>
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
@@ -15906,10 +15906,10 @@
     </row>
     <row r="711" spans="1:8" ht="14.35">
       <c r="A711" s="12"/>
-      <c r="B711" s="238" t="s">
+      <c r="B711" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C711" s="238"/>
+      <c r="C711" s="239"/>
       <c r="D711" s="12"/>
       <c r="E711" s="12"/>
       <c r="F711" s="12"/>
@@ -16154,7 +16154,7 @@
       <c r="C729" s="6">
         <v>560</v>
       </c>
-      <c r="D729" s="239"/>
+      <c r="D729" s="238"/>
       <c r="E729" s="12"/>
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
@@ -16168,7 +16168,7 @@
       <c r="C730" s="6">
         <v>1.2</v>
       </c>
-      <c r="D730" s="239"/>
+      <c r="D730" s="238"/>
       <c r="E730" s="12"/>
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
@@ -16182,7 +16182,7 @@
       <c r="C731" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D731" s="239"/>
+      <c r="D731" s="238"/>
       <c r="E731" s="12"/>
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
@@ -16196,7 +16196,7 @@
       <c r="C732" s="6">
         <v>25</v>
       </c>
-      <c r="D732" s="239"/>
+      <c r="D732" s="238"/>
       <c r="E732" s="12"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
@@ -16210,7 +16210,7 @@
       <c r="C733" s="6">
         <v>15</v>
       </c>
-      <c r="D733" s="239"/>
+      <c r="D733" s="238"/>
       <c r="E733" s="12"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="735" spans="1:8" ht="14.35">
       <c r="A735" s="12"/>
-      <c r="B735" s="238" t="s">
+      <c r="B735" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C735" s="238"/>
+      <c r="C735" s="239"/>
       <c r="D735" s="12"/>
       <c r="E735" s="12"/>
       <c r="F735" s="12"/>
@@ -16496,7 +16496,7 @@
       <c r="C756" s="6">
         <v>560</v>
       </c>
-      <c r="D756" s="239"/>
+      <c r="D756" s="238"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
@@ -16510,7 +16510,7 @@
       <c r="C757" s="6">
         <v>1.2</v>
       </c>
-      <c r="D757" s="239"/>
+      <c r="D757" s="238"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
@@ -16524,7 +16524,7 @@
       <c r="C758" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D758" s="239"/>
+      <c r="D758" s="238"/>
       <c r="E758" s="13"/>
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
@@ -16538,7 +16538,7 @@
       <c r="C759" s="6">
         <v>25</v>
       </c>
-      <c r="D759" s="239"/>
+      <c r="D759" s="238"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
@@ -16552,7 +16552,7 @@
       <c r="C760" s="6">
         <v>15</v>
       </c>
-      <c r="D760" s="239"/>
+      <c r="D760" s="238"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
@@ -16574,10 +16574,10 @@
     </row>
     <row r="762" spans="1:8" ht="14.35">
       <c r="A762" s="12"/>
-      <c r="B762" s="238" t="s">
+      <c r="B762" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C762" s="238"/>
+      <c r="C762" s="239"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
@@ -16900,10 +16900,10 @@
     </row>
     <row r="789" spans="1:8" ht="14.35">
       <c r="A789" s="12"/>
-      <c r="B789" s="238" t="s">
+      <c r="B789" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C789" s="238"/>
+      <c r="C789" s="239"/>
       <c r="D789" s="12"/>
       <c r="E789" s="12"/>
       <c r="F789" s="12"/>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="816" spans="1:8" ht="14.35">
       <c r="A816" s="12"/>
-      <c r="B816" s="238" t="s">
+      <c r="B816" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C816" s="238"/>
+      <c r="C816" s="239"/>
       <c r="D816" s="12"/>
       <c r="E816" s="12"/>
       <c r="F816" s="12"/>
@@ -17520,7 +17520,7 @@
       <c r="C839" s="20">
         <v>560</v>
       </c>
-      <c r="D839" s="239"/>
+      <c r="D839" s="238"/>
       <c r="E839" s="13"/>
       <c r="F839" s="12"/>
       <c r="G839" s="12"/>
@@ -17534,7 +17534,7 @@
       <c r="C840" s="6">
         <v>1.2</v>
       </c>
-      <c r="D840" s="239"/>
+      <c r="D840" s="238"/>
       <c r="E840" s="12"/>
       <c r="F840" s="12"/>
       <c r="G840" s="12"/>
@@ -17548,7 +17548,7 @@
       <c r="C841" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D841" s="239"/>
+      <c r="D841" s="238"/>
       <c r="E841" s="12"/>
       <c r="F841" s="12"/>
       <c r="G841" s="12"/>
@@ -17562,7 +17562,7 @@
       <c r="C842" s="6">
         <v>25</v>
       </c>
-      <c r="D842" s="239"/>
+      <c r="D842" s="238"/>
       <c r="E842" s="12"/>
       <c r="F842" s="12"/>
       <c r="G842" s="12"/>
@@ -17576,7 +17576,7 @@
       <c r="C843" s="6">
         <v>15</v>
       </c>
-      <c r="D843" s="239"/>
+      <c r="D843" s="238"/>
       <c r="E843" s="12"/>
       <c r="F843" s="12"/>
       <c r="G843" s="12"/>
@@ -17590,7 +17590,7 @@
       <c r="C844" s="6">
         <v>10</v>
       </c>
-      <c r="D844" s="239"/>
+      <c r="D844" s="238"/>
       <c r="E844" s="12"/>
       <c r="F844" s="12"/>
       <c r="G844" s="12"/>
@@ -17598,10 +17598,10 @@
     </row>
     <row r="845" spans="1:8" ht="14.35">
       <c r="A845" s="12"/>
-      <c r="B845" s="238" t="s">
+      <c r="B845" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C845" s="238"/>
+      <c r="C845" s="239"/>
       <c r="D845" s="12"/>
       <c r="E845" s="12"/>
       <c r="F845" s="12"/>
@@ -17979,10 +17979,10 @@
       <c r="H875" s="12"/>
     </row>
     <row r="876" spans="2:8" ht="14.35">
-      <c r="B876" s="238" t="s">
+      <c r="B876" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C876" s="238"/>
+      <c r="C876" s="239"/>
       <c r="D876" s="12"/>
       <c r="E876" s="12"/>
       <c r="F876" s="12"/>
@@ -18335,10 +18335,10 @@
       <c r="H906" s="12"/>
     </row>
     <row r="907" spans="2:8" ht="14.35">
-      <c r="B907" s="238" t="s">
+      <c r="B907" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C907" s="238"/>
+      <c r="C907" s="239"/>
       <c r="D907" s="12"/>
       <c r="E907" s="12"/>
       <c r="F907" s="12"/>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="931" spans="1:8" ht="14.35">
       <c r="A931" s="12"/>
-      <c r="B931" s="238" t="s">
+      <c r="B931" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C931" s="238"/>
+      <c r="C931" s="239"/>
       <c r="D931" s="12"/>
       <c r="E931" s="12"/>
       <c r="F931" s="12"/>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="958" spans="1:8" ht="14.35">
       <c r="A958" s="12"/>
-      <c r="B958" s="238" t="s">
+      <c r="B958" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C958" s="238"/>
+      <c r="C958" s="239"/>
       <c r="D958" s="12"/>
       <c r="E958" s="12"/>
       <c r="F958" s="12"/>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="981" spans="1:8" ht="14.35">
       <c r="A981" s="12"/>
-      <c r="B981" s="238" t="s">
+      <c r="B981" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C981" s="238"/>
+      <c r="C981" s="239"/>
       <c r="D981" s="12"/>
       <c r="E981" s="12"/>
       <c r="F981" s="12"/>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="1005" spans="1:8" ht="14.35">
       <c r="A1005" s="12"/>
-      <c r="B1005" s="238" t="s">
+      <c r="B1005" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1005" s="238"/>
+      <c r="C1005" s="239"/>
       <c r="D1005" s="12"/>
       <c r="E1005" s="12"/>
       <c r="F1005" s="12"/>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="1024" spans="1:8" ht="14.35">
       <c r="A1024" s="12"/>
-      <c r="B1024" s="238" t="s">
+      <c r="B1024" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1024" s="238"/>
+      <c r="C1024" s="239"/>
       <c r="F1024" s="12"/>
       <c r="G1024" s="12"/>
       <c r="H1024" s="12"/>
@@ -19976,7 +19976,7 @@
       <c r="C1042" s="6">
         <v>560</v>
       </c>
-      <c r="D1042" s="239"/>
+      <c r="D1042" s="238"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
       <c r="G1042" s="12"/>
@@ -19990,7 +19990,7 @@
       <c r="C1043" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1043" s="239"/>
+      <c r="D1043" s="238"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
       <c r="G1043" s="12"/>
@@ -20004,7 +20004,7 @@
       <c r="C1044" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1044" s="239"/>
+      <c r="D1044" s="238"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
       <c r="G1044" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="C1045" s="6">
         <v>25</v>
       </c>
-      <c r="D1045" s="239"/>
+      <c r="D1045" s="238"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
       <c r="G1045" s="12"/>
@@ -20032,7 +20032,7 @@
       <c r="C1046" s="6">
         <v>15</v>
       </c>
-      <c r="D1046" s="239"/>
+      <c r="D1046" s="238"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
       <c r="G1046" s="12"/>
@@ -20054,10 +20054,10 @@
     </row>
     <row r="1048" spans="1:8" ht="14.35">
       <c r="A1048" s="12"/>
-      <c r="B1048" s="238" t="s">
+      <c r="B1048" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1048" s="238"/>
+      <c r="C1048" s="239"/>
       <c r="D1048" s="12"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -20320,10 +20320,10 @@
     </row>
     <row r="1070" spans="1:8" ht="14.35">
       <c r="A1070" s="12"/>
-      <c r="B1070" s="238" t="s">
+      <c r="B1070" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1070" s="238"/>
+      <c r="C1070" s="239"/>
       <c r="D1070" s="12"/>
       <c r="E1070" s="12"/>
       <c r="F1070" s="12"/>
@@ -20568,7 +20568,7 @@
       <c r="C1089" s="6">
         <v>560</v>
       </c>
-      <c r="D1089" s="239"/>
+      <c r="D1089" s="238"/>
       <c r="E1089" s="12"/>
       <c r="F1089" s="12"/>
       <c r="G1089" s="12"/>
@@ -20581,7 +20581,7 @@
       <c r="C1090" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1090" s="239"/>
+      <c r="D1090" s="238"/>
       <c r="E1090" s="12"/>
       <c r="F1090" s="12"/>
       <c r="G1090" s="12"/>
@@ -20594,7 +20594,7 @@
       <c r="C1091" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1091" s="239"/>
+      <c r="D1091" s="238"/>
       <c r="E1091" s="12"/>
       <c r="F1091" s="12"/>
       <c r="G1091" s="12"/>
@@ -20607,7 +20607,7 @@
       <c r="C1092" s="6">
         <v>25</v>
       </c>
-      <c r="D1092" s="239"/>
+      <c r="D1092" s="238"/>
       <c r="E1092" s="12"/>
       <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
@@ -20620,7 +20620,7 @@
       <c r="C1093" s="6">
         <v>15</v>
       </c>
-      <c r="D1093" s="239"/>
+      <c r="D1093" s="238"/>
       <c r="E1093" s="12"/>
       <c r="F1093" s="12"/>
       <c r="G1093" s="12"/>
@@ -20640,10 +20640,10 @@
       <c r="H1094" s="12"/>
     </row>
     <row r="1095" spans="2:8" ht="14.35">
-      <c r="B1095" s="238" t="s">
+      <c r="B1095" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1095" s="238"/>
+      <c r="C1095" s="239"/>
       <c r="D1095" s="12"/>
       <c r="E1095" s="12"/>
       <c r="F1095" s="12"/>
@@ -20919,7 +20919,7 @@
       <c r="C1120" s="6">
         <v>560</v>
       </c>
-      <c r="D1120" s="239"/>
+      <c r="D1120" s="238"/>
       <c r="E1120" s="12"/>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -20932,7 +20932,7 @@
       <c r="C1121" s="6">
         <v>1.2</v>
       </c>
-      <c r="D1121" s="239"/>
+      <c r="D1121" s="238"/>
       <c r="E1121" s="12"/>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -20945,7 +20945,7 @@
       <c r="C1122" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D1122" s="239"/>
+      <c r="D1122" s="238"/>
       <c r="E1122" s="12"/>
       <c r="F1122" s="12"/>
       <c r="G1122" s="12"/>
@@ -20958,7 +20958,7 @@
       <c r="C1123" s="6">
         <v>25</v>
       </c>
-      <c r="D1123" s="239"/>
+      <c r="D1123" s="238"/>
       <c r="E1123" s="12"/>
       <c r="F1123" s="12"/>
       <c r="G1123" s="12"/>
@@ -20971,7 +20971,7 @@
       <c r="C1124" s="6">
         <v>15</v>
       </c>
-      <c r="D1124" s="239"/>
+      <c r="D1124" s="238"/>
       <c r="E1124" s="12"/>
       <c r="F1124" s="12"/>
       <c r="G1124" s="12"/>
@@ -20993,10 +20993,10 @@
     </row>
     <row r="1126" spans="1:8" ht="14.35">
       <c r="A1126" s="12"/>
-      <c r="B1126" s="238" t="s">
+      <c r="B1126" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1126" s="238"/>
+      <c r="C1126" s="239"/>
       <c r="D1126" s="12"/>
       <c r="E1126" s="12"/>
       <c r="F1126" s="12"/>
@@ -21356,10 +21356,10 @@
     </row>
     <row r="1155" spans="1:8" ht="14.35">
       <c r="A1155" s="12"/>
-      <c r="B1155" s="238" t="s">
+      <c r="B1155" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1155" s="238"/>
+      <c r="C1155" s="239"/>
       <c r="D1155" s="12"/>
       <c r="E1155" s="12"/>
       <c r="F1155" s="12"/>
@@ -21468,77 +21468,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D179:D184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D242:D246"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D278:D282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D327:D331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="D349:D353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D383:D387"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D418:D422"/>
-    <mergeCell ref="B424:C424"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="D469:D473"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D494:D498"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="D519:D523"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D547:D551"/>
-    <mergeCell ref="B553:C553"/>
-    <mergeCell ref="D580:D584"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D608:D612"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="B683:C683"/>
-    <mergeCell ref="B711:C711"/>
-    <mergeCell ref="D729:D733"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D756:D760"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="B816:C816"/>
-    <mergeCell ref="D839:D844"/>
-    <mergeCell ref="B845:C845"/>
-    <mergeCell ref="B876:C876"/>
-    <mergeCell ref="B907:C907"/>
-    <mergeCell ref="B931:C931"/>
-    <mergeCell ref="B958:C958"/>
-    <mergeCell ref="B981:C981"/>
-    <mergeCell ref="B1005:C1005"/>
-    <mergeCell ref="B1024:C1024"/>
-    <mergeCell ref="D1042:D1046"/>
-    <mergeCell ref="B1048:C1048"/>
     <mergeCell ref="B1155:C1155"/>
     <mergeCell ref="B1070:C1070"/>
     <mergeCell ref="D1089:D1093"/>
     <mergeCell ref="B1095:C1095"/>
     <mergeCell ref="D1120:D1124"/>
     <mergeCell ref="B1126:C1126"/>
+    <mergeCell ref="B981:C981"/>
+    <mergeCell ref="B1005:C1005"/>
+    <mergeCell ref="B1024:C1024"/>
+    <mergeCell ref="D1042:D1046"/>
+    <mergeCell ref="B1048:C1048"/>
+    <mergeCell ref="B845:C845"/>
+    <mergeCell ref="B876:C876"/>
+    <mergeCell ref="B907:C907"/>
+    <mergeCell ref="B931:C931"/>
+    <mergeCell ref="B958:C958"/>
+    <mergeCell ref="D756:D760"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="B816:C816"/>
+    <mergeCell ref="D839:D844"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="B683:C683"/>
+    <mergeCell ref="B711:C711"/>
+    <mergeCell ref="D729:D733"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D580:D584"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D608:D612"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="D519:D523"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D547:D551"/>
+    <mergeCell ref="B553:C553"/>
+    <mergeCell ref="B424:C424"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="D469:D473"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D494:D498"/>
+    <mergeCell ref="D349:D353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D383:D387"/>
+    <mergeCell ref="B389:C389"/>
+    <mergeCell ref="D418:D422"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D327:D331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D278:D282"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D179:D184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D71:D75"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -21913,10 +21913,10 @@
     </row>
     <row r="21" spans="1:11" ht="14.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="238"/>
+      <c r="C21" s="239"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -22225,7 +22225,7 @@
       <c r="C43" s="20">
         <v>560</v>
       </c>
-      <c r="D43" s="242"/>
+      <c r="D43" s="241"/>
       <c r="E43" s="19"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -22240,7 +22240,7 @@
       <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="242"/>
+      <c r="D44" s="241"/>
       <c r="E44" s="19"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -22255,7 +22255,7 @@
       <c r="C45" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="241"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -22270,7 +22270,7 @@
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="242"/>
+      <c r="D46" s="241"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -22285,7 +22285,7 @@
       <c r="C47" s="6">
         <v>15</v>
       </c>
-      <c r="D47" s="242"/>
+      <c r="D47" s="241"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -22300,7 +22300,7 @@
       <c r="C48" s="6">
         <v>10</v>
       </c>
-      <c r="D48" s="242"/>
+      <c r="D48" s="241"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -22309,10 +22309,10 @@
     </row>
     <row r="49" spans="1:11" ht="14.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="238" t="s">
+      <c r="B49" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="238"/>
+      <c r="C49" s="239"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -22587,10 +22587,10 @@
       <c r="D68" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="244" t="s">
+      <c r="E68" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="244"/>
+      <c r="F68" s="242"/>
       <c r="G68" s="4"/>
       <c r="H68" s="75"/>
       <c r="K68" s="70"/>
@@ -22692,7 +22692,7 @@
       <c r="C74" s="6">
         <v>560</v>
       </c>
-      <c r="D74" s="242"/>
+      <c r="D74" s="241"/>
       <c r="E74" s="86">
         <v>1</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="C75" s="6">
         <v>1.2</v>
       </c>
-      <c r="D75" s="242"/>
+      <c r="D75" s="241"/>
       <c r="E75" s="13" t="s">
         <v>484</v>
       </c>
@@ -22726,7 +22726,7 @@
       <c r="C76" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D76" s="242"/>
+      <c r="D76" s="241"/>
       <c r="E76" s="13" t="s">
         <v>485</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="C77" s="6">
         <v>25</v>
       </c>
-      <c r="D77" s="242"/>
+      <c r="D77" s="241"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -22757,7 +22757,7 @@
       <c r="C78" s="3">
         <v>15</v>
       </c>
-      <c r="D78" s="242"/>
+      <c r="D78" s="241"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -22781,10 +22781,10 @@
     </row>
     <row r="80" spans="1:11" ht="14.35">
       <c r="A80" s="12"/>
-      <c r="B80" s="238" t="s">
+      <c r="B80" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="238"/>
+      <c r="C80" s="239"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="107" spans="1:11" ht="14.35">
       <c r="A107" s="12"/>
-      <c r="B107" s="241" t="s">
+      <c r="B107" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C107" s="241"/>
+      <c r="C107" s="243"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -23607,10 +23607,10 @@
     </row>
     <row r="137" spans="1:11" ht="14.35">
       <c r="A137" s="12"/>
-      <c r="B137" s="238" t="s">
+      <c r="B137" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C137" s="238"/>
+      <c r="C137" s="239"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -23981,10 +23981,10 @@
     </row>
     <row r="167" spans="1:11" ht="14.35">
       <c r="A167" s="12"/>
-      <c r="B167" s="238" t="s">
+      <c r="B167" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C167" s="238"/>
+      <c r="C167" s="239"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="H167" s="70"/>
@@ -24247,10 +24247,10 @@
     </row>
     <row r="189" spans="1:11" ht="14.35">
       <c r="A189" s="12"/>
-      <c r="B189" s="238" t="s">
+      <c r="B189" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C189" s="238"/>
+      <c r="C189" s="239"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -24563,10 +24563,10 @@
     </row>
     <row r="212" spans="1:11" ht="14.35">
       <c r="A212" s="12"/>
-      <c r="B212" s="238" t="s">
+      <c r="B212" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C212" s="238"/>
+      <c r="C212" s="239"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
@@ -25102,10 +25102,10 @@
     </row>
     <row r="249" spans="1:11" ht="14.35">
       <c r="A249" s="12"/>
-      <c r="B249" s="238" t="s">
+      <c r="B249" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C249" s="238"/>
+      <c r="C249" s="239"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -25591,7 +25591,7 @@
       <c r="C285" s="6">
         <v>560</v>
       </c>
-      <c r="D285" s="242"/>
+      <c r="D285" s="241"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
@@ -25606,7 +25606,7 @@
       <c r="C286" s="6">
         <v>1.2</v>
       </c>
-      <c r="D286" s="242"/>
+      <c r="D286" s="241"/>
       <c r="E286" s="12"/>
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
@@ -25621,7 +25621,7 @@
       <c r="C287" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D287" s="242"/>
+      <c r="D287" s="241"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
@@ -25636,7 +25636,7 @@
       <c r="C288" s="6">
         <v>25</v>
       </c>
-      <c r="D288" s="242"/>
+      <c r="D288" s="241"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
@@ -25651,7 +25651,7 @@
       <c r="C289" s="6">
         <v>15</v>
       </c>
-      <c r="D289" s="242"/>
+      <c r="D289" s="241"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
@@ -25675,10 +25675,10 @@
     </row>
     <row r="291" spans="1:11" ht="14.35">
       <c r="A291" s="12"/>
-      <c r="B291" s="243" t="s">
+      <c r="B291" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="C291" s="243"/>
+      <c r="C291" s="244"/>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -25959,7 +25959,7 @@
       <c r="C314" s="6">
         <v>560</v>
       </c>
-      <c r="D314" s="242"/>
+      <c r="D314" s="241"/>
       <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
@@ -25974,7 +25974,7 @@
       <c r="C315" s="6">
         <v>1.2</v>
       </c>
-      <c r="D315" s="242"/>
+      <c r="D315" s="241"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
@@ -25989,7 +25989,7 @@
       <c r="C316" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D316" s="242"/>
+      <c r="D316" s="241"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -26004,7 +26004,7 @@
       <c r="C317" s="6">
         <v>25</v>
       </c>
-      <c r="D317" s="242"/>
+      <c r="D317" s="241"/>
       <c r="E317" s="12"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -26019,7 +26019,7 @@
       <c r="C318" s="6">
         <v>15</v>
       </c>
-      <c r="D318" s="242"/>
+      <c r="D318" s="241"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
@@ -26043,10 +26043,10 @@
     </row>
     <row r="320" spans="1:11" ht="14.35">
       <c r="A320" s="12"/>
-      <c r="B320" s="238" t="s">
+      <c r="B320" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C320" s="238"/>
+      <c r="C320" s="239"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
       <c r="F320" s="12"/>
@@ -26279,7 +26279,7 @@
       <c r="C339" s="6">
         <v>560</v>
       </c>
-      <c r="D339" s="242"/>
+      <c r="D339" s="241"/>
       <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
@@ -26294,7 +26294,7 @@
       <c r="C340" s="6">
         <v>1.2</v>
       </c>
-      <c r="D340" s="242"/>
+      <c r="D340" s="241"/>
       <c r="E340" s="12"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
@@ -26309,7 +26309,7 @@
       <c r="C341" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D341" s="242"/>
+      <c r="D341" s="241"/>
       <c r="E341" s="12"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
@@ -26324,7 +26324,7 @@
       <c r="C342" s="6">
         <v>25</v>
       </c>
-      <c r="D342" s="242"/>
+      <c r="D342" s="241"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
@@ -26339,7 +26339,7 @@
       <c r="C343" s="6">
         <v>15</v>
       </c>
-      <c r="D343" s="242"/>
+      <c r="D343" s="241"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
@@ -26363,10 +26363,10 @@
     </row>
     <row r="345" spans="1:11" ht="14.35">
       <c r="A345" s="12"/>
-      <c r="B345" s="238" t="s">
+      <c r="B345" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C345" s="238"/>
+      <c r="C345" s="239"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
       <c r="F345" s="12"/>
@@ -26603,7 +26603,7 @@
       <c r="C363" s="6">
         <v>560</v>
       </c>
-      <c r="D363" s="242"/>
+      <c r="D363" s="241"/>
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
       <c r="H363" s="75"/>
@@ -26617,7 +26617,7 @@
       <c r="C364" s="6">
         <v>1.2</v>
       </c>
-      <c r="D364" s="242"/>
+      <c r="D364" s="241"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
       <c r="H364" s="75"/>
@@ -26631,7 +26631,7 @@
       <c r="C365" s="6">
         <v>0.23649999999999999</v>
       </c>
-      <c r="D365" s="242"/>
+      <c r="D365" s="241"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="75"/>
@@ -26645,7 +26645,7 @@
       <c r="C366" s="6">
         <v>25</v>
       </c>
-      <c r="D366" s="242"/>
+      <c r="D366" s="241"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
       <c r="H366" s="75"/>
@@ -26659,7 +26659,7 @@
       <c r="C367" s="6">
         <v>15</v>
       </c>
-      <c r="D367" s="242"/>
+      <c r="D367" s="241"/>
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="75"/>
@@ -26681,10 +26681,10 @@
     </row>
     <row r="369" spans="1:11" ht="14.35">
       <c r="A369" s="12"/>
-      <c r="B369" s="238" t="s">
+      <c r="B369" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C369" s="238"/>
+      <c r="C369" s="239"/>
       <c r="D369" s="12"/>
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
@@ -27141,10 +27141,10 @@
     </row>
     <row r="403" spans="1:11" ht="14.35">
       <c r="A403" s="12"/>
-      <c r="B403" s="238" t="s">
+      <c r="B403" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C403" s="238"/>
+      <c r="C403" s="239"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="439" spans="1:11" ht="14.35">
       <c r="A439" s="12"/>
-      <c r="B439" s="238" t="s">
+      <c r="B439" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C439" s="238"/>
+      <c r="C439" s="239"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
       <c r="F439" s="12"/>
@@ -28017,10 +28017,10 @@
     </row>
     <row r="467" spans="1:11" ht="14.35">
       <c r="A467" s="12"/>
-      <c r="B467" s="238" t="s">
+      <c r="B467" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C467" s="238"/>
+      <c r="C467" s="239"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
       <c r="F467" s="12"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="493" spans="1:11" ht="14.35">
       <c r="A493" s="12"/>
-      <c r="B493" s="238" t="s">
+      <c r="B493" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C493" s="238"/>
+      <c r="C493" s="239"/>
       <c r="D493" s="12"/>
       <c r="E493" s="12"/>
       <c r="F493" s="12"/>
@@ -28711,10 +28711,10 @@
     </row>
     <row r="520" spans="1:11" ht="14.35">
       <c r="A520" s="12"/>
-      <c r="B520" s="238" t="s">
+      <c r="B520" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C520" s="238"/>
+      <c r="C520" s="239"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
       <c r="F520" s="12"/>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="547" spans="1:11" ht="14.35">
       <c r="A547" s="12"/>
-      <c r="B547" s="238" t="s">
+      <c r="B547" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C547" s="238"/>
+      <c r="C547" s="239"/>
       <c r="D547" s="19"/>
       <c r="E547" s="12"/>
       <c r="F547" s="12"/>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="577" spans="1:11" ht="14.35">
       <c r="A577" s="12"/>
-      <c r="B577" s="238" t="s">
+      <c r="B577" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C577" s="238"/>
+      <c r="C577" s="239"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
       <c r="F577" s="12"/>
@@ -29947,10 +29947,10 @@
     </row>
     <row r="612" spans="1:11" ht="14.35">
       <c r="A612" s="12"/>
-      <c r="B612" s="238" t="s">
+      <c r="B612" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C612" s="238"/>
+      <c r="C612" s="239"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13" t="s">
         <v>498</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="641" spans="1:11" ht="14.35">
       <c r="A641" s="12"/>
-      <c r="B641" s="238" t="s">
+      <c r="B641" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C641" s="238"/>
+      <c r="C641" s="239"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
@@ -30663,10 +30663,10 @@
     </row>
     <row r="665" spans="1:11" ht="14.35">
       <c r="A665" s="12"/>
-      <c r="B665" s="241" t="s">
+      <c r="B665" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C665" s="241"/>
+      <c r="C665" s="243"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
@@ -31021,10 +31021,10 @@
     </row>
     <row r="691" spans="1:11" ht="14.35">
       <c r="A691" s="12"/>
-      <c r="B691" s="238" t="s">
+      <c r="B691" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C691" s="238"/>
+      <c r="C691" s="239"/>
       <c r="D691" s="12"/>
       <c r="E691" s="12"/>
       <c r="F691" s="12"/>
@@ -31357,10 +31357,10 @@
     </row>
     <row r="715" spans="1:11" ht="14.35">
       <c r="A715" s="12"/>
-      <c r="B715" s="238" t="s">
+      <c r="B715" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C715" s="238"/>
+      <c r="C715" s="239"/>
       <c r="D715" s="12"/>
       <c r="E715" s="12"/>
       <c r="F715" s="12"/>
@@ -31750,10 +31750,10 @@
     </row>
     <row r="744" spans="1:11" ht="14.35">
       <c r="A744" s="12"/>
-      <c r="B744" s="238" t="s">
+      <c r="B744" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C744" s="238"/>
+      <c r="C744" s="239"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
@@ -32129,10 +32129,10 @@
     </row>
     <row r="771" spans="1:11" ht="14.35">
       <c r="A771" s="12"/>
-      <c r="B771" s="238" t="s">
+      <c r="B771" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C771" s="238"/>
+      <c r="C771" s="239"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
@@ -32515,10 +32515,10 @@
     </row>
     <row r="800" spans="1:11" ht="14.35">
       <c r="A800" s="12"/>
-      <c r="B800" s="238" t="s">
+      <c r="B800" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C800" s="238"/>
+      <c r="C800" s="239"/>
       <c r="D800" s="12"/>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
@@ -32897,10 +32897,10 @@
     </row>
     <row r="829" spans="1:11" ht="14.35">
       <c r="A829" s="12"/>
-      <c r="B829" s="238" t="s">
+      <c r="B829" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C829" s="238"/>
+      <c r="C829" s="239"/>
       <c r="D829" s="12"/>
       <c r="E829" s="12"/>
       <c r="F829" s="12"/>
@@ -33278,10 +33278,10 @@
     </row>
     <row r="858" spans="1:11" ht="14.35">
       <c r="A858" s="12"/>
-      <c r="B858" s="238" t="s">
+      <c r="B858" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C858" s="238"/>
+      <c r="C858" s="239"/>
       <c r="D858" s="12"/>
       <c r="E858" s="12"/>
       <c r="F858" s="12"/>
@@ -33692,10 +33692,10 @@
     </row>
     <row r="890" spans="1:11" ht="14.35">
       <c r="A890" s="12"/>
-      <c r="B890" s="238" t="s">
+      <c r="B890" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C890" s="238"/>
+      <c r="C890" s="239"/>
       <c r="D890" s="19"/>
       <c r="E890" s="12"/>
       <c r="F890" s="12"/>
@@ -34104,10 +34104,10 @@
       <c r="K921" s="70"/>
     </row>
     <row r="922" spans="2:11" ht="14.35">
-      <c r="B922" s="238" t="s">
+      <c r="B922" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C922" s="238"/>
+      <c r="C922" s="239"/>
       <c r="D922" s="12"/>
       <c r="E922" s="12"/>
       <c r="F922" s="12"/>
@@ -34495,10 +34495,10 @@
       <c r="K953" s="70"/>
     </row>
     <row r="954" spans="2:11" ht="14.35">
-      <c r="B954" s="238" t="s">
+      <c r="B954" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C954" s="238"/>
+      <c r="C954" s="239"/>
       <c r="D954" s="12"/>
       <c r="E954" s="12"/>
       <c r="F954" s="12"/>
@@ -34810,10 +34810,10 @@
     </row>
     <row r="980" spans="1:11" ht="14.35">
       <c r="A980" s="12"/>
-      <c r="B980" s="238" t="s">
+      <c r="B980" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C980" s="238"/>
+      <c r="C980" s="239"/>
       <c r="D980" s="12"/>
       <c r="E980" s="12"/>
       <c r="F980" s="12"/>
@@ -35201,10 +35201,10 @@
     </row>
     <row r="1009" spans="1:11" ht="14.35">
       <c r="A1009" s="12"/>
-      <c r="B1009" s="238" t="s">
+      <c r="B1009" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1009" s="238"/>
+      <c r="C1009" s="239"/>
       <c r="D1009" s="12"/>
       <c r="E1009" s="12"/>
       <c r="F1009" s="12"/>
@@ -35548,10 +35548,10 @@
     </row>
     <row r="1034" spans="1:11" ht="14.35">
       <c r="A1034" s="12"/>
-      <c r="B1034" s="238" t="s">
+      <c r="B1034" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1034" s="238"/>
+      <c r="C1034" s="239"/>
       <c r="D1034" s="12"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="1059" spans="1:11" ht="14.35">
       <c r="A1059" s="12"/>
-      <c r="B1059" s="238" t="s">
+      <c r="B1059" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1059" s="238"/>
+      <c r="C1059" s="239"/>
       <c r="D1059" s="12"/>
       <c r="E1059" s="12"/>
       <c r="F1059" s="12"/>
@@ -36120,10 +36120,10 @@
     </row>
     <row r="1080" spans="1:11" ht="14.35">
       <c r="A1080" s="12"/>
-      <c r="B1080" s="238" t="s">
+      <c r="B1080" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1080" s="238"/>
+      <c r="C1080" s="239"/>
       <c r="F1080" s="12"/>
       <c r="G1080" s="12"/>
       <c r="H1080" s="75"/>
@@ -36475,10 +36475,10 @@
     </row>
     <row r="1107" spans="1:11" ht="14.35">
       <c r="A1107" s="12"/>
-      <c r="B1107" s="238" t="s">
+      <c r="B1107" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1107" s="238"/>
+      <c r="C1107" s="239"/>
       <c r="D1107" s="12"/>
       <c r="E1107" s="12"/>
       <c r="F1107" s="12"/>
@@ -36785,10 +36785,10 @@
     </row>
     <row r="1131" spans="1:11" ht="14.35">
       <c r="A1131" s="12"/>
-      <c r="B1131" s="238" t="s">
+      <c r="B1131" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1131" s="238"/>
+      <c r="C1131" s="239"/>
       <c r="D1131" s="12"/>
       <c r="E1131" s="12"/>
       <c r="F1131" s="12"/>
@@ -37146,10 +37146,10 @@
       <c r="K1157" s="70"/>
     </row>
     <row r="1158" spans="2:11" ht="14.35">
-      <c r="B1158" s="238" t="s">
+      <c r="B1158" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1158" s="238"/>
+      <c r="C1158" s="239"/>
       <c r="D1158" s="12"/>
       <c r="E1158" s="12"/>
       <c r="F1158" s="12"/>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="1190" spans="1:11" ht="14.35">
       <c r="A1190" s="12"/>
-      <c r="B1190" s="238" t="s">
+      <c r="B1190" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1190" s="238"/>
+      <c r="C1190" s="239"/>
       <c r="D1190" s="12"/>
       <c r="E1190" s="12"/>
       <c r="F1190" s="12"/>
@@ -37995,10 +37995,10 @@
     </row>
     <row r="1223" spans="1:11" ht="14.35">
       <c r="A1223" s="12"/>
-      <c r="B1223" s="238" t="s">
+      <c r="B1223" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="C1223" s="238"/>
+      <c r="C1223" s="239"/>
       <c r="D1223" s="12"/>
       <c r="E1223" s="12"/>
       <c r="F1223" s="12"/>
@@ -38142,51 +38142,6 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D314:D318"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="D339:D343"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D363:D367"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="B493:C493"/>
-    <mergeCell ref="B520:C520"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B577:C577"/>
-    <mergeCell ref="B612:C612"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="B665:C665"/>
-    <mergeCell ref="B691:C691"/>
-    <mergeCell ref="B715:C715"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="B800:C800"/>
-    <mergeCell ref="B829:C829"/>
-    <mergeCell ref="B858:C858"/>
-    <mergeCell ref="B890:C890"/>
-    <mergeCell ref="B922:C922"/>
-    <mergeCell ref="B954:C954"/>
-    <mergeCell ref="B980:C980"/>
-    <mergeCell ref="B1009:C1009"/>
     <mergeCell ref="B1158:C1158"/>
     <mergeCell ref="B1190:C1190"/>
     <mergeCell ref="B1223:C1223"/>
@@ -38195,6 +38150,51 @@
     <mergeCell ref="B1080:C1080"/>
     <mergeCell ref="B1107:C1107"/>
     <mergeCell ref="B1131:C1131"/>
+    <mergeCell ref="B890:C890"/>
+    <mergeCell ref="B922:C922"/>
+    <mergeCell ref="B954:C954"/>
+    <mergeCell ref="B980:C980"/>
+    <mergeCell ref="B1009:C1009"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="B800:C800"/>
+    <mergeCell ref="B829:C829"/>
+    <mergeCell ref="B858:C858"/>
+    <mergeCell ref="B612:C612"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="B665:C665"/>
+    <mergeCell ref="B691:C691"/>
+    <mergeCell ref="B715:C715"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="B493:C493"/>
+    <mergeCell ref="B520:C520"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B577:C577"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="D363:D367"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D314:D318"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D339:D343"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D74:D78"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -38265,10 +38265,10 @@
       <c r="D2" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="254" t="s">
+      <c r="E2" s="245" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="254"/>
+      <c r="F2" s="245"/>
       <c r="G2" s="1" t="s">
         <v>525</v>
       </c>
@@ -38301,71 +38301,71 @@
       <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="246" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="251" t="s">
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="251"/>
-      <c r="V3" s="251"/>
-      <c r="W3" s="251"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
     </row>
     <row r="4" spans="1:23" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="256" t="s">
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="250" t="s">
         <v>534</v>
       </c>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="248" t="s">
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
+      <c r="K4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248" t="s">
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248" t="s">
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="257" t="s">
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="251" t="s">
         <v>538</v>
       </c>
-      <c r="U4" s="257"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
     </row>
     <row r="5" spans="1:23" ht="15.35">
       <c r="A5" s="137"/>
@@ -38423,7 +38423,7 @@
       <c r="S5" s="151" t="s">
         <v>541</v>
       </c>
-      <c r="T5" s="245" t="s">
+      <c r="T5" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U5" s="136" t="s">
@@ -38468,7 +38468,7 @@
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
       <c r="S6" s="162"/>
-      <c r="T6" s="245"/>
+      <c r="T6" s="252"/>
       <c r="U6" s="136" t="s">
         <v>548</v>
       </c>
@@ -38915,73 +38915,73 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="13.7">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="246" t="s">
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
+      <c r="N23" s="253"/>
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="253"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="253"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
     </row>
     <row r="24" spans="1:23" ht="12.85" customHeight="1">
       <c r="A24" s="145">
         <v>2</v>
       </c>
-      <c r="B24" s="247" t="s">
+      <c r="B24" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="248" t="s">
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F24" s="248"/>
-      <c r="G24" s="248"/>
-      <c r="H24" s="249" t="s">
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="254" t="s">
         <v>534</v>
       </c>
-      <c r="I24" s="249"/>
-      <c r="J24" s="249"/>
-      <c r="K24" s="248" t="s">
+      <c r="I24" s="254"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="248" t="s">
+      <c r="L24" s="249"/>
+      <c r="M24" s="249"/>
+      <c r="N24" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O24" s="248"/>
-      <c r="P24" s="248"/>
-      <c r="Q24" s="248" t="s">
+      <c r="O24" s="249"/>
+      <c r="P24" s="249"/>
+      <c r="Q24" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R24" s="248"/>
-      <c r="S24" s="248"/>
-      <c r="T24" s="250" t="s">
+      <c r="R24" s="249"/>
+      <c r="S24" s="249"/>
+      <c r="T24" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U24" s="250"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="250"/>
+      <c r="U24" s="255"/>
+      <c r="V24" s="255"/>
+      <c r="W24" s="255"/>
     </row>
     <row r="25" spans="1:23" ht="15.35">
       <c r="A25" s="180"/>
@@ -39039,7 +39039,7 @@
       <c r="S25" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T25" s="245" t="s">
+      <c r="T25" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U25" s="136" t="s">
@@ -39084,7 +39084,7 @@
       <c r="Q26" s="165"/>
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
-      <c r="T26" s="245"/>
+      <c r="T26" s="252"/>
       <c r="U26" s="136" t="s">
         <v>548</v>
       </c>
@@ -39348,73 +39348,73 @@
       <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:23" ht="13.7">
-      <c r="B44" s="246" t="s">
+      <c r="B44" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="246"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="246"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="246" t="s">
+      <c r="C44" s="253"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="253"/>
+      <c r="G44" s="253"/>
+      <c r="H44" s="253"/>
+      <c r="I44" s="253"/>
+      <c r="J44" s="253"/>
+      <c r="K44" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
-      <c r="N44" s="246"/>
-      <c r="O44" s="246"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="246"/>
-      <c r="T44" s="246"/>
-      <c r="U44" s="246"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="253"/>
+      <c r="N44" s="253"/>
+      <c r="O44" s="253"/>
+      <c r="P44" s="253"/>
+      <c r="Q44" s="253"/>
+      <c r="R44" s="253"/>
+      <c r="S44" s="253"/>
+      <c r="T44" s="253"/>
+      <c r="U44" s="253"/>
+      <c r="V44" s="253"/>
+      <c r="W44" s="253"/>
     </row>
     <row r="45" spans="1:23" ht="12.85" customHeight="1">
       <c r="A45" s="145">
         <v>3</v>
       </c>
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
-      <c r="E45" s="248" t="s">
+      <c r="C45" s="248"/>
+      <c r="D45" s="248"/>
+      <c r="E45" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F45" s="248"/>
-      <c r="G45" s="248"/>
-      <c r="H45" s="249" t="s">
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="254" t="s">
         <v>575</v>
       </c>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="248" t="s">
+      <c r="I45" s="254"/>
+      <c r="J45" s="254"/>
+      <c r="K45" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L45" s="248"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="248" t="s">
+      <c r="L45" s="249"/>
+      <c r="M45" s="249"/>
+      <c r="N45" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O45" s="248"/>
-      <c r="P45" s="248"/>
-      <c r="Q45" s="248" t="s">
+      <c r="O45" s="249"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R45" s="248"/>
-      <c r="S45" s="248"/>
-      <c r="T45" s="253" t="s">
+      <c r="R45" s="249"/>
+      <c r="S45" s="249"/>
+      <c r="T45" s="256" t="s">
         <v>538</v>
       </c>
-      <c r="U45" s="253"/>
-      <c r="V45" s="253"/>
-      <c r="W45" s="253"/>
+      <c r="U45" s="256"/>
+      <c r="V45" s="256"/>
+      <c r="W45" s="256"/>
     </row>
     <row r="46" spans="1:23" ht="15.35">
       <c r="A46" s="180"/>
@@ -39472,7 +39472,7 @@
       <c r="S46" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T46" s="252" t="s">
+      <c r="T46" s="257" t="s">
         <v>542</v>
       </c>
       <c r="U46" s="196" t="s">
@@ -39517,7 +39517,7 @@
       <c r="Q47" s="165"/>
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
-      <c r="T47" s="252"/>
+      <c r="T47" s="257"/>
       <c r="U47" s="136" t="s">
         <v>548</v>
       </c>
@@ -39748,73 +39748,73 @@
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:23" ht="13.7">
-      <c r="B62" s="246" t="s">
+      <c r="B62" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C62" s="246"/>
-      <c r="D62" s="246"/>
-      <c r="E62" s="246"/>
-      <c r="F62" s="246"/>
-      <c r="G62" s="246"/>
-      <c r="H62" s="246"/>
-      <c r="I62" s="246"/>
-      <c r="J62" s="246"/>
-      <c r="K62" s="246" t="s">
+      <c r="C62" s="253"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="253"/>
+      <c r="G62" s="253"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="253"/>
+      <c r="J62" s="253"/>
+      <c r="K62" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L62" s="246"/>
-      <c r="M62" s="246"/>
-      <c r="N62" s="246"/>
-      <c r="O62" s="246"/>
-      <c r="P62" s="246"/>
-      <c r="Q62" s="246"/>
-      <c r="R62" s="246"/>
-      <c r="S62" s="246"/>
-      <c r="T62" s="246"/>
-      <c r="U62" s="246"/>
-      <c r="V62" s="246"/>
-      <c r="W62" s="246"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="253"/>
+      <c r="N62" s="253"/>
+      <c r="O62" s="253"/>
+      <c r="P62" s="253"/>
+      <c r="Q62" s="253"/>
+      <c r="R62" s="253"/>
+      <c r="S62" s="253"/>
+      <c r="T62" s="253"/>
+      <c r="U62" s="253"/>
+      <c r="V62" s="253"/>
+      <c r="W62" s="253"/>
     </row>
     <row r="63" spans="1:23" ht="12.85" customHeight="1">
       <c r="A63" s="145">
         <v>4</v>
       </c>
-      <c r="B63" s="247" t="s">
+      <c r="B63" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C63" s="247"/>
-      <c r="D63" s="247"/>
-      <c r="E63" s="248" t="s">
+      <c r="C63" s="248"/>
+      <c r="D63" s="248"/>
+      <c r="E63" s="249" t="s">
         <v>578</v>
       </c>
-      <c r="F63" s="248"/>
-      <c r="G63" s="248"/>
-      <c r="H63" s="249" t="s">
+      <c r="F63" s="249"/>
+      <c r="G63" s="249"/>
+      <c r="H63" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I63" s="249"/>
-      <c r="J63" s="249"/>
-      <c r="K63" s="248" t="s">
+      <c r="I63" s="254"/>
+      <c r="J63" s="254"/>
+      <c r="K63" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L63" s="248"/>
-      <c r="M63" s="248"/>
-      <c r="N63" s="248" t="s">
+      <c r="L63" s="249"/>
+      <c r="M63" s="249"/>
+      <c r="N63" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O63" s="248"/>
-      <c r="P63" s="248"/>
-      <c r="Q63" s="248" t="s">
+      <c r="O63" s="249"/>
+      <c r="P63" s="249"/>
+      <c r="Q63" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R63" s="248"/>
-      <c r="S63" s="248"/>
-      <c r="T63" s="250" t="s">
+      <c r="R63" s="249"/>
+      <c r="S63" s="249"/>
+      <c r="T63" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U63" s="250"/>
-      <c r="V63" s="250"/>
-      <c r="W63" s="250"/>
+      <c r="U63" s="255"/>
+      <c r="V63" s="255"/>
+      <c r="W63" s="255"/>
     </row>
     <row r="64" spans="1:23" ht="15.35">
       <c r="A64" s="180"/>
@@ -39872,7 +39872,7 @@
       <c r="S64" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T64" s="245" t="s">
+      <c r="T64" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U64" s="136" t="s">
@@ -39917,7 +39917,7 @@
       <c r="Q65" s="165"/>
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
-      <c r="T65" s="245"/>
+      <c r="T65" s="252"/>
       <c r="U65" s="136" t="s">
         <v>548</v>
       </c>
@@ -40181,73 +40181,73 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="13.7">
-      <c r="B85" s="246" t="s">
+      <c r="B85" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="246"/>
-      <c r="D85" s="246"/>
-      <c r="E85" s="246"/>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
-      <c r="H85" s="246"/>
-      <c r="I85" s="246"/>
-      <c r="J85" s="246"/>
-      <c r="K85" s="246" t="s">
+      <c r="C85" s="253"/>
+      <c r="D85" s="253"/>
+      <c r="E85" s="253"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
+      <c r="H85" s="253"/>
+      <c r="I85" s="253"/>
+      <c r="J85" s="253"/>
+      <c r="K85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L85" s="246"/>
-      <c r="M85" s="246"/>
-      <c r="N85" s="246"/>
-      <c r="O85" s="246"/>
-      <c r="P85" s="246"/>
-      <c r="Q85" s="246"/>
-      <c r="R85" s="246"/>
-      <c r="S85" s="246"/>
-      <c r="T85" s="246"/>
-      <c r="U85" s="246"/>
-      <c r="V85" s="246"/>
-      <c r="W85" s="246"/>
+      <c r="L85" s="253"/>
+      <c r="M85" s="253"/>
+      <c r="N85" s="253"/>
+      <c r="O85" s="253"/>
+      <c r="P85" s="253"/>
+      <c r="Q85" s="253"/>
+      <c r="R85" s="253"/>
+      <c r="S85" s="253"/>
+      <c r="T85" s="253"/>
+      <c r="U85" s="253"/>
+      <c r="V85" s="253"/>
+      <c r="W85" s="253"/>
     </row>
     <row r="86" spans="1:23" ht="12.85" customHeight="1">
       <c r="A86" s="145">
         <v>1</v>
       </c>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
-      <c r="H86" s="249" t="s">
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
+      <c r="H86" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I86" s="249"/>
-      <c r="J86" s="249"/>
-      <c r="K86" s="248" t="s">
+      <c r="I86" s="254"/>
+      <c r="J86" s="254"/>
+      <c r="K86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L86" s="248"/>
-      <c r="M86" s="248"/>
-      <c r="N86" s="248" t="s">
+      <c r="L86" s="249"/>
+      <c r="M86" s="249"/>
+      <c r="N86" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O86" s="248"/>
-      <c r="P86" s="248"/>
-      <c r="Q86" s="248" t="s">
+      <c r="O86" s="249"/>
+      <c r="P86" s="249"/>
+      <c r="Q86" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R86" s="248"/>
-      <c r="S86" s="248"/>
-      <c r="T86" s="250" t="s">
+      <c r="R86" s="249"/>
+      <c r="S86" s="249"/>
+      <c r="T86" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U86" s="250"/>
-      <c r="V86" s="250"/>
-      <c r="W86" s="250"/>
+      <c r="U86" s="255"/>
+      <c r="V86" s="255"/>
+      <c r="W86" s="255"/>
     </row>
     <row r="87" spans="1:23" ht="15.35">
       <c r="A87" s="180"/>
@@ -40305,7 +40305,7 @@
       <c r="S87" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T87" s="245" t="s">
+      <c r="T87" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U87" s="136" t="s">
@@ -40350,7 +40350,7 @@
       <c r="Q88" s="165"/>
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
-      <c r="T88" s="245"/>
+      <c r="T88" s="252"/>
       <c r="U88" s="136" t="s">
         <v>548</v>
       </c>
@@ -40612,73 +40612,73 @@
       <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:23" ht="13.7">
-      <c r="B107" s="246" t="s">
+      <c r="B107" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C107" s="246"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="246"/>
-      <c r="F107" s="246"/>
-      <c r="G107" s="246"/>
-      <c r="H107" s="246"/>
-      <c r="I107" s="246"/>
-      <c r="J107" s="246"/>
-      <c r="K107" s="246" t="s">
+      <c r="C107" s="253"/>
+      <c r="D107" s="253"/>
+      <c r="E107" s="253"/>
+      <c r="F107" s="253"/>
+      <c r="G107" s="253"/>
+      <c r="H107" s="253"/>
+      <c r="I107" s="253"/>
+      <c r="J107" s="253"/>
+      <c r="K107" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L107" s="246"/>
-      <c r="M107" s="246"/>
-      <c r="N107" s="246"/>
-      <c r="O107" s="246"/>
-      <c r="P107" s="246"/>
-      <c r="Q107" s="246"/>
-      <c r="R107" s="246"/>
-      <c r="S107" s="246"/>
-      <c r="T107" s="246"/>
-      <c r="U107" s="246"/>
-      <c r="V107" s="246"/>
-      <c r="W107" s="246"/>
+      <c r="L107" s="253"/>
+      <c r="M107" s="253"/>
+      <c r="N107" s="253"/>
+      <c r="O107" s="253"/>
+      <c r="P107" s="253"/>
+      <c r="Q107" s="253"/>
+      <c r="R107" s="253"/>
+      <c r="S107" s="253"/>
+      <c r="T107" s="253"/>
+      <c r="U107" s="253"/>
+      <c r="V107" s="253"/>
+      <c r="W107" s="253"/>
     </row>
     <row r="108" spans="1:23" ht="12.85" customHeight="1">
       <c r="A108" s="145">
         <v>2</v>
       </c>
-      <c r="B108" s="247" t="s">
+      <c r="B108" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C108" s="247"/>
-      <c r="D108" s="247"/>
-      <c r="E108" s="248" t="s">
+      <c r="C108" s="248"/>
+      <c r="D108" s="248"/>
+      <c r="E108" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F108" s="248"/>
-      <c r="G108" s="248"/>
-      <c r="H108" s="249" t="s">
+      <c r="F108" s="249"/>
+      <c r="G108" s="249"/>
+      <c r="H108" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I108" s="249"/>
-      <c r="J108" s="249"/>
-      <c r="K108" s="248" t="s">
+      <c r="I108" s="254"/>
+      <c r="J108" s="254"/>
+      <c r="K108" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L108" s="248"/>
-      <c r="M108" s="248"/>
-      <c r="N108" s="248" t="s">
+      <c r="L108" s="249"/>
+      <c r="M108" s="249"/>
+      <c r="N108" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O108" s="248"/>
-      <c r="P108" s="248"/>
-      <c r="Q108" s="248" t="s">
+      <c r="O108" s="249"/>
+      <c r="P108" s="249"/>
+      <c r="Q108" s="249" t="s">
         <v>580</v>
       </c>
-      <c r="R108" s="248"/>
-      <c r="S108" s="248"/>
-      <c r="T108" s="250" t="s">
+      <c r="R108" s="249"/>
+      <c r="S108" s="249"/>
+      <c r="T108" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U108" s="250"/>
-      <c r="V108" s="250"/>
-      <c r="W108" s="250"/>
+      <c r="U108" s="255"/>
+      <c r="V108" s="255"/>
+      <c r="W108" s="255"/>
     </row>
     <row r="109" spans="1:23" ht="15.35">
       <c r="A109" s="180"/>
@@ -40736,7 +40736,7 @@
       <c r="S109" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T109" s="245" t="s">
+      <c r="T109" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U109" s="136" t="s">
@@ -40781,7 +40781,7 @@
       <c r="Q110" s="165"/>
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
-      <c r="T110" s="245"/>
+      <c r="T110" s="252"/>
       <c r="U110" s="136" t="s">
         <v>548</v>
       </c>
@@ -40994,73 +40994,73 @@
       </c>
     </row>
     <row r="128" spans="1:23" ht="13.7">
-      <c r="B128" s="246" t="s">
+      <c r="B128" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C128" s="246"/>
-      <c r="D128" s="246"/>
-      <c r="E128" s="246"/>
-      <c r="F128" s="246"/>
-      <c r="G128" s="246"/>
-      <c r="H128" s="246"/>
-      <c r="I128" s="246"/>
-      <c r="J128" s="246"/>
-      <c r="K128" s="246" t="s">
+      <c r="C128" s="253"/>
+      <c r="D128" s="253"/>
+      <c r="E128" s="253"/>
+      <c r="F128" s="253"/>
+      <c r="G128" s="253"/>
+      <c r="H128" s="253"/>
+      <c r="I128" s="253"/>
+      <c r="J128" s="253"/>
+      <c r="K128" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L128" s="246"/>
-      <c r="M128" s="246"/>
-      <c r="N128" s="246"/>
-      <c r="O128" s="246"/>
-      <c r="P128" s="246"/>
-      <c r="Q128" s="246"/>
-      <c r="R128" s="246"/>
-      <c r="S128" s="246"/>
-      <c r="T128" s="246"/>
-      <c r="U128" s="246"/>
-      <c r="V128" s="246"/>
-      <c r="W128" s="246"/>
+      <c r="L128" s="253"/>
+      <c r="M128" s="253"/>
+      <c r="N128" s="253"/>
+      <c r="O128" s="253"/>
+      <c r="P128" s="253"/>
+      <c r="Q128" s="253"/>
+      <c r="R128" s="253"/>
+      <c r="S128" s="253"/>
+      <c r="T128" s="253"/>
+      <c r="U128" s="253"/>
+      <c r="V128" s="253"/>
+      <c r="W128" s="253"/>
     </row>
     <row r="129" spans="1:23" ht="12.85" customHeight="1">
       <c r="A129" s="145">
         <v>3</v>
       </c>
-      <c r="B129" s="247" t="s">
+      <c r="B129" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C129" s="247"/>
-      <c r="D129" s="247"/>
-      <c r="E129" s="248" t="s">
+      <c r="C129" s="248"/>
+      <c r="D129" s="248"/>
+      <c r="E129" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F129" s="248"/>
-      <c r="G129" s="248"/>
-      <c r="H129" s="249" t="s">
+      <c r="F129" s="249"/>
+      <c r="G129" s="249"/>
+      <c r="H129" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I129" s="249"/>
-      <c r="J129" s="249"/>
-      <c r="K129" s="248" t="s">
+      <c r="I129" s="254"/>
+      <c r="J129" s="254"/>
+      <c r="K129" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L129" s="248"/>
-      <c r="M129" s="248"/>
-      <c r="N129" s="248" t="s">
+      <c r="L129" s="249"/>
+      <c r="M129" s="249"/>
+      <c r="N129" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O129" s="248"/>
-      <c r="P129" s="248"/>
-      <c r="Q129" s="248" t="s">
+      <c r="O129" s="249"/>
+      <c r="P129" s="249"/>
+      <c r="Q129" s="249" t="s">
         <v>537</v>
       </c>
-      <c r="R129" s="248"/>
-      <c r="S129" s="248"/>
-      <c r="T129" s="250" t="s">
+      <c r="R129" s="249"/>
+      <c r="S129" s="249"/>
+      <c r="T129" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U129" s="250"/>
-      <c r="V129" s="250"/>
-      <c r="W129" s="250"/>
+      <c r="U129" s="255"/>
+      <c r="V129" s="255"/>
+      <c r="W129" s="255"/>
     </row>
     <row r="130" spans="1:23" ht="15.35">
       <c r="A130" s="180"/>
@@ -41118,7 +41118,7 @@
       <c r="S130" s="179" t="s">
         <v>541</v>
       </c>
-      <c r="T130" s="245" t="s">
+      <c r="T130" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U130" s="136" t="s">
@@ -41163,7 +41163,7 @@
       <c r="Q131" s="165"/>
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
-      <c r="T131" s="245"/>
+      <c r="T131" s="252"/>
       <c r="U131" s="136" t="s">
         <v>548</v>
       </c>
@@ -41362,73 +41362,73 @@
       </c>
     </row>
     <row r="142" spans="1:23" ht="13.7">
-      <c r="B142" s="246" t="s">
+      <c r="B142" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C142" s="246"/>
-      <c r="D142" s="246"/>
-      <c r="E142" s="246"/>
-      <c r="F142" s="246"/>
-      <c r="G142" s="246"/>
-      <c r="H142" s="246"/>
-      <c r="I142" s="246"/>
-      <c r="J142" s="246"/>
-      <c r="K142" s="246" t="s">
+      <c r="C142" s="253"/>
+      <c r="D142" s="253"/>
+      <c r="E142" s="253"/>
+      <c r="F142" s="253"/>
+      <c r="G142" s="253"/>
+      <c r="H142" s="253"/>
+      <c r="I142" s="253"/>
+      <c r="J142" s="253"/>
+      <c r="K142" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L142" s="246"/>
-      <c r="M142" s="246"/>
-      <c r="N142" s="246"/>
-      <c r="O142" s="246"/>
-      <c r="P142" s="246"/>
-      <c r="Q142" s="246"/>
-      <c r="R142" s="246"/>
-      <c r="S142" s="246"/>
-      <c r="T142" s="246"/>
-      <c r="U142" s="246"/>
-      <c r="V142" s="246"/>
-      <c r="W142" s="246"/>
+      <c r="L142" s="253"/>
+      <c r="M142" s="253"/>
+      <c r="N142" s="253"/>
+      <c r="O142" s="253"/>
+      <c r="P142" s="253"/>
+      <c r="Q142" s="253"/>
+      <c r="R142" s="253"/>
+      <c r="S142" s="253"/>
+      <c r="T142" s="253"/>
+      <c r="U142" s="253"/>
+      <c r="V142" s="253"/>
+      <c r="W142" s="253"/>
     </row>
     <row r="143" spans="1:23" ht="12.85" customHeight="1">
       <c r="A143" s="145">
         <v>4</v>
       </c>
-      <c r="B143" s="247" t="s">
+      <c r="B143" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C143" s="247"/>
-      <c r="D143" s="247"/>
-      <c r="E143" s="248" t="s">
+      <c r="C143" s="248"/>
+      <c r="D143" s="248"/>
+      <c r="E143" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F143" s="248"/>
-      <c r="G143" s="248"/>
-      <c r="H143" s="249" t="s">
+      <c r="F143" s="249"/>
+      <c r="G143" s="249"/>
+      <c r="H143" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I143" s="249"/>
-      <c r="J143" s="249"/>
-      <c r="K143" s="248" t="s">
+      <c r="I143" s="254"/>
+      <c r="J143" s="254"/>
+      <c r="K143" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L143" s="248"/>
-      <c r="M143" s="248"/>
-      <c r="N143" s="248" t="s">
+      <c r="L143" s="249"/>
+      <c r="M143" s="249"/>
+      <c r="N143" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O143" s="248"/>
-      <c r="P143" s="248"/>
-      <c r="Q143" s="248" t="s">
+      <c r="O143" s="249"/>
+      <c r="P143" s="249"/>
+      <c r="Q143" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R143" s="248"/>
-      <c r="S143" s="248"/>
-      <c r="T143" s="250" t="s">
+      <c r="R143" s="249"/>
+      <c r="S143" s="249"/>
+      <c r="T143" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U143" s="250"/>
-      <c r="V143" s="250"/>
-      <c r="W143" s="250"/>
+      <c r="U143" s="255"/>
+      <c r="V143" s="255"/>
+      <c r="W143" s="255"/>
     </row>
     <row r="144" spans="1:23" ht="15.35">
       <c r="A144" s="180"/>
@@ -41486,7 +41486,7 @@
       <c r="S144" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T144" s="245" t="s">
+      <c r="T144" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U144" s="136" t="s">
@@ -41531,7 +41531,7 @@
       <c r="Q145" s="165"/>
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
-      <c r="T145" s="245"/>
+      <c r="T145" s="252"/>
       <c r="U145" s="136" t="s">
         <v>548</v>
       </c>
@@ -41722,73 +41722,73 @@
       </c>
     </row>
     <row r="157" spans="1:23" ht="13.7">
-      <c r="B157" s="251" t="s">
+      <c r="B157" s="247" t="s">
         <v>530</v>
       </c>
-      <c r="C157" s="251"/>
-      <c r="D157" s="251"/>
-      <c r="E157" s="251"/>
-      <c r="F157" s="251"/>
-      <c r="G157" s="251"/>
-      <c r="H157" s="251"/>
-      <c r="I157" s="251"/>
-      <c r="J157" s="251"/>
-      <c r="K157" s="251" t="s">
+      <c r="C157" s="247"/>
+      <c r="D157" s="247"/>
+      <c r="E157" s="247"/>
+      <c r="F157" s="247"/>
+      <c r="G157" s="247"/>
+      <c r="H157" s="247"/>
+      <c r="I157" s="247"/>
+      <c r="J157" s="247"/>
+      <c r="K157" s="247" t="s">
         <v>531</v>
       </c>
-      <c r="L157" s="251"/>
-      <c r="M157" s="251"/>
-      <c r="N157" s="251"/>
-      <c r="O157" s="251"/>
-      <c r="P157" s="251"/>
-      <c r="Q157" s="251"/>
-      <c r="R157" s="251"/>
-      <c r="S157" s="251"/>
-      <c r="T157" s="251"/>
-      <c r="U157" s="251"/>
-      <c r="V157" s="251"/>
-      <c r="W157" s="251"/>
+      <c r="L157" s="247"/>
+      <c r="M157" s="247"/>
+      <c r="N157" s="247"/>
+      <c r="O157" s="247"/>
+      <c r="P157" s="247"/>
+      <c r="Q157" s="247"/>
+      <c r="R157" s="247"/>
+      <c r="S157" s="247"/>
+      <c r="T157" s="247"/>
+      <c r="U157" s="247"/>
+      <c r="V157" s="247"/>
+      <c r="W157" s="247"/>
     </row>
     <row r="158" spans="1:23" ht="12.85" customHeight="1">
       <c r="A158" s="145">
         <v>1</v>
       </c>
-      <c r="B158" s="247" t="s">
+      <c r="B158" s="248" t="s">
         <v>603</v>
       </c>
-      <c r="C158" s="247"/>
-      <c r="D158" s="247"/>
-      <c r="E158" s="248" t="s">
+      <c r="C158" s="248"/>
+      <c r="D158" s="248"/>
+      <c r="E158" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="248"/>
-      <c r="G158" s="248"/>
-      <c r="H158" s="249" t="s">
+      <c r="F158" s="249"/>
+      <c r="G158" s="249"/>
+      <c r="H158" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I158" s="249"/>
-      <c r="J158" s="249"/>
-      <c r="K158" s="248" t="s">
+      <c r="I158" s="254"/>
+      <c r="J158" s="254"/>
+      <c r="K158" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L158" s="248"/>
-      <c r="M158" s="248"/>
-      <c r="N158" s="248" t="s">
+      <c r="L158" s="249"/>
+      <c r="M158" s="249"/>
+      <c r="N158" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O158" s="248"/>
-      <c r="P158" s="248"/>
-      <c r="Q158" s="248" t="s">
+      <c r="O158" s="249"/>
+      <c r="P158" s="249"/>
+      <c r="Q158" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R158" s="248"/>
-      <c r="S158" s="248"/>
-      <c r="T158" s="250" t="s">
+      <c r="R158" s="249"/>
+      <c r="S158" s="249"/>
+      <c r="T158" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U158" s="250"/>
-      <c r="V158" s="250"/>
-      <c r="W158" s="250"/>
+      <c r="U158" s="255"/>
+      <c r="V158" s="255"/>
+      <c r="W158" s="255"/>
     </row>
     <row r="159" spans="1:23" ht="15.35">
       <c r="A159" s="180"/>
@@ -41846,7 +41846,7 @@
       <c r="S159" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T159" s="245" t="s">
+      <c r="T159" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U159" s="136" t="s">
@@ -41891,7 +41891,7 @@
       <c r="Q160" s="169"/>
       <c r="R160" s="169"/>
       <c r="S160" s="169"/>
-      <c r="T160" s="245"/>
+      <c r="T160" s="252"/>
       <c r="U160" s="136"/>
       <c r="V160" s="158"/>
       <c r="W160" s="158"/>
@@ -41928,7 +41928,7 @@
       <c r="Q161" s="165"/>
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
-      <c r="T161" s="245"/>
+      <c r="T161" s="252"/>
       <c r="U161" s="136" t="s">
         <v>548</v>
       </c>
@@ -42129,71 +42129,71 @@
     </row>
     <row r="172" spans="1:23" ht="15.35">
       <c r="A172" s="181"/>
-      <c r="B172" s="246" t="s">
+      <c r="B172" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C172" s="246"/>
-      <c r="D172" s="246"/>
-      <c r="E172" s="246"/>
-      <c r="F172" s="246"/>
-      <c r="G172" s="246"/>
-      <c r="H172" s="246"/>
-      <c r="I172" s="246"/>
-      <c r="J172" s="246"/>
-      <c r="K172" s="246" t="s">
+      <c r="C172" s="253"/>
+      <c r="D172" s="253"/>
+      <c r="E172" s="253"/>
+      <c r="F172" s="253"/>
+      <c r="G172" s="253"/>
+      <c r="H172" s="253"/>
+      <c r="I172" s="253"/>
+      <c r="J172" s="253"/>
+      <c r="K172" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="L172" s="246"/>
-      <c r="M172" s="246"/>
-      <c r="N172" s="246"/>
-      <c r="O172" s="246"/>
-      <c r="P172" s="246"/>
-      <c r="Q172" s="246"/>
-      <c r="R172" s="246"/>
-      <c r="S172" s="246"/>
-      <c r="T172" s="246"/>
-      <c r="U172" s="246"/>
-      <c r="V172" s="246"/>
-      <c r="W172" s="246"/>
+      <c r="L172" s="253"/>
+      <c r="M172" s="253"/>
+      <c r="N172" s="253"/>
+      <c r="O172" s="253"/>
+      <c r="P172" s="253"/>
+      <c r="Q172" s="253"/>
+      <c r="R172" s="253"/>
+      <c r="S172" s="253"/>
+      <c r="T172" s="253"/>
+      <c r="U172" s="253"/>
+      <c r="V172" s="253"/>
+      <c r="W172" s="253"/>
     </row>
     <row r="173" spans="1:23" ht="12.85" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="247" t="s">
+      <c r="B173" s="248" t="s">
         <v>617</v>
       </c>
-      <c r="C173" s="247"/>
-      <c r="D173" s="247"/>
-      <c r="E173" s="248" t="s">
+      <c r="C173" s="248"/>
+      <c r="D173" s="248"/>
+      <c r="E173" s="249" t="s">
         <v>533</v>
       </c>
-      <c r="F173" s="248"/>
-      <c r="G173" s="248"/>
-      <c r="H173" s="249" t="s">
+      <c r="F173" s="249"/>
+      <c r="G173" s="249"/>
+      <c r="H173" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="I173" s="249"/>
-      <c r="J173" s="249"/>
-      <c r="K173" s="248" t="s">
+      <c r="I173" s="254"/>
+      <c r="J173" s="254"/>
+      <c r="K173" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="L173" s="248"/>
-      <c r="M173" s="248"/>
-      <c r="N173" s="248" t="s">
+      <c r="L173" s="249"/>
+      <c r="M173" s="249"/>
+      <c r="N173" s="249" t="s">
         <v>536</v>
       </c>
-      <c r="O173" s="248"/>
-      <c r="P173" s="248"/>
-      <c r="Q173" s="248" t="s">
+      <c r="O173" s="249"/>
+      <c r="P173" s="249"/>
+      <c r="Q173" s="249" t="s">
         <v>576</v>
       </c>
-      <c r="R173" s="248"/>
-      <c r="S173" s="248"/>
-      <c r="T173" s="250" t="s">
+      <c r="R173" s="249"/>
+      <c r="S173" s="249"/>
+      <c r="T173" s="255" t="s">
         <v>538</v>
       </c>
-      <c r="U173" s="250"/>
-      <c r="V173" s="250"/>
-      <c r="W173" s="250"/>
+      <c r="U173" s="255"/>
+      <c r="V173" s="255"/>
+      <c r="W173" s="255"/>
     </row>
     <row r="174" spans="1:23" ht="15.35">
       <c r="A174" s="181"/>
@@ -42251,7 +42251,7 @@
       <c r="S174" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="T174" s="245" t="s">
+      <c r="T174" s="252" t="s">
         <v>542</v>
       </c>
       <c r="U174" s="136" t="s">
@@ -42296,7 +42296,7 @@
       <c r="Q175" s="165"/>
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
-      <c r="T175" s="245"/>
+      <c r="T175" s="252"/>
       <c r="U175" s="136" t="s">
         <v>548</v>
       </c>
@@ -44442,96 +44442,6 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:W3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="K44:W44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="K62:W62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="T64:T65"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="K85:W85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:P86"/>
-    <mergeCell ref="Q86:S86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="B107:J107"/>
-    <mergeCell ref="K107:W107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="Q108:S108"/>
-    <mergeCell ref="T108:W108"/>
-    <mergeCell ref="T109:T110"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="K128:W128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="Q129:S129"/>
-    <mergeCell ref="T129:W129"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="B142:J142"/>
-    <mergeCell ref="K142:W142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:W143"/>
-    <mergeCell ref="T144:T145"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="K157:W157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:W158"/>
     <mergeCell ref="T174:T175"/>
     <mergeCell ref="T159:T161"/>
     <mergeCell ref="B172:J172"/>
@@ -44543,6 +44453,96 @@
     <mergeCell ref="N173:P173"/>
     <mergeCell ref="Q173:S173"/>
     <mergeCell ref="T173:W173"/>
+    <mergeCell ref="T144:T145"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="K157:W157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:W158"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="B142:J142"/>
+    <mergeCell ref="K142:W142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:W143"/>
+    <mergeCell ref="T109:T110"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:W128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="Q129:S129"/>
+    <mergeCell ref="T129:W129"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="K107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="Q108:S108"/>
+    <mergeCell ref="T108:W108"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="K85:W85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:P86"/>
+    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="K62:W62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:W44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:W3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -44594,24 +44594,24 @@
       </c>
       <c r="C3" s="258"/>
       <c r="D3" s="258"/>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
     </row>
     <row r="4" spans="1:7" ht="12.85" customHeight="1">
       <c r="A4" s="137"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="s">
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7" ht="15.35">
       <c r="A5" s="137"/>
@@ -44753,24 +44753,24 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="246" t="s">
+      <c r="E15" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
     </row>
     <row r="16" spans="1:7" ht="12.85" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="247" t="s">
+      <c r="B16" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="248" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
     </row>
     <row r="17" spans="1:7" ht="15.35">
       <c r="A17" s="137"/>
@@ -44939,24 +44939,24 @@
       </c>
       <c r="C27" s="258"/>
       <c r="D27" s="258"/>
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
     </row>
     <row r="28" spans="1:7" ht="12.85" customHeight="1">
       <c r="A28" s="137"/>
-      <c r="B28" s="247" t="s">
+      <c r="B28" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
-      <c r="E28" s="248" t="s">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
     </row>
     <row r="29" spans="1:7" ht="15.35">
       <c r="A29" s="137"/>
@@ -45098,24 +45098,24 @@
       </c>
       <c r="C39" s="258"/>
       <c r="D39" s="258"/>
-      <c r="E39" s="246" t="s">
+      <c r="E39" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F39" s="246"/>
-      <c r="G39" s="246"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="253"/>
     </row>
     <row r="40" spans="1:7" ht="12.85" customHeight="1">
       <c r="A40" s="137"/>
-      <c r="B40" s="247" t="s">
+      <c r="B40" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="247"/>
-      <c r="D40" s="247"/>
-      <c r="E40" s="248" t="s">
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F40" s="248"/>
-      <c r="G40" s="248"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
     </row>
     <row r="41" spans="1:7" ht="15.35">
       <c r="A41" s="137"/>
@@ -45350,24 +45350,24 @@
       </c>
       <c r="C57" s="258"/>
       <c r="D57" s="258"/>
-      <c r="E57" s="246" t="s">
+      <c r="E57" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F57" s="246"/>
-      <c r="G57" s="246"/>
+      <c r="F57" s="253"/>
+      <c r="G57" s="253"/>
     </row>
     <row r="58" spans="1:7" ht="12.85" customHeight="1">
       <c r="A58" s="137"/>
-      <c r="B58" s="247" t="s">
+      <c r="B58" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C58" s="247"/>
-      <c r="D58" s="247"/>
-      <c r="E58" s="248" t="s">
+      <c r="C58" s="248"/>
+      <c r="D58" s="248"/>
+      <c r="E58" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F58" s="248"/>
-      <c r="G58" s="248"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="249"/>
     </row>
     <row r="59" spans="1:7" ht="15.35">
       <c r="A59" s="137"/>
@@ -45545,24 +45545,24 @@
       </c>
       <c r="C72" s="258"/>
       <c r="D72" s="258"/>
-      <c r="E72" s="246" t="s">
+      <c r="E72" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F72" s="246"/>
-      <c r="G72" s="246"/>
+      <c r="F72" s="253"/>
+      <c r="G72" s="253"/>
     </row>
     <row r="73" spans="1:7" ht="12.85" customHeight="1">
       <c r="A73" s="137"/>
-      <c r="B73" s="247" t="s">
+      <c r="B73" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C73" s="247"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="248" t="s">
+      <c r="C73" s="248"/>
+      <c r="D73" s="248"/>
+      <c r="E73" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F73" s="248"/>
-      <c r="G73" s="248"/>
+      <c r="F73" s="249"/>
+      <c r="G73" s="249"/>
     </row>
     <row r="74" spans="1:7" ht="15.35">
       <c r="A74" s="137"/>
@@ -45709,24 +45709,24 @@
       </c>
       <c r="C85" s="258"/>
       <c r="D85" s="258"/>
-      <c r="E85" s="246" t="s">
+      <c r="E85" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F85" s="246"/>
-      <c r="G85" s="246"/>
+      <c r="F85" s="253"/>
+      <c r="G85" s="253"/>
     </row>
     <row r="86" spans="1:7" ht="12.85" customHeight="1">
       <c r="A86" s="137"/>
-      <c r="B86" s="247" t="s">
+      <c r="B86" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="247"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="248" t="s">
+      <c r="C86" s="248"/>
+      <c r="D86" s="248"/>
+      <c r="E86" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F86" s="248"/>
-      <c r="G86" s="248"/>
+      <c r="F86" s="249"/>
+      <c r="G86" s="249"/>
     </row>
     <row r="87" spans="1:7" ht="15.35">
       <c r="A87" s="137"/>
@@ -45873,24 +45873,24 @@
       </c>
       <c r="C98" s="258"/>
       <c r="D98" s="258"/>
-      <c r="E98" s="246" t="s">
+      <c r="E98" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F98" s="246"/>
-      <c r="G98" s="246"/>
+      <c r="F98" s="253"/>
+      <c r="G98" s="253"/>
     </row>
     <row r="99" spans="1:7" ht="12.85" customHeight="1">
       <c r="A99" s="137"/>
-      <c r="B99" s="247" t="s">
+      <c r="B99" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C99" s="247"/>
-      <c r="D99" s="247"/>
-      <c r="E99" s="248" t="s">
+      <c r="C99" s="248"/>
+      <c r="D99" s="248"/>
+      <c r="E99" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F99" s="248"/>
-      <c r="G99" s="248"/>
+      <c r="F99" s="249"/>
+      <c r="G99" s="249"/>
     </row>
     <row r="100" spans="1:7" ht="15.35">
       <c r="A100" s="137"/>
@@ -46085,24 +46085,24 @@
       </c>
       <c r="C115" s="258"/>
       <c r="D115" s="258"/>
-      <c r="E115" s="246" t="s">
+      <c r="E115" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F115" s="246"/>
-      <c r="G115" s="246"/>
+      <c r="F115" s="253"/>
+      <c r="G115" s="253"/>
     </row>
     <row r="116" spans="1:7" ht="12.85" customHeight="1">
       <c r="A116" s="137"/>
-      <c r="B116" s="247" t="s">
+      <c r="B116" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C116" s="247"/>
-      <c r="D116" s="247"/>
-      <c r="E116" s="248" t="s">
+      <c r="C116" s="248"/>
+      <c r="D116" s="248"/>
+      <c r="E116" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F116" s="248"/>
-      <c r="G116" s="248"/>
+      <c r="F116" s="249"/>
+      <c r="G116" s="249"/>
     </row>
     <row r="117" spans="1:7" ht="15.35">
       <c r="A117" s="137"/>
@@ -46297,24 +46297,24 @@
       </c>
       <c r="C132" s="258"/>
       <c r="D132" s="258"/>
-      <c r="E132" s="246" t="s">
+      <c r="E132" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F132" s="246"/>
-      <c r="G132" s="246"/>
+      <c r="F132" s="253"/>
+      <c r="G132" s="253"/>
     </row>
     <row r="133" spans="1:7" ht="12.85" customHeight="1">
       <c r="A133" s="137"/>
-      <c r="B133" s="247" t="s">
+      <c r="B133" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C133" s="247"/>
-      <c r="D133" s="247"/>
-      <c r="E133" s="248" t="s">
+      <c r="C133" s="248"/>
+      <c r="D133" s="248"/>
+      <c r="E133" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F133" s="248"/>
-      <c r="G133" s="248"/>
+      <c r="F133" s="249"/>
+      <c r="G133" s="249"/>
     </row>
     <row r="134" spans="1:7" ht="15.35">
       <c r="A134" s="137"/>
@@ -46509,24 +46509,24 @@
       </c>
       <c r="C149" s="258"/>
       <c r="D149" s="258"/>
-      <c r="E149" s="246" t="s">
+      <c r="E149" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F149" s="246"/>
-      <c r="G149" s="246"/>
+      <c r="F149" s="253"/>
+      <c r="G149" s="253"/>
     </row>
     <row r="150" spans="1:7" ht="12.85" customHeight="1">
       <c r="A150" s="137"/>
-      <c r="B150" s="247" t="s">
+      <c r="B150" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="247"/>
-      <c r="D150" s="247"/>
-      <c r="E150" s="248" t="s">
+      <c r="C150" s="248"/>
+      <c r="D150" s="248"/>
+      <c r="E150" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="248"/>
-      <c r="G150" s="248"/>
+      <c r="F150" s="249"/>
+      <c r="G150" s="249"/>
     </row>
     <row r="151" spans="1:7" ht="15.35">
       <c r="A151" s="137"/>
@@ -46721,24 +46721,24 @@
       </c>
       <c r="C166" s="258"/>
       <c r="D166" s="258"/>
-      <c r="E166" s="246" t="s">
+      <c r="E166" s="253" t="s">
         <v>531</v>
       </c>
-      <c r="F166" s="246"/>
-      <c r="G166" s="246"/>
+      <c r="F166" s="253"/>
+      <c r="G166" s="253"/>
     </row>
     <row r="167" spans="1:7" ht="12.85" customHeight="1">
       <c r="A167" s="137"/>
-      <c r="B167" s="247" t="s">
+      <c r="B167" s="248" t="s">
         <v>532</v>
       </c>
-      <c r="C167" s="247"/>
-      <c r="D167" s="247"/>
-      <c r="E167" s="248" t="s">
+      <c r="C167" s="248"/>
+      <c r="D167" s="248"/>
+      <c r="E167" s="249" t="s">
         <v>535</v>
       </c>
-      <c r="F167" s="248"/>
-      <c r="G167" s="248"/>
+      <c r="F167" s="249"/>
+      <c r="G167" s="249"/>
     </row>
     <row r="168" spans="1:7" ht="15.35">
       <c r="A168" s="137"/>
@@ -46915,54 +46915,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="E167:G167"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
